--- a/config/default/forms/app/pregnancy_danger_sign_follow_up.xlsx
+++ b/config/default/forms/app/pregnancy_danger_sign_follow_up.xlsx
@@ -81,126 +81,126 @@
     <t>constraint_message::en</t>
   </si>
   <si>
+    <t>constraint_message::hi</t>
+  </si>
+  <si>
+    <t>constraint_message::id</t>
+  </si>
+  <si>
+    <t>constraint_message::sw</t>
+  </si>
+  <si>
+    <t>constraint_message::ne</t>
+  </si>
+  <si>
+    <t>constraint_message::es</t>
+  </si>
+  <si>
+    <t>constraint_message::fr</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
+    <t>hint::en</t>
+  </si>
+  <si>
+    <t>hint::hi</t>
+  </si>
+  <si>
+    <t>hint::id</t>
+  </si>
+  <si>
+    <t>hint::sw</t>
+  </si>
+  <si>
+    <t>hint::ne</t>
+  </si>
+  <si>
+    <t>hint::es</t>
+  </si>
+  <si>
+    <t>hint::fr</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>media::image</t>
+  </si>
+  <si>
+    <t>instance::tag</t>
+  </si>
+  <si>
+    <t>repeat_count</t>
+  </si>
+  <si>
+    <t>cht::notes</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>inputs</t>
+  </si>
+  <si>
+    <t>NO_LABEL</t>
+  </si>
+  <si>
+    <t>./source = 'user'</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Source ID</t>
+  </si>
+  <si>
     <t>form_id</t>
   </si>
   <si>
-    <t>constraint_message::hi</t>
-  </si>
-  <si>
-    <t>constraint_message::id</t>
-  </si>
-  <si>
     <t>version</t>
   </si>
   <si>
-    <t>constraint_message::sw</t>
-  </si>
-  <si>
-    <t>constraint_message::ne</t>
-  </si>
-  <si>
     <t>style</t>
   </si>
   <si>
-    <t>constraint_message::es</t>
-  </si>
-  <si>
     <t>path</t>
   </si>
   <si>
-    <t>constraint_message::fr</t>
-  </si>
-  <si>
     <t>instance_name</t>
   </si>
   <si>
-    <t>calculation</t>
-  </si>
-  <si>
-    <t>choice_filter</t>
-  </si>
-  <si>
     <t>default_language</t>
   </si>
   <si>
-    <t>hint::en</t>
-  </si>
-  <si>
-    <t>hint::hi</t>
-  </si>
-  <si>
-    <t>hint::id</t>
-  </si>
-  <si>
-    <t>hint::sw</t>
-  </si>
-  <si>
-    <t>hint::ne</t>
-  </si>
-  <si>
-    <t>hint::es</t>
-  </si>
-  <si>
-    <t>hint::fr</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>media::image</t>
-  </si>
-  <si>
-    <t>instance::tag</t>
-  </si>
-  <si>
-    <t>repeat_count</t>
-  </si>
-  <si>
-    <t>cht::notes</t>
-  </si>
-  <si>
-    <t>begin group</t>
-  </si>
-  <si>
-    <t>inputs</t>
-  </si>
-  <si>
-    <t>NO_LABEL</t>
-  </si>
-  <si>
-    <t>./source = 'user'</t>
-  </si>
-  <si>
-    <t>field-list</t>
-  </si>
-  <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>yes_no</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>source_id</t>
-  </si>
-  <si>
-    <t>Source ID</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>contact</t>
   </si>
   <si>
@@ -225,19 +225,46 @@
     <t>Name</t>
   </si>
   <si>
+    <t>short_name</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>Patient ID</t>
+  </si>
+  <si>
+    <t>pages</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>pages</t>
-  </si>
-  <si>
-    <t>short_name</t>
-  </si>
-  <si>
-    <t>Short Name</t>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>Parent ID</t>
+  </si>
+  <si>
+    <t>translate_woman_label</t>
   </si>
   <si>
     <t>data</t>
@@ -246,36 +273,12 @@
     <t>en</t>
   </si>
   <si>
-    <t>patient_id</t>
-  </si>
-  <si>
-    <t>Patient ID</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>translate_woman_label</t>
-  </si>
-  <si>
     <t>woman</t>
   </si>
   <si>
     <t>the woman</t>
   </si>
   <si>
-    <t>parent</t>
-  </si>
-  <si>
     <t>translate_woman_start_label</t>
   </si>
   <si>
@@ -285,9 +288,6 @@
     <t>The woman</t>
   </si>
   <si>
-    <t>Parent ID</t>
-  </si>
-  <si>
     <t>chw_name</t>
   </si>
   <si>
@@ -327,28 +327,91 @@
     <t>../inputs/contact/name</t>
   </si>
   <si>
+    <t>patient_short_name</t>
+  </si>
+  <si>
+    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_label)</t>
+  </si>
+  <si>
+    <t>patient_short_name_start</t>
+  </si>
+  <si>
+    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_start_label)</t>
+  </si>
+  <si>
+    <t>t_danger_signs_referral_follow_up_date</t>
+  </si>
+  <si>
+    <t>date-time(floor(decimal-date-time(today())) + 3)</t>
+  </si>
+  <si>
+    <t>t_danger_signs_referral_follow_up</t>
+  </si>
+  <si>
+    <t>../danger_signs/r_danger_sign_present</t>
+  </si>
+  <si>
+    <t>pregnancy_uuid_ctx</t>
+  </si>
+  <si>
+    <t>if(instance('contact-summary')/context/pregnancy_uuid != '', instance('contact-summary')/context/pregnancy_uuid, .)</t>
+  </si>
+  <si>
+    <t>danger_signs</t>
+  </si>
+  <si>
+    <t>Danger Sign Follow-up</t>
+  </si>
+  <si>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
+    <t>visit_confirm</t>
+  </si>
+  <si>
+    <t>Did ${patient_short_name} visit the health facility as recommended?</t>
+  </si>
+  <si>
+    <t>danger_sign_present</t>
+  </si>
+  <si>
+    <t>Is she still experiencing any danger signs?</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>congratulate_no_ds_note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great news! Please closely monitor her until her next scheduled ANC check-up at the health facility. </t>
+  </si>
+  <si>
     <t>lmp_approximations</t>
   </si>
   <si>
     <t>upto_2_months_ago</t>
   </si>
   <si>
+    <t>../danger_sign_present = 'no'</t>
+  </si>
+  <si>
     <t>Upto 2 Months Ago</t>
   </si>
   <si>
-    <t>patient_short_name</t>
-  </si>
-  <si>
     <t>upto_3_months_ago</t>
   </si>
   <si>
     <t>Upto 3 Months Ago</t>
   </si>
   <si>
-    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_label)</t>
-  </si>
-  <si>
-    <t>patient_short_name_start</t>
+    <t>refer_patient_note_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The mother should visit the health facility immediately if she is experiencing any of these danger signs. </t>
+  </si>
+  <si>
+    <t>../danger_sign_present = 'yes'</t>
   </si>
   <si>
     <t>upto_4_months_ago</t>
@@ -363,22 +426,22 @@
     <t>Between 5 And 6 Months Ago</t>
   </si>
   <si>
-    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_start_label)</t>
+    <t>refer_patient_note_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please advise her to do so and accompany her if possible. </t>
   </si>
   <si>
     <t>between_7_and_8_months_ago</t>
   </si>
   <si>
-    <t>t_danger_signs_referral_follow_up_date</t>
-  </si>
-  <si>
     <t>Between 7 And 8 Months Ago</t>
   </si>
   <si>
-    <t>date-time(floor(decimal-date-time(today())) + 3)</t>
-  </si>
-  <si>
-    <t>t_danger_signs_referral_follow_up</t>
+    <t>danger_signs_question_note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please indicate which danger signs ${patient_short_name} is experiencing. </t>
   </si>
   <si>
     <t>trimester1_choices</t>
@@ -390,16 +453,16 @@
     <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
   </si>
   <si>
-    <t>../danger_signs/r_danger_sign_present</t>
-  </si>
-  <si>
     <t>take_iron_and_folic_acid</t>
   </si>
   <si>
     <t>Take iron and folic acid tablets</t>
   </si>
   <si>
-    <t>pregnancy_uuid_ctx</t>
+    <t>vaginal_bleeding</t>
+  </si>
+  <si>
+    <t>Vaginal bleeding</t>
   </si>
   <si>
     <t>avoid_heavy_work</t>
@@ -408,7 +471,10 @@
     <t>Avoid heavy work, rest more</t>
   </si>
   <si>
-    <t>if(instance('contact-summary')/context/pregnancy_uuid != '', instance('contact-summary')/context/pregnancy_uuid, .)</t>
+    <t>fits</t>
+  </si>
+  <si>
+    <t>Fits</t>
   </si>
   <si>
     <t>sleep_under_bednet</t>
@@ -426,58 +492,34 @@
     <t>develop_birth_plan</t>
   </si>
   <si>
+    <t>severe_abdominal_pain</t>
+  </si>
+  <si>
+    <t>Severe abdominal pain</t>
+  </si>
+  <si>
     <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
   </si>
   <si>
-    <t>danger_signs</t>
-  </si>
-  <si>
-    <t>Danger Sign Follow-up</t>
-  </si>
-  <si>
     <t>trimester2_choices</t>
   </si>
   <si>
-    <t>select_one yes_no</t>
-  </si>
-  <si>
-    <t>visit_confirm</t>
-  </si>
-  <si>
-    <t>Did ${patient_short_name} visit the health facility as recommended?</t>
-  </si>
-  <si>
-    <t>danger_sign_present</t>
-  </si>
-  <si>
-    <t>Is she still experiencing any danger signs?</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>congratulate_no_ds_note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great news! Please closely monitor her until her next scheduled ANC check-up at the health facility. </t>
-  </si>
-  <si>
-    <t>../danger_sign_present = 'no'</t>
-  </si>
-  <si>
-    <t>refer_patient_note_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The mother should visit the health facility immediately if she is experiencing any of these danger signs. </t>
-  </si>
-  <si>
-    <t>../danger_sign_present = 'yes'</t>
-  </si>
-  <si>
-    <t>refer_patient_note_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please advise her to do so and accompany her if possible. </t>
+    <t>severe_headache</t>
+  </si>
+  <si>
+    <t>Severe headache</t>
+  </si>
+  <si>
+    <t>very_pale</t>
+  </si>
+  <si>
+    <t>Very pale</t>
+  </si>
+  <si>
+    <t>fever</t>
+  </si>
+  <si>
+    <t>Fever</t>
   </si>
   <si>
     <t>couselling_on_exclusive_breastfeeding</t>
@@ -486,10 +528,10 @@
     <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
   </si>
   <si>
-    <t>danger_signs_question_note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please indicate which danger signs ${patient_short_name} is experiencing. </t>
+    <t>reduced_or_no_fetal_movements</t>
+  </si>
+  <si>
+    <t>Reduced or no fetal movements</t>
   </si>
   <si>
     <t>conditions</t>
@@ -501,28 +543,28 @@
     <t>Heart condition</t>
   </si>
   <si>
+    <t>breaking_water</t>
+  </si>
+  <si>
+    <t>Breaking of water</t>
+  </si>
+  <si>
     <t>asthma</t>
   </si>
   <si>
     <t>Asthma</t>
   </si>
   <si>
-    <t>vaginal_bleeding</t>
-  </si>
-  <si>
-    <t>Vaginal bleeding</t>
-  </si>
-  <si>
     <t>high_blood_pressure</t>
   </si>
   <si>
     <t>High blood pressure</t>
   </si>
   <si>
-    <t>fits</t>
-  </si>
-  <si>
-    <t>Fits</t>
+    <t>easily_tired</t>
+  </si>
+  <si>
+    <t>Getting tired easily</t>
   </si>
   <si>
     <t>known_diabetes</t>
@@ -531,28 +573,16 @@
     <t>Known diabetes</t>
   </si>
   <si>
-    <t>severe_abdominal_pain</t>
-  </si>
-  <si>
-    <t>Severe abdominal pain</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
     <t>Other</t>
   </si>
   <si>
-    <t>severe_headache</t>
-  </si>
-  <si>
-    <t>Severe headache</t>
-  </si>
-  <si>
-    <t>very_pale</t>
-  </si>
-  <si>
-    <t>Very pale</t>
+    <t>face_hand_swelling</t>
+  </si>
+  <si>
+    <t>Swelling of face and hands</t>
   </si>
   <si>
     <t>hiv_statuses</t>
@@ -561,61 +591,19 @@
     <t>known</t>
   </si>
   <si>
-    <t>fever</t>
-  </si>
-  <si>
-    <t>Fever</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>reduced_or_no_fetal_movements</t>
-  </si>
-  <si>
-    <t>Reduced or no fetal movements</t>
+    <t>breathlessness</t>
+  </si>
+  <si>
+    <t>Breathlessness</t>
+  </si>
+  <si>
+    <t>r_danger_sign_present</t>
   </si>
   <si>
     <t>fp_methods</t>
-  </si>
-  <si>
-    <t>breaking_water</t>
-  </si>
-  <si>
-    <t>Breaking of water</t>
-  </si>
-  <si>
-    <t>easily_tired</t>
-  </si>
-  <si>
-    <t>Getting tired easily</t>
-  </si>
-  <si>
-    <t>face_hand_swelling</t>
-  </si>
-  <si>
-    <t>Swelling of face and hands</t>
-  </si>
-  <si>
-    <t>Combined oral contraceptives</t>
-  </si>
-  <si>
-    <t>breathlessness</t>
-  </si>
-  <si>
-    <t>Breathlessness</t>
-  </si>
-  <si>
-    <t>Progesterone only pills</t>
-  </si>
-  <si>
-    <t>r_danger_sign_present</t>
-  </si>
-  <si>
-    <t>Injectibles</t>
-  </si>
-  <si>
-    <t>Implants (1 rod)</t>
   </si>
   <si>
     <t>if((selected(../vaginal_bleeding, 'yes')
@@ -633,46 +621,67 @@
 'yes', 'no')</t>
   </si>
   <si>
+    <t>custom_translations</t>
+  </si>
+  <si>
+    <t>Combined oral contraceptives</t>
+  </si>
+  <si>
+    <t>Progesterone only pills</t>
+  </si>
+  <si>
+    <t>select_one translate_woman_label</t>
+  </si>
+  <si>
+    <t>custom_woman_label_translator</t>
+  </si>
+  <si>
+    <t>Injectibles</t>
+  </si>
+  <si>
+    <t>Implants (1 rod)</t>
+  </si>
+  <si>
+    <t>"woman"</t>
+  </si>
+  <si>
     <t>Implants (2 rods)</t>
   </si>
   <si>
     <t>IUD</t>
   </si>
   <si>
+    <t>custom_woman_label</t>
+  </si>
+  <si>
     <t>Condoms</t>
   </si>
   <si>
     <t>Tubal ligation</t>
   </si>
   <si>
+    <t>jr:choice-name(${custom_woman_label_translator},'${custom_woman_label_translator}')</t>
+  </si>
+  <si>
     <t>Cycle beads</t>
   </si>
   <si>
-    <t>custom_translations</t>
-  </si>
-  <si>
-    <t>select_one translate_woman_label</t>
-  </si>
-  <si>
-    <t>custom_woman_label_translator</t>
-  </si>
-  <si>
-    <t>"woman"</t>
+    <t>select_one translate_woman_start_label</t>
+  </si>
+  <si>
+    <t>custom_woman_start_label_translator</t>
   </si>
   <si>
     <t>reasons_not_on_fp</t>
   </si>
   <si>
-    <t>custom_woman_label</t>
-  </si>
-  <si>
     <t>Wants to get pregnant</t>
   </si>
   <si>
     <t>Did not want FP</t>
   </si>
   <si>
-    <t>jr:choice-name(${custom_woman_label_translator},'${custom_woman_label_translator}')</t>
+    <t>"woman-start"</t>
   </si>
   <si>
     <t>follow_up_methods</t>
@@ -681,16 +690,13 @@
     <t>in_person</t>
   </si>
   <si>
-    <t>select_one translate_woman_start_label</t>
-  </si>
-  <si>
     <t>In person</t>
   </si>
   <si>
-    <t>custom_woman_start_label_translator</t>
-  </si>
-  <si>
-    <t>"woman-start"</t>
+    <t>custom_woman_start_label</t>
+  </si>
+  <si>
+    <t>jr:choice-name(${custom_woman_start_label_translator},'${custom_woman_start_label_translator}')</t>
   </si>
   <si>
     <t>by_phone</t>
@@ -699,9 +705,6 @@
     <t>By phone</t>
   </si>
   <si>
-    <t>custom_woman_start_label</t>
-  </si>
-  <si>
     <t>reasons_for_missing_visit</t>
   </si>
   <si>
@@ -709,9 +712,6 @@
   </si>
   <si>
     <t>She was not reminded</t>
-  </si>
-  <si>
-    <t>jr:choice-name(${custom_woman_start_label_translator},'${custom_woman_start_label_translator}')</t>
   </si>
   <si>
     <t>travelled</t>
@@ -1052,20 +1052,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF4CCCC"/>
         <bgColor rgb="FFF4CCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1076,8 +1064,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9D2E9"/>
         <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1138,63 +1138,63 @@
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -1215,15 +1215,15 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1232,10 +1232,10 @@
     <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1342,991 +1342,991 @@
         <v>15</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AG1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AH1" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="AI1" s="4"/>
       <c r="AJ1" s="4"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14"/>
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12"/>
-      <c r="AH4" s="12"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AG4" s="14"/>
+      <c r="AH4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
+      <c r="AI6" s="14"/>
+      <c r="AJ6" s="14"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+      <c r="AG8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14"/>
+      <c r="AG9" s="14"/>
+      <c r="AH9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="AE10" s="14"/>
+      <c r="AF10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="14"/>
+      <c r="AE11" s="14"/>
+      <c r="AF11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="14"/>
+      <c r="AE12" s="14"/>
+      <c r="AF12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AF14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="12"/>
-      <c r="AF5" s="12"/>
-      <c r="AG5" s="12"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="12"/>
-      <c r="AJ5" s="12"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="12"/>
-      <c r="AF7" s="12"/>
-      <c r="AG7" s="12"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="12"/>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="12"/>
-      <c r="AJ8" s="12"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="12"/>
-      <c r="AH9" s="12"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12"/>
-      <c r="W10" s="12"/>
-      <c r="X10" s="12"/>
-      <c r="Y10" s="12"/>
-      <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12"/>
-      <c r="AH10" s="12"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="C15" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="14"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AF16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="14"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="14"/>
+      <c r="AE17" s="14"/>
+      <c r="AF17" s="14"/>
+      <c r="AG17" s="14"/>
+      <c r="AH17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="14"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="14"/>
+      <c r="AE18" s="14"/>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="12"/>
-      <c r="AF11" s="12"/>
-      <c r="AG11" s="12"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="12"/>
-      <c r="AJ11" s="12"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="12"/>
-      <c r="AF12" s="12"/>
-      <c r="AG12" s="12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="12"/>
-      <c r="AB13" s="12"/>
-      <c r="AC13" s="12"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="12"/>
-      <c r="AF13" s="12"/>
-      <c r="AG13" s="12"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="12"/>
-      <c r="AB14" s="12"/>
-      <c r="AC14" s="12"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="12"/>
-      <c r="AF14" s="12"/>
-      <c r="AG14" s="12"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="12"/>
-      <c r="AJ14" s="12"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="8" t="s">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="14"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+      <c r="AG19" s="14"/>
+      <c r="AH19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="14"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="14"/>
+      <c r="AE20" s="14"/>
+      <c r="AF20" s="14"/>
+      <c r="AG20" s="14"/>
+      <c r="AH20" s="14"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="14"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="12"/>
-      <c r="AB15" s="12"/>
-      <c r="AC15" s="12"/>
-      <c r="AD15" s="12"/>
-      <c r="AE15" s="12"/>
-      <c r="AF15" s="12"/>
-      <c r="AG15" s="12"/>
-      <c r="AH15" s="12"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="12"/>
-      <c r="AC16" s="12"/>
-      <c r="AD16" s="12"/>
-      <c r="AE16" s="12"/>
-      <c r="AF16" s="12"/>
-      <c r="AG16" s="12"/>
-      <c r="AH16" s="12"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="12"/>
-      <c r="AB17" s="12"/>
-      <c r="AC17" s="12"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="12"/>
-      <c r="AF17" s="12"/>
-      <c r="AG17" s="12"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="12"/>
-      <c r="AJ17" s="12"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="8" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
+      <c r="AH21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="12"/>
-      <c r="X18" s="12"/>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="12"/>
-      <c r="AC18" s="12"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="12"/>
-      <c r="AF18" s="12"/>
-      <c r="AG18" s="12"/>
-      <c r="AH18" s="12"/>
-      <c r="AI18" s="12"/>
-      <c r="AJ18" s="12"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="12"/>
-      <c r="AF19" s="12"/>
-      <c r="AG19" s="12"/>
-      <c r="AH19" s="12"/>
-      <c r="AI19" s="12"/>
-      <c r="AJ19" s="12"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" s="12"/>
-      <c r="AH20" s="12"/>
-      <c r="AI20" s="12"/>
-      <c r="AJ20" s="12"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12"/>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" s="12"/>
-      <c r="AH21" s="12"/>
-      <c r="AI21" s="12"/>
-      <c r="AJ21" s="12"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="12"/>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="12"/>
-      <c r="AC22" s="12"/>
-      <c r="AD22" s="12"/>
-      <c r="AE22" s="12"/>
-      <c r="AF22" s="12"/>
-      <c r="AG22" s="12"/>
-      <c r="AH22" s="12"/>
-      <c r="AI22" s="12"/>
-      <c r="AJ22" s="12"/>
+      <c r="B22" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="14"/>
+      <c r="W22" s="14"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="14"/>
+      <c r="AG22" s="14"/>
+      <c r="AH22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="AF23" s="29"/>
@@ -2370,7 +2370,7 @@
       <c r="AD24" s="31"/>
       <c r="AE24" s="31"/>
       <c r="AF24" s="32" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AG24" s="31"/>
       <c r="AH24" s="31"/>
@@ -2416,7 +2416,7 @@
       <c r="AD25" s="31"/>
       <c r="AE25" s="31"/>
       <c r="AF25" s="32" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AG25" s="31"/>
       <c r="AH25" s="31"/>
@@ -2428,7 +2428,7 @@
         <v>90</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C26" s="31"/>
       <c r="D26" s="31"/>
@@ -2438,7 +2438,7 @@
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
       <c r="J26" s="31" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K26" s="31"/>
       <c r="L26" s="31"/>
@@ -2464,7 +2464,7 @@
       <c r="AD26" s="31"/>
       <c r="AE26" s="31"/>
       <c r="AF26" s="32" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AG26" s="31"/>
       <c r="AH26" s="31"/>
@@ -2510,7 +2510,7 @@
       <c r="AD27" s="31"/>
       <c r="AE27" s="31"/>
       <c r="AF27" s="32" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AG27" s="31"/>
       <c r="AH27" s="31"/>
@@ -2522,7 +2522,7 @@
         <v>90</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C28" s="32"/>
       <c r="D28" s="31"/>
@@ -2543,7 +2543,7 @@
       <c r="S28" s="31"/>
       <c r="T28" s="31"/>
       <c r="U28" s="32" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="V28" s="31"/>
       <c r="W28" s="31"/>
@@ -2556,7 +2556,7 @@
       <c r="AD28" s="31"/>
       <c r="AE28" s="31"/>
       <c r="AF28" s="32" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AG28" s="31"/>
       <c r="AH28" s="31"/>
@@ -2568,7 +2568,7 @@
         <v>90</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C29" s="32"/>
       <c r="D29" s="31"/>
@@ -2589,7 +2589,7 @@
       <c r="S29" s="31"/>
       <c r="T29" s="31"/>
       <c r="U29" s="32" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="V29" s="31"/>
       <c r="W29" s="31"/>
@@ -2602,7 +2602,7 @@
       <c r="AD29" s="31"/>
       <c r="AE29" s="31"/>
       <c r="AF29" s="32" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AG29" s="31"/>
       <c r="AH29" s="31"/>
@@ -2614,7 +2614,7 @@
         <v>90</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C30" s="32"/>
       <c r="D30" s="31"/>
@@ -2635,7 +2635,7 @@
       <c r="S30" s="31"/>
       <c r="T30" s="31"/>
       <c r="U30" s="32" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="V30" s="31"/>
       <c r="W30" s="31"/>
@@ -2648,7 +2648,7 @@
       <c r="AD30" s="31"/>
       <c r="AE30" s="31"/>
       <c r="AF30" s="32" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AG30" s="31"/>
       <c r="AH30" s="31"/>
@@ -2660,7 +2660,7 @@
         <v>90</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C31" s="32"/>
       <c r="D31" s="31"/>
@@ -2681,7 +2681,7 @@
       <c r="S31" s="31"/>
       <c r="T31" s="31"/>
       <c r="U31" s="32" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="V31" s="31"/>
       <c r="W31" s="31"/>
@@ -2694,7 +2694,7 @@
       <c r="AD31" s="31"/>
       <c r="AE31" s="31"/>
       <c r="AF31" s="32" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AG31" s="31"/>
       <c r="AH31" s="31"/>
@@ -2706,7 +2706,7 @@
         <v>90</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="31"/>
@@ -2727,7 +2727,7 @@
       <c r="S32" s="31"/>
       <c r="T32" s="31"/>
       <c r="U32" s="32" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="V32" s="31"/>
       <c r="W32" s="31"/>
@@ -2754,13 +2754,13 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="34" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B34" s="34" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D34" s="36"/>
       <c r="E34" s="36"/>
@@ -2771,7 +2771,7 @@
       <c r="J34" s="36"/>
       <c r="K34" s="35"/>
       <c r="L34" s="35" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="M34" s="36"/>
       <c r="N34" s="36"/>
@@ -2800,13 +2800,13 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="37" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="D35" s="36"/>
       <c r="E35" s="36"/>
@@ -2815,7 +2815,7 @@
       <c r="H35" s="36"/>
       <c r="I35" s="36"/>
       <c r="J35" s="36" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
@@ -2846,13 +2846,13 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="37" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="D36" s="36"/>
       <c r="E36" s="36"/>
@@ -2861,7 +2861,7 @@
       <c r="H36" s="36"/>
       <c r="I36" s="36"/>
       <c r="J36" s="36" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
@@ -2892,13 +2892,13 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="34" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D37" s="36"/>
       <c r="E37" s="36"/>
@@ -2908,7 +2908,7 @@
       <c r="I37" s="36"/>
       <c r="J37" s="36"/>
       <c r="K37" s="35" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="L37" s="36"/>
       <c r="M37" s="36"/>
@@ -2931,7 +2931,7 @@
       <c r="AD37" s="36"/>
       <c r="AE37" s="36"/>
       <c r="AF37" s="35" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AG37" s="36"/>
       <c r="AH37" s="36"/>
@@ -2940,13 +2940,13 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="37" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D38" s="36"/>
       <c r="E38" s="36"/>
@@ -2956,7 +2956,7 @@
       <c r="I38" s="36"/>
       <c r="J38" s="36"/>
       <c r="K38" s="35" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="L38" s="36"/>
       <c r="M38" s="36"/>
@@ -2979,7 +2979,7 @@
       <c r="AD38" s="36"/>
       <c r="AE38" s="36"/>
       <c r="AF38" s="35" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AG38" s="36"/>
       <c r="AH38" s="36"/>
@@ -2988,13 +2988,13 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="37" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D39" s="36"/>
       <c r="E39" s="36"/>
@@ -3004,7 +3004,7 @@
       <c r="I39" s="36"/>
       <c r="J39" s="36"/>
       <c r="K39" s="35" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="L39" s="36"/>
       <c r="M39" s="36"/>
@@ -3027,7 +3027,7 @@
       <c r="AD39" s="36"/>
       <c r="AE39" s="36"/>
       <c r="AF39" s="35" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AG39" s="36"/>
       <c r="AH39" s="36"/>
@@ -3036,13 +3036,13 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="37" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D40" s="36"/>
       <c r="E40" s="36"/>
@@ -3052,7 +3052,7 @@
       <c r="I40" s="36"/>
       <c r="J40" s="36"/>
       <c r="K40" s="35" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="L40" s="36"/>
       <c r="M40" s="36"/>
@@ -3082,13 +3082,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="37" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="D41" s="36"/>
       <c r="E41" s="36"/>
@@ -3097,10 +3097,10 @@
       <c r="H41" s="36"/>
       <c r="I41" s="36"/>
       <c r="J41" s="36" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K41" s="35" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="L41" s="36"/>
       <c r="M41" s="36"/>
@@ -3130,13 +3130,13 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="37" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D42" s="36"/>
       <c r="E42" s="36"/>
@@ -3145,10 +3145,10 @@
       <c r="H42" s="36"/>
       <c r="I42" s="36"/>
       <c r="J42" s="36" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K42" s="35" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="L42" s="36"/>
       <c r="M42" s="36"/>
@@ -3178,13 +3178,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="37" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D43" s="36"/>
       <c r="E43" s="36"/>
@@ -3193,10 +3193,10 @@
       <c r="H43" s="36"/>
       <c r="I43" s="36"/>
       <c r="J43" s="36" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K43" s="35" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="L43" s="36"/>
       <c r="M43" s="36"/>
@@ -3226,13 +3226,13 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="37" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D44" s="36"/>
       <c r="E44" s="36"/>
@@ -3241,10 +3241,10 @@
       <c r="H44" s="36"/>
       <c r="I44" s="36"/>
       <c r="J44" s="36" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K44" s="35" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="L44" s="36"/>
       <c r="M44" s="36"/>
@@ -3274,13 +3274,13 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="37" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D45" s="36"/>
       <c r="E45" s="36"/>
@@ -3289,10 +3289,10 @@
       <c r="H45" s="36"/>
       <c r="I45" s="36"/>
       <c r="J45" s="36" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K45" s="35" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="L45" s="36"/>
       <c r="M45" s="36"/>
@@ -3322,13 +3322,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="37" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="D46" s="36"/>
       <c r="E46" s="36"/>
@@ -3337,10 +3337,10 @@
       <c r="H46" s="36"/>
       <c r="I46" s="36"/>
       <c r="J46" s="36" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K46" s="35" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="L46" s="36"/>
       <c r="M46" s="36"/>
@@ -3370,13 +3370,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="37" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -3385,10 +3385,10 @@
       <c r="H47" s="36"/>
       <c r="I47" s="36"/>
       <c r="J47" s="36" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K47" s="35" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
@@ -3418,13 +3418,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="37" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D48" s="36"/>
       <c r="E48" s="36"/>
@@ -3433,10 +3433,10 @@
       <c r="H48" s="36"/>
       <c r="I48" s="36"/>
       <c r="J48" s="36" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K48" s="35" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="L48" s="36"/>
       <c r="M48" s="36"/>
@@ -3466,13 +3466,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="37" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="D49" s="36"/>
       <c r="E49" s="36"/>
@@ -3481,10 +3481,10 @@
       <c r="H49" s="36"/>
       <c r="I49" s="36"/>
       <c r="J49" s="36" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K49" s="35" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="L49" s="36"/>
       <c r="M49" s="36"/>
@@ -3514,13 +3514,13 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="37" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C50" s="36" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D50" s="36"/>
       <c r="E50" s="36"/>
@@ -3529,10 +3529,10 @@
       <c r="H50" s="36"/>
       <c r="I50" s="36"/>
       <c r="J50" s="36" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K50" s="35" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
@@ -3562,13 +3562,13 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="37" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C51" s="36" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D51" s="36"/>
       <c r="E51" s="36"/>
@@ -3577,10 +3577,10 @@
       <c r="H51" s="36"/>
       <c r="I51" s="36"/>
       <c r="J51" s="36" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K51" s="35" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="L51" s="36"/>
       <c r="M51" s="36"/>
@@ -3613,10 +3613,10 @@
         <v>90</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D52" s="36"/>
       <c r="E52" s="36"/>
@@ -3636,7 +3636,7 @@
       <c r="S52" s="36"/>
       <c r="T52" s="36"/>
       <c r="U52" s="39" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="V52" s="36"/>
       <c r="W52" s="36"/>
@@ -3649,7 +3649,7 @@
       <c r="AD52" s="36"/>
       <c r="AE52" s="36"/>
       <c r="AF52" s="35" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AG52" s="36"/>
       <c r="AH52" s="36"/>
@@ -3658,13 +3658,13 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="34" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D53" s="36"/>
       <c r="E53" s="36"/>
@@ -3675,7 +3675,7 @@
       <c r="J53" s="36"/>
       <c r="K53" s="36"/>
       <c r="L53" s="35" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M53" s="36"/>
       <c r="N53" s="36"/>
@@ -3697,7 +3697,7 @@
       <c r="AD53" s="36"/>
       <c r="AE53" s="36"/>
       <c r="AF53" s="35" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="AG53" s="36"/>
       <c r="AH53" s="36"/>
@@ -3706,13 +3706,13 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="34" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D54" s="36"/>
       <c r="E54" s="36"/>
@@ -3732,7 +3732,7 @@
       <c r="S54" s="36"/>
       <c r="T54" s="36"/>
       <c r="U54" s="35" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="V54" s="36"/>
       <c r="W54" s="36"/>
@@ -3755,10 +3755,10 @@
         <v>90</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D55" s="36"/>
       <c r="E55" s="36"/>
@@ -3778,7 +3778,7 @@
       <c r="S55" s="36"/>
       <c r="T55" s="36"/>
       <c r="U55" s="35" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="V55" s="36"/>
       <c r="W55" s="36"/>
@@ -3798,13 +3798,13 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="34" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C56" s="36" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D56" s="36"/>
       <c r="E56" s="36"/>
@@ -3824,7 +3824,7 @@
       <c r="S56" s="36"/>
       <c r="T56" s="36"/>
       <c r="U56" s="35" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="V56" s="36"/>
       <c r="W56" s="36"/>
@@ -3847,10 +3847,10 @@
         <v>90</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D57" s="36"/>
       <c r="E57" s="36"/>
@@ -3870,7 +3870,7 @@
       <c r="S57" s="36"/>
       <c r="T57" s="36"/>
       <c r="U57" s="35" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="V57" s="36"/>
       <c r="W57" s="36"/>
@@ -3982,51 +3982,51 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="42"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B61" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D61" s="43"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="43"/>
-      <c r="L61" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="M61" s="43"/>
-      <c r="N61" s="43"/>
-      <c r="O61" s="43"/>
-      <c r="P61" s="43"/>
-      <c r="Q61" s="43"/>
-      <c r="R61" s="43"/>
-      <c r="S61" s="43"/>
-      <c r="T61" s="43"/>
-      <c r="U61" s="43"/>
-      <c r="V61" s="43"/>
-      <c r="W61" s="43"/>
-      <c r="X61" s="43"/>
-      <c r="Y61" s="43"/>
-      <c r="Z61" s="43"/>
-      <c r="AA61" s="43"/>
-      <c r="AB61" s="43"/>
-      <c r="AC61" s="43"/>
-      <c r="AD61" s="43"/>
-      <c r="AE61" s="43"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="42"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="42"/>
+      <c r="V61" s="42"/>
+      <c r="W61" s="42"/>
+      <c r="X61" s="42"/>
+      <c r="Y61" s="42"/>
+      <c r="Z61" s="42"/>
+      <c r="AA61" s="42"/>
+      <c r="AB61" s="42"/>
+      <c r="AC61" s="42"/>
+      <c r="AD61" s="42"/>
+      <c r="AE61" s="42"/>
       <c r="AF61" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="AG61" s="42"/>
-      <c r="AH61" s="42"/>
-      <c r="AI61" s="42"/>
-      <c r="AJ61" s="42"/>
+        <v>42</v>
+      </c>
+      <c r="AG61" s="41"/>
+      <c r="AH61" s="41"/>
+      <c r="AI61" s="41"/>
+      <c r="AJ61" s="41"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="40" t="s">
@@ -4035,44 +4035,44 @@
       <c r="B62" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="C62" s="42"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="43"/>
-      <c r="M62" s="43"/>
-      <c r="N62" s="43"/>
-      <c r="O62" s="43"/>
-      <c r="P62" s="43"/>
-      <c r="Q62" s="43"/>
-      <c r="R62" s="43"/>
-      <c r="S62" s="43"/>
-      <c r="T62" s="43"/>
-      <c r="U62" s="42" t="s">
+      <c r="C62" s="41"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="42"/>
+      <c r="Q62" s="42"/>
+      <c r="R62" s="42"/>
+      <c r="S62" s="42"/>
+      <c r="T62" s="42"/>
+      <c r="U62" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="V62" s="43"/>
-      <c r="W62" s="43"/>
-      <c r="X62" s="43"/>
-      <c r="Y62" s="43"/>
-      <c r="Z62" s="43"/>
-      <c r="AA62" s="43"/>
-      <c r="AB62" s="43"/>
-      <c r="AC62" s="43"/>
-      <c r="AD62" s="43"/>
-      <c r="AE62" s="43"/>
-      <c r="AF62" s="42"/>
-      <c r="AG62" s="42"/>
+      <c r="V62" s="42"/>
+      <c r="W62" s="42"/>
+      <c r="X62" s="42"/>
+      <c r="Y62" s="42"/>
+      <c r="Z62" s="42"/>
+      <c r="AA62" s="42"/>
+      <c r="AB62" s="42"/>
+      <c r="AC62" s="42"/>
+      <c r="AD62" s="42"/>
+      <c r="AE62" s="42"/>
+      <c r="AF62" s="41"/>
+      <c r="AG62" s="41"/>
       <c r="AH62" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="AI62" s="42"/>
-      <c r="AJ62" s="42"/>
+      <c r="AI62" s="41"/>
+      <c r="AJ62" s="41"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="40" t="s">
@@ -4081,44 +4081,44 @@
       <c r="B63" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="C63" s="42"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="43"/>
-      <c r="M63" s="43"/>
-      <c r="N63" s="43"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="43"/>
-      <c r="Q63" s="43"/>
-      <c r="R63" s="43"/>
-      <c r="S63" s="43"/>
-      <c r="T63" s="43"/>
-      <c r="U63" s="42" t="s">
+      <c r="C63" s="41"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="42"/>
+      <c r="Q63" s="42"/>
+      <c r="R63" s="42"/>
+      <c r="S63" s="42"/>
+      <c r="T63" s="42"/>
+      <c r="U63" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="V63" s="43"/>
-      <c r="W63" s="43"/>
-      <c r="X63" s="43"/>
-      <c r="Y63" s="43"/>
-      <c r="Z63" s="43"/>
-      <c r="AA63" s="43"/>
-      <c r="AB63" s="43"/>
-      <c r="AC63" s="43"/>
-      <c r="AD63" s="43"/>
-      <c r="AE63" s="43"/>
-      <c r="AF63" s="42"/>
-      <c r="AG63" s="42"/>
+      <c r="V63" s="42"/>
+      <c r="W63" s="42"/>
+      <c r="X63" s="42"/>
+      <c r="Y63" s="42"/>
+      <c r="Z63" s="42"/>
+      <c r="AA63" s="42"/>
+      <c r="AB63" s="42"/>
+      <c r="AC63" s="42"/>
+      <c r="AD63" s="42"/>
+      <c r="AE63" s="42"/>
+      <c r="AF63" s="41"/>
+      <c r="AG63" s="41"/>
       <c r="AH63" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="AI63" s="42"/>
-      <c r="AJ63" s="42"/>
+      <c r="AI63" s="41"/>
+      <c r="AJ63" s="41"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="40" t="s">
@@ -4127,44 +4127,44 @@
       <c r="B64" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="C64" s="42"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
-      <c r="Q64" s="43"/>
-      <c r="R64" s="43"/>
-      <c r="S64" s="43"/>
-      <c r="T64" s="43"/>
-      <c r="U64" s="43" t="s">
+      <c r="C64" s="41"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="42"/>
+      <c r="Q64" s="42"/>
+      <c r="R64" s="42"/>
+      <c r="S64" s="42"/>
+      <c r="T64" s="42"/>
+      <c r="U64" s="42" t="s">
         <v>265</v>
       </c>
-      <c r="V64" s="43"/>
-      <c r="W64" s="43"/>
-      <c r="X64" s="43"/>
-      <c r="Y64" s="43"/>
-      <c r="Z64" s="43"/>
-      <c r="AA64" s="43"/>
-      <c r="AB64" s="43"/>
-      <c r="AC64" s="43"/>
-      <c r="AD64" s="43"/>
-      <c r="AE64" s="43"/>
-      <c r="AF64" s="42"/>
-      <c r="AG64" s="42"/>
+      <c r="V64" s="42"/>
+      <c r="W64" s="42"/>
+      <c r="X64" s="42"/>
+      <c r="Y64" s="42"/>
+      <c r="Z64" s="42"/>
+      <c r="AA64" s="42"/>
+      <c r="AB64" s="42"/>
+      <c r="AC64" s="42"/>
+      <c r="AD64" s="42"/>
+      <c r="AE64" s="42"/>
+      <c r="AF64" s="41"/>
+      <c r="AG64" s="41"/>
       <c r="AH64" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="AI64" s="42"/>
-      <c r="AJ64" s="42"/>
+      <c r="AI64" s="41"/>
+      <c r="AJ64" s="41"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="40" t="s">
@@ -4173,44 +4173,44 @@
       <c r="B65" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="C65" s="42"/>
-      <c r="D65" s="43"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="43"/>
-      <c r="M65" s="43"/>
-      <c r="N65" s="43"/>
-      <c r="O65" s="43"/>
-      <c r="P65" s="43"/>
-      <c r="Q65" s="43"/>
-      <c r="R65" s="43"/>
-      <c r="S65" s="43"/>
-      <c r="T65" s="43"/>
-      <c r="U65" s="43" t="s">
+      <c r="C65" s="41"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="42"/>
+      <c r="Q65" s="42"/>
+      <c r="R65" s="42"/>
+      <c r="S65" s="42"/>
+      <c r="T65" s="42"/>
+      <c r="U65" s="42" t="s">
         <v>268</v>
       </c>
-      <c r="V65" s="43"/>
-      <c r="W65" s="43"/>
-      <c r="X65" s="43"/>
-      <c r="Y65" s="43"/>
-      <c r="Z65" s="43"/>
-      <c r="AA65" s="43"/>
-      <c r="AB65" s="43"/>
-      <c r="AC65" s="43"/>
-      <c r="AD65" s="43"/>
-      <c r="AE65" s="43"/>
-      <c r="AF65" s="42"/>
-      <c r="AG65" s="42"/>
+      <c r="V65" s="42"/>
+      <c r="W65" s="42"/>
+      <c r="X65" s="42"/>
+      <c r="Y65" s="42"/>
+      <c r="Z65" s="42"/>
+      <c r="AA65" s="42"/>
+      <c r="AB65" s="42"/>
+      <c r="AC65" s="42"/>
+      <c r="AD65" s="42"/>
+      <c r="AE65" s="42"/>
+      <c r="AF65" s="41"/>
+      <c r="AG65" s="41"/>
       <c r="AH65" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="AI65" s="42"/>
-      <c r="AJ65" s="42"/>
+      <c r="AI65" s="41"/>
+      <c r="AJ65" s="41"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="40" t="s">
@@ -4219,44 +4219,44 @@
       <c r="B66" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="C66" s="42"/>
-      <c r="D66" s="43"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="43"/>
-      <c r="R66" s="43"/>
-      <c r="S66" s="43"/>
-      <c r="T66" s="43"/>
-      <c r="U66" s="43" t="s">
+      <c r="C66" s="41"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="42"/>
+      <c r="P66" s="42"/>
+      <c r="Q66" s="42"/>
+      <c r="R66" s="42"/>
+      <c r="S66" s="42"/>
+      <c r="T66" s="42"/>
+      <c r="U66" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="V66" s="43"/>
-      <c r="W66" s="43"/>
-      <c r="X66" s="43"/>
-      <c r="Y66" s="43"/>
-      <c r="Z66" s="43"/>
-      <c r="AA66" s="43"/>
-      <c r="AB66" s="43"/>
-      <c r="AC66" s="43"/>
-      <c r="AD66" s="43"/>
-      <c r="AE66" s="43"/>
-      <c r="AF66" s="42"/>
-      <c r="AG66" s="42"/>
+      <c r="V66" s="42"/>
+      <c r="W66" s="42"/>
+      <c r="X66" s="42"/>
+      <c r="Y66" s="42"/>
+      <c r="Z66" s="42"/>
+      <c r="AA66" s="42"/>
+      <c r="AB66" s="42"/>
+      <c r="AC66" s="42"/>
+      <c r="AD66" s="42"/>
+      <c r="AE66" s="42"/>
+      <c r="AF66" s="41"/>
+      <c r="AG66" s="41"/>
       <c r="AH66" s="44" t="s">
         <v>272</v>
       </c>
-      <c r="AI66" s="42"/>
-      <c r="AJ66" s="42"/>
+      <c r="AI66" s="41"/>
+      <c r="AJ66" s="41"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="40" t="s">
@@ -4265,44 +4265,44 @@
       <c r="B67" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="C67" s="42"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="43"/>
-      <c r="M67" s="43"/>
-      <c r="N67" s="43"/>
-      <c r="O67" s="43"/>
-      <c r="P67" s="43"/>
-      <c r="Q67" s="43"/>
-      <c r="R67" s="43"/>
-      <c r="S67" s="43"/>
-      <c r="T67" s="43"/>
-      <c r="U67" s="43" t="s">
+      <c r="C67" s="41"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="42"/>
+      <c r="P67" s="42"/>
+      <c r="Q67" s="42"/>
+      <c r="R67" s="42"/>
+      <c r="S67" s="42"/>
+      <c r="T67" s="42"/>
+      <c r="U67" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="V67" s="43"/>
-      <c r="W67" s="43"/>
-      <c r="X67" s="43"/>
-      <c r="Y67" s="43"/>
-      <c r="Z67" s="43"/>
-      <c r="AA67" s="43"/>
-      <c r="AB67" s="43"/>
-      <c r="AC67" s="43"/>
-      <c r="AD67" s="43"/>
-      <c r="AE67" s="43"/>
-      <c r="AF67" s="42"/>
-      <c r="AG67" s="42"/>
+      <c r="V67" s="42"/>
+      <c r="W67" s="42"/>
+      <c r="X67" s="42"/>
+      <c r="Y67" s="42"/>
+      <c r="Z67" s="42"/>
+      <c r="AA67" s="42"/>
+      <c r="AB67" s="42"/>
+      <c r="AC67" s="42"/>
+      <c r="AD67" s="42"/>
+      <c r="AE67" s="42"/>
+      <c r="AF67" s="41"/>
+      <c r="AG67" s="41"/>
       <c r="AH67" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="AI67" s="42"/>
-      <c r="AJ67" s="42"/>
+      <c r="AI67" s="41"/>
+      <c r="AJ67" s="41"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="40" t="s">
@@ -4311,44 +4311,44 @@
       <c r="B68" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="C68" s="42"/>
-      <c r="D68" s="43"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="43"/>
-      <c r="M68" s="43"/>
-      <c r="N68" s="43"/>
-      <c r="O68" s="43"/>
-      <c r="P68" s="43"/>
-      <c r="Q68" s="43"/>
-      <c r="R68" s="43"/>
-      <c r="S68" s="43"/>
-      <c r="T68" s="43"/>
-      <c r="U68" s="43" t="s">
+      <c r="C68" s="41"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="42"/>
+      <c r="O68" s="42"/>
+      <c r="P68" s="42"/>
+      <c r="Q68" s="42"/>
+      <c r="R68" s="42"/>
+      <c r="S68" s="42"/>
+      <c r="T68" s="42"/>
+      <c r="U68" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="V68" s="43"/>
-      <c r="W68" s="43"/>
-      <c r="X68" s="43"/>
-      <c r="Y68" s="43"/>
-      <c r="Z68" s="43"/>
-      <c r="AA68" s="43"/>
-      <c r="AB68" s="43"/>
-      <c r="AC68" s="43"/>
-      <c r="AD68" s="43"/>
-      <c r="AE68" s="43"/>
-      <c r="AF68" s="42"/>
-      <c r="AG68" s="42"/>
+      <c r="V68" s="42"/>
+      <c r="W68" s="42"/>
+      <c r="X68" s="42"/>
+      <c r="Y68" s="42"/>
+      <c r="Z68" s="42"/>
+      <c r="AA68" s="42"/>
+      <c r="AB68" s="42"/>
+      <c r="AC68" s="42"/>
+      <c r="AD68" s="42"/>
+      <c r="AE68" s="42"/>
+      <c r="AF68" s="41"/>
+      <c r="AG68" s="41"/>
       <c r="AH68" s="44" t="s">
         <v>278</v>
       </c>
-      <c r="AI68" s="42"/>
-      <c r="AJ68" s="42"/>
+      <c r="AI68" s="41"/>
+      <c r="AJ68" s="41"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="40" t="s">
@@ -4357,44 +4357,44 @@
       <c r="B69" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="C69" s="42"/>
-      <c r="D69" s="43"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
-      <c r="L69" s="43"/>
-      <c r="M69" s="43"/>
-      <c r="N69" s="43"/>
-      <c r="O69" s="43"/>
-      <c r="P69" s="43"/>
-      <c r="Q69" s="43"/>
-      <c r="R69" s="43"/>
-      <c r="S69" s="43"/>
-      <c r="T69" s="43"/>
-      <c r="U69" s="43" t="s">
+      <c r="C69" s="41"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
+      <c r="Q69" s="42"/>
+      <c r="R69" s="42"/>
+      <c r="S69" s="42"/>
+      <c r="T69" s="42"/>
+      <c r="U69" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="V69" s="43"/>
-      <c r="W69" s="43"/>
-      <c r="X69" s="43"/>
-      <c r="Y69" s="43"/>
-      <c r="Z69" s="43"/>
-      <c r="AA69" s="43"/>
-      <c r="AB69" s="43"/>
-      <c r="AC69" s="43"/>
-      <c r="AD69" s="43"/>
-      <c r="AE69" s="43"/>
-      <c r="AF69" s="42"/>
-      <c r="AG69" s="42"/>
+      <c r="V69" s="42"/>
+      <c r="W69" s="42"/>
+      <c r="X69" s="42"/>
+      <c r="Y69" s="42"/>
+      <c r="Z69" s="42"/>
+      <c r="AA69" s="42"/>
+      <c r="AB69" s="42"/>
+      <c r="AC69" s="42"/>
+      <c r="AD69" s="42"/>
+      <c r="AE69" s="42"/>
+      <c r="AF69" s="41"/>
+      <c r="AG69" s="41"/>
       <c r="AH69" s="44" t="s">
         <v>281</v>
       </c>
-      <c r="AI69" s="42"/>
-      <c r="AJ69" s="42"/>
+      <c r="AI69" s="41"/>
+      <c r="AJ69" s="41"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="40" t="s">
@@ -4403,44 +4403,44 @@
       <c r="B70" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="C70" s="42"/>
-      <c r="D70" s="43"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="43"/>
-      <c r="K70" s="43"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="43"/>
-      <c r="O70" s="43"/>
-      <c r="P70" s="43"/>
-      <c r="Q70" s="43"/>
-      <c r="R70" s="43"/>
-      <c r="S70" s="43"/>
-      <c r="T70" s="43"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="42"/>
+      <c r="Q70" s="42"/>
+      <c r="R70" s="42"/>
+      <c r="S70" s="42"/>
+      <c r="T70" s="42"/>
       <c r="U70" s="44" t="s">
         <v>283</v>
       </c>
-      <c r="V70" s="43"/>
-      <c r="W70" s="43"/>
-      <c r="X70" s="43"/>
-      <c r="Y70" s="43"/>
-      <c r="Z70" s="43"/>
-      <c r="AA70" s="43"/>
-      <c r="AB70" s="43"/>
-      <c r="AC70" s="43"/>
-      <c r="AD70" s="43"/>
-      <c r="AE70" s="43"/>
-      <c r="AF70" s="42"/>
-      <c r="AG70" s="42"/>
+      <c r="V70" s="42"/>
+      <c r="W70" s="42"/>
+      <c r="X70" s="42"/>
+      <c r="Y70" s="42"/>
+      <c r="Z70" s="42"/>
+      <c r="AA70" s="42"/>
+      <c r="AB70" s="42"/>
+      <c r="AC70" s="42"/>
+      <c r="AD70" s="42"/>
+      <c r="AE70" s="42"/>
+      <c r="AF70" s="41"/>
+      <c r="AG70" s="41"/>
       <c r="AH70" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="AI70" s="42"/>
-      <c r="AJ70" s="42"/>
+      <c r="AI70" s="41"/>
+      <c r="AJ70" s="41"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="40" t="s">
@@ -4449,44 +4449,44 @@
       <c r="B71" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="C71" s="42"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="43"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="43"/>
-      <c r="P71" s="43"/>
-      <c r="Q71" s="43"/>
-      <c r="R71" s="43"/>
-      <c r="S71" s="43"/>
-      <c r="T71" s="43"/>
-      <c r="U71" s="43" t="s">
+      <c r="C71" s="41"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="42"/>
+      <c r="P71" s="42"/>
+      <c r="Q71" s="42"/>
+      <c r="R71" s="42"/>
+      <c r="S71" s="42"/>
+      <c r="T71" s="42"/>
+      <c r="U71" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="V71" s="43"/>
-      <c r="W71" s="43"/>
-      <c r="X71" s="43"/>
-      <c r="Y71" s="43"/>
-      <c r="Z71" s="43"/>
-      <c r="AA71" s="43"/>
-      <c r="AB71" s="43"/>
-      <c r="AC71" s="43"/>
-      <c r="AD71" s="43"/>
-      <c r="AE71" s="43"/>
-      <c r="AF71" s="42"/>
-      <c r="AG71" s="42"/>
+      <c r="V71" s="42"/>
+      <c r="W71" s="42"/>
+      <c r="X71" s="42"/>
+      <c r="Y71" s="42"/>
+      <c r="Z71" s="42"/>
+      <c r="AA71" s="42"/>
+      <c r="AB71" s="42"/>
+      <c r="AC71" s="42"/>
+      <c r="AD71" s="42"/>
+      <c r="AE71" s="42"/>
+      <c r="AF71" s="41"/>
+      <c r="AG71" s="41"/>
       <c r="AH71" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="AI71" s="42"/>
-      <c r="AJ71" s="42"/>
+      <c r="AI71" s="41"/>
+      <c r="AJ71" s="41"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="40" t="s">
@@ -4495,44 +4495,44 @@
       <c r="B72" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="C72" s="42"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="43"/>
-      <c r="O72" s="43"/>
-      <c r="P72" s="43"/>
-      <c r="Q72" s="43"/>
-      <c r="R72" s="43"/>
-      <c r="S72" s="43"/>
-      <c r="T72" s="43"/>
-      <c r="U72" s="43" t="s">
+      <c r="C72" s="41"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="42"/>
+      <c r="Q72" s="42"/>
+      <c r="R72" s="42"/>
+      <c r="S72" s="42"/>
+      <c r="T72" s="42"/>
+      <c r="U72" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="V72" s="43"/>
-      <c r="W72" s="43"/>
-      <c r="X72" s="43"/>
-      <c r="Y72" s="43"/>
-      <c r="Z72" s="43"/>
-      <c r="AA72" s="43"/>
-      <c r="AB72" s="43"/>
-      <c r="AC72" s="43"/>
-      <c r="AD72" s="43"/>
-      <c r="AE72" s="43"/>
-      <c r="AF72" s="42"/>
-      <c r="AG72" s="42"/>
+      <c r="V72" s="42"/>
+      <c r="W72" s="42"/>
+      <c r="X72" s="42"/>
+      <c r="Y72" s="42"/>
+      <c r="Z72" s="42"/>
+      <c r="AA72" s="42"/>
+      <c r="AB72" s="42"/>
+      <c r="AC72" s="42"/>
+      <c r="AD72" s="42"/>
+      <c r="AE72" s="42"/>
+      <c r="AF72" s="41"/>
+      <c r="AG72" s="41"/>
       <c r="AH72" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="AI72" s="42"/>
-      <c r="AJ72" s="42"/>
+      <c r="AI72" s="41"/>
+      <c r="AJ72" s="41"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="40" t="s">
@@ -4541,44 +4541,44 @@
       <c r="B73" s="46" t="s">
         <v>291</v>
       </c>
-      <c r="C73" s="42"/>
-      <c r="D73" s="43"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="43"/>
-      <c r="L73" s="43"/>
-      <c r="M73" s="43"/>
-      <c r="N73" s="43"/>
-      <c r="O73" s="43"/>
-      <c r="P73" s="43"/>
-      <c r="Q73" s="43"/>
-      <c r="R73" s="43"/>
-      <c r="S73" s="43"/>
-      <c r="T73" s="43"/>
-      <c r="U73" s="43" t="s">
+      <c r="C73" s="41"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="42"/>
+      <c r="S73" s="42"/>
+      <c r="T73" s="42"/>
+      <c r="U73" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="V73" s="43"/>
-      <c r="W73" s="43"/>
-      <c r="X73" s="43"/>
-      <c r="Y73" s="43"/>
-      <c r="Z73" s="43"/>
-      <c r="AA73" s="43"/>
-      <c r="AB73" s="43"/>
-      <c r="AC73" s="43"/>
-      <c r="AD73" s="43"/>
-      <c r="AE73" s="43"/>
-      <c r="AF73" s="42"/>
-      <c r="AG73" s="42"/>
+      <c r="V73" s="42"/>
+      <c r="W73" s="42"/>
+      <c r="X73" s="42"/>
+      <c r="Y73" s="42"/>
+      <c r="Z73" s="42"/>
+      <c r="AA73" s="42"/>
+      <c r="AB73" s="42"/>
+      <c r="AC73" s="42"/>
+      <c r="AD73" s="42"/>
+      <c r="AE73" s="42"/>
+      <c r="AF73" s="41"/>
+      <c r="AG73" s="41"/>
       <c r="AH73" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="AI73" s="42"/>
-      <c r="AJ73" s="42"/>
+      <c r="AI73" s="41"/>
+      <c r="AJ73" s="41"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="40" t="s">
@@ -4587,44 +4587,44 @@
       <c r="B74" s="46" t="s">
         <v>294</v>
       </c>
-      <c r="C74" s="42"/>
-      <c r="D74" s="43"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="43"/>
-      <c r="O74" s="43"/>
-      <c r="P74" s="43"/>
-      <c r="Q74" s="43"/>
-      <c r="R74" s="43"/>
-      <c r="S74" s="43"/>
-      <c r="T74" s="43"/>
-      <c r="U74" s="43" t="s">
+      <c r="C74" s="41"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="42"/>
+      <c r="P74" s="42"/>
+      <c r="Q74" s="42"/>
+      <c r="R74" s="42"/>
+      <c r="S74" s="42"/>
+      <c r="T74" s="42"/>
+      <c r="U74" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="V74" s="43"/>
-      <c r="W74" s="43"/>
-      <c r="X74" s="43"/>
-      <c r="Y74" s="43"/>
-      <c r="Z74" s="43"/>
-      <c r="AA74" s="43"/>
-      <c r="AB74" s="43"/>
-      <c r="AC74" s="43"/>
-      <c r="AD74" s="43"/>
-      <c r="AE74" s="43"/>
-      <c r="AF74" s="42"/>
-      <c r="AG74" s="42"/>
+      <c r="V74" s="42"/>
+      <c r="W74" s="42"/>
+      <c r="X74" s="42"/>
+      <c r="Y74" s="42"/>
+      <c r="Z74" s="42"/>
+      <c r="AA74" s="42"/>
+      <c r="AB74" s="42"/>
+      <c r="AC74" s="42"/>
+      <c r="AD74" s="42"/>
+      <c r="AE74" s="42"/>
+      <c r="AF74" s="41"/>
+      <c r="AG74" s="41"/>
       <c r="AH74" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="AI74" s="42"/>
-      <c r="AJ74" s="42"/>
+      <c r="AI74" s="41"/>
+      <c r="AJ74" s="41"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="40" t="s">
@@ -4633,54 +4633,54 @@
       <c r="B75" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="C75" s="42"/>
-      <c r="D75" s="43"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="43"/>
-      <c r="M75" s="43"/>
-      <c r="N75" s="43"/>
-      <c r="O75" s="43"/>
-      <c r="P75" s="43"/>
-      <c r="Q75" s="43"/>
-      <c r="R75" s="43"/>
-      <c r="S75" s="43"/>
-      <c r="T75" s="43"/>
-      <c r="U75" s="43" t="s">
+      <c r="C75" s="41"/>
+      <c r="D75" s="42"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="42"/>
+      <c r="L75" s="42"/>
+      <c r="M75" s="42"/>
+      <c r="N75" s="42"/>
+      <c r="O75" s="42"/>
+      <c r="P75" s="42"/>
+      <c r="Q75" s="42"/>
+      <c r="R75" s="42"/>
+      <c r="S75" s="42"/>
+      <c r="T75" s="42"/>
+      <c r="U75" s="42" t="s">
         <v>298</v>
       </c>
-      <c r="V75" s="43"/>
-      <c r="W75" s="43"/>
-      <c r="X75" s="43"/>
-      <c r="Y75" s="43"/>
-      <c r="Z75" s="43"/>
-      <c r="AA75" s="43"/>
-      <c r="AB75" s="43"/>
-      <c r="AC75" s="43"/>
-      <c r="AD75" s="43"/>
-      <c r="AE75" s="43"/>
-      <c r="AF75" s="42"/>
-      <c r="AG75" s="42"/>
+      <c r="V75" s="42"/>
+      <c r="W75" s="42"/>
+      <c r="X75" s="42"/>
+      <c r="Y75" s="42"/>
+      <c r="Z75" s="42"/>
+      <c r="AA75" s="42"/>
+      <c r="AB75" s="42"/>
+      <c r="AC75" s="42"/>
+      <c r="AD75" s="42"/>
+      <c r="AE75" s="42"/>
+      <c r="AF75" s="41"/>
+      <c r="AG75" s="41"/>
       <c r="AH75" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="AI75" s="42"/>
-      <c r="AJ75" s="42"/>
+      <c r="AI75" s="41"/>
+      <c r="AJ75" s="41"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="47" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B76" s="47" t="s">
         <v>300</v>
       </c>
       <c r="C76" s="45" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D76" s="48"/>
       <c r="E76" s="49"/>
@@ -4723,42 +4723,42 @@
       <c r="B77" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="C77" s="42"/>
-      <c r="D77" s="43"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="43"/>
-      <c r="N77" s="43"/>
-      <c r="O77" s="43"/>
-      <c r="P77" s="43"/>
-      <c r="Q77" s="43"/>
-      <c r="R77" s="43"/>
-      <c r="S77" s="43"/>
-      <c r="T77" s="43"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="42"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="42"/>
+      <c r="L77" s="42"/>
+      <c r="M77" s="42"/>
+      <c r="N77" s="42"/>
+      <c r="O77" s="42"/>
+      <c r="P77" s="42"/>
+      <c r="Q77" s="42"/>
+      <c r="R77" s="42"/>
+      <c r="S77" s="42"/>
+      <c r="T77" s="42"/>
       <c r="U77" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="V77" s="43"/>
-      <c r="W77" s="43"/>
-      <c r="X77" s="43"/>
-      <c r="Y77" s="43"/>
-      <c r="Z77" s="43"/>
-      <c r="AA77" s="43"/>
-      <c r="AB77" s="43"/>
-      <c r="AC77" s="43"/>
-      <c r="AD77" s="43"/>
-      <c r="AE77" s="43"/>
-      <c r="AF77" s="42"/>
-      <c r="AG77" s="42"/>
-      <c r="AH77" s="42"/>
-      <c r="AI77" s="42"/>
-      <c r="AJ77" s="42"/>
+      <c r="V77" s="42"/>
+      <c r="W77" s="42"/>
+      <c r="X77" s="42"/>
+      <c r="Y77" s="42"/>
+      <c r="Z77" s="42"/>
+      <c r="AA77" s="42"/>
+      <c r="AB77" s="42"/>
+      <c r="AC77" s="42"/>
+      <c r="AD77" s="42"/>
+      <c r="AE77" s="42"/>
+      <c r="AF77" s="41"/>
+      <c r="AG77" s="41"/>
+      <c r="AH77" s="41"/>
+      <c r="AI77" s="41"/>
+      <c r="AJ77" s="41"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="40" t="s">
@@ -4767,42 +4767,42 @@
       <c r="B78" s="46" t="s">
         <v>303</v>
       </c>
-      <c r="C78" s="42"/>
-      <c r="D78" s="43"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="43"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="43"/>
-      <c r="M78" s="43"/>
-      <c r="N78" s="43"/>
-      <c r="O78" s="43"/>
-      <c r="P78" s="43"/>
-      <c r="Q78" s="43"/>
-      <c r="R78" s="43"/>
-      <c r="S78" s="43"/>
-      <c r="T78" s="43"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="42"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+      <c r="J78" s="42"/>
+      <c r="K78" s="42"/>
+      <c r="L78" s="42"/>
+      <c r="M78" s="42"/>
+      <c r="N78" s="42"/>
+      <c r="O78" s="42"/>
+      <c r="P78" s="42"/>
+      <c r="Q78" s="42"/>
+      <c r="R78" s="42"/>
+      <c r="S78" s="42"/>
+      <c r="T78" s="42"/>
       <c r="U78" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="V78" s="43"/>
-      <c r="W78" s="43"/>
-      <c r="X78" s="43"/>
-      <c r="Y78" s="43"/>
-      <c r="Z78" s="43"/>
-      <c r="AA78" s="43"/>
-      <c r="AB78" s="43"/>
-      <c r="AC78" s="43"/>
-      <c r="AD78" s="43"/>
-      <c r="AE78" s="43"/>
-      <c r="AF78" s="42"/>
-      <c r="AG78" s="42"/>
-      <c r="AH78" s="42"/>
-      <c r="AI78" s="42"/>
-      <c r="AJ78" s="42"/>
+      <c r="V78" s="42"/>
+      <c r="W78" s="42"/>
+      <c r="X78" s="42"/>
+      <c r="Y78" s="42"/>
+      <c r="Z78" s="42"/>
+      <c r="AA78" s="42"/>
+      <c r="AB78" s="42"/>
+      <c r="AC78" s="42"/>
+      <c r="AD78" s="42"/>
+      <c r="AE78" s="42"/>
+      <c r="AF78" s="41"/>
+      <c r="AG78" s="41"/>
+      <c r="AH78" s="41"/>
+      <c r="AI78" s="41"/>
+      <c r="AJ78" s="41"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="40" t="s">
@@ -4811,42 +4811,42 @@
       <c r="B79" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="C79" s="42"/>
-      <c r="D79" s="43"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="43"/>
-      <c r="J79" s="43"/>
-      <c r="K79" s="43"/>
-      <c r="L79" s="43"/>
-      <c r="M79" s="43"/>
-      <c r="N79" s="43"/>
-      <c r="O79" s="43"/>
-      <c r="P79" s="43"/>
-      <c r="Q79" s="43"/>
-      <c r="R79" s="43"/>
-      <c r="S79" s="43"/>
-      <c r="T79" s="43"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="42"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+      <c r="J79" s="42"/>
+      <c r="K79" s="42"/>
+      <c r="L79" s="42"/>
+      <c r="M79" s="42"/>
+      <c r="N79" s="42"/>
+      <c r="O79" s="42"/>
+      <c r="P79" s="42"/>
+      <c r="Q79" s="42"/>
+      <c r="R79" s="42"/>
+      <c r="S79" s="42"/>
+      <c r="T79" s="42"/>
       <c r="U79" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="V79" s="43"/>
-      <c r="W79" s="43"/>
-      <c r="X79" s="43"/>
-      <c r="Y79" s="43"/>
-      <c r="Z79" s="43"/>
-      <c r="AA79" s="43"/>
-      <c r="AB79" s="43"/>
-      <c r="AC79" s="43"/>
-      <c r="AD79" s="43"/>
-      <c r="AE79" s="43"/>
-      <c r="AF79" s="42"/>
-      <c r="AG79" s="42"/>
-      <c r="AH79" s="42"/>
-      <c r="AI79" s="42"/>
-      <c r="AJ79" s="42"/>
+      <c r="V79" s="42"/>
+      <c r="W79" s="42"/>
+      <c r="X79" s="42"/>
+      <c r="Y79" s="42"/>
+      <c r="Z79" s="42"/>
+      <c r="AA79" s="42"/>
+      <c r="AB79" s="42"/>
+      <c r="AC79" s="42"/>
+      <c r="AD79" s="42"/>
+      <c r="AE79" s="42"/>
+      <c r="AF79" s="41"/>
+      <c r="AG79" s="41"/>
+      <c r="AH79" s="41"/>
+      <c r="AI79" s="41"/>
+      <c r="AJ79" s="41"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="40" t="s">
@@ -4855,42 +4855,42 @@
       <c r="B80" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="C80" s="42"/>
-      <c r="D80" s="43"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
-      <c r="J80" s="43"/>
-      <c r="K80" s="43"/>
-      <c r="L80" s="43"/>
-      <c r="M80" s="43"/>
-      <c r="N80" s="43"/>
-      <c r="O80" s="43"/>
-      <c r="P80" s="43"/>
-      <c r="Q80" s="43"/>
-      <c r="R80" s="43"/>
-      <c r="S80" s="43"/>
-      <c r="T80" s="43"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="42"/>
+      <c r="P80" s="42"/>
+      <c r="Q80" s="42"/>
+      <c r="R80" s="42"/>
+      <c r="S80" s="42"/>
+      <c r="T80" s="42"/>
       <c r="U80" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="V80" s="43"/>
-      <c r="W80" s="43"/>
-      <c r="X80" s="43"/>
-      <c r="Y80" s="43"/>
-      <c r="Z80" s="43"/>
-      <c r="AA80" s="43"/>
-      <c r="AB80" s="43"/>
-      <c r="AC80" s="43"/>
-      <c r="AD80" s="43"/>
-      <c r="AE80" s="43"/>
-      <c r="AF80" s="42"/>
-      <c r="AG80" s="42"/>
-      <c r="AH80" s="42"/>
-      <c r="AI80" s="42"/>
-      <c r="AJ80" s="42"/>
+      <c r="V80" s="42"/>
+      <c r="W80" s="42"/>
+      <c r="X80" s="42"/>
+      <c r="Y80" s="42"/>
+      <c r="Z80" s="42"/>
+      <c r="AA80" s="42"/>
+      <c r="AB80" s="42"/>
+      <c r="AC80" s="42"/>
+      <c r="AD80" s="42"/>
+      <c r="AE80" s="42"/>
+      <c r="AF80" s="41"/>
+      <c r="AG80" s="41"/>
+      <c r="AH80" s="41"/>
+      <c r="AI80" s="41"/>
+      <c r="AJ80" s="41"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="40" t="s">
@@ -4899,42 +4899,42 @@
       <c r="B81" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="C81" s="42"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="43"/>
-      <c r="J81" s="43"/>
-      <c r="K81" s="43"/>
-      <c r="L81" s="43"/>
-      <c r="M81" s="43"/>
-      <c r="N81" s="43"/>
-      <c r="O81" s="43"/>
-      <c r="P81" s="43"/>
-      <c r="Q81" s="43"/>
-      <c r="R81" s="43"/>
-      <c r="S81" s="43"/>
-      <c r="T81" s="43"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="42"/>
+      <c r="K81" s="42"/>
+      <c r="L81" s="42"/>
+      <c r="M81" s="42"/>
+      <c r="N81" s="42"/>
+      <c r="O81" s="42"/>
+      <c r="P81" s="42"/>
+      <c r="Q81" s="42"/>
+      <c r="R81" s="42"/>
+      <c r="S81" s="42"/>
+      <c r="T81" s="42"/>
       <c r="U81" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="V81" s="43"/>
-      <c r="W81" s="43"/>
-      <c r="X81" s="43"/>
-      <c r="Y81" s="43"/>
-      <c r="Z81" s="43"/>
-      <c r="AA81" s="43"/>
-      <c r="AB81" s="43"/>
-      <c r="AC81" s="43"/>
-      <c r="AD81" s="43"/>
-      <c r="AE81" s="43"/>
-      <c r="AF81" s="42"/>
-      <c r="AG81" s="42"/>
-      <c r="AH81" s="42"/>
-      <c r="AI81" s="42"/>
-      <c r="AJ81" s="42"/>
+      <c r="V81" s="42"/>
+      <c r="W81" s="42"/>
+      <c r="X81" s="42"/>
+      <c r="Y81" s="42"/>
+      <c r="Z81" s="42"/>
+      <c r="AA81" s="42"/>
+      <c r="AB81" s="42"/>
+      <c r="AC81" s="42"/>
+      <c r="AD81" s="42"/>
+      <c r="AE81" s="42"/>
+      <c r="AF81" s="41"/>
+      <c r="AG81" s="41"/>
+      <c r="AH81" s="41"/>
+      <c r="AI81" s="41"/>
+      <c r="AJ81" s="41"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="40" t="s">
@@ -4943,42 +4943,42 @@
       <c r="B82" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="C82" s="42"/>
-      <c r="D82" s="43"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="43"/>
-      <c r="J82" s="43"/>
-      <c r="K82" s="43"/>
-      <c r="L82" s="43"/>
-      <c r="M82" s="43"/>
-      <c r="N82" s="43"/>
-      <c r="O82" s="43"/>
-      <c r="P82" s="43"/>
-      <c r="Q82" s="43"/>
-      <c r="R82" s="43"/>
-      <c r="S82" s="43"/>
-      <c r="T82" s="43"/>
-      <c r="U82" s="43" t="s">
+      <c r="C82" s="41"/>
+      <c r="D82" s="42"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+      <c r="J82" s="42"/>
+      <c r="K82" s="42"/>
+      <c r="L82" s="42"/>
+      <c r="M82" s="42"/>
+      <c r="N82" s="42"/>
+      <c r="O82" s="42"/>
+      <c r="P82" s="42"/>
+      <c r="Q82" s="42"/>
+      <c r="R82" s="42"/>
+      <c r="S82" s="42"/>
+      <c r="T82" s="42"/>
+      <c r="U82" s="42" t="s">
         <v>312</v>
       </c>
-      <c r="V82" s="43"/>
-      <c r="W82" s="43"/>
-      <c r="X82" s="43"/>
-      <c r="Y82" s="43"/>
-      <c r="Z82" s="43"/>
-      <c r="AA82" s="43"/>
-      <c r="AB82" s="43"/>
-      <c r="AC82" s="43"/>
-      <c r="AD82" s="43"/>
-      <c r="AE82" s="43"/>
-      <c r="AF82" s="42"/>
-      <c r="AG82" s="42"/>
-      <c r="AH82" s="42"/>
-      <c r="AI82" s="42"/>
-      <c r="AJ82" s="42"/>
+      <c r="V82" s="42"/>
+      <c r="W82" s="42"/>
+      <c r="X82" s="42"/>
+      <c r="Y82" s="42"/>
+      <c r="Z82" s="42"/>
+      <c r="AA82" s="42"/>
+      <c r="AB82" s="42"/>
+      <c r="AC82" s="42"/>
+      <c r="AD82" s="42"/>
+      <c r="AE82" s="42"/>
+      <c r="AF82" s="41"/>
+      <c r="AG82" s="41"/>
+      <c r="AH82" s="41"/>
+      <c r="AI82" s="41"/>
+      <c r="AJ82" s="41"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="47" t="s">
@@ -5027,7 +5027,7 @@
         <v>89</v>
       </c>
       <c r="B84" s="47" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C84" s="49"/>
       <c r="D84" s="48"/>
@@ -5105,19 +5105,19 @@
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="15"/>
@@ -5136,292 +5136,292 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
+        <v>46</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
+        <v>73</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>78</v>
+      <c r="B5" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>82</v>
       </c>
+      <c r="B6" s="26" t="s">
+        <v>83</v>
+      </c>
       <c r="C6" s="28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="C7" s="21"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="C8" s="21"/>
+      <c r="C8" s="23"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="C9" s="21"/>
+      <c r="C9" s="23"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="C10" s="21"/>
+      <c r="C10" s="23"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="21"/>
+      <c r="C11" s="23"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="C12" s="21"/>
+      <c r="C12" s="23"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="C13" s="21"/>
+      <c r="C13" s="23"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="C14" s="21"/>
+      <c r="C14" s="23"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="C15" s="21"/>
+      <c r="C15" s="23"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="C16" s="21"/>
+      <c r="C16" s="23"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="C17" s="21"/>
+      <c r="C17" s="23"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="C18" s="21"/>
+      <c r="C18" s="23"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="C19" s="21"/>
+      <c r="C19" s="23"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="C20" s="21"/>
+      <c r="C20" s="23"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="21"/>
+      <c r="C21" s="23"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="21"/>
+      <c r="C22" s="23"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="21"/>
+      <c r="C23" s="23"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="21"/>
+      <c r="C24" s="23"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="21"/>
+      <c r="C25" s="23"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="21"/>
+      <c r="C26" s="23"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="21"/>
+      <c r="C27" s="23"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="21"/>
+      <c r="C28" s="23"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="21"/>
+      <c r="C29" s="23"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="21"/>
+      <c r="C30" s="23"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="21"/>
+      <c r="C31" s="23"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="21"/>
+      <c r="C32" s="23"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="21"/>
+      <c r="C33" s="23"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="21"/>
+      <c r="C34" s="23"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="21"/>
+      <c r="C35" s="23"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="21"/>
+      <c r="C36" s="23"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="21"/>
+      <c r="C37" s="23"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="21"/>
+      <c r="C38" s="23"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="21"/>
+      <c r="C39" s="23"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="21"/>
+      <c r="C40" s="23"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="21"/>
+      <c r="C41" s="23"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="21"/>
+      <c r="C42" s="23"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="21"/>
+      <c r="C43" s="23"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="21"/>
+      <c r="C44" s="23"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="21"/>
+      <c r="C45" s="23"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="21"/>
+      <c r="C46" s="23"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="21"/>
+      <c r="C47" s="23"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="21"/>
+      <c r="C48" s="23"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="21"/>
+      <c r="C49" s="23"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="21"/>
+      <c r="C50" s="23"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="21"/>
+      <c r="C51" s="23"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="21"/>
+      <c r="C52" s="23"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="21"/>
+      <c r="C53" s="23"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="21"/>
+      <c r="C54" s="23"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="21"/>
+      <c r="C55" s="23"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="21"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="21"/>
+      <c r="C57" s="23"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="21"/>
+      <c r="C58" s="23"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="21"/>
+      <c r="C59" s="23"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="21"/>
+      <c r="C60" s="23"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="21"/>
+      <c r="C61" s="23"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="21"/>
+      <c r="C62" s="23"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="21"/>
+      <c r="C63" s="23"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="21"/>
+      <c r="C64" s="23"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="21"/>
+      <c r="C65" s="23"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="21"/>
+      <c r="C66" s="23"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="21"/>
+      <c r="C67" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5452,22 +5452,22 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>29</v>
+        <v>54</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -5490,25 +5490,25 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>58</v>
       </c>
       <c r="C2" s="22">
         <f>NOW()</f>
-        <v>43754.22831</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>69</v>
+        <v>43755.20806</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>78</v>
       </c>
       <c r="F2" s="15"/>
-      <c r="G2" s="25" t="s">
-        <v>70</v>
+      <c r="G2" s="27" t="s">
+        <v>79</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
@@ -5565,19 +5565,19 @@
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>10</v>
       </c>
       <c r="J1" s="15"/>
@@ -5596,1078 +5596,1078 @@
       <c r="W1" s="15"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
+      <c r="A2" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
+      <c r="A3" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
+      <c r="A5" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
+      <c r="A6" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
+      <c r="A7" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
+      <c r="A8" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
+      <c r="A9" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
+      <c r="A11" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
+      <c r="A12" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
+      <c r="A13" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
+      <c r="A14" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
+      <c r="A15" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
+      <c r="A16" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="23"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
+      <c r="W17" s="23"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
+      <c r="A18" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
+      <c r="A19" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
+      <c r="A20" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
+      <c r="A21" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
+      <c r="A22" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
+      <c r="A23" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
+      <c r="A25" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="23"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
+      <c r="A26" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="23"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
+      <c r="A27" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="23"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>165</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
+      <c r="A28" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
+      <c r="A29" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
+      <c r="A31" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
+      <c r="A32" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="23"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C43" t="s">
         <v>181</v>
-      </c>
-      <c r="B43" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -6678,26 +6678,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -6707,25 +6707,25 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>211</v>
-      </c>
-      <c r="C48" s="26" t="s">
+      <c r="A48" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
+      <c r="B48" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
       <c r="N48" s="15"/>
       <c r="O48" s="15"/>
       <c r="P48" s="15"/>
@@ -6738,25 +6738,25 @@
       <c r="W48" s="15"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
+      <c r="A49" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
       <c r="N49" s="15"/>
       <c r="O49" s="15"/>
       <c r="P49" s="15"/>
@@ -6771,18 +6771,18 @@
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C51" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B52" t="s">
         <v>223</v>
@@ -6793,7 +6793,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B53" t="s">
         <v>225</v>
@@ -6804,7 +6804,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B54" t="s">
         <v>227</v>
@@ -6815,7 +6815,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B55" t="s">
         <v>229</v>
@@ -6826,58 +6826,58 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="24" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B59" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="24" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="24" t="s">
         <v>236</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="24" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="B61" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>169</v>
+      <c r="B61" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
@@ -6888,7 +6888,7 @@
       <c r="B63" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="24" t="s">
         <v>240</v>
       </c>
     </row>
@@ -6899,7 +6899,7 @@
       <c r="B64" s="15" t="s">
         <v>241</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="24" t="s">
         <v>242</v>
       </c>
     </row>
@@ -6910,7 +6910,7 @@
       <c r="B65" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="24" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       <c r="B66" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="24" t="s">
         <v>246</v>
       </c>
     </row>
@@ -6932,7 +6932,7 @@
       <c r="B67" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="24" t="s">
         <v>248</v>
       </c>
     </row>
@@ -6967,8 +6967,8 @@
       <c r="B72" t="s">
         <v>255</v>
       </c>
-      <c r="C72" s="41" t="s">
-        <v>207</v>
+      <c r="C72" s="43" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -6987,10 +6987,10 @@
         <v>254</v>
       </c>
       <c r="B74" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C74" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/pregnancy_danger_sign_follow_up.xlsx
+++ b/config/default/forms/app/pregnancy_danger_sign_follow_up.xlsx
@@ -31,23 +31,119 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="323">
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>form_title</t>
+  </si>
   <si>
     <t>list_name</t>
   </si>
   <si>
-    <t>form_title</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>label::en</t>
   </si>
   <si>
+    <t>label::hi</t>
+  </si>
+  <si>
+    <t>label::id</t>
+  </si>
+  <si>
+    <t>label::sw</t>
+  </si>
+  <si>
+    <t>label::ne</t>
+  </si>
+  <si>
+    <t>label::es</t>
+  </si>
+  <si>
+    <t>label::fr</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>constraint_message::en</t>
+  </si>
+  <si>
+    <t>constraint_message::hi</t>
+  </si>
+  <si>
+    <t>constraint_message::id</t>
+  </si>
+  <si>
+    <t>constraint_message::sw</t>
+  </si>
+  <si>
+    <t>constraint_message::ne</t>
+  </si>
+  <si>
+    <t>constraint_message::es</t>
+  </si>
+  <si>
+    <t>constraint_message::fr</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
+    <t>hint::en</t>
+  </si>
+  <si>
+    <t>hint::hi</t>
+  </si>
+  <si>
+    <t>hint::id</t>
+  </si>
+  <si>
+    <t>hint::sw</t>
+  </si>
+  <si>
+    <t>hint::ne</t>
+  </si>
+  <si>
+    <t>hint::es</t>
+  </si>
+  <si>
+    <t>hint::fr</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>media::image</t>
+  </si>
+  <si>
+    <t>instance::tag</t>
+  </si>
+  <si>
+    <t>repeat_count</t>
+  </si>
+  <si>
+    <t>cht::notes</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -66,102 +162,6 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>label::hi</t>
-  </si>
-  <si>
-    <t>label::id</t>
-  </si>
-  <si>
-    <t>label::sw</t>
-  </si>
-  <si>
-    <t>label::ne</t>
-  </si>
-  <si>
-    <t>label::es</t>
-  </si>
-  <si>
-    <t>label::fr</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>appearance</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>constraint_message::en</t>
-  </si>
-  <si>
-    <t>constraint_message::hi</t>
-  </si>
-  <si>
-    <t>constraint_message::id</t>
-  </si>
-  <si>
-    <t>constraint_message::sw</t>
-  </si>
-  <si>
-    <t>constraint_message::ne</t>
-  </si>
-  <si>
-    <t>constraint_message::es</t>
-  </si>
-  <si>
-    <t>constraint_message::fr</t>
-  </si>
-  <si>
-    <t>calculation</t>
-  </si>
-  <si>
-    <t>choice_filter</t>
-  </si>
-  <si>
-    <t>hint::en</t>
-  </si>
-  <si>
-    <t>hint::hi</t>
-  </si>
-  <si>
-    <t>hint::id</t>
-  </si>
-  <si>
-    <t>hint::sw</t>
-  </si>
-  <si>
-    <t>hint::ne</t>
-  </si>
-  <si>
-    <t>hint::es</t>
-  </si>
-  <si>
-    <t>hint::fr</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>media::image</t>
-  </si>
-  <si>
-    <t>instance::tag</t>
-  </si>
-  <si>
-    <t>repeat_count</t>
-  </si>
-  <si>
-    <t>cht::notes</t>
-  </si>
-  <si>
-    <t>begin group</t>
-  </si>
-  <si>
     <t>Pregnancy danger sign follow-up</t>
   </si>
   <si>
@@ -174,6 +174,15 @@
     <t>pregnancy_danger_sign_follow_up</t>
   </si>
   <si>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>./source = 'user'</t>
   </si>
   <si>
@@ -189,21 +198,51 @@
     <t>Source</t>
   </si>
   <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>Source ID</t>
+  </si>
+  <si>
     <t>pages</t>
   </si>
   <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>source_id</t>
-  </si>
-  <si>
-    <t>Source ID</t>
-  </si>
-  <si>
     <t>contact</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>translate_woman_label</t>
+  </si>
+  <si>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>the woman</t>
+  </si>
+  <si>
+    <t>translate_woman_start_label</t>
+  </si>
+  <si>
+    <t>woman-start</t>
+  </si>
+  <si>
+    <t>The woman</t>
+  </si>
+  <si>
     <t>db:person</t>
   </si>
   <si>
@@ -219,9 +258,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>short_name</t>
   </si>
   <si>
@@ -249,60 +285,24 @@
     <t>parent</t>
   </si>
   <si>
-    <t>yes_no</t>
-  </si>
-  <si>
     <t>Parent ID</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>chw_name</t>
   </si>
   <si>
     <t>CHW name</t>
   </si>
   <si>
-    <t>translate_woman_label</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
     <t>CHW phone</t>
   </si>
   <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>the woman</t>
-  </si>
-  <si>
-    <t>translate_woman_start_label</t>
-  </si>
-  <si>
-    <t>woman-start</t>
-  </si>
-  <si>
-    <t>The woman</t>
-  </si>
-  <si>
     <t>end group</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
     <t>calculate</t>
   </si>
   <si>
@@ -342,27 +342,60 @@
     <t>Patient Short Name</t>
   </si>
   <si>
+    <t>lmp_approximations</t>
+  </si>
+  <si>
     <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_label)</t>
   </si>
   <si>
+    <t>upto_2_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 2 Months Ago</t>
+  </si>
+  <si>
     <t>patient_short_name_start</t>
   </si>
   <si>
     <t>Patient Sort Name Start Label</t>
   </si>
   <si>
+    <t>upto_3_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 3 Months Ago</t>
+  </si>
+  <si>
     <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_start_label)</t>
   </si>
   <si>
+    <t>upto_4_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 4 Months Ago</t>
+  </si>
+  <si>
     <t>t_danger_signs_referral_follow_up_date</t>
   </si>
   <si>
     <t>Danger Signs Follow Up Date</t>
   </si>
   <si>
+    <t>between_5_and_6_months_ago</t>
+  </si>
+  <si>
+    <t>Between 5 And 6 Months Ago</t>
+  </si>
+  <si>
     <t>date-time(floor(decimal-date-time(today())) + 3)</t>
   </si>
   <si>
+    <t>between_7_and_8_months_ago</t>
+  </si>
+  <si>
+    <t>Between 7 And 8 Months Ago</t>
+  </si>
+  <si>
     <t>t_danger_signs_referral_follow_up</t>
   </si>
   <si>
@@ -372,70 +405,70 @@
     <t>../danger_signs/r_danger_sign_present</t>
   </si>
   <si>
+    <t>trimester1_choices</t>
+  </si>
+  <si>
+    <t>eat_extra_meal</t>
+  </si>
+  <si>
+    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
+  </si>
+  <si>
     <t>pregnancy_uuid_ctx</t>
   </si>
   <si>
     <t>Pregnancy UUID</t>
   </si>
   <si>
+    <t>take_iron_and_folic_acid</t>
+  </si>
+  <si>
+    <t>Take iron and folic acid tablets</t>
+  </si>
+  <si>
     <t>if(instance('contact-summary')/context/pregnancy_uuid != '', instance('contact-summary')/context/pregnancy_uuid, .)</t>
   </si>
   <si>
-    <t>lmp_approximations</t>
-  </si>
-  <si>
-    <t>upto_2_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 2 Months Ago</t>
-  </si>
-  <si>
-    <t>upto_3_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 3 Months Ago</t>
-  </si>
-  <si>
-    <t>upto_4_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 4 Months Ago</t>
+    <t>avoid_heavy_work</t>
+  </si>
+  <si>
+    <t>Avoid heavy work, rest more</t>
+  </si>
+  <si>
+    <t>sleep_under_bednet</t>
+  </si>
+  <si>
+    <t>Sleep under an insecticide treated bednet</t>
+  </si>
+  <si>
+    <t>go_for_anc_visit</t>
+  </si>
+  <si>
+    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
+  </si>
+  <si>
+    <t>develop_birth_plan</t>
+  </si>
+  <si>
+    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
+  </si>
+  <si>
+    <t>trimester2_choices</t>
   </si>
   <si>
     <t>danger_signs</t>
   </si>
   <si>
-    <t>between_5_and_6_months_ago</t>
-  </si>
-  <si>
     <t>Danger Sign Follow-up</t>
   </si>
   <si>
-    <t>Between 5 And 6 Months Ago</t>
-  </si>
-  <si>
-    <t>between_7_and_8_months_ago</t>
-  </si>
-  <si>
-    <t>Between 7 And 8 Months Ago</t>
-  </si>
-  <si>
-    <t>trimester1_choices</t>
-  </si>
-  <si>
-    <t>eat_extra_meal</t>
-  </si>
-  <si>
-    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
+    <t>couselling_on_exclusive_breastfeeding</t>
   </si>
   <si>
     <t>select_one yes_no</t>
   </si>
   <si>
-    <t>take_iron_and_folic_acid</t>
-  </si>
-  <si>
-    <t>Take iron and folic acid tablets</t>
+    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
   </si>
   <si>
     <t>visit_confirm</t>
@@ -444,33 +477,54 @@
     <t>Did ${patient_short_name} visit the health facility as recommended?</t>
   </si>
   <si>
-    <t>avoid_heavy_work</t>
-  </si>
-  <si>
-    <t>Avoid heavy work, rest more</t>
-  </si>
-  <si>
-    <t>sleep_under_bednet</t>
-  </si>
-  <si>
-    <t>Sleep under an insecticide treated bednet</t>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>heart_condition</t>
+  </si>
+  <si>
+    <t>Heart condition</t>
+  </si>
+  <si>
+    <t>asthma</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>high_blood_pressure</t>
   </si>
   <si>
     <t>danger_sign_present</t>
   </si>
   <si>
+    <t>High blood pressure</t>
+  </si>
+  <si>
     <t>Is she still experiencing any danger signs?</t>
   </si>
   <si>
+    <t>known_diabetes</t>
+  </si>
+  <si>
+    <t>Known diabetes</t>
+  </si>
+  <si>
     <t>note</t>
   </si>
   <si>
     <t>congratulate_no_ds_note</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
     <t xml:space="preserve">Great news! Please closely monitor her until her next scheduled ANC check-up at the health facility. </t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>../danger_sign_present = 'no'</t>
   </si>
   <si>
@@ -480,19 +534,16 @@
     <t xml:space="preserve">The mother should visit the health facility immediately if she is experiencing any of these danger signs. </t>
   </si>
   <si>
-    <t>go_for_anc_visit</t>
-  </si>
-  <si>
-    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
+    <t>hiv_statuses</t>
+  </si>
+  <si>
+    <t>known</t>
   </si>
   <si>
     <t>../danger_sign_present = 'yes'</t>
   </si>
   <si>
-    <t>develop_birth_plan</t>
-  </si>
-  <si>
-    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
+    <t>unknown</t>
   </si>
   <si>
     <t>refer_patient_note_2</t>
@@ -501,15 +552,15 @@
     <t xml:space="preserve">Please advise her to do so and accompany her if possible. </t>
   </si>
   <si>
-    <t>trimester2_choices</t>
-  </si>
-  <si>
     <t>danger_signs_question_note</t>
   </si>
   <si>
     <t xml:space="preserve">Please indicate which danger signs ${patient_short_name} is experiencing. </t>
   </si>
   <si>
+    <t>fp_methods</t>
+  </si>
+  <si>
     <t>vaginal_bleeding</t>
   </si>
   <si>
@@ -522,85 +573,37 @@
     <t>Fits</t>
   </si>
   <si>
-    <t>couselling_on_exclusive_breastfeeding</t>
-  </si>
-  <si>
-    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
-  </si>
-  <si>
     <t>severe_abdominal_pain</t>
   </si>
   <si>
-    <t>conditions</t>
-  </si>
-  <si>
     <t>Severe abdominal pain</t>
   </si>
   <si>
-    <t>heart_condition</t>
-  </si>
-  <si>
-    <t>Heart condition</t>
-  </si>
-  <si>
-    <t>asthma</t>
-  </si>
-  <si>
-    <t>Asthma</t>
-  </si>
-  <si>
     <t>severe_headache</t>
   </si>
   <si>
     <t>Severe headache</t>
   </si>
   <si>
-    <t>high_blood_pressure</t>
-  </si>
-  <si>
-    <t>High blood pressure</t>
-  </si>
-  <si>
-    <t>known_diabetes</t>
-  </si>
-  <si>
-    <t>Known diabetes</t>
-  </si>
-  <si>
     <t>very_pale</t>
   </si>
   <si>
     <t>Very pale</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
     <t>fever</t>
   </si>
   <si>
     <t>Fever</t>
   </si>
   <si>
-    <t>hiv_statuses</t>
-  </si>
-  <si>
-    <t>known</t>
-  </si>
-  <si>
     <t>reduced_or_no_fetal_movements</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>Reduced or no fetal movements</t>
   </si>
   <si>
-    <t>fp_methods</t>
+    <t>Combined oral contraceptives</t>
   </si>
   <si>
     <t>breaking_water</t>
@@ -609,34 +612,37 @@
     <t>Breaking of water</t>
   </si>
   <si>
+    <t>Progesterone only pills</t>
+  </si>
+  <si>
     <t>easily_tired</t>
   </si>
   <si>
     <t>Getting tired easily</t>
   </si>
   <si>
+    <t>Injectibles</t>
+  </si>
+  <si>
     <t>face_hand_swelling</t>
   </si>
   <si>
     <t>Swelling of face and hands</t>
   </si>
   <si>
+    <t>Implants (1 rod)</t>
+  </si>
+  <si>
     <t>breathlessness</t>
   </si>
   <si>
     <t>Breathlessness</t>
   </si>
   <si>
-    <t>Combined oral contraceptives</t>
-  </si>
-  <si>
     <t>r_danger_sign_present</t>
   </si>
   <si>
-    <t>Progesterone only pills</t>
-  </si>
-  <si>
-    <t>Injectibles</t>
+    <t>Implants (2 rods)</t>
   </si>
   <si>
     <t>if((selected(../vaginal_bleeding, 'yes')
@@ -654,12 +660,6 @@
 'yes', 'no')</t>
   </si>
   <si>
-    <t>Implants (1 rod)</t>
-  </si>
-  <si>
-    <t>Implants (2 rods)</t>
-  </si>
-  <si>
     <t>IUD</t>
   </si>
   <si>
@@ -687,45 +687,45 @@
     <t>custom_woman_label</t>
   </si>
   <si>
+    <t>jr:choice-name(${custom_woman_label_translator},'${custom_woman_label_translator}')</t>
+  </si>
+  <si>
+    <t>select_one translate_woman_start_label</t>
+  </si>
+  <si>
+    <t>custom_woman_start_label_translator</t>
+  </si>
+  <si>
+    <t>"woman-start"</t>
+  </si>
+  <si>
     <t>reasons_not_on_fp</t>
   </si>
   <si>
+    <t>custom_woman_start_label</t>
+  </si>
+  <si>
+    <t>jr:choice-name(${custom_woman_start_label_translator},'${custom_woman_start_label_translator}')</t>
+  </si>
+  <si>
     <t>Wants to get pregnant</t>
   </si>
   <si>
-    <t>jr:choice-name(${custom_woman_label_translator},'${custom_woman_label_translator}')</t>
-  </si>
-  <si>
-    <t>select_one translate_woman_start_label</t>
-  </si>
-  <si>
     <t>Did not want FP</t>
   </si>
   <si>
-    <t>custom_woman_start_label_translator</t>
-  </si>
-  <si>
     <t>follow_up_methods</t>
   </si>
   <si>
-    <t>"woman-start"</t>
-  </si>
-  <si>
     <t>in_person</t>
   </si>
   <si>
     <t>In person</t>
   </si>
   <si>
-    <t>custom_woman_start_label</t>
-  </si>
-  <si>
     <t>by_phone</t>
   </si>
   <si>
-    <t>jr:choice-name(${custom_woman_start_label_translator},'${custom_woman_start_label_translator}')</t>
-  </si>
-  <si>
     <t>By phone</t>
   </si>
   <si>
@@ -846,129 +846,129 @@
     <t>__visited_hf</t>
   </si>
   <si>
+    <t>${visit_confirm}</t>
+  </si>
+  <si>
     <t>Whether or not the woman was taken to the health facility as recommended.</t>
   </si>
   <si>
-    <t>${visit_confirm}</t>
-  </si>
-  <si>
     <t>__still_experiencing_danger_sign</t>
   </si>
   <si>
+    <t>${danger_sign_present}</t>
+  </si>
+  <si>
     <t>Whether or not the woman is still experiencing any danger signs.</t>
   </si>
   <si>
-    <t>${danger_sign_present}</t>
-  </si>
-  <si>
     <t>__vaginal_bleeding</t>
   </si>
   <si>
+    <t>${vaginal_bleeding}</t>
+  </si>
+  <si>
     <t>Whether or not the woman is experiencing vaginal bleeding.</t>
   </si>
   <si>
-    <t>${vaginal_bleeding}</t>
-  </si>
-  <si>
     <t>__fits</t>
   </si>
   <si>
+    <t>${fits}</t>
+  </si>
+  <si>
     <t>Whether or not the woman is suffering from fits.</t>
   </si>
   <si>
-    <t>${fits}</t>
-  </si>
-  <si>
     <t>__severe_abdominal_pain</t>
   </si>
   <si>
+    <t>${severe_abdominal_pain}</t>
+  </si>
+  <si>
     <t>Whether or not the woman is suffering from abdominal pain.</t>
   </si>
   <si>
-    <t>${severe_abdominal_pain}</t>
-  </si>
-  <si>
     <t>__severe_headache</t>
   </si>
   <si>
+    <t>${severe_headache}</t>
+  </si>
+  <si>
     <t>Whether or not the woman is suffering from severe headaches.</t>
   </si>
   <si>
-    <t>${severe_headache}</t>
-  </si>
-  <si>
     <t>__very_pale</t>
   </si>
   <si>
+    <t>${very_pale}</t>
+  </si>
+  <si>
     <t>Whether or not the woman appears very pale.</t>
   </si>
   <si>
-    <t>${very_pale}</t>
-  </si>
-  <si>
     <t>__fever</t>
   </si>
   <si>
+    <t>${fever}</t>
+  </si>
+  <si>
     <t>Whether or not the woman has a fever.</t>
   </si>
   <si>
-    <t>${fever}</t>
-  </si>
-  <si>
     <t>__reduced_or_no_fetal_movements</t>
   </si>
   <si>
+    <t>${reduced_or_no_fetal_movements}</t>
+  </si>
+  <si>
     <t>Whether or not the woman is experiencing reduced or no fetal movements.</t>
   </si>
   <si>
-    <t>${reduced_or_no_fetal_movements}</t>
-  </si>
-  <si>
     <t>__breaking_water</t>
   </si>
   <si>
+    <t>${breaking_water}</t>
+  </si>
+  <si>
     <t>Whether or not the woman's water has broken.</t>
   </si>
   <si>
-    <t>${breaking_water}</t>
-  </si>
-  <si>
     <t>__easily_tired</t>
   </si>
   <si>
+    <t>${easily_tired}</t>
+  </si>
+  <si>
     <t>Whether or not the woman tires easily.</t>
   </si>
   <si>
-    <t>${easily_tired}</t>
-  </si>
-  <si>
     <t>__face_hand_swelling</t>
   </si>
   <si>
+    <t>${face_hand_swelling}</t>
+  </si>
+  <si>
     <t>Whether or not the woman is suffering from swelling in the face and hands.</t>
   </si>
   <si>
-    <t>${face_hand_swelling}</t>
-  </si>
-  <si>
     <t>__breathlessness</t>
   </si>
   <si>
+    <t>${breathlessness}</t>
+  </si>
+  <si>
     <t>Whether or not the woman is suffering from breathlessness.</t>
   </si>
   <si>
-    <t>${breathlessness}</t>
-  </si>
-  <si>
     <t>__has_danger_sign</t>
   </si>
   <si>
+    <t>${r_danger_sign_present}</t>
+  </si>
+  <si>
     <t>Whether or not any danger signs are present.</t>
   </si>
   <si>
-    <t>${r_danger_sign_present}</t>
-  </si>
-  <si>
     <t>meta</t>
   </si>
   <si>
@@ -987,12 +987,12 @@
     <t>__household_uuid</t>
   </si>
   <si>
-    <t>Household uuid</t>
-  </si>
-  <si>
     <t>../../../inputs/contact/parent/_id</t>
   </si>
   <si>
+    <t>Household UUID</t>
+  </si>
+  <si>
     <t>__source</t>
   </si>
   <si>
@@ -1002,10 +1002,10 @@
     <t>__source_id</t>
   </si>
   <si>
+    <t>../../../inputs/source_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">Source ID </t>
-  </si>
-  <si>
-    <t>../../../inputs/source_id</t>
   </si>
   <si>
     <t>__pregnancy_uuid</t>
@@ -1029,11 +1029,11 @@
     </font>
     <font>
       <b/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
@@ -1043,10 +1043,10 @@
     </font>
     <font/>
     <font>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1076,18 +1076,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF3F3F3"/>
-        <bgColor rgb="FFF3F3F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
         <bgColor rgb="FFFCE5CD"/>
       </patternFill>
@@ -1108,6 +1096,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D2E9"/>
         <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1147,72 +1147,70 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <right/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1220,15 +1218,20 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -1248,27 +1251,36 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1332,1034 +1344,1034 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="W1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="Y1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="Z1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="AA1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="AB1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AC1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AD1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AF1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AG1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AH1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11" t="s">
+      <c r="A3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
+      <c r="C3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
+      <c r="A4" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="15" t="s">
+      <c r="A5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="17"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-      <c r="AJ6" s="11"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="11"/>
-      <c r="U7" s="11"/>
-      <c r="V7" s="11"/>
-      <c r="W7" s="11"/>
-      <c r="X7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="11"/>
-      <c r="AA7" s="11"/>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="11"/>
-      <c r="AG7" s="11"/>
-      <c r="AH7" s="11"/>
-      <c r="AI7" s="11"/>
-      <c r="AJ7" s="11"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="11"/>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="11"/>
-      <c r="X8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
-      <c r="AE8" s="11"/>
-      <c r="AF8" s="11"/>
-      <c r="AG8" s="11"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="11"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11"/>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="11"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-      <c r="AJ10" s="11"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
-      <c r="AJ11" s="11"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="15" t="s">
+      <c r="C15" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-      <c r="U12" s="11"/>
-      <c r="V12" s="11"/>
-      <c r="W12" s="11"/>
-      <c r="X12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="11"/>
-      <c r="AA12" s="11"/>
-      <c r="AB12" s="11"/>
-      <c r="AC12" s="11"/>
-      <c r="AD12" s="11"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="11"/>
-      <c r="AG12" s="11"/>
-      <c r="AH12" s="11"/>
-      <c r="AI12" s="11"/>
-      <c r="AJ12" s="11"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
-      <c r="X13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="11"/>
-      <c r="AA13" s="11"/>
-      <c r="AB13" s="11"/>
-      <c r="AC13" s="11"/>
-      <c r="AD13" s="11"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="11"/>
-      <c r="AG13" s="11"/>
-      <c r="AH13" s="11"/>
-      <c r="AI13" s="11"/>
-      <c r="AJ13" s="11"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
-      <c r="AJ14" s="11"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
-      <c r="AJ15" s="11"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
-      <c r="X16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="11"/>
-      <c r="AA16" s="11"/>
-      <c r="AB16" s="11"/>
-      <c r="AC16" s="11"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="11"/>
-      <c r="AG16" s="11"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="11"/>
-      <c r="AJ16" s="11"/>
+      <c r="A16" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
-      <c r="AH17" s="11"/>
-      <c r="AI17" s="11"/>
-      <c r="AJ17" s="11"/>
+      <c r="A17" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="11"/>
+      <c r="A18" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
-      <c r="AH19" s="11"/>
-      <c r="AI19" s="11"/>
-      <c r="AJ19" s="11"/>
+      <c r="A19" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
-      <c r="AH20" s="11"/>
-      <c r="AI20" s="11"/>
-      <c r="AJ20" s="11"/>
+      <c r="A20" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
-      <c r="AH21" s="11"/>
-      <c r="AI21" s="11"/>
-      <c r="AJ21" s="11"/>
+      <c r="A21" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
-      <c r="AH22" s="11"/>
-      <c r="AI22" s="11"/>
-      <c r="AJ22" s="11"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="AF23" s="29"/>
@@ -2405,7 +2417,7 @@
       <c r="AD24" s="32"/>
       <c r="AE24" s="32"/>
       <c r="AF24" s="33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG24" s="32"/>
       <c r="AH24" s="32"/>
@@ -2453,7 +2465,7 @@
       <c r="AD25" s="32"/>
       <c r="AE25" s="32"/>
       <c r="AF25" s="33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG25" s="32"/>
       <c r="AH25" s="32"/>
@@ -2465,10 +2477,10 @@
         <v>90</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -2477,7 +2489,7 @@
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
       <c r="J26" s="32" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
@@ -2503,7 +2515,7 @@
       <c r="AD26" s="32"/>
       <c r="AE26" s="32"/>
       <c r="AF26" s="33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG26" s="32"/>
       <c r="AH26" s="32"/>
@@ -2551,7 +2563,7 @@
       <c r="AD27" s="32"/>
       <c r="AE27" s="32"/>
       <c r="AF27" s="33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG27" s="32"/>
       <c r="AH27" s="32"/>
@@ -2586,7 +2598,7 @@
       <c r="S28" s="32"/>
       <c r="T28" s="32"/>
       <c r="U28" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="V28" s="32"/>
       <c r="W28" s="32"/>
@@ -2599,7 +2611,7 @@
       <c r="AD28" s="32"/>
       <c r="AE28" s="32"/>
       <c r="AF28" s="33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG28" s="32"/>
       <c r="AH28" s="32"/>
@@ -2611,10 +2623,10 @@
         <v>90</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
@@ -2634,7 +2646,7 @@
       <c r="S29" s="32"/>
       <c r="T29" s="32"/>
       <c r="U29" s="33" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="V29" s="32"/>
       <c r="W29" s="32"/>
@@ -2647,7 +2659,7 @@
       <c r="AD29" s="32"/>
       <c r="AE29" s="32"/>
       <c r="AF29" s="33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG29" s="32"/>
       <c r="AH29" s="32"/>
@@ -2659,10 +2671,10 @@
         <v>90</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
@@ -2682,7 +2694,7 @@
       <c r="S30" s="32"/>
       <c r="T30" s="32"/>
       <c r="U30" s="33" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="V30" s="32"/>
       <c r="W30" s="32"/>
@@ -2695,7 +2707,7 @@
       <c r="AD30" s="32"/>
       <c r="AE30" s="32"/>
       <c r="AF30" s="33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG30" s="32"/>
       <c r="AH30" s="32"/>
@@ -2707,10 +2719,10 @@
         <v>90</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
@@ -2730,7 +2742,7 @@
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
       <c r="U31" s="33" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="V31" s="32"/>
       <c r="W31" s="32"/>
@@ -2743,7 +2755,7 @@
       <c r="AD31" s="32"/>
       <c r="AE31" s="32"/>
       <c r="AF31" s="33" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG31" s="32"/>
       <c r="AH31" s="32"/>
@@ -2755,10 +2767,10 @@
         <v>90</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
@@ -2778,7 +2790,7 @@
       <c r="S32" s="32"/>
       <c r="T32" s="32"/>
       <c r="U32" s="33" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="V32" s="32"/>
       <c r="W32" s="32"/>
@@ -2805,13 +2817,13 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="35" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="D34" s="37"/>
       <c r="E34" s="37"/>
@@ -2822,7 +2834,7 @@
       <c r="J34" s="37"/>
       <c r="K34" s="36"/>
       <c r="L34" s="36" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M34" s="37"/>
       <c r="N34" s="37"/>
@@ -2851,13 +2863,13 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="38" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
@@ -2866,7 +2878,7 @@
       <c r="H35" s="37"/>
       <c r="I35" s="37"/>
       <c r="J35" s="37" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="K35" s="37"/>
       <c r="L35" s="37"/>
@@ -2897,13 +2909,13 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="38" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="D36" s="37"/>
       <c r="E36" s="37"/>
@@ -2912,7 +2924,7 @@
       <c r="H36" s="37"/>
       <c r="I36" s="37"/>
       <c r="J36" s="37" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="K36" s="37"/>
       <c r="L36" s="37"/>
@@ -2943,13 +2955,13 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="35" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="D37" s="37"/>
       <c r="E37" s="37"/>
@@ -2959,7 +2971,7 @@
       <c r="I37" s="37"/>
       <c r="J37" s="37"/>
       <c r="K37" s="36" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="L37" s="37"/>
       <c r="M37" s="37"/>
@@ -2982,7 +2994,7 @@
       <c r="AD37" s="37"/>
       <c r="AE37" s="37"/>
       <c r="AF37" s="36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG37" s="37"/>
       <c r="AH37" s="37"/>
@@ -2991,13 +3003,13 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="38" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="D38" s="37"/>
       <c r="E38" s="37"/>
@@ -3007,7 +3019,7 @@
       <c r="I38" s="37"/>
       <c r="J38" s="37"/>
       <c r="K38" s="36" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="L38" s="37"/>
       <c r="M38" s="37"/>
@@ -3030,7 +3042,7 @@
       <c r="AD38" s="37"/>
       <c r="AE38" s="37"/>
       <c r="AF38" s="36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG38" s="37"/>
       <c r="AH38" s="37"/>
@@ -3039,13 +3051,13 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="38" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
@@ -3055,7 +3067,7 @@
       <c r="I39" s="37"/>
       <c r="J39" s="37"/>
       <c r="K39" s="36" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="L39" s="37"/>
       <c r="M39" s="37"/>
@@ -3078,7 +3090,7 @@
       <c r="AD39" s="37"/>
       <c r="AE39" s="37"/>
       <c r="AF39" s="36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG39" s="37"/>
       <c r="AH39" s="37"/>
@@ -3087,13 +3099,13 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="38" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="D40" s="37"/>
       <c r="E40" s="37"/>
@@ -3103,7 +3115,7 @@
       <c r="I40" s="37"/>
       <c r="J40" s="37"/>
       <c r="K40" s="36" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="L40" s="37"/>
       <c r="M40" s="37"/>
@@ -3126,7 +3138,7 @@
       <c r="AD40" s="37"/>
       <c r="AE40" s="37"/>
       <c r="AF40" s="36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG40" s="37"/>
       <c r="AH40" s="37"/>
@@ -3135,13 +3147,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="38" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="D41" s="37"/>
       <c r="E41" s="37"/>
@@ -3150,10 +3162,10 @@
       <c r="H41" s="37"/>
       <c r="I41" s="37"/>
       <c r="J41" s="37" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="K41" s="36" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="L41" s="37"/>
       <c r="M41" s="37"/>
@@ -3183,13 +3195,13 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="38" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="D42" s="37"/>
       <c r="E42" s="37"/>
@@ -3198,10 +3210,10 @@
       <c r="H42" s="37"/>
       <c r="I42" s="37"/>
       <c r="J42" s="37" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="K42" s="36" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="L42" s="37"/>
       <c r="M42" s="37"/>
@@ -3231,13 +3243,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="38" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="D43" s="37"/>
       <c r="E43" s="37"/>
@@ -3246,10 +3258,10 @@
       <c r="H43" s="37"/>
       <c r="I43" s="37"/>
       <c r="J43" s="37" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="K43" s="36" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="L43" s="37"/>
       <c r="M43" s="37"/>
@@ -3279,13 +3291,13 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="38" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
@@ -3294,10 +3306,10 @@
       <c r="H44" s="37"/>
       <c r="I44" s="37"/>
       <c r="J44" s="37" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="K44" s="36" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="L44" s="37"/>
       <c r="M44" s="37"/>
@@ -3327,13 +3339,13 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="38" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
@@ -3342,10 +3354,10 @@
       <c r="H45" s="37"/>
       <c r="I45" s="37"/>
       <c r="J45" s="37" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="K45" s="36" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="L45" s="37"/>
       <c r="M45" s="37"/>
@@ -3375,13 +3387,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="38" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D46" s="37"/>
       <c r="E46" s="37"/>
@@ -3390,10 +3402,10 @@
       <c r="H46" s="37"/>
       <c r="I46" s="37"/>
       <c r="J46" s="37" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="K46" s="36" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="L46" s="37"/>
       <c r="M46" s="37"/>
@@ -3423,13 +3435,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="38" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D47" s="37"/>
       <c r="E47" s="37"/>
@@ -3438,10 +3450,10 @@
       <c r="H47" s="37"/>
       <c r="I47" s="37"/>
       <c r="J47" s="37" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="K47" s="36" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="L47" s="37"/>
       <c r="M47" s="37"/>
@@ -3471,13 +3483,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="38" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D48" s="37"/>
       <c r="E48" s="37"/>
@@ -3486,10 +3498,10 @@
       <c r="H48" s="37"/>
       <c r="I48" s="37"/>
       <c r="J48" s="37" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="K48" s="36" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="L48" s="37"/>
       <c r="M48" s="37"/>
@@ -3519,13 +3531,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="38" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D49" s="37"/>
       <c r="E49" s="37"/>
@@ -3534,10 +3546,10 @@
       <c r="H49" s="37"/>
       <c r="I49" s="37"/>
       <c r="J49" s="37" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="K49" s="36" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="L49" s="37"/>
       <c r="M49" s="37"/>
@@ -3567,13 +3579,13 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="38" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D50" s="37"/>
       <c r="E50" s="37"/>
@@ -3582,10 +3594,10 @@
       <c r="H50" s="37"/>
       <c r="I50" s="37"/>
       <c r="J50" s="37" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="K50" s="36" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="L50" s="37"/>
       <c r="M50" s="37"/>
@@ -3615,13 +3627,13 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="38" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D51" s="37"/>
       <c r="E51" s="37"/>
@@ -3630,10 +3642,10 @@
       <c r="H51" s="37"/>
       <c r="I51" s="37"/>
       <c r="J51" s="37" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="K51" s="36" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="L51" s="37"/>
       <c r="M51" s="37"/>
@@ -3666,7 +3678,7 @@
         <v>90</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C52" s="37" t="s">
         <v>45</v>
@@ -3689,7 +3701,7 @@
       <c r="S52" s="37"/>
       <c r="T52" s="37"/>
       <c r="U52" s="40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="V52" s="37"/>
       <c r="W52" s="37"/>
@@ -3702,7 +3714,7 @@
       <c r="AD52" s="37"/>
       <c r="AE52" s="37"/>
       <c r="AF52" s="36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG52" s="37"/>
       <c r="AH52" s="37"/>
@@ -3711,7 +3723,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="35" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B53" s="35" t="s">
         <v>207</v>
@@ -3728,7 +3740,7 @@
       <c r="J53" s="37"/>
       <c r="K53" s="37"/>
       <c r="L53" s="36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M53" s="37"/>
       <c r="N53" s="37"/>
@@ -3750,7 +3762,7 @@
       <c r="AD53" s="37"/>
       <c r="AE53" s="37"/>
       <c r="AF53" s="36" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG53" s="37"/>
       <c r="AH53" s="37"/>
@@ -3831,7 +3843,7 @@
       <c r="S55" s="37"/>
       <c r="T55" s="37"/>
       <c r="U55" s="36" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="V55" s="37"/>
       <c r="W55" s="37"/>
@@ -3851,10 +3863,10 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="35" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C56" s="37" t="s">
         <v>45</v>
@@ -3877,7 +3889,7 @@
       <c r="S56" s="37"/>
       <c r="T56" s="37"/>
       <c r="U56" s="36" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="V56" s="37"/>
       <c r="W56" s="37"/>
@@ -3900,7 +3912,7 @@
         <v>90</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C57" s="37" t="s">
         <v>45</v>
@@ -3923,7 +3935,7 @@
       <c r="S57" s="37"/>
       <c r="T57" s="37"/>
       <c r="U57" s="36" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="V57" s="37"/>
       <c r="W57" s="37"/>
@@ -3943,7 +3955,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B58" s="38"/>
       <c r="C58" s="36"/>
@@ -3983,7 +3995,7 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B59" s="38"/>
       <c r="C59" s="36"/>
@@ -4035,7 +4047,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="41" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B61" s="41" t="s">
         <v>62</v>
@@ -4052,7 +4064,7 @@
       <c r="J61" s="43"/>
       <c r="K61" s="43"/>
       <c r="L61" s="45" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M61" s="43"/>
       <c r="N61" s="43"/>
@@ -4074,7 +4086,7 @@
       <c r="AD61" s="43"/>
       <c r="AE61" s="43"/>
       <c r="AF61" s="46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG61" s="42"/>
       <c r="AH61" s="42"/>
@@ -4088,8 +4100,8 @@
       <c r="B62" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="C62" s="45" t="s">
-        <v>267</v>
+      <c r="C62" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D62" s="43"/>
       <c r="E62" s="42"/>
@@ -4109,7 +4121,7 @@
       <c r="S62" s="43"/>
       <c r="T62" s="43"/>
       <c r="U62" s="42" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="V62" s="43"/>
       <c r="W62" s="43"/>
@@ -4122,11 +4134,11 @@
       <c r="AD62" s="43"/>
       <c r="AE62" s="43"/>
       <c r="AF62" s="46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG62" s="42"/>
       <c r="AH62" s="45" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AI62" s="42"/>
       <c r="AJ62" s="42"/>
@@ -4138,8 +4150,8 @@
       <c r="B63" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="C63" s="45" t="s">
-        <v>270</v>
+      <c r="C63" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D63" s="43"/>
       <c r="E63" s="42"/>
@@ -4159,7 +4171,7 @@
       <c r="S63" s="43"/>
       <c r="T63" s="43"/>
       <c r="U63" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="V63" s="43"/>
       <c r="W63" s="43"/>
@@ -4172,11 +4184,11 @@
       <c r="AD63" s="43"/>
       <c r="AE63" s="43"/>
       <c r="AF63" s="46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG63" s="42"/>
       <c r="AH63" s="45" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AI63" s="42"/>
       <c r="AJ63" s="42"/>
@@ -4188,8 +4200,8 @@
       <c r="B64" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="C64" s="45" t="s">
-        <v>273</v>
+      <c r="C64" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D64" s="43"/>
       <c r="E64" s="42"/>
@@ -4209,7 +4221,7 @@
       <c r="S64" s="43"/>
       <c r="T64" s="43"/>
       <c r="U64" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V64" s="43"/>
       <c r="W64" s="43"/>
@@ -4222,11 +4234,11 @@
       <c r="AD64" s="43"/>
       <c r="AE64" s="43"/>
       <c r="AF64" s="46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG64" s="42"/>
       <c r="AH64" s="45" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AI64" s="42"/>
       <c r="AJ64" s="42"/>
@@ -4238,8 +4250,8 @@
       <c r="B65" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="C65" s="45" t="s">
-        <v>276</v>
+      <c r="C65" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D65" s="43"/>
       <c r="E65" s="42"/>
@@ -4259,7 +4271,7 @@
       <c r="S65" s="43"/>
       <c r="T65" s="43"/>
       <c r="U65" s="43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="V65" s="43"/>
       <c r="W65" s="43"/>
@@ -4272,11 +4284,11 @@
       <c r="AD65" s="43"/>
       <c r="AE65" s="43"/>
       <c r="AF65" s="46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG65" s="42"/>
       <c r="AH65" s="45" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AI65" s="42"/>
       <c r="AJ65" s="42"/>
@@ -4288,8 +4300,8 @@
       <c r="B66" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="C66" s="45" t="s">
-        <v>279</v>
+      <c r="C66" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D66" s="43"/>
       <c r="E66" s="42"/>
@@ -4309,7 +4321,7 @@
       <c r="S66" s="43"/>
       <c r="T66" s="43"/>
       <c r="U66" s="43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="V66" s="43"/>
       <c r="W66" s="43"/>
@@ -4322,11 +4334,11 @@
       <c r="AD66" s="43"/>
       <c r="AE66" s="43"/>
       <c r="AF66" s="46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG66" s="42"/>
       <c r="AH66" s="45" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AI66" s="42"/>
       <c r="AJ66" s="42"/>
@@ -4338,8 +4350,8 @@
       <c r="B67" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="C67" s="45" t="s">
-        <v>282</v>
+      <c r="C67" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D67" s="43"/>
       <c r="E67" s="42"/>
@@ -4359,7 +4371,7 @@
       <c r="S67" s="43"/>
       <c r="T67" s="43"/>
       <c r="U67" s="43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V67" s="43"/>
       <c r="W67" s="43"/>
@@ -4372,11 +4384,11 @@
       <c r="AD67" s="43"/>
       <c r="AE67" s="43"/>
       <c r="AF67" s="46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG67" s="42"/>
       <c r="AH67" s="45" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AI67" s="42"/>
       <c r="AJ67" s="42"/>
@@ -4388,8 +4400,8 @@
       <c r="B68" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="C68" s="45" t="s">
-        <v>285</v>
+      <c r="C68" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D68" s="43"/>
       <c r="E68" s="42"/>
@@ -4409,7 +4421,7 @@
       <c r="S68" s="43"/>
       <c r="T68" s="43"/>
       <c r="U68" s="43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="V68" s="43"/>
       <c r="W68" s="43"/>
@@ -4422,11 +4434,11 @@
       <c r="AD68" s="43"/>
       <c r="AE68" s="43"/>
       <c r="AF68" s="46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG68" s="42"/>
       <c r="AH68" s="45" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AI68" s="42"/>
       <c r="AJ68" s="42"/>
@@ -4438,8 +4450,8 @@
       <c r="B69" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="C69" s="45" t="s">
-        <v>288</v>
+      <c r="C69" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D69" s="43"/>
       <c r="E69" s="42"/>
@@ -4459,7 +4471,7 @@
       <c r="S69" s="43"/>
       <c r="T69" s="43"/>
       <c r="U69" s="43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="V69" s="43"/>
       <c r="W69" s="43"/>
@@ -4472,11 +4484,11 @@
       <c r="AD69" s="43"/>
       <c r="AE69" s="43"/>
       <c r="AF69" s="46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG69" s="42"/>
       <c r="AH69" s="45" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AI69" s="42"/>
       <c r="AJ69" s="42"/>
@@ -4488,8 +4500,8 @@
       <c r="B70" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="C70" s="45" t="s">
-        <v>291</v>
+      <c r="C70" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D70" s="43"/>
       <c r="E70" s="42"/>
@@ -4509,7 +4521,7 @@
       <c r="S70" s="43"/>
       <c r="T70" s="43"/>
       <c r="U70" s="45" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="V70" s="43"/>
       <c r="W70" s="43"/>
@@ -4522,11 +4534,11 @@
       <c r="AD70" s="43"/>
       <c r="AE70" s="43"/>
       <c r="AF70" s="46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG70" s="42"/>
       <c r="AH70" s="45" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AI70" s="42"/>
       <c r="AJ70" s="42"/>
@@ -4538,8 +4550,8 @@
       <c r="B71" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="C71" s="45" t="s">
-        <v>294</v>
+      <c r="C71" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D71" s="43"/>
       <c r="E71" s="42"/>
@@ -4559,7 +4571,7 @@
       <c r="S71" s="43"/>
       <c r="T71" s="43"/>
       <c r="U71" s="43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V71" s="43"/>
       <c r="W71" s="43"/>
@@ -4572,11 +4584,11 @@
       <c r="AD71" s="43"/>
       <c r="AE71" s="43"/>
       <c r="AF71" s="46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG71" s="42"/>
       <c r="AH71" s="45" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AI71" s="42"/>
       <c r="AJ71" s="42"/>
@@ -4588,8 +4600,8 @@
       <c r="B72" s="47" t="s">
         <v>296</v>
       </c>
-      <c r="C72" s="45" t="s">
-        <v>297</v>
+      <c r="C72" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D72" s="43"/>
       <c r="E72" s="42"/>
@@ -4609,7 +4621,7 @@
       <c r="S72" s="43"/>
       <c r="T72" s="43"/>
       <c r="U72" s="43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="V72" s="43"/>
       <c r="W72" s="43"/>
@@ -4622,11 +4634,11 @@
       <c r="AD72" s="43"/>
       <c r="AE72" s="43"/>
       <c r="AF72" s="46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG72" s="42"/>
       <c r="AH72" s="45" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AI72" s="42"/>
       <c r="AJ72" s="42"/>
@@ -4638,8 +4650,8 @@
       <c r="B73" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="C73" s="45" t="s">
-        <v>300</v>
+      <c r="C73" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D73" s="43"/>
       <c r="E73" s="42"/>
@@ -4659,7 +4671,7 @@
       <c r="S73" s="43"/>
       <c r="T73" s="43"/>
       <c r="U73" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="V73" s="43"/>
       <c r="W73" s="43"/>
@@ -4672,11 +4684,11 @@
       <c r="AD73" s="43"/>
       <c r="AE73" s="43"/>
       <c r="AF73" s="46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG73" s="42"/>
       <c r="AH73" s="45" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AI73" s="42"/>
       <c r="AJ73" s="42"/>
@@ -4688,8 +4700,8 @@
       <c r="B74" s="47" t="s">
         <v>302</v>
       </c>
-      <c r="C74" s="45" t="s">
-        <v>303</v>
+      <c r="C74" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D74" s="43"/>
       <c r="E74" s="42"/>
@@ -4709,7 +4721,7 @@
       <c r="S74" s="43"/>
       <c r="T74" s="43"/>
       <c r="U74" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="V74" s="43"/>
       <c r="W74" s="43"/>
@@ -4722,11 +4734,11 @@
       <c r="AD74" s="43"/>
       <c r="AE74" s="43"/>
       <c r="AF74" s="46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG74" s="42"/>
       <c r="AH74" s="45" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AI74" s="42"/>
       <c r="AJ74" s="42"/>
@@ -4738,8 +4750,8 @@
       <c r="B75" s="47" t="s">
         <v>305</v>
       </c>
-      <c r="C75" s="45" t="s">
-        <v>306</v>
+      <c r="C75" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D75" s="43"/>
       <c r="E75" s="42"/>
@@ -4759,7 +4771,7 @@
       <c r="S75" s="43"/>
       <c r="T75" s="43"/>
       <c r="U75" s="43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="V75" s="43"/>
       <c r="W75" s="43"/>
@@ -4772,23 +4784,23 @@
       <c r="AD75" s="43"/>
       <c r="AE75" s="43"/>
       <c r="AF75" s="46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG75" s="42"/>
       <c r="AH75" s="45" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AI75" s="42"/>
       <c r="AJ75" s="42"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="48" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B76" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="C76" s="46" t="s">
+      <c r="C76" s="42" t="s">
         <v>45</v>
       </c>
       <c r="D76" s="49"/>
@@ -4820,7 +4832,7 @@
       <c r="AD76" s="49"/>
       <c r="AE76" s="49"/>
       <c r="AF76" s="46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG76" s="50"/>
       <c r="AH76" s="50"/>
@@ -4834,8 +4846,8 @@
       <c r="B77" s="47" t="s">
         <v>309</v>
       </c>
-      <c r="C77" s="45" t="s">
-        <v>95</v>
+      <c r="C77" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D77" s="43"/>
       <c r="E77" s="42"/>
@@ -4868,10 +4880,12 @@
       <c r="AD77" s="43"/>
       <c r="AE77" s="43"/>
       <c r="AF77" s="46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG77" s="42"/>
-      <c r="AH77" s="42"/>
+      <c r="AH77" s="50" t="s">
+        <v>95</v>
+      </c>
       <c r="AI77" s="42"/>
       <c r="AJ77" s="42"/>
     </row>
@@ -4882,8 +4896,8 @@
       <c r="B78" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="C78" s="45" t="s">
-        <v>66</v>
+      <c r="C78" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D78" s="43"/>
       <c r="E78" s="42"/>
@@ -4916,10 +4930,12 @@
       <c r="AD78" s="43"/>
       <c r="AE78" s="43"/>
       <c r="AF78" s="46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG78" s="42"/>
-      <c r="AH78" s="42"/>
+      <c r="AH78" s="50" t="s">
+        <v>78</v>
+      </c>
       <c r="AI78" s="42"/>
       <c r="AJ78" s="42"/>
     </row>
@@ -4930,8 +4946,8 @@
       <c r="B79" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="C79" s="45" t="s">
-        <v>314</v>
+      <c r="C79" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D79" s="43"/>
       <c r="E79" s="42"/>
@@ -4951,7 +4967,7 @@
       <c r="S79" s="43"/>
       <c r="T79" s="43"/>
       <c r="U79" s="49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="V79" s="43"/>
       <c r="W79" s="43"/>
@@ -4964,10 +4980,12 @@
       <c r="AD79" s="43"/>
       <c r="AE79" s="43"/>
       <c r="AF79" s="46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG79" s="42"/>
-      <c r="AH79" s="42"/>
+      <c r="AH79" s="51" t="s">
+        <v>315</v>
+      </c>
       <c r="AI79" s="42"/>
       <c r="AJ79" s="42"/>
     </row>
@@ -4978,8 +4996,8 @@
       <c r="B80" s="47" t="s">
         <v>316</v>
       </c>
-      <c r="C80" s="45" t="s">
-        <v>51</v>
+      <c r="C80" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D80" s="43"/>
       <c r="E80" s="42"/>
@@ -5012,10 +5030,12 @@
       <c r="AD80" s="43"/>
       <c r="AE80" s="43"/>
       <c r="AF80" s="46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG80" s="42"/>
-      <c r="AH80" s="42"/>
+      <c r="AH80" s="50" t="s">
+        <v>54</v>
+      </c>
       <c r="AI80" s="42"/>
       <c r="AJ80" s="42"/>
     </row>
@@ -5026,8 +5046,8 @@
       <c r="B81" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="C81" s="45" t="s">
-        <v>319</v>
+      <c r="C81" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D81" s="43"/>
       <c r="E81" s="42"/>
@@ -5047,7 +5067,7 @@
       <c r="S81" s="43"/>
       <c r="T81" s="43"/>
       <c r="U81" s="49" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="V81" s="43"/>
       <c r="W81" s="43"/>
@@ -5060,10 +5080,12 @@
       <c r="AD81" s="43"/>
       <c r="AE81" s="43"/>
       <c r="AF81" s="46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG81" s="42"/>
-      <c r="AH81" s="42"/>
+      <c r="AH81" s="50" t="s">
+        <v>320</v>
+      </c>
       <c r="AI81" s="42"/>
       <c r="AJ81" s="42"/>
     </row>
@@ -5074,8 +5096,8 @@
       <c r="B82" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="C82" s="45" t="s">
-        <v>114</v>
+      <c r="C82" s="42" t="s">
+        <v>45</v>
       </c>
       <c r="D82" s="43"/>
       <c r="E82" s="42"/>
@@ -5108,16 +5130,18 @@
       <c r="AD82" s="43"/>
       <c r="AE82" s="43"/>
       <c r="AF82" s="46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG82" s="42"/>
-      <c r="AH82" s="42"/>
+      <c r="AH82" s="50" t="s">
+        <v>128</v>
+      </c>
       <c r="AI82" s="42"/>
       <c r="AJ82" s="42"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83" s="48" t="s">
         <v>308</v>
@@ -5152,7 +5176,7 @@
       <c r="AD83" s="49"/>
       <c r="AE83" s="49"/>
       <c r="AF83" s="46" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AG83" s="50"/>
       <c r="AH83" s="50"/>
@@ -5161,7 +5185,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="48" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84" s="48" t="s">
         <v>62</v>
@@ -5201,9 +5225,503 @@
       <c r="AI84" s="50"/>
       <c r="AJ84" s="50"/>
     </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="48"/>
+      <c r="B85" s="48"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="49"/>
+      <c r="E85" s="50"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="49"/>
+      <c r="H85" s="49"/>
+      <c r="I85" s="49"/>
+      <c r="J85" s="49"/>
+      <c r="K85" s="49"/>
+      <c r="L85" s="49"/>
+      <c r="M85" s="49"/>
+      <c r="N85" s="49"/>
+      <c r="O85" s="49"/>
+      <c r="P85" s="49"/>
+      <c r="Q85" s="49"/>
+      <c r="R85" s="49"/>
+      <c r="S85" s="49"/>
+      <c r="T85" s="49"/>
+      <c r="U85" s="49"/>
+      <c r="V85" s="49"/>
+      <c r="W85" s="49"/>
+      <c r="X85" s="49"/>
+      <c r="Y85" s="49"/>
+      <c r="Z85" s="49"/>
+      <c r="AA85" s="49"/>
+      <c r="AB85" s="49"/>
+      <c r="AC85" s="49"/>
+      <c r="AD85" s="49"/>
+      <c r="AE85" s="49"/>
+      <c r="AF85" s="46"/>
+      <c r="AG85" s="50"/>
+      <c r="AH85" s="52"/>
+      <c r="AI85" s="50"/>
+      <c r="AJ85" s="50"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="48"/>
+      <c r="B86" s="48"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="50"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="49"/>
+      <c r="L86" s="49"/>
+      <c r="M86" s="49"/>
+      <c r="N86" s="49"/>
+      <c r="O86" s="49"/>
+      <c r="P86" s="49"/>
+      <c r="Q86" s="49"/>
+      <c r="R86" s="49"/>
+      <c r="S86" s="49"/>
+      <c r="T86" s="49"/>
+      <c r="U86" s="49"/>
+      <c r="V86" s="49"/>
+      <c r="W86" s="49"/>
+      <c r="X86" s="49"/>
+      <c r="Y86" s="49"/>
+      <c r="Z86" s="49"/>
+      <c r="AA86" s="49"/>
+      <c r="AB86" s="49"/>
+      <c r="AC86" s="49"/>
+      <c r="AD86" s="49"/>
+      <c r="AE86" s="49"/>
+      <c r="AF86" s="46"/>
+      <c r="AG86" s="50"/>
+      <c r="AH86" s="50"/>
+      <c r="AI86" s="50"/>
+      <c r="AJ86" s="50"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="48"/>
+      <c r="B87" s="48"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="49"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="49"/>
+      <c r="H87" s="49"/>
+      <c r="I87" s="49"/>
+      <c r="J87" s="49"/>
+      <c r="K87" s="49"/>
+      <c r="L87" s="49"/>
+      <c r="M87" s="49"/>
+      <c r="N87" s="49"/>
+      <c r="O87" s="49"/>
+      <c r="P87" s="49"/>
+      <c r="Q87" s="49"/>
+      <c r="R87" s="49"/>
+      <c r="S87" s="49"/>
+      <c r="T87" s="49"/>
+      <c r="U87" s="49"/>
+      <c r="V87" s="49"/>
+      <c r="W87" s="49"/>
+      <c r="X87" s="49"/>
+      <c r="Y87" s="49"/>
+      <c r="Z87" s="49"/>
+      <c r="AA87" s="49"/>
+      <c r="AB87" s="49"/>
+      <c r="AC87" s="49"/>
+      <c r="AD87" s="49"/>
+      <c r="AE87" s="49"/>
+      <c r="AF87" s="46"/>
+      <c r="AG87" s="50"/>
+      <c r="AH87" s="50"/>
+      <c r="AI87" s="50"/>
+      <c r="AJ87" s="50"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="48"/>
+      <c r="B88" s="48"/>
+      <c r="C88" s="50"/>
+      <c r="D88" s="49"/>
+      <c r="E88" s="50"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="49"/>
+      <c r="H88" s="49"/>
+      <c r="I88" s="49"/>
+      <c r="J88" s="49"/>
+      <c r="K88" s="49"/>
+      <c r="L88" s="49"/>
+      <c r="M88" s="49"/>
+      <c r="N88" s="49"/>
+      <c r="O88" s="49"/>
+      <c r="P88" s="49"/>
+      <c r="Q88" s="49"/>
+      <c r="R88" s="49"/>
+      <c r="S88" s="49"/>
+      <c r="T88" s="49"/>
+      <c r="U88" s="49"/>
+      <c r="V88" s="49"/>
+      <c r="W88" s="49"/>
+      <c r="X88" s="49"/>
+      <c r="Y88" s="49"/>
+      <c r="Z88" s="49"/>
+      <c r="AA88" s="49"/>
+      <c r="AB88" s="49"/>
+      <c r="AC88" s="49"/>
+      <c r="AD88" s="49"/>
+      <c r="AE88" s="49"/>
+      <c r="AF88" s="46"/>
+      <c r="AG88" s="50"/>
+      <c r="AH88" s="52"/>
+      <c r="AI88" s="50"/>
+      <c r="AJ88" s="50"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="48"/>
+      <c r="B89" s="48"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="49"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="49"/>
+      <c r="H89" s="49"/>
+      <c r="I89" s="49"/>
+      <c r="J89" s="49"/>
+      <c r="K89" s="49"/>
+      <c r="L89" s="49"/>
+      <c r="M89" s="49"/>
+      <c r="N89" s="49"/>
+      <c r="O89" s="49"/>
+      <c r="P89" s="49"/>
+      <c r="Q89" s="49"/>
+      <c r="R89" s="49"/>
+      <c r="S89" s="49"/>
+      <c r="T89" s="49"/>
+      <c r="U89" s="49"/>
+      <c r="V89" s="49"/>
+      <c r="W89" s="49"/>
+      <c r="X89" s="49"/>
+      <c r="Y89" s="49"/>
+      <c r="Z89" s="49"/>
+      <c r="AA89" s="49"/>
+      <c r="AB89" s="49"/>
+      <c r="AC89" s="49"/>
+      <c r="AD89" s="49"/>
+      <c r="AE89" s="49"/>
+      <c r="AF89" s="46"/>
+      <c r="AG89" s="50"/>
+      <c r="AH89" s="52"/>
+      <c r="AI89" s="50"/>
+      <c r="AJ89" s="50"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="48"/>
+      <c r="B90" s="48"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="49"/>
+      <c r="E90" s="50"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="49"/>
+      <c r="H90" s="49"/>
+      <c r="I90" s="49"/>
+      <c r="J90" s="49"/>
+      <c r="K90" s="49"/>
+      <c r="L90" s="49"/>
+      <c r="M90" s="49"/>
+      <c r="N90" s="49"/>
+      <c r="O90" s="49"/>
+      <c r="P90" s="49"/>
+      <c r="Q90" s="49"/>
+      <c r="R90" s="49"/>
+      <c r="S90" s="49"/>
+      <c r="T90" s="49"/>
+      <c r="U90" s="49"/>
+      <c r="V90" s="49"/>
+      <c r="W90" s="49"/>
+      <c r="X90" s="49"/>
+      <c r="Y90" s="49"/>
+      <c r="Z90" s="49"/>
+      <c r="AA90" s="49"/>
+      <c r="AB90" s="49"/>
+      <c r="AC90" s="49"/>
+      <c r="AD90" s="49"/>
+      <c r="AE90" s="49"/>
+      <c r="AF90" s="46"/>
+      <c r="AG90" s="50"/>
+      <c r="AH90" s="50"/>
+      <c r="AI90" s="50"/>
+      <c r="AJ90" s="50"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="48"/>
+      <c r="B91" s="48"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="49"/>
+      <c r="E91" s="50"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="49"/>
+      <c r="H91" s="49"/>
+      <c r="I91" s="49"/>
+      <c r="J91" s="49"/>
+      <c r="K91" s="49"/>
+      <c r="L91" s="49"/>
+      <c r="M91" s="49"/>
+      <c r="N91" s="49"/>
+      <c r="O91" s="49"/>
+      <c r="P91" s="49"/>
+      <c r="Q91" s="49"/>
+      <c r="R91" s="49"/>
+      <c r="S91" s="49"/>
+      <c r="T91" s="49"/>
+      <c r="U91" s="49"/>
+      <c r="V91" s="49"/>
+      <c r="W91" s="49"/>
+      <c r="X91" s="49"/>
+      <c r="Y91" s="49"/>
+      <c r="Z91" s="49"/>
+      <c r="AA91" s="49"/>
+      <c r="AB91" s="49"/>
+      <c r="AC91" s="49"/>
+      <c r="AD91" s="49"/>
+      <c r="AE91" s="49"/>
+      <c r="AF91" s="46"/>
+      <c r="AG91" s="50"/>
+      <c r="AH91" s="53"/>
+      <c r="AI91" s="50"/>
+      <c r="AJ91" s="50"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="48"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="49"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="49"/>
+      <c r="H92" s="49"/>
+      <c r="I92" s="49"/>
+      <c r="J92" s="49"/>
+      <c r="K92" s="49"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="49"/>
+      <c r="N92" s="49"/>
+      <c r="O92" s="49"/>
+      <c r="P92" s="49"/>
+      <c r="Q92" s="49"/>
+      <c r="R92" s="49"/>
+      <c r="S92" s="49"/>
+      <c r="T92" s="49"/>
+      <c r="U92" s="49"/>
+      <c r="V92" s="49"/>
+      <c r="W92" s="49"/>
+      <c r="X92" s="49"/>
+      <c r="Y92" s="49"/>
+      <c r="Z92" s="49"/>
+      <c r="AA92" s="49"/>
+      <c r="AB92" s="49"/>
+      <c r="AC92" s="49"/>
+      <c r="AD92" s="49"/>
+      <c r="AE92" s="49"/>
+      <c r="AF92" s="46"/>
+      <c r="AG92" s="50"/>
+      <c r="AH92" s="50"/>
+      <c r="AI92" s="50"/>
+      <c r="AJ92" s="50"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="48"/>
+      <c r="B93" s="48"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="49"/>
+      <c r="E93" s="50"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="49"/>
+      <c r="H93" s="49"/>
+      <c r="I93" s="49"/>
+      <c r="J93" s="49"/>
+      <c r="K93" s="49"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="49"/>
+      <c r="N93" s="49"/>
+      <c r="O93" s="49"/>
+      <c r="P93" s="49"/>
+      <c r="Q93" s="49"/>
+      <c r="R93" s="49"/>
+      <c r="S93" s="49"/>
+      <c r="T93" s="49"/>
+      <c r="U93" s="49"/>
+      <c r="V93" s="49"/>
+      <c r="W93" s="49"/>
+      <c r="X93" s="49"/>
+      <c r="Y93" s="49"/>
+      <c r="Z93" s="49"/>
+      <c r="AA93" s="49"/>
+      <c r="AB93" s="49"/>
+      <c r="AC93" s="49"/>
+      <c r="AD93" s="49"/>
+      <c r="AE93" s="49"/>
+      <c r="AF93" s="46"/>
+      <c r="AG93" s="50"/>
+      <c r="AH93" s="50"/>
+      <c r="AI93" s="50"/>
+      <c r="AJ93" s="50"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="48"/>
+      <c r="B94" s="48"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="49"/>
+      <c r="E94" s="50"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="49"/>
+      <c r="H94" s="49"/>
+      <c r="I94" s="49"/>
+      <c r="J94" s="49"/>
+      <c r="K94" s="49"/>
+      <c r="L94" s="49"/>
+      <c r="M94" s="49"/>
+      <c r="N94" s="49"/>
+      <c r="O94" s="49"/>
+      <c r="P94" s="49"/>
+      <c r="Q94" s="49"/>
+      <c r="R94" s="49"/>
+      <c r="S94" s="49"/>
+      <c r="T94" s="49"/>
+      <c r="U94" s="49"/>
+      <c r="V94" s="49"/>
+      <c r="W94" s="49"/>
+      <c r="X94" s="49"/>
+      <c r="Y94" s="49"/>
+      <c r="Z94" s="49"/>
+      <c r="AA94" s="49"/>
+      <c r="AB94" s="49"/>
+      <c r="AC94" s="49"/>
+      <c r="AD94" s="49"/>
+      <c r="AE94" s="49"/>
+      <c r="AF94" s="46"/>
+      <c r="AG94" s="50"/>
+      <c r="AH94" s="50"/>
+      <c r="AI94" s="50"/>
+      <c r="AJ94" s="50"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="48"/>
+      <c r="B95" s="48"/>
+      <c r="C95" s="50"/>
+      <c r="D95" s="49"/>
+      <c r="E95" s="50"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="49"/>
+      <c r="H95" s="49"/>
+      <c r="I95" s="49"/>
+      <c r="J95" s="49"/>
+      <c r="K95" s="49"/>
+      <c r="L95" s="49"/>
+      <c r="M95" s="49"/>
+      <c r="N95" s="49"/>
+      <c r="O95" s="49"/>
+      <c r="P95" s="49"/>
+      <c r="Q95" s="49"/>
+      <c r="R95" s="49"/>
+      <c r="S95" s="49"/>
+      <c r="T95" s="49"/>
+      <c r="U95" s="49"/>
+      <c r="V95" s="49"/>
+      <c r="W95" s="49"/>
+      <c r="X95" s="49"/>
+      <c r="Y95" s="49"/>
+      <c r="Z95" s="49"/>
+      <c r="AA95" s="49"/>
+      <c r="AB95" s="49"/>
+      <c r="AC95" s="49"/>
+      <c r="AD95" s="49"/>
+      <c r="AE95" s="49"/>
+      <c r="AF95" s="46"/>
+      <c r="AG95" s="50"/>
+      <c r="AH95" s="50"/>
+      <c r="AI95" s="50"/>
+      <c r="AJ95" s="50"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="48"/>
+      <c r="B96" s="48"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="49"/>
+      <c r="E96" s="50"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="49"/>
+      <c r="H96" s="49"/>
+      <c r="I96" s="49"/>
+      <c r="J96" s="49"/>
+      <c r="K96" s="49"/>
+      <c r="L96" s="49"/>
+      <c r="M96" s="49"/>
+      <c r="N96" s="49"/>
+      <c r="O96" s="49"/>
+      <c r="P96" s="49"/>
+      <c r="Q96" s="49"/>
+      <c r="R96" s="49"/>
+      <c r="S96" s="49"/>
+      <c r="T96" s="49"/>
+      <c r="U96" s="49"/>
+      <c r="V96" s="49"/>
+      <c r="W96" s="49"/>
+      <c r="X96" s="49"/>
+      <c r="Y96" s="49"/>
+      <c r="Z96" s="49"/>
+      <c r="AA96" s="49"/>
+      <c r="AB96" s="49"/>
+      <c r="AC96" s="49"/>
+      <c r="AD96" s="49"/>
+      <c r="AE96" s="49"/>
+      <c r="AF96" s="46"/>
+      <c r="AG96" s="50"/>
+      <c r="AH96" s="50"/>
+      <c r="AI96" s="50"/>
+      <c r="AJ96" s="50"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="48"/>
+      <c r="B97" s="48"/>
+      <c r="C97" s="50"/>
+      <c r="D97" s="49"/>
+      <c r="E97" s="50"/>
+      <c r="F97" s="50"/>
+      <c r="G97" s="49"/>
+      <c r="H97" s="49"/>
+      <c r="I97" s="49"/>
+      <c r="J97" s="49"/>
+      <c r="K97" s="49"/>
+      <c r="L97" s="49"/>
+      <c r="M97" s="49"/>
+      <c r="N97" s="49"/>
+      <c r="O97" s="49"/>
+      <c r="P97" s="49"/>
+      <c r="Q97" s="49"/>
+      <c r="R97" s="49"/>
+      <c r="S97" s="49"/>
+      <c r="T97" s="49"/>
+      <c r="U97" s="49"/>
+      <c r="V97" s="49"/>
+      <c r="W97" s="49"/>
+      <c r="X97" s="49"/>
+      <c r="Y97" s="49"/>
+      <c r="Z97" s="49"/>
+      <c r="AA97" s="49"/>
+      <c r="AB97" s="49"/>
+      <c r="AC97" s="49"/>
+      <c r="AD97" s="49"/>
+      <c r="AE97" s="49"/>
+      <c r="AF97" s="46"/>
+      <c r="AG97" s="50"/>
+      <c r="AH97" s="50"/>
+      <c r="AI97" s="50"/>
+      <c r="AJ97" s="50"/>
+    </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J84">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J97">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5230,335 +5748,335 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
+      <c r="A2" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
+      <c r="A3" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>84</v>
+      <c r="A5" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>87</v>
+      <c r="A6" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="C7" s="24"/>
+      <c r="C7" s="21"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="C8" s="24"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="C9" s="24"/>
+      <c r="C9" s="21"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="C10" s="24"/>
+      <c r="C10" s="21"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="24"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="C12" s="24"/>
+      <c r="C12" s="21"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="C13" s="24"/>
+      <c r="C13" s="21"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="C14" s="24"/>
+      <c r="C14" s="21"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="C15" s="24"/>
+      <c r="C15" s="21"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="C16" s="24"/>
+      <c r="C16" s="21"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="C17" s="24"/>
+      <c r="C17" s="21"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="C18" s="24"/>
+      <c r="C18" s="21"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="C19" s="24"/>
+      <c r="C19" s="21"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="C20" s="24"/>
+      <c r="C20" s="21"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="24"/>
+      <c r="C21" s="21"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="24"/>
+      <c r="C22" s="21"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="24"/>
+      <c r="C23" s="21"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="24"/>
+      <c r="C24" s="21"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="24"/>
+      <c r="C25" s="21"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="24"/>
+      <c r="C26" s="21"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="24"/>
+      <c r="C27" s="21"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="24"/>
+      <c r="C28" s="21"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="24"/>
+      <c r="C29" s="21"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="24"/>
+      <c r="C30" s="21"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="24"/>
+      <c r="C31" s="21"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="24"/>
+      <c r="C32" s="21"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="24"/>
+      <c r="C33" s="21"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="24"/>
+      <c r="C34" s="21"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="24"/>
+      <c r="C35" s="21"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="24"/>
+      <c r="C36" s="21"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="24"/>
+      <c r="C37" s="21"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="24"/>
+      <c r="C38" s="21"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="24"/>
+      <c r="C39" s="21"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="24"/>
+      <c r="C40" s="21"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="24"/>
+      <c r="C41" s="21"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="24"/>
+      <c r="C42" s="21"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="24"/>
+      <c r="C43" s="21"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="24"/>
+      <c r="C44" s="21"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="24"/>
+      <c r="C45" s="21"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="24"/>
+      <c r="C46" s="21"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="24"/>
+      <c r="C47" s="21"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="24"/>
+      <c r="C48" s="21"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="24"/>
+      <c r="C49" s="21"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="24"/>
+      <c r="C50" s="21"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="24"/>
+      <c r="C51" s="21"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="24"/>
+      <c r="C52" s="21"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="24"/>
+      <c r="C53" s="21"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="24"/>
+      <c r="C54" s="21"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="24"/>
+      <c r="C55" s="21"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="24"/>
+      <c r="C56" s="21"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="24"/>
+      <c r="C57" s="21"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="24"/>
+      <c r="C58" s="21"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="24"/>
+      <c r="C59" s="21"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="24"/>
+      <c r="C60" s="21"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="24"/>
+      <c r="C61" s="21"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="24"/>
+      <c r="C62" s="21"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="24"/>
+      <c r="C63" s="21"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="24"/>
+      <c r="C64" s="21"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="24"/>
+      <c r="C65" s="21"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="24"/>
+      <c r="C66" s="21"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="24"/>
+      <c r="C67" s="21"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5585,87 +6103,87 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="20">
         <f>NOW()</f>
-        <v>43773.38373</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="17" t="s">
+        <v>43773.51606</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
-      <c r="Z2" s="21"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5690,1067 +6208,1067 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="T2" s="24"/>
-      <c r="U2" s="24"/>
-      <c r="V2" s="24"/>
-      <c r="W2" s="24"/>
+      <c r="A2" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
+      <c r="A3" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="C8" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
-      <c r="U5" s="24"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="24" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C9" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="24"/>
-      <c r="W6" s="24"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="24"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="24" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="B11" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="24"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="24" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="C12" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="24" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="C19" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="24" t="s">
+      <c r="C21" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
-      <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="24" t="s">
+      <c r="C22" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B15" s="24" t="s">
+      <c r="B23" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C25" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B16" s="24" t="s">
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="24"/>
-      <c r="W19" s="24"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="24"/>
-      <c r="W20" s="24"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="24"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B23" s="24" t="s">
+      <c r="C27" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="24"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="24"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="B25" s="24" t="s">
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="21"/>
+      <c r="U29" s="21"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="21"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B31" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="24"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="24" t="s">
+      <c r="C31" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C26" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="24"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
-      <c r="U26" s="24"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="24"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="24"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="24"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
-      <c r="U28" s="24"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="24"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
-      <c r="U31" s="24"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="24"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="B32" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="24"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
-      <c r="U32" s="24"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="24"/>
+      <c r="C32" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
@@ -6762,7 +7280,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
@@ -6774,7 +7292,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
@@ -6786,7 +7304,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
@@ -6798,13 +7316,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B43" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -6815,26 +7333,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -6844,66 +7362,66 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="B48" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="C48" s="25" t="s">
+      <c r="A48" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="21"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="21"/>
-      <c r="W48" s="21"/>
+      <c r="B48" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="B49" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="C49" s="25" t="s">
+      <c r="A49" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C49" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="25"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="16"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
     </row>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
@@ -6966,110 +7484,110 @@
         <v>228</v>
       </c>
       <c r="B56" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="25" t="s">
+      <c r="A58" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="23" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="25" t="s">
+      <c r="A59" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="C59" s="25" t="s">
+      <c r="C59" s="23" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="23" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="B61" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>181</v>
+      <c r="B61" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C63" s="25" t="s">
+      <c r="C63" s="23" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="23" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="23" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="23" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="23" t="s">
         <v>256</v>
       </c>
     </row>
@@ -7105,7 +7623,7 @@
         <v>263</v>
       </c>
       <c r="C72" s="44" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
@@ -7124,10 +7642,10 @@
         <v>262</v>
       </c>
       <c r="B74" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/pregnancy_danger_sign_follow_up.xlsx
+++ b/config/default/forms/app/pregnancy_danger_sign_follow_up.xlsx
@@ -31,138 +31,144 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="323">
   <si>
     <t>type</t>
   </si>
   <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label::en</t>
+  </si>
+  <si>
+    <t>label::hi</t>
+  </si>
+  <si>
+    <t>label::id</t>
+  </si>
+  <si>
+    <t>label::sw</t>
+  </si>
+  <si>
+    <t>label::ne</t>
+  </si>
+  <si>
+    <t>label::es</t>
+  </si>
+  <si>
+    <t>label::fr</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>appearance</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>constraint_message::en</t>
+  </si>
+  <si>
+    <t>constraint_message::hi</t>
+  </si>
+  <si>
+    <t>constraint_message::id</t>
+  </si>
+  <si>
+    <t>constraint_message::sw</t>
+  </si>
+  <si>
+    <t>constraint_message::ne</t>
+  </si>
+  <si>
+    <t>constraint_message::es</t>
+  </si>
+  <si>
+    <t>constraint_message::fr</t>
+  </si>
+  <si>
+    <t>calculation</t>
+  </si>
+  <si>
+    <t>choice_filter</t>
+  </si>
+  <si>
+    <t>hint::en</t>
+  </si>
+  <si>
+    <t>hint::hi</t>
+  </si>
+  <si>
+    <t>hint::id</t>
+  </si>
+  <si>
     <t>form_title</t>
   </si>
   <si>
+    <t>hint::sw</t>
+  </si>
+  <si>
+    <t>hint::ne</t>
+  </si>
+  <si>
+    <t>hint::es</t>
+  </si>
+  <si>
+    <t>hint::fr</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>media::image</t>
+  </si>
+  <si>
+    <t>instance::tag</t>
+  </si>
+  <si>
+    <t>repeat_count</t>
+  </si>
+  <si>
     <t>list_name</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>label::en</t>
-  </si>
-  <si>
-    <t>label::hi</t>
-  </si>
-  <si>
-    <t>label::id</t>
-  </si>
-  <si>
-    <t>label::sw</t>
-  </si>
-  <si>
-    <t>label::ne</t>
-  </si>
-  <si>
-    <t>label::es</t>
-  </si>
-  <si>
-    <t>label::fr</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>appearance</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>constraint_message::en</t>
-  </si>
-  <si>
-    <t>constraint_message::hi</t>
-  </si>
-  <si>
-    <t>constraint_message::id</t>
-  </si>
-  <si>
-    <t>constraint_message::sw</t>
-  </si>
-  <si>
-    <t>constraint_message::ne</t>
-  </si>
-  <si>
-    <t>constraint_message::es</t>
-  </si>
-  <si>
-    <t>constraint_message::fr</t>
-  </si>
-  <si>
-    <t>calculation</t>
-  </si>
-  <si>
-    <t>choice_filter</t>
-  </si>
-  <si>
-    <t>hint::en</t>
-  </si>
-  <si>
-    <t>hint::hi</t>
-  </si>
-  <si>
-    <t>hint::id</t>
-  </si>
-  <si>
-    <t>hint::sw</t>
-  </si>
-  <si>
-    <t>hint::ne</t>
-  </si>
-  <si>
-    <t>hint::es</t>
-  </si>
-  <si>
-    <t>hint::fr</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>media::image</t>
-  </si>
-  <si>
-    <t>instance::tag</t>
-  </si>
-  <si>
-    <t>repeat_count</t>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>default_language</t>
   </si>
   <si>
     <t>cht::notes</t>
   </si>
   <si>
+    <t>Pregnancy danger sign follow-up</t>
+  </si>
+  <si>
     <t>begin group</t>
   </si>
   <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>style</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>instance_name</t>
-  </si>
-  <si>
-    <t>default_language</t>
-  </si>
-  <si>
-    <t>Pregnancy danger sign follow-up</t>
+    <t>pregnancy_danger_sign_follow_up</t>
+  </si>
+  <si>
+    <t>pages</t>
   </si>
   <si>
     <t>inputs</t>
@@ -171,18 +177,27 @@
     <t>NO_LABEL</t>
   </si>
   <si>
-    <t>pregnancy_danger_sign_follow_up</t>
-  </si>
-  <si>
     <t>yes_no</t>
   </si>
   <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
     <t>yes</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>./source = 'user'</t>
   </si>
   <si>
@@ -201,48 +216,33 @@
     <t>user</t>
   </si>
   <si>
+    <t>translate_woman_label</t>
+  </si>
+  <si>
     <t>source_id</t>
   </si>
   <si>
     <t>Source ID</t>
   </si>
   <si>
-    <t>pages</t>
+    <t>woman</t>
+  </si>
+  <si>
+    <t>the woman</t>
+  </si>
+  <si>
+    <t>translate_woman_start_label</t>
+  </si>
+  <si>
+    <t>woman-start</t>
+  </si>
+  <si>
+    <t>The woman</t>
   </si>
   <si>
     <t>contact</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>translate_woman_label</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>the woman</t>
-  </si>
-  <si>
-    <t>translate_woman_start_label</t>
-  </si>
-  <si>
-    <t>woman-start</t>
-  </si>
-  <si>
-    <t>The woman</t>
-  </si>
-  <si>
     <t>db:person</t>
   </si>
   <si>
@@ -309,19 +309,94 @@
     <t>patient_age_in_years</t>
   </si>
   <si>
+    <t>lmp_approximations</t>
+  </si>
+  <si>
+    <t>upto_2_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 2 Months Ago</t>
+  </si>
+  <si>
+    <t>upto_3_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 3 Months Ago</t>
+  </si>
+  <si>
+    <t>floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
+  </si>
+  <si>
+    <t>upto_4_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 4 Months Ago</t>
+  </si>
+  <si>
+    <t>between_5_and_6_months_ago</t>
+  </si>
+  <si>
+    <t>Between 5 And 6 Months Ago</t>
+  </si>
+  <si>
+    <t>between_7_and_8_months_ago</t>
+  </si>
+  <si>
+    <t>Between 7 And 8 Months Ago</t>
+  </si>
+  <si>
+    <t>trimester1_choices</t>
+  </si>
+  <si>
+    <t>eat_extra_meal</t>
+  </si>
+  <si>
+    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
+  </si>
+  <si>
+    <t>take_iron_and_folic_acid</t>
+  </si>
+  <si>
+    <t>Take iron and folic acid tablets</t>
+  </si>
+  <si>
+    <t>avoid_heavy_work</t>
+  </si>
+  <si>
     <t>Patient Age in Years</t>
   </si>
   <si>
-    <t>floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
+    <t>Avoid heavy work, rest more</t>
   </si>
   <si>
     <t>patient_uuid</t>
   </si>
   <si>
+    <t>sleep_under_bednet</t>
+  </si>
+  <si>
+    <t>Sleep under an insecticide treated bednet</t>
+  </si>
+  <si>
+    <t>go_for_anc_visit</t>
+  </si>
+  <si>
+    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
+  </si>
+  <si>
+    <t>../inputs/contact/_id</t>
+  </si>
+  <si>
+    <t>develop_birth_plan</t>
+  </si>
+  <si>
+    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
+  </si>
+  <si>
     <t>Patient UUID</t>
   </si>
   <si>
-    <t>../inputs/contact/_id</t>
+    <t>trimester2_choices</t>
   </si>
   <si>
     <t>../inputs/contact/patient_id</t>
@@ -330,145 +405,130 @@
     <t>patient_name</t>
   </si>
   <si>
+    <t>../inputs/contact/name</t>
+  </si>
+  <si>
+    <t>couselling_on_exclusive_breastfeeding</t>
+  </si>
+  <si>
+    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
+  </si>
+  <si>
     <t>Patient Name</t>
   </si>
   <si>
-    <t>../inputs/contact/name</t>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>heart_condition</t>
+  </si>
+  <si>
+    <t>Heart condition</t>
+  </si>
+  <si>
+    <t>asthma</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>high_blood_pressure</t>
   </si>
   <si>
     <t>patient_short_name</t>
   </si>
   <si>
+    <t>High blood pressure</t>
+  </si>
+  <si>
+    <t>known_diabetes</t>
+  </si>
+  <si>
+    <t>Known diabetes</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_label)</t>
+  </si>
+  <si>
+    <t>hiv_statuses</t>
+  </si>
+  <si>
     <t>Patient Short Name</t>
   </si>
   <si>
-    <t>lmp_approximations</t>
-  </si>
-  <si>
-    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_label)</t>
-  </si>
-  <si>
-    <t>upto_2_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 2 Months Ago</t>
+    <t>known</t>
   </si>
   <si>
     <t>patient_short_name_start</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_start_label)</t>
+  </si>
+  <si>
     <t>Patient Sort Name Start Label</t>
   </si>
   <si>
-    <t>upto_3_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 3 Months Ago</t>
-  </si>
-  <si>
-    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_start_label)</t>
-  </si>
-  <si>
-    <t>upto_4_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 4 Months Ago</t>
-  </si>
-  <si>
     <t>t_danger_signs_referral_follow_up_date</t>
   </si>
   <si>
+    <t>fp_methods</t>
+  </si>
+  <si>
+    <t>date-time(floor(decimal-date-time(today())) + 3)</t>
+  </si>
+  <si>
     <t>Danger Signs Follow Up Date</t>
   </si>
   <si>
-    <t>between_5_and_6_months_ago</t>
-  </si>
-  <si>
-    <t>Between 5 And 6 Months Ago</t>
-  </si>
-  <si>
-    <t>date-time(floor(decimal-date-time(today())) + 3)</t>
-  </si>
-  <si>
-    <t>between_7_and_8_months_ago</t>
-  </si>
-  <si>
-    <t>Between 7 And 8 Months Ago</t>
-  </si>
-  <si>
     <t>t_danger_signs_referral_follow_up</t>
   </si>
   <si>
+    <t>../danger_signs/r_danger_sign_present</t>
+  </si>
+  <si>
     <t>Danger Signs Present</t>
   </si>
   <si>
-    <t>../danger_signs/r_danger_sign_present</t>
-  </si>
-  <si>
-    <t>trimester1_choices</t>
-  </si>
-  <si>
-    <t>eat_extra_meal</t>
-  </si>
-  <si>
-    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
-  </si>
-  <si>
     <t>pregnancy_uuid_ctx</t>
   </si>
   <si>
+    <t>if(instance('contact-summary')/context/pregnancy_uuid != '', instance('contact-summary')/context/pregnancy_uuid, .)</t>
+  </si>
+  <si>
     <t>Pregnancy UUID</t>
   </si>
   <si>
-    <t>take_iron_and_folic_acid</t>
-  </si>
-  <si>
-    <t>Take iron and folic acid tablets</t>
-  </si>
-  <si>
-    <t>if(instance('contact-summary')/context/pregnancy_uuid != '', instance('contact-summary')/context/pregnancy_uuid, .)</t>
-  </si>
-  <si>
-    <t>avoid_heavy_work</t>
-  </si>
-  <si>
-    <t>Avoid heavy work, rest more</t>
-  </si>
-  <si>
-    <t>sleep_under_bednet</t>
-  </si>
-  <si>
-    <t>Sleep under an insecticide treated bednet</t>
-  </si>
-  <si>
-    <t>go_for_anc_visit</t>
-  </si>
-  <si>
-    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
-  </si>
-  <si>
-    <t>develop_birth_plan</t>
-  </si>
-  <si>
-    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
-  </si>
-  <si>
-    <t>trimester2_choices</t>
-  </si>
-  <si>
     <t>danger_signs</t>
   </si>
   <si>
     <t>Danger Sign Follow-up</t>
   </si>
   <si>
-    <t>couselling_on_exclusive_breastfeeding</t>
+    <t>Combined oral contraceptives</t>
+  </si>
+  <si>
+    <t>Progesterone only pills</t>
+  </si>
+  <si>
+    <t>Injectibles</t>
   </si>
   <si>
     <t>select_one yes_no</t>
   </si>
   <si>
-    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
+    <t>Implants (1 rod)</t>
+  </si>
+  <si>
+    <t>Implants (2 rods)</t>
   </si>
   <si>
     <t>visit_confirm</t>
@@ -477,37 +537,19 @@
     <t>Did ${patient_short_name} visit the health facility as recommended?</t>
   </si>
   <si>
-    <t>conditions</t>
-  </si>
-  <si>
-    <t>heart_condition</t>
-  </si>
-  <si>
-    <t>Heart condition</t>
-  </si>
-  <si>
-    <t>asthma</t>
-  </si>
-  <si>
-    <t>Asthma</t>
-  </si>
-  <si>
-    <t>high_blood_pressure</t>
+    <t>IUD</t>
+  </si>
+  <si>
+    <t>Condoms</t>
   </si>
   <si>
     <t>danger_sign_present</t>
   </si>
   <si>
-    <t>High blood pressure</t>
-  </si>
-  <si>
     <t>Is she still experiencing any danger signs?</t>
   </si>
   <si>
-    <t>known_diabetes</t>
-  </si>
-  <si>
-    <t>Known diabetes</t>
+    <t>Tubal ligation</t>
   </si>
   <si>
     <t>note</t>
@@ -516,13 +558,10 @@
     <t>congratulate_no_ds_note</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t xml:space="preserve">Great news! Please closely monitor her until her next scheduled ANC check-up at the health facility. </t>
   </si>
   <si>
-    <t>Other</t>
+    <t>Cycle beads</t>
   </si>
   <si>
     <t>../danger_sign_present = 'no'</t>
@@ -534,18 +573,9 @@
     <t xml:space="preserve">The mother should visit the health facility immediately if she is experiencing any of these danger signs. </t>
   </si>
   <si>
-    <t>hiv_statuses</t>
-  </si>
-  <si>
-    <t>known</t>
-  </si>
-  <si>
     <t>../danger_sign_present = 'yes'</t>
   </si>
   <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>refer_patient_note_2</t>
   </si>
   <si>
@@ -558,7 +588,7 @@
     <t xml:space="preserve">Please indicate which danger signs ${patient_short_name} is experiencing. </t>
   </si>
   <si>
-    <t>fp_methods</t>
+    <t>reasons_not_on_fp</t>
   </si>
   <si>
     <t>vaginal_bleeding</t>
@@ -567,18 +597,60 @@
     <t>Vaginal bleeding</t>
   </si>
   <si>
+    <t>Wants to get pregnant</t>
+  </si>
+  <si>
+    <t>Did not want FP</t>
+  </si>
+  <si>
     <t>fits</t>
   </si>
   <si>
     <t>Fits</t>
   </si>
   <si>
+    <t>follow_up_methods</t>
+  </si>
+  <si>
+    <t>in_person</t>
+  </si>
+  <si>
+    <t>In person</t>
+  </si>
+  <si>
     <t>severe_abdominal_pain</t>
   </si>
   <si>
+    <t>by_phone</t>
+  </si>
+  <si>
     <t>Severe abdominal pain</t>
   </si>
   <si>
+    <t>By phone</t>
+  </si>
+  <si>
+    <t>reasons_for_missing_visit</t>
+  </si>
+  <si>
+    <t>not_reminded</t>
+  </si>
+  <si>
+    <t>She was not reminded</t>
+  </si>
+  <si>
+    <t>travelled</t>
+  </si>
+  <si>
+    <t>She had travelled</t>
+  </si>
+  <si>
+    <t>no_lab_results</t>
+  </si>
+  <si>
+    <t>No Lab results yet</t>
+  </si>
+  <si>
     <t>severe_headache</t>
   </si>
   <si>
@@ -594,16 +666,64 @@
     <t>fever</t>
   </si>
   <si>
+    <t>too_early</t>
+  </si>
+  <si>
     <t>Fever</t>
   </si>
   <si>
+    <t>It is too early to start clinic</t>
+  </si>
+  <si>
+    <t>relocated</t>
+  </si>
+  <si>
+    <t>Relocated</t>
+  </si>
+  <si>
     <t>reduced_or_no_fetal_movements</t>
   </si>
   <si>
+    <t>actions_taken</t>
+  </si>
+  <si>
+    <t>referred</t>
+  </si>
+  <si>
+    <t>Referred the mother</t>
+  </si>
+  <si>
+    <t>key_message</t>
+  </si>
+  <si>
+    <t>Provided key health message</t>
+  </si>
+  <si>
+    <t>accompany</t>
+  </si>
+  <si>
+    <t>Accompany the mother to facility</t>
+  </si>
+  <si>
     <t>Reduced or no fetal movements</t>
   </si>
   <si>
-    <t>Combined oral contraceptives</t>
+    <t>recent_foods</t>
+  </si>
+  <si>
+    <t>carbohydrates</t>
+  </si>
+  <si>
+    <t>Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>Body building foods: Milk, eggs, meat</t>
+  </si>
+  <si>
+    <t>vegetables</t>
   </si>
   <si>
     <t>breaking_water</t>
@@ -612,16 +732,46 @@
     <t>Breaking of water</t>
   </si>
   <si>
-    <t>Progesterone only pills</t>
+    <t>Vegetables: Sukuma wiki, cabbages, traditional greens</t>
+  </si>
+  <si>
+    <t>fruits</t>
+  </si>
+  <si>
+    <t>Fruits: Mangoes, ripe bananas, oranges</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
+    <t>pos_neg</t>
   </si>
   <si>
     <t>easily_tired</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>Getting tired easily</t>
   </si>
   <si>
-    <t>Injectibles</t>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>reasons_to_discontinue</t>
+  </si>
+  <si>
+    <t>wants_to_get_pregnant</t>
   </si>
   <si>
     <t>face_hand_swelling</t>
@@ -630,19 +780,19 @@
     <t>Swelling of face and hands</t>
   </si>
   <si>
-    <t>Implants (1 rod)</t>
-  </si>
-  <si>
     <t>breathlessness</t>
   </si>
   <si>
     <t>Breathlessness</t>
   </si>
   <si>
+    <t>feels_sick_when_using_it</t>
+  </si>
+  <si>
+    <t>Feels sick when using it</t>
+  </si>
+  <si>
     <t>r_danger_sign_present</t>
-  </si>
-  <si>
-    <t>Implants (2 rods)</t>
   </si>
   <si>
     <t>if((selected(../vaginal_bleeding, 'yes')
@@ -660,21 +810,9 @@
 'yes', 'no')</t>
   </si>
   <si>
-    <t>IUD</t>
-  </si>
-  <si>
-    <t>Condoms</t>
-  </si>
-  <si>
     <t>custom_translations</t>
   </si>
   <si>
-    <t>Tubal ligation</t>
-  </si>
-  <si>
-    <t>Cycle beads</t>
-  </si>
-  <si>
     <t>select_one translate_woman_label</t>
   </si>
   <si>
@@ -699,148 +837,10 @@
     <t>"woman-start"</t>
   </si>
   <si>
-    <t>reasons_not_on_fp</t>
-  </si>
-  <si>
     <t>custom_woman_start_label</t>
   </si>
   <si>
     <t>jr:choice-name(${custom_woman_start_label_translator},'${custom_woman_start_label_translator}')</t>
-  </si>
-  <si>
-    <t>Wants to get pregnant</t>
-  </si>
-  <si>
-    <t>Did not want FP</t>
-  </si>
-  <si>
-    <t>follow_up_methods</t>
-  </si>
-  <si>
-    <t>in_person</t>
-  </si>
-  <si>
-    <t>In person</t>
-  </si>
-  <si>
-    <t>by_phone</t>
-  </si>
-  <si>
-    <t>By phone</t>
-  </si>
-  <si>
-    <t>reasons_for_missing_visit</t>
-  </si>
-  <si>
-    <t>not_reminded</t>
-  </si>
-  <si>
-    <t>She was not reminded</t>
-  </si>
-  <si>
-    <t>travelled</t>
-  </si>
-  <si>
-    <t>She had travelled</t>
-  </si>
-  <si>
-    <t>no_lab_results</t>
-  </si>
-  <si>
-    <t>No Lab results yet</t>
-  </si>
-  <si>
-    <t>too_early</t>
-  </si>
-  <si>
-    <t>It is too early to start clinic</t>
-  </si>
-  <si>
-    <t>relocated</t>
-  </si>
-  <si>
-    <t>Relocated</t>
-  </si>
-  <si>
-    <t>actions_taken</t>
-  </si>
-  <si>
-    <t>referred</t>
-  </si>
-  <si>
-    <t>Referred the mother</t>
-  </si>
-  <si>
-    <t>key_message</t>
-  </si>
-  <si>
-    <t>Provided key health message</t>
-  </si>
-  <si>
-    <t>accompany</t>
-  </si>
-  <si>
-    <t>Accompany the mother to facility</t>
-  </si>
-  <si>
-    <t>recent_foods</t>
-  </si>
-  <si>
-    <t>carbohydrates</t>
-  </si>
-  <si>
-    <t>Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>Body building foods: Milk, eggs, meat</t>
-  </si>
-  <si>
-    <t>vegetables</t>
-  </si>
-  <si>
-    <t>Vegetables: Sukuma wiki, cabbages, traditional greens</t>
-  </si>
-  <si>
-    <t>fruits</t>
-  </si>
-  <si>
-    <t>Fruits: Mangoes, ripe bananas, oranges</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>None of the above</t>
-  </si>
-  <si>
-    <t>pos_neg</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>reasons_to_discontinue</t>
-  </si>
-  <si>
-    <t>wants_to_get_pregnant</t>
-  </si>
-  <si>
-    <t>feels_sick_when_using_it</t>
-  </si>
-  <si>
-    <t>Feels sick when using it</t>
   </si>
   <si>
     <t>__visited_hf</t>
@@ -1043,10 +1043,10 @@
     </font>
     <font/>
     <font>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1094,14 +1094,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D2E9"/>
-        <bgColor rgb="FFD9D2E9"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
+        <fgColor rgb="FFD9D2E9"/>
+        <bgColor rgb="FFD9D2E9"/>
       </patternFill>
     </fill>
     <fill>
@@ -1136,14 +1136,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8E7CC3"/>
-        <bgColor rgb="FF8E7CC3"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF8E7CC3"/>
+        <bgColor rgb="FF8E7CC3"/>
       </patternFill>
     </fill>
   </fills>
@@ -1165,14 +1165,23 @@
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1183,15 +1192,9 @@
     <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1199,30 +1202,27 @@
     <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1231,7 +1231,7 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -1247,40 +1247,40 @@
     <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1348,382 +1348,382 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AG1" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="AH1" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17"/>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17"/>
-      <c r="AA2" s="17"/>
-      <c r="AB2" s="17"/>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="17"/>
-      <c r="AG2" s="17"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="17"/>
-      <c r="AJ2" s="17"/>
+      <c r="A2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="17"/>
-      <c r="Z3" s="17"/>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="17"/>
-      <c r="AG3" s="17"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="17"/>
+      <c r="A3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="17" t="s">
+      <c r="A4" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="17"/>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="17"/>
-      <c r="AF4" s="17"/>
-      <c r="AG4" s="17"/>
-      <c r="AH4" s="17"/>
-      <c r="AI4" s="17"/>
-      <c r="AJ4" s="17"/>
+      <c r="B4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>59</v>
+      <c r="A5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
+        <v>47</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17" t="s">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="17"/>
-      <c r="AG6" s="17"/>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="17"/>
-      <c r="AJ6" s="17"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="17" t="s">
+      <c r="A7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="17"/>
-      <c r="AF7" s="17"/>
-      <c r="AG7" s="17"/>
-      <c r="AH7" s="17"/>
-      <c r="AI7" s="17"/>
-      <c r="AJ7" s="17"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
+      <c r="AI7" s="21"/>
+      <c r="AJ7" s="21"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>75</v>
@@ -1731,647 +1731,647 @@
       <c r="C8" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
-      <c r="AA8" s="17"/>
-      <c r="AB8" s="17"/>
-      <c r="AC8" s="17"/>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="17"/>
-      <c r="AF8" s="17"/>
-      <c r="AG8" s="17"/>
-      <c r="AH8" s="17"/>
-      <c r="AI8" s="17"/>
-      <c r="AJ8" s="17"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17"/>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17"/>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="17"/>
-      <c r="AB10" s="17"/>
-      <c r="AC10" s="17"/>
-      <c r="AD10" s="17">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21">
         <v>0.0</v>
       </c>
-      <c r="AE10" s="17"/>
-      <c r="AF10" s="17"/>
-      <c r="AG10" s="17"/>
-      <c r="AH10" s="17"/>
-      <c r="AI10" s="17"/>
-      <c r="AJ10" s="17"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
+      <c r="AI10" s="21"/>
+      <c r="AJ10" s="21"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="17"/>
-      <c r="AB11" s="17"/>
-      <c r="AC11" s="17"/>
-      <c r="AD11" s="17"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="21"/>
+      <c r="AF11" s="21"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="21"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>83</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="17"/>
-      <c r="AB12" s="17"/>
-      <c r="AC12" s="17"/>
-      <c r="AD12" s="17"/>
-      <c r="AE12" s="17"/>
-      <c r="AF12" s="17"/>
-      <c r="AG12" s="17"/>
-      <c r="AH12" s="17"/>
-      <c r="AI12" s="17"/>
-      <c r="AJ12" s="17"/>
+        <v>47</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+      <c r="AB12" s="21"/>
+      <c r="AC12" s="21"/>
+      <c r="AD12" s="21"/>
+      <c r="AE12" s="21"/>
+      <c r="AF12" s="21"/>
+      <c r="AG12" s="21"/>
+      <c r="AH12" s="21"/>
+      <c r="AI12" s="21"/>
+      <c r="AJ12" s="21"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="17"/>
-      <c r="AB13" s="17"/>
-      <c r="AC13" s="17"/>
-      <c r="AD13" s="17"/>
-      <c r="AE13" s="17"/>
-      <c r="AF13" s="17"/>
-      <c r="AG13" s="17"/>
-      <c r="AH13" s="17"/>
-      <c r="AI13" s="17"/>
-      <c r="AJ13" s="17"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
+      <c r="AJ13" s="21"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>83</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-      <c r="X14" s="17"/>
-      <c r="Y14" s="17"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="17"/>
-      <c r="AB14" s="17"/>
-      <c r="AC14" s="17"/>
-      <c r="AD14" s="17"/>
-      <c r="AE14" s="17"/>
-      <c r="AF14" s="17"/>
-      <c r="AG14" s="17"/>
-      <c r="AH14" s="17"/>
-      <c r="AI14" s="17"/>
-      <c r="AJ14" s="17"/>
+        <v>47</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+      <c r="AC14" s="21"/>
+      <c r="AD14" s="21"/>
+      <c r="AE14" s="21"/>
+      <c r="AF14" s="21"/>
+      <c r="AG14" s="21"/>
+      <c r="AH14" s="21"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="21"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>59</v>
+      <c r="A15" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17"/>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="17"/>
-      <c r="AB15" s="17"/>
-      <c r="AC15" s="17"/>
-      <c r="AD15" s="17"/>
-      <c r="AE15" s="17"/>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="17"/>
-      <c r="AH15" s="17"/>
-      <c r="AI15" s="17"/>
-      <c r="AJ15" s="17"/>
+        <v>47</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="21"/>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="21"/>
+      <c r="AB15" s="21"/>
+      <c r="AC15" s="21"/>
+      <c r="AD15" s="21"/>
+      <c r="AE15" s="21"/>
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="21"/>
+      <c r="AH15" s="21"/>
+      <c r="AI15" s="21"/>
+      <c r="AJ15" s="21"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AB16" s="17"/>
-      <c r="AC16" s="17"/>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21"/>
+      <c r="AI16" s="21"/>
+      <c r="AJ16" s="21"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
-      <c r="AH17" s="17"/>
-      <c r="AI17" s="17"/>
-      <c r="AJ17" s="17"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21"/>
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21"/>
+      <c r="AI17" s="21"/>
+      <c r="AJ17" s="21"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="13" t="s">
         <v>89</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="17"/>
-      <c r="Y18" s="17"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="17"/>
-      <c r="AB18" s="17"/>
-      <c r="AC18" s="17"/>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="17"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
+        <v>69</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21"/>
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="21"/>
+      <c r="AI18" s="21"/>
+      <c r="AJ18" s="21"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="13" t="s">
         <v>89</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="17"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-      <c r="AG19" s="17"/>
-      <c r="AH19" s="17"/>
-      <c r="AI19" s="17"/>
-      <c r="AJ19" s="17"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21"/>
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="21"/>
+      <c r="AI19" s="21"/>
+      <c r="AJ19" s="21"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="13" t="s">
         <v>89</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-      <c r="X20" s="17"/>
-      <c r="Y20" s="17"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="17"/>
-      <c r="AE20" s="17"/>
-      <c r="AF20" s="17"/>
-      <c r="AG20" s="17"/>
-      <c r="AH20" s="17"/>
-      <c r="AI20" s="17"/>
-      <c r="AJ20" s="17"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21"/>
+      <c r="AD20" s="21"/>
+      <c r="AE20" s="21"/>
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21"/>
+      <c r="AI20" s="21"/>
+      <c r="AJ20" s="21"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="13" t="s">
         <v>89</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-      <c r="X21" s="17"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-      <c r="AB21" s="17"/>
-      <c r="AC21" s="17"/>
-      <c r="AD21" s="17"/>
-      <c r="AE21" s="17"/>
-      <c r="AF21" s="17"/>
-      <c r="AG21" s="17"/>
-      <c r="AH21" s="17"/>
-      <c r="AI21" s="17"/>
-      <c r="AJ21" s="17"/>
+        <v>69</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21"/>
+      <c r="AD21" s="21"/>
+      <c r="AE21" s="21"/>
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="21"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="13" t="s">
         <v>89</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-      <c r="AB22" s="17"/>
-      <c r="AC22" s="17"/>
-      <c r="AD22" s="17"/>
-      <c r="AE22" s="17"/>
-      <c r="AF22" s="17"/>
-      <c r="AG22" s="17"/>
-      <c r="AH22" s="17"/>
-      <c r="AI22" s="17"/>
-      <c r="AJ22" s="17"/>
+        <v>46</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
+      <c r="AB22" s="21"/>
+      <c r="AC22" s="21"/>
+      <c r="AD22" s="21"/>
+      <c r="AE22" s="21"/>
+      <c r="AF22" s="21"/>
+      <c r="AG22" s="21"/>
+      <c r="AH22" s="21"/>
+      <c r="AI22" s="21"/>
+      <c r="AJ22" s="21"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="AF23" s="29"/>
@@ -2384,7 +2384,7 @@
         <v>91</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
@@ -2404,7 +2404,7 @@
       <c r="S24" s="32"/>
       <c r="T24" s="32"/>
       <c r="U24" s="32" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="V24" s="32"/>
       <c r="W24" s="32"/>
@@ -2417,10 +2417,12 @@
       <c r="AD24" s="32"/>
       <c r="AE24" s="32"/>
       <c r="AF24" s="33" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AG24" s="32"/>
-      <c r="AH24" s="32"/>
+      <c r="AH24" s="31" t="s">
+        <v>110</v>
+      </c>
       <c r="AI24" s="32"/>
       <c r="AJ24" s="32"/>
     </row>
@@ -2429,10 +2431,10 @@
         <v>90</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -2452,7 +2454,7 @@
       <c r="S25" s="32"/>
       <c r="T25" s="32"/>
       <c r="U25" s="32" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="V25" s="32"/>
       <c r="W25" s="32"/>
@@ -2465,10 +2467,12 @@
       <c r="AD25" s="32"/>
       <c r="AE25" s="32"/>
       <c r="AF25" s="33" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AG25" s="32"/>
-      <c r="AH25" s="32"/>
+      <c r="AH25" s="31" t="s">
+        <v>120</v>
+      </c>
       <c r="AI25" s="32"/>
       <c r="AJ25" s="32"/>
     </row>
@@ -2480,7 +2484,7 @@
         <v>77</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -2488,9 +2492,7 @@
       <c r="G26" s="32"/>
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
-      <c r="J26" s="32" t="s">
-        <v>48</v>
-      </c>
+      <c r="J26" s="31"/>
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
       <c r="M26" s="32"/>
@@ -2502,7 +2504,7 @@
       <c r="S26" s="32"/>
       <c r="T26" s="32"/>
       <c r="U26" s="33" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="V26" s="32"/>
       <c r="W26" s="32"/>
@@ -2515,10 +2517,12 @@
       <c r="AD26" s="32"/>
       <c r="AE26" s="32"/>
       <c r="AF26" s="33" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
+      <c r="AH26" s="31" t="s">
+        <v>78</v>
+      </c>
       <c r="AI26" s="32"/>
       <c r="AJ26" s="32"/>
     </row>
@@ -2527,10 +2531,10 @@
         <v>90</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
@@ -2550,7 +2554,7 @@
       <c r="S27" s="32"/>
       <c r="T27" s="32"/>
       <c r="U27" s="33" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="V27" s="32"/>
       <c r="W27" s="32"/>
@@ -2563,10 +2567,12 @@
       <c r="AD27" s="32"/>
       <c r="AE27" s="32"/>
       <c r="AF27" s="33" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AG27" s="32"/>
-      <c r="AH27" s="32"/>
+      <c r="AH27" s="31" t="s">
+        <v>127</v>
+      </c>
       <c r="AI27" s="32"/>
       <c r="AJ27" s="32"/>
     </row>
@@ -2575,10 +2581,10 @@
         <v>90</v>
       </c>
       <c r="B28" s="34" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
@@ -2598,7 +2604,7 @@
       <c r="S28" s="32"/>
       <c r="T28" s="32"/>
       <c r="U28" s="33" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="V28" s="32"/>
       <c r="W28" s="32"/>
@@ -2611,10 +2617,12 @@
       <c r="AD28" s="32"/>
       <c r="AE28" s="32"/>
       <c r="AF28" s="33" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AG28" s="32"/>
-      <c r="AH28" s="32"/>
+      <c r="AH28" s="31" t="s">
+        <v>142</v>
+      </c>
       <c r="AI28" s="32"/>
       <c r="AJ28" s="32"/>
     </row>
@@ -2623,10 +2631,10 @@
         <v>90</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
@@ -2646,7 +2654,7 @@
       <c r="S29" s="32"/>
       <c r="T29" s="32"/>
       <c r="U29" s="33" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="V29" s="32"/>
       <c r="W29" s="32"/>
@@ -2659,10 +2667,12 @@
       <c r="AD29" s="32"/>
       <c r="AE29" s="32"/>
       <c r="AF29" s="33" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AG29" s="32"/>
-      <c r="AH29" s="32"/>
+      <c r="AH29" s="31" t="s">
+        <v>147</v>
+      </c>
       <c r="AI29" s="32"/>
       <c r="AJ29" s="32"/>
     </row>
@@ -2671,10 +2681,10 @@
         <v>90</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
@@ -2694,7 +2704,7 @@
       <c r="S30" s="32"/>
       <c r="T30" s="32"/>
       <c r="U30" s="33" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="V30" s="32"/>
       <c r="W30" s="32"/>
@@ -2707,10 +2717,12 @@
       <c r="AD30" s="32"/>
       <c r="AE30" s="32"/>
       <c r="AF30" s="33" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AG30" s="32"/>
-      <c r="AH30" s="32"/>
+      <c r="AH30" s="31" t="s">
+        <v>151</v>
+      </c>
       <c r="AI30" s="32"/>
       <c r="AJ30" s="32"/>
     </row>
@@ -2719,10 +2731,10 @@
         <v>90</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
@@ -2742,7 +2754,7 @@
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
       <c r="U31" s="33" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="V31" s="32"/>
       <c r="W31" s="32"/>
@@ -2755,10 +2767,12 @@
       <c r="AD31" s="32"/>
       <c r="AE31" s="32"/>
       <c r="AF31" s="33" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AG31" s="32"/>
-      <c r="AH31" s="32"/>
+      <c r="AH31" s="31" t="s">
+        <v>154</v>
+      </c>
       <c r="AI31" s="32"/>
       <c r="AJ31" s="32"/>
     </row>
@@ -2767,10 +2781,10 @@
         <v>90</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
@@ -2790,7 +2804,7 @@
       <c r="S32" s="32"/>
       <c r="T32" s="32"/>
       <c r="U32" s="33" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="V32" s="32"/>
       <c r="W32" s="32"/>
@@ -2804,7 +2818,9 @@
       <c r="AE32" s="32"/>
       <c r="AF32" s="31"/>
       <c r="AG32" s="32"/>
-      <c r="AH32" s="32"/>
+      <c r="AH32" s="31" t="s">
+        <v>157</v>
+      </c>
       <c r="AI32" s="32"/>
       <c r="AJ32" s="32"/>
     </row>
@@ -2817,13 +2833,13 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="35" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="D34" s="37"/>
       <c r="E34" s="37"/>
@@ -2834,7 +2850,7 @@
       <c r="J34" s="37"/>
       <c r="K34" s="36"/>
       <c r="L34" s="36" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M34" s="37"/>
       <c r="N34" s="37"/>
@@ -2863,13 +2879,13 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="38" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
@@ -2878,7 +2894,7 @@
       <c r="H35" s="37"/>
       <c r="I35" s="37"/>
       <c r="J35" s="37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K35" s="37"/>
       <c r="L35" s="37"/>
@@ -2909,13 +2925,13 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="38" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D36" s="37"/>
       <c r="E36" s="37"/>
@@ -2924,7 +2940,7 @@
       <c r="H36" s="37"/>
       <c r="I36" s="37"/>
       <c r="J36" s="37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K36" s="37"/>
       <c r="L36" s="37"/>
@@ -2955,13 +2971,13 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="35" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D37" s="37"/>
       <c r="E37" s="37"/>
@@ -2971,7 +2987,7 @@
       <c r="I37" s="37"/>
       <c r="J37" s="37"/>
       <c r="K37" s="36" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="L37" s="37"/>
       <c r="M37" s="37"/>
@@ -2994,7 +3010,7 @@
       <c r="AD37" s="37"/>
       <c r="AE37" s="37"/>
       <c r="AF37" s="36" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AG37" s="37"/>
       <c r="AH37" s="37"/>
@@ -3003,13 +3019,13 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="38" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D38" s="37"/>
       <c r="E38" s="37"/>
@@ -3019,7 +3035,7 @@
       <c r="I38" s="37"/>
       <c r="J38" s="37"/>
       <c r="K38" s="36" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="L38" s="37"/>
       <c r="M38" s="37"/>
@@ -3042,7 +3058,7 @@
       <c r="AD38" s="37"/>
       <c r="AE38" s="37"/>
       <c r="AF38" s="36" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AG38" s="37"/>
       <c r="AH38" s="37"/>
@@ -3051,13 +3067,13 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="38" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B39" s="35" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
@@ -3067,7 +3083,7 @@
       <c r="I39" s="37"/>
       <c r="J39" s="37"/>
       <c r="K39" s="36" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="L39" s="37"/>
       <c r="M39" s="37"/>
@@ -3090,7 +3106,7 @@
       <c r="AD39" s="37"/>
       <c r="AE39" s="37"/>
       <c r="AF39" s="36" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AG39" s="37"/>
       <c r="AH39" s="37"/>
@@ -3099,13 +3115,13 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="38" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="B40" s="35" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D40" s="37"/>
       <c r="E40" s="37"/>
@@ -3115,7 +3131,7 @@
       <c r="I40" s="37"/>
       <c r="J40" s="37"/>
       <c r="K40" s="36" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="L40" s="37"/>
       <c r="M40" s="37"/>
@@ -3138,7 +3154,7 @@
       <c r="AD40" s="37"/>
       <c r="AE40" s="37"/>
       <c r="AF40" s="36" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AG40" s="37"/>
       <c r="AH40" s="37"/>
@@ -3147,13 +3163,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="38" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D41" s="37"/>
       <c r="E41" s="37"/>
@@ -3162,10 +3178,10 @@
       <c r="H41" s="37"/>
       <c r="I41" s="37"/>
       <c r="J41" s="37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K41" s="36" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="L41" s="37"/>
       <c r="M41" s="37"/>
@@ -3195,13 +3211,13 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="38" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="D42" s="37"/>
       <c r="E42" s="37"/>
@@ -3210,10 +3226,10 @@
       <c r="H42" s="37"/>
       <c r="I42" s="37"/>
       <c r="J42" s="37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K42" s="36" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="L42" s="37"/>
       <c r="M42" s="37"/>
@@ -3243,13 +3259,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="38" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="D43" s="37"/>
       <c r="E43" s="37"/>
@@ -3258,10 +3274,10 @@
       <c r="H43" s="37"/>
       <c r="I43" s="37"/>
       <c r="J43" s="37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K43" s="36" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="L43" s="37"/>
       <c r="M43" s="37"/>
@@ -3291,13 +3307,13 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="38" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
@@ -3306,10 +3322,10 @@
       <c r="H44" s="37"/>
       <c r="I44" s="37"/>
       <c r="J44" s="37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K44" s="36" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="L44" s="37"/>
       <c r="M44" s="37"/>
@@ -3339,13 +3355,13 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="38" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
@@ -3354,10 +3370,10 @@
       <c r="H45" s="37"/>
       <c r="I45" s="37"/>
       <c r="J45" s="37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K45" s="36" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="L45" s="37"/>
       <c r="M45" s="37"/>
@@ -3387,13 +3403,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="38" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="D46" s="37"/>
       <c r="E46" s="37"/>
@@ -3402,10 +3418,10 @@
       <c r="H46" s="37"/>
       <c r="I46" s="37"/>
       <c r="J46" s="37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K46" s="36" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="L46" s="37"/>
       <c r="M46" s="37"/>
@@ -3435,13 +3451,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="38" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="D47" s="37"/>
       <c r="E47" s="37"/>
@@ -3450,10 +3466,10 @@
       <c r="H47" s="37"/>
       <c r="I47" s="37"/>
       <c r="J47" s="37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K47" s="36" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="L47" s="37"/>
       <c r="M47" s="37"/>
@@ -3483,13 +3499,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="38" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
       <c r="D48" s="37"/>
       <c r="E48" s="37"/>
@@ -3498,10 +3514,10 @@
       <c r="H48" s="37"/>
       <c r="I48" s="37"/>
       <c r="J48" s="37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K48" s="36" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="L48" s="37"/>
       <c r="M48" s="37"/>
@@ -3531,13 +3547,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="38" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="D49" s="37"/>
       <c r="E49" s="37"/>
@@ -3546,10 +3562,10 @@
       <c r="H49" s="37"/>
       <c r="I49" s="37"/>
       <c r="J49" s="37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K49" s="36" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="L49" s="37"/>
       <c r="M49" s="37"/>
@@ -3579,13 +3595,13 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="38" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B50" s="38" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="D50" s="37"/>
       <c r="E50" s="37"/>
@@ -3594,10 +3610,10 @@
       <c r="H50" s="37"/>
       <c r="I50" s="37"/>
       <c r="J50" s="37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K50" s="36" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="L50" s="37"/>
       <c r="M50" s="37"/>
@@ -3627,13 +3643,13 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="38" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>200</v>
+        <v>249</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="D51" s="37"/>
       <c r="E51" s="37"/>
@@ -3642,10 +3658,10 @@
       <c r="H51" s="37"/>
       <c r="I51" s="37"/>
       <c r="J51" s="37" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K51" s="36" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="L51" s="37"/>
       <c r="M51" s="37"/>
@@ -3678,10 +3694,10 @@
         <v>90</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D52" s="37"/>
       <c r="E52" s="37"/>
@@ -3700,8 +3716,8 @@
       <c r="R52" s="37"/>
       <c r="S52" s="37"/>
       <c r="T52" s="37"/>
-      <c r="U52" s="40" t="s">
-        <v>204</v>
+      <c r="U52" s="41" t="s">
+        <v>254</v>
       </c>
       <c r="V52" s="37"/>
       <c r="W52" s="37"/>
@@ -3714,7 +3730,7 @@
       <c r="AD52" s="37"/>
       <c r="AE52" s="37"/>
       <c r="AF52" s="36" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AG52" s="37"/>
       <c r="AH52" s="37"/>
@@ -3723,13 +3739,13 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="35" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>207</v>
+        <v>255</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D53" s="37"/>
       <c r="E53" s="37"/>
@@ -3740,7 +3756,7 @@
       <c r="J53" s="37"/>
       <c r="K53" s="37"/>
       <c r="L53" s="36" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M53" s="37"/>
       <c r="N53" s="37"/>
@@ -3762,7 +3778,7 @@
       <c r="AD53" s="37"/>
       <c r="AE53" s="37"/>
       <c r="AF53" s="36" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AG53" s="37"/>
       <c r="AH53" s="37"/>
@@ -3771,13 +3787,13 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="35" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D54" s="37"/>
       <c r="E54" s="37"/>
@@ -3797,7 +3813,7 @@
       <c r="S54" s="37"/>
       <c r="T54" s="37"/>
       <c r="U54" s="36" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="V54" s="37"/>
       <c r="W54" s="37"/>
@@ -3820,10 +3836,10 @@
         <v>90</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D55" s="37"/>
       <c r="E55" s="37"/>
@@ -3843,7 +3859,7 @@
       <c r="S55" s="37"/>
       <c r="T55" s="37"/>
       <c r="U55" s="36" t="s">
-        <v>214</v>
+        <v>260</v>
       </c>
       <c r="V55" s="37"/>
       <c r="W55" s="37"/>
@@ -3863,13 +3879,13 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="35" t="s">
-        <v>215</v>
+        <v>261</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>216</v>
+        <v>262</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
@@ -3889,7 +3905,7 @@
       <c r="S56" s="37"/>
       <c r="T56" s="37"/>
       <c r="U56" s="36" t="s">
-        <v>217</v>
+        <v>263</v>
       </c>
       <c r="V56" s="37"/>
       <c r="W56" s="37"/>
@@ -3912,10 +3928,10 @@
         <v>90</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D57" s="37"/>
       <c r="E57" s="37"/>
@@ -3935,7 +3951,7 @@
       <c r="S57" s="37"/>
       <c r="T57" s="37"/>
       <c r="U57" s="36" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="V57" s="37"/>
       <c r="W57" s="37"/>
@@ -4046,762 +4062,762 @@
       <c r="AJ60" s="29"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="B61" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D61" s="43"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="43"/>
-      <c r="J61" s="43"/>
-      <c r="K61" s="43"/>
+      <c r="A61" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="44"/>
+      <c r="E61" s="43"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="44"/>
       <c r="L61" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="M61" s="43"/>
-      <c r="N61" s="43"/>
-      <c r="O61" s="43"/>
-      <c r="P61" s="43"/>
-      <c r="Q61" s="43"/>
-      <c r="R61" s="43"/>
-      <c r="S61" s="43"/>
-      <c r="T61" s="43"/>
-      <c r="U61" s="43"/>
-      <c r="V61" s="43"/>
-      <c r="W61" s="43"/>
-      <c r="X61" s="43"/>
-      <c r="Y61" s="43"/>
-      <c r="Z61" s="43"/>
-      <c r="AA61" s="43"/>
-      <c r="AB61" s="43"/>
-      <c r="AC61" s="43"/>
-      <c r="AD61" s="43"/>
-      <c r="AE61" s="43"/>
+        <v>57</v>
+      </c>
+      <c r="M61" s="44"/>
+      <c r="N61" s="44"/>
+      <c r="O61" s="44"/>
+      <c r="P61" s="44"/>
+      <c r="Q61" s="44"/>
+      <c r="R61" s="44"/>
+      <c r="S61" s="44"/>
+      <c r="T61" s="44"/>
+      <c r="U61" s="44"/>
+      <c r="V61" s="44"/>
+      <c r="W61" s="44"/>
+      <c r="X61" s="44"/>
+      <c r="Y61" s="44"/>
+      <c r="Z61" s="44"/>
+      <c r="AA61" s="44"/>
+      <c r="AB61" s="44"/>
+      <c r="AC61" s="44"/>
+      <c r="AD61" s="44"/>
+      <c r="AE61" s="44"/>
       <c r="AF61" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG61" s="42"/>
-      <c r="AH61" s="42"/>
-      <c r="AI61" s="42"/>
-      <c r="AJ61" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="AG61" s="43"/>
+      <c r="AH61" s="43"/>
+      <c r="AI61" s="43"/>
+      <c r="AJ61" s="43"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="41" t="s">
+      <c r="A62" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B62" s="47" t="s">
         <v>266</v>
       </c>
-      <c r="C62" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D62" s="43"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="43"/>
-      <c r="M62" s="43"/>
-      <c r="N62" s="43"/>
-      <c r="O62" s="43"/>
-      <c r="P62" s="43"/>
-      <c r="Q62" s="43"/>
-      <c r="R62" s="43"/>
-      <c r="S62" s="43"/>
-      <c r="T62" s="43"/>
-      <c r="U62" s="42" t="s">
+      <c r="C62" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D62" s="44"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="44"/>
+      <c r="P62" s="44"/>
+      <c r="Q62" s="44"/>
+      <c r="R62" s="44"/>
+      <c r="S62" s="44"/>
+      <c r="T62" s="44"/>
+      <c r="U62" s="43" t="s">
         <v>267</v>
       </c>
-      <c r="V62" s="43"/>
-      <c r="W62" s="43"/>
-      <c r="X62" s="43"/>
-      <c r="Y62" s="43"/>
-      <c r="Z62" s="43"/>
-      <c r="AA62" s="43"/>
-      <c r="AB62" s="43"/>
-      <c r="AC62" s="43"/>
-      <c r="AD62" s="43"/>
-      <c r="AE62" s="43"/>
+      <c r="V62" s="44"/>
+      <c r="W62" s="44"/>
+      <c r="X62" s="44"/>
+      <c r="Y62" s="44"/>
+      <c r="Z62" s="44"/>
+      <c r="AA62" s="44"/>
+      <c r="AB62" s="44"/>
+      <c r="AC62" s="44"/>
+      <c r="AD62" s="44"/>
+      <c r="AE62" s="44"/>
       <c r="AF62" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG62" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="AG62" s="43"/>
       <c r="AH62" s="45" t="s">
         <v>268</v>
       </c>
-      <c r="AI62" s="42"/>
-      <c r="AJ62" s="42"/>
+      <c r="AI62" s="43"/>
+      <c r="AJ62" s="43"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="41" t="s">
+      <c r="A63" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B63" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="C63" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D63" s="43"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="42"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="43"/>
-      <c r="J63" s="43"/>
-      <c r="K63" s="43"/>
-      <c r="L63" s="43"/>
-      <c r="M63" s="43"/>
-      <c r="N63" s="43"/>
-      <c r="O63" s="43"/>
-      <c r="P63" s="43"/>
-      <c r="Q63" s="43"/>
-      <c r="R63" s="43"/>
-      <c r="S63" s="43"/>
-      <c r="T63" s="43"/>
-      <c r="U63" s="42" t="s">
+      <c r="C63" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="44"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="44"/>
+      <c r="R63" s="44"/>
+      <c r="S63" s="44"/>
+      <c r="T63" s="44"/>
+      <c r="U63" s="43" t="s">
         <v>270</v>
       </c>
-      <c r="V63" s="43"/>
-      <c r="W63" s="43"/>
-      <c r="X63" s="43"/>
-      <c r="Y63" s="43"/>
-      <c r="Z63" s="43"/>
-      <c r="AA63" s="43"/>
-      <c r="AB63" s="43"/>
-      <c r="AC63" s="43"/>
-      <c r="AD63" s="43"/>
-      <c r="AE63" s="43"/>
+      <c r="V63" s="44"/>
+      <c r="W63" s="44"/>
+      <c r="X63" s="44"/>
+      <c r="Y63" s="44"/>
+      <c r="Z63" s="44"/>
+      <c r="AA63" s="44"/>
+      <c r="AB63" s="44"/>
+      <c r="AC63" s="44"/>
+      <c r="AD63" s="44"/>
+      <c r="AE63" s="44"/>
       <c r="AF63" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG63" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="AG63" s="43"/>
       <c r="AH63" s="45" t="s">
         <v>271</v>
       </c>
-      <c r="AI63" s="42"/>
-      <c r="AJ63" s="42"/>
+      <c r="AI63" s="43"/>
+      <c r="AJ63" s="43"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B64" s="47" t="s">
         <v>272</v>
       </c>
-      <c r="C64" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D64" s="43"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="43"/>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43"/>
-      <c r="L64" s="43"/>
-      <c r="M64" s="43"/>
-      <c r="N64" s="43"/>
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
-      <c r="Q64" s="43"/>
-      <c r="R64" s="43"/>
-      <c r="S64" s="43"/>
-      <c r="T64" s="43"/>
-      <c r="U64" s="43" t="s">
+      <c r="C64" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D64" s="44"/>
+      <c r="E64" s="43"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="44"/>
+      <c r="S64" s="44"/>
+      <c r="T64" s="44"/>
+      <c r="U64" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="V64" s="43"/>
-      <c r="W64" s="43"/>
-      <c r="X64" s="43"/>
-      <c r="Y64" s="43"/>
-      <c r="Z64" s="43"/>
-      <c r="AA64" s="43"/>
-      <c r="AB64" s="43"/>
-      <c r="AC64" s="43"/>
-      <c r="AD64" s="43"/>
-      <c r="AE64" s="43"/>
+      <c r="V64" s="44"/>
+      <c r="W64" s="44"/>
+      <c r="X64" s="44"/>
+      <c r="Y64" s="44"/>
+      <c r="Z64" s="44"/>
+      <c r="AA64" s="44"/>
+      <c r="AB64" s="44"/>
+      <c r="AC64" s="44"/>
+      <c r="AD64" s="44"/>
+      <c r="AE64" s="44"/>
       <c r="AF64" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG64" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="AG64" s="43"/>
       <c r="AH64" s="45" t="s">
         <v>274</v>
       </c>
-      <c r="AI64" s="42"/>
-      <c r="AJ64" s="42"/>
+      <c r="AI64" s="43"/>
+      <c r="AJ64" s="43"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="41" t="s">
+      <c r="A65" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B65" s="47" t="s">
         <v>275</v>
       </c>
-      <c r="C65" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D65" s="43"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="43"/>
-      <c r="K65" s="43"/>
-      <c r="L65" s="43"/>
-      <c r="M65" s="43"/>
-      <c r="N65" s="43"/>
-      <c r="O65" s="43"/>
-      <c r="P65" s="43"/>
-      <c r="Q65" s="43"/>
-      <c r="R65" s="43"/>
-      <c r="S65" s="43"/>
-      <c r="T65" s="43"/>
-      <c r="U65" s="43" t="s">
+      <c r="C65" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D65" s="44"/>
+      <c r="E65" s="43"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="44"/>
+      <c r="R65" s="44"/>
+      <c r="S65" s="44"/>
+      <c r="T65" s="44"/>
+      <c r="U65" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="V65" s="43"/>
-      <c r="W65" s="43"/>
-      <c r="X65" s="43"/>
-      <c r="Y65" s="43"/>
-      <c r="Z65" s="43"/>
-      <c r="AA65" s="43"/>
-      <c r="AB65" s="43"/>
-      <c r="AC65" s="43"/>
-      <c r="AD65" s="43"/>
-      <c r="AE65" s="43"/>
+      <c r="V65" s="44"/>
+      <c r="W65" s="44"/>
+      <c r="X65" s="44"/>
+      <c r="Y65" s="44"/>
+      <c r="Z65" s="44"/>
+      <c r="AA65" s="44"/>
+      <c r="AB65" s="44"/>
+      <c r="AC65" s="44"/>
+      <c r="AD65" s="44"/>
+      <c r="AE65" s="44"/>
       <c r="AF65" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG65" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="AG65" s="43"/>
       <c r="AH65" s="45" t="s">
         <v>277</v>
       </c>
-      <c r="AI65" s="42"/>
-      <c r="AJ65" s="42"/>
+      <c r="AI65" s="43"/>
+      <c r="AJ65" s="43"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="41" t="s">
+      <c r="A66" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B66" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="C66" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D66" s="43"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43"/>
-      <c r="L66" s="43"/>
-      <c r="M66" s="43"/>
-      <c r="N66" s="43"/>
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
-      <c r="Q66" s="43"/>
-      <c r="R66" s="43"/>
-      <c r="S66" s="43"/>
-      <c r="T66" s="43"/>
-      <c r="U66" s="43" t="s">
+      <c r="C66" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D66" s="44"/>
+      <c r="E66" s="43"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44"/>
+      <c r="O66" s="44"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="44"/>
+      <c r="R66" s="44"/>
+      <c r="S66" s="44"/>
+      <c r="T66" s="44"/>
+      <c r="U66" s="44" t="s">
         <v>279</v>
       </c>
-      <c r="V66" s="43"/>
-      <c r="W66" s="43"/>
-      <c r="X66" s="43"/>
-      <c r="Y66" s="43"/>
-      <c r="Z66" s="43"/>
-      <c r="AA66" s="43"/>
-      <c r="AB66" s="43"/>
-      <c r="AC66" s="43"/>
-      <c r="AD66" s="43"/>
-      <c r="AE66" s="43"/>
+      <c r="V66" s="44"/>
+      <c r="W66" s="44"/>
+      <c r="X66" s="44"/>
+      <c r="Y66" s="44"/>
+      <c r="Z66" s="44"/>
+      <c r="AA66" s="44"/>
+      <c r="AB66" s="44"/>
+      <c r="AC66" s="44"/>
+      <c r="AD66" s="44"/>
+      <c r="AE66" s="44"/>
       <c r="AF66" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG66" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="AG66" s="43"/>
       <c r="AH66" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="AI66" s="42"/>
-      <c r="AJ66" s="42"/>
+      <c r="AI66" s="43"/>
+      <c r="AJ66" s="43"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="41" t="s">
+      <c r="A67" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B67" s="47" t="s">
         <v>281</v>
       </c>
-      <c r="C67" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D67" s="43"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
-      <c r="J67" s="43"/>
-      <c r="K67" s="43"/>
-      <c r="L67" s="43"/>
-      <c r="M67" s="43"/>
-      <c r="N67" s="43"/>
-      <c r="O67" s="43"/>
-      <c r="P67" s="43"/>
-      <c r="Q67" s="43"/>
-      <c r="R67" s="43"/>
-      <c r="S67" s="43"/>
-      <c r="T67" s="43"/>
-      <c r="U67" s="43" t="s">
+      <c r="C67" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D67" s="44"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="44"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="44"/>
+      <c r="R67" s="44"/>
+      <c r="S67" s="44"/>
+      <c r="T67" s="44"/>
+      <c r="U67" s="44" t="s">
         <v>282</v>
       </c>
-      <c r="V67" s="43"/>
-      <c r="W67" s="43"/>
-      <c r="X67" s="43"/>
-      <c r="Y67" s="43"/>
-      <c r="Z67" s="43"/>
-      <c r="AA67" s="43"/>
-      <c r="AB67" s="43"/>
-      <c r="AC67" s="43"/>
-      <c r="AD67" s="43"/>
-      <c r="AE67" s="43"/>
+      <c r="V67" s="44"/>
+      <c r="W67" s="44"/>
+      <c r="X67" s="44"/>
+      <c r="Y67" s="44"/>
+      <c r="Z67" s="44"/>
+      <c r="AA67" s="44"/>
+      <c r="AB67" s="44"/>
+      <c r="AC67" s="44"/>
+      <c r="AD67" s="44"/>
+      <c r="AE67" s="44"/>
       <c r="AF67" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG67" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="AG67" s="43"/>
       <c r="AH67" s="45" t="s">
         <v>283</v>
       </c>
-      <c r="AI67" s="42"/>
-      <c r="AJ67" s="42"/>
+      <c r="AI67" s="43"/>
+      <c r="AJ67" s="43"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="41" t="s">
+      <c r="A68" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B68" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="C68" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D68" s="43"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="43"/>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43"/>
-      <c r="L68" s="43"/>
-      <c r="M68" s="43"/>
-      <c r="N68" s="43"/>
-      <c r="O68" s="43"/>
-      <c r="P68" s="43"/>
-      <c r="Q68" s="43"/>
-      <c r="R68" s="43"/>
-      <c r="S68" s="43"/>
-      <c r="T68" s="43"/>
-      <c r="U68" s="43" t="s">
+      <c r="C68" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D68" s="44"/>
+      <c r="E68" s="43"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="44"/>
+      <c r="R68" s="44"/>
+      <c r="S68" s="44"/>
+      <c r="T68" s="44"/>
+      <c r="U68" s="44" t="s">
         <v>285</v>
       </c>
-      <c r="V68" s="43"/>
-      <c r="W68" s="43"/>
-      <c r="X68" s="43"/>
-      <c r="Y68" s="43"/>
-      <c r="Z68" s="43"/>
-      <c r="AA68" s="43"/>
-      <c r="AB68" s="43"/>
-      <c r="AC68" s="43"/>
-      <c r="AD68" s="43"/>
-      <c r="AE68" s="43"/>
+      <c r="V68" s="44"/>
+      <c r="W68" s="44"/>
+      <c r="X68" s="44"/>
+      <c r="Y68" s="44"/>
+      <c r="Z68" s="44"/>
+      <c r="AA68" s="44"/>
+      <c r="AB68" s="44"/>
+      <c r="AC68" s="44"/>
+      <c r="AD68" s="44"/>
+      <c r="AE68" s="44"/>
       <c r="AF68" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG68" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="AG68" s="43"/>
       <c r="AH68" s="45" t="s">
         <v>286</v>
       </c>
-      <c r="AI68" s="42"/>
-      <c r="AJ68" s="42"/>
+      <c r="AI68" s="43"/>
+      <c r="AJ68" s="43"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="41" t="s">
+      <c r="A69" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B69" s="47" t="s">
         <v>287</v>
       </c>
-      <c r="C69" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D69" s="43"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
-      <c r="L69" s="43"/>
-      <c r="M69" s="43"/>
-      <c r="N69" s="43"/>
-      <c r="O69" s="43"/>
-      <c r="P69" s="43"/>
-      <c r="Q69" s="43"/>
-      <c r="R69" s="43"/>
-      <c r="S69" s="43"/>
-      <c r="T69" s="43"/>
-      <c r="U69" s="43" t="s">
+      <c r="C69" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" s="44"/>
+      <c r="E69" s="43"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="44"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="44"/>
+      <c r="P69" s="44"/>
+      <c r="Q69" s="44"/>
+      <c r="R69" s="44"/>
+      <c r="S69" s="44"/>
+      <c r="T69" s="44"/>
+      <c r="U69" s="44" t="s">
         <v>288</v>
       </c>
-      <c r="V69" s="43"/>
-      <c r="W69" s="43"/>
-      <c r="X69" s="43"/>
-      <c r="Y69" s="43"/>
-      <c r="Z69" s="43"/>
-      <c r="AA69" s="43"/>
-      <c r="AB69" s="43"/>
-      <c r="AC69" s="43"/>
-      <c r="AD69" s="43"/>
-      <c r="AE69" s="43"/>
+      <c r="V69" s="44"/>
+      <c r="W69" s="44"/>
+      <c r="X69" s="44"/>
+      <c r="Y69" s="44"/>
+      <c r="Z69" s="44"/>
+      <c r="AA69" s="44"/>
+      <c r="AB69" s="44"/>
+      <c r="AC69" s="44"/>
+      <c r="AD69" s="44"/>
+      <c r="AE69" s="44"/>
       <c r="AF69" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG69" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="AG69" s="43"/>
       <c r="AH69" s="45" t="s">
         <v>289</v>
       </c>
-      <c r="AI69" s="42"/>
-      <c r="AJ69" s="42"/>
+      <c r="AI69" s="43"/>
+      <c r="AJ69" s="43"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B70" s="47" t="s">
         <v>290</v>
       </c>
-      <c r="C70" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D70" s="43"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="43"/>
-      <c r="K70" s="43"/>
-      <c r="L70" s="43"/>
-      <c r="M70" s="43"/>
-      <c r="N70" s="43"/>
-      <c r="O70" s="43"/>
-      <c r="P70" s="43"/>
-      <c r="Q70" s="43"/>
-      <c r="R70" s="43"/>
-      <c r="S70" s="43"/>
-      <c r="T70" s="43"/>
+      <c r="C70" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="44"/>
+      <c r="E70" s="43"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="44"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="44"/>
+      <c r="P70" s="44"/>
+      <c r="Q70" s="44"/>
+      <c r="R70" s="44"/>
+      <c r="S70" s="44"/>
+      <c r="T70" s="44"/>
       <c r="U70" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="V70" s="43"/>
-      <c r="W70" s="43"/>
-      <c r="X70" s="43"/>
-      <c r="Y70" s="43"/>
-      <c r="Z70" s="43"/>
-      <c r="AA70" s="43"/>
-      <c r="AB70" s="43"/>
-      <c r="AC70" s="43"/>
-      <c r="AD70" s="43"/>
-      <c r="AE70" s="43"/>
+      <c r="V70" s="44"/>
+      <c r="W70" s="44"/>
+      <c r="X70" s="44"/>
+      <c r="Y70" s="44"/>
+      <c r="Z70" s="44"/>
+      <c r="AA70" s="44"/>
+      <c r="AB70" s="44"/>
+      <c r="AC70" s="44"/>
+      <c r="AD70" s="44"/>
+      <c r="AE70" s="44"/>
       <c r="AF70" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG70" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="AG70" s="43"/>
       <c r="AH70" s="45" t="s">
         <v>292</v>
       </c>
-      <c r="AI70" s="42"/>
-      <c r="AJ70" s="42"/>
+      <c r="AI70" s="43"/>
+      <c r="AJ70" s="43"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="41" t="s">
+      <c r="A71" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B71" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="C71" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D71" s="43"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="43"/>
-      <c r="J71" s="43"/>
-      <c r="K71" s="43"/>
-      <c r="L71" s="43"/>
-      <c r="M71" s="43"/>
-      <c r="N71" s="43"/>
-      <c r="O71" s="43"/>
-      <c r="P71" s="43"/>
-      <c r="Q71" s="43"/>
-      <c r="R71" s="43"/>
-      <c r="S71" s="43"/>
-      <c r="T71" s="43"/>
-      <c r="U71" s="43" t="s">
+      <c r="C71" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" s="44"/>
+      <c r="E71" s="43"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="44"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="44"/>
+      <c r="P71" s="44"/>
+      <c r="Q71" s="44"/>
+      <c r="R71" s="44"/>
+      <c r="S71" s="44"/>
+      <c r="T71" s="44"/>
+      <c r="U71" s="44" t="s">
         <v>294</v>
       </c>
-      <c r="V71" s="43"/>
-      <c r="W71" s="43"/>
-      <c r="X71" s="43"/>
-      <c r="Y71" s="43"/>
-      <c r="Z71" s="43"/>
-      <c r="AA71" s="43"/>
-      <c r="AB71" s="43"/>
-      <c r="AC71" s="43"/>
-      <c r="AD71" s="43"/>
-      <c r="AE71" s="43"/>
+      <c r="V71" s="44"/>
+      <c r="W71" s="44"/>
+      <c r="X71" s="44"/>
+      <c r="Y71" s="44"/>
+      <c r="Z71" s="44"/>
+      <c r="AA71" s="44"/>
+      <c r="AB71" s="44"/>
+      <c r="AC71" s="44"/>
+      <c r="AD71" s="44"/>
+      <c r="AE71" s="44"/>
       <c r="AF71" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG71" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="AG71" s="43"/>
       <c r="AH71" s="45" t="s">
         <v>295</v>
       </c>
-      <c r="AI71" s="42"/>
-      <c r="AJ71" s="42"/>
+      <c r="AI71" s="43"/>
+      <c r="AJ71" s="43"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="41" t="s">
+      <c r="A72" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B72" s="47" t="s">
         <v>296</v>
       </c>
-      <c r="C72" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D72" s="43"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="43"/>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43"/>
-      <c r="L72" s="43"/>
-      <c r="M72" s="43"/>
-      <c r="N72" s="43"/>
-      <c r="O72" s="43"/>
-      <c r="P72" s="43"/>
-      <c r="Q72" s="43"/>
-      <c r="R72" s="43"/>
-      <c r="S72" s="43"/>
-      <c r="T72" s="43"/>
-      <c r="U72" s="43" t="s">
+      <c r="C72" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" s="44"/>
+      <c r="E72" s="43"/>
+      <c r="F72" s="43"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="44"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="44"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="44"/>
+      <c r="R72" s="44"/>
+      <c r="S72" s="44"/>
+      <c r="T72" s="44"/>
+      <c r="U72" s="44" t="s">
         <v>297</v>
       </c>
-      <c r="V72" s="43"/>
-      <c r="W72" s="43"/>
-      <c r="X72" s="43"/>
-      <c r="Y72" s="43"/>
-      <c r="Z72" s="43"/>
-      <c r="AA72" s="43"/>
-      <c r="AB72" s="43"/>
-      <c r="AC72" s="43"/>
-      <c r="AD72" s="43"/>
-      <c r="AE72" s="43"/>
+      <c r="V72" s="44"/>
+      <c r="W72" s="44"/>
+      <c r="X72" s="44"/>
+      <c r="Y72" s="44"/>
+      <c r="Z72" s="44"/>
+      <c r="AA72" s="44"/>
+      <c r="AB72" s="44"/>
+      <c r="AC72" s="44"/>
+      <c r="AD72" s="44"/>
+      <c r="AE72" s="44"/>
       <c r="AF72" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG72" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="AG72" s="43"/>
       <c r="AH72" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="AI72" s="42"/>
-      <c r="AJ72" s="42"/>
+      <c r="AI72" s="43"/>
+      <c r="AJ72" s="43"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="41" t="s">
+      <c r="A73" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B73" s="47" t="s">
         <v>299</v>
       </c>
-      <c r="C73" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D73" s="43"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="43"/>
-      <c r="K73" s="43"/>
-      <c r="L73" s="43"/>
-      <c r="M73" s="43"/>
-      <c r="N73" s="43"/>
-      <c r="O73" s="43"/>
-      <c r="P73" s="43"/>
-      <c r="Q73" s="43"/>
-      <c r="R73" s="43"/>
-      <c r="S73" s="43"/>
-      <c r="T73" s="43"/>
-      <c r="U73" s="43" t="s">
+      <c r="C73" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D73" s="44"/>
+      <c r="E73" s="43"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="44"/>
+      <c r="L73" s="44"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
+      <c r="O73" s="44"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="44"/>
+      <c r="R73" s="44"/>
+      <c r="S73" s="44"/>
+      <c r="T73" s="44"/>
+      <c r="U73" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="V73" s="43"/>
-      <c r="W73" s="43"/>
-      <c r="X73" s="43"/>
-      <c r="Y73" s="43"/>
-      <c r="Z73" s="43"/>
-      <c r="AA73" s="43"/>
-      <c r="AB73" s="43"/>
-      <c r="AC73" s="43"/>
-      <c r="AD73" s="43"/>
-      <c r="AE73" s="43"/>
+      <c r="V73" s="44"/>
+      <c r="W73" s="44"/>
+      <c r="X73" s="44"/>
+      <c r="Y73" s="44"/>
+      <c r="Z73" s="44"/>
+      <c r="AA73" s="44"/>
+      <c r="AB73" s="44"/>
+      <c r="AC73" s="44"/>
+      <c r="AD73" s="44"/>
+      <c r="AE73" s="44"/>
       <c r="AF73" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG73" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="AG73" s="43"/>
       <c r="AH73" s="45" t="s">
         <v>301</v>
       </c>
-      <c r="AI73" s="42"/>
-      <c r="AJ73" s="42"/>
+      <c r="AI73" s="43"/>
+      <c r="AJ73" s="43"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="41" t="s">
+      <c r="A74" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B74" s="47" t="s">
         <v>302</v>
       </c>
-      <c r="C74" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D74" s="43"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43"/>
-      <c r="L74" s="43"/>
-      <c r="M74" s="43"/>
-      <c r="N74" s="43"/>
-      <c r="O74" s="43"/>
-      <c r="P74" s="43"/>
-      <c r="Q74" s="43"/>
-      <c r="R74" s="43"/>
-      <c r="S74" s="43"/>
-      <c r="T74" s="43"/>
-      <c r="U74" s="43" t="s">
+      <c r="C74" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D74" s="44"/>
+      <c r="E74" s="43"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="44"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="44"/>
+      <c r="P74" s="44"/>
+      <c r="Q74" s="44"/>
+      <c r="R74" s="44"/>
+      <c r="S74" s="44"/>
+      <c r="T74" s="44"/>
+      <c r="U74" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="V74" s="43"/>
-      <c r="W74" s="43"/>
-      <c r="X74" s="43"/>
-      <c r="Y74" s="43"/>
-      <c r="Z74" s="43"/>
-      <c r="AA74" s="43"/>
-      <c r="AB74" s="43"/>
-      <c r="AC74" s="43"/>
-      <c r="AD74" s="43"/>
-      <c r="AE74" s="43"/>
+      <c r="V74" s="44"/>
+      <c r="W74" s="44"/>
+      <c r="X74" s="44"/>
+      <c r="Y74" s="44"/>
+      <c r="Z74" s="44"/>
+      <c r="AA74" s="44"/>
+      <c r="AB74" s="44"/>
+      <c r="AC74" s="44"/>
+      <c r="AD74" s="44"/>
+      <c r="AE74" s="44"/>
       <c r="AF74" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG74" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="AG74" s="43"/>
       <c r="AH74" s="45" t="s">
         <v>304</v>
       </c>
-      <c r="AI74" s="42"/>
-      <c r="AJ74" s="42"/>
+      <c r="AI74" s="43"/>
+      <c r="AJ74" s="43"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="41" t="s">
+      <c r="A75" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B75" s="47" t="s">
         <v>305</v>
       </c>
-      <c r="C75" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D75" s="43"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="43"/>
-      <c r="J75" s="43"/>
-      <c r="K75" s="43"/>
-      <c r="L75" s="43"/>
-      <c r="M75" s="43"/>
-      <c r="N75" s="43"/>
-      <c r="O75" s="43"/>
-      <c r="P75" s="43"/>
-      <c r="Q75" s="43"/>
-      <c r="R75" s="43"/>
-      <c r="S75" s="43"/>
-      <c r="T75" s="43"/>
-      <c r="U75" s="43" t="s">
+      <c r="C75" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D75" s="44"/>
+      <c r="E75" s="43"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="44"/>
+      <c r="L75" s="44"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="44"/>
+      <c r="O75" s="44"/>
+      <c r="P75" s="44"/>
+      <c r="Q75" s="44"/>
+      <c r="R75" s="44"/>
+      <c r="S75" s="44"/>
+      <c r="T75" s="44"/>
+      <c r="U75" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="V75" s="43"/>
-      <c r="W75" s="43"/>
-      <c r="X75" s="43"/>
-      <c r="Y75" s="43"/>
-      <c r="Z75" s="43"/>
-      <c r="AA75" s="43"/>
-      <c r="AB75" s="43"/>
-      <c r="AC75" s="43"/>
-      <c r="AD75" s="43"/>
-      <c r="AE75" s="43"/>
+      <c r="V75" s="44"/>
+      <c r="W75" s="44"/>
+      <c r="X75" s="44"/>
+      <c r="Y75" s="44"/>
+      <c r="Z75" s="44"/>
+      <c r="AA75" s="44"/>
+      <c r="AB75" s="44"/>
+      <c r="AC75" s="44"/>
+      <c r="AD75" s="44"/>
+      <c r="AE75" s="44"/>
       <c r="AF75" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG75" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="AG75" s="43"/>
       <c r="AH75" s="45" t="s">
         <v>307</v>
       </c>
-      <c r="AI75" s="42"/>
-      <c r="AJ75" s="42"/>
+      <c r="AI75" s="43"/>
+      <c r="AJ75" s="43"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="48" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B76" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="C76" s="42" t="s">
-        <v>45</v>
+      <c r="C76" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="D76" s="49"/>
       <c r="E76" s="50"/>
@@ -4832,7 +4848,7 @@
       <c r="AD76" s="49"/>
       <c r="AE76" s="49"/>
       <c r="AF76" s="46" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AG76" s="50"/>
       <c r="AH76" s="50"/>
@@ -4840,304 +4856,304 @@
       <c r="AJ76" s="50"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="41" t="s">
+      <c r="A77" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B77" s="47" t="s">
         <v>309</v>
       </c>
-      <c r="C77" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D77" s="43"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="43"/>
-      <c r="K77" s="43"/>
-      <c r="L77" s="43"/>
-      <c r="M77" s="43"/>
-      <c r="N77" s="43"/>
-      <c r="O77" s="43"/>
-      <c r="P77" s="43"/>
-      <c r="Q77" s="43"/>
-      <c r="R77" s="43"/>
-      <c r="S77" s="43"/>
-      <c r="T77" s="43"/>
+      <c r="C77" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D77" s="44"/>
+      <c r="E77" s="43"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="44"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44"/>
+      <c r="O77" s="44"/>
+      <c r="P77" s="44"/>
+      <c r="Q77" s="44"/>
+      <c r="R77" s="44"/>
+      <c r="S77" s="44"/>
+      <c r="T77" s="44"/>
       <c r="U77" s="50" t="s">
         <v>310</v>
       </c>
-      <c r="V77" s="43"/>
-      <c r="W77" s="43"/>
-      <c r="X77" s="43"/>
-      <c r="Y77" s="43"/>
-      <c r="Z77" s="43"/>
-      <c r="AA77" s="43"/>
-      <c r="AB77" s="43"/>
-      <c r="AC77" s="43"/>
-      <c r="AD77" s="43"/>
-      <c r="AE77" s="43"/>
+      <c r="V77" s="44"/>
+      <c r="W77" s="44"/>
+      <c r="X77" s="44"/>
+      <c r="Y77" s="44"/>
+      <c r="Z77" s="44"/>
+      <c r="AA77" s="44"/>
+      <c r="AB77" s="44"/>
+      <c r="AC77" s="44"/>
+      <c r="AD77" s="44"/>
+      <c r="AE77" s="44"/>
       <c r="AF77" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG77" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="AG77" s="43"/>
       <c r="AH77" s="50" t="s">
-        <v>95</v>
-      </c>
-      <c r="AI77" s="42"/>
-      <c r="AJ77" s="42"/>
+        <v>120</v>
+      </c>
+      <c r="AI77" s="43"/>
+      <c r="AJ77" s="43"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="41" t="s">
+      <c r="A78" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B78" s="47" t="s">
         <v>311</v>
       </c>
-      <c r="C78" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D78" s="43"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="43"/>
-      <c r="J78" s="43"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="43"/>
-      <c r="M78" s="43"/>
-      <c r="N78" s="43"/>
-      <c r="O78" s="43"/>
-      <c r="P78" s="43"/>
-      <c r="Q78" s="43"/>
-      <c r="R78" s="43"/>
-      <c r="S78" s="43"/>
-      <c r="T78" s="43"/>
+      <c r="C78" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78" s="44"/>
+      <c r="E78" s="43"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="44"/>
+      <c r="L78" s="44"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="44"/>
+      <c r="O78" s="44"/>
+      <c r="P78" s="44"/>
+      <c r="Q78" s="44"/>
+      <c r="R78" s="44"/>
+      <c r="S78" s="44"/>
+      <c r="T78" s="44"/>
       <c r="U78" s="49" t="s">
         <v>312</v>
       </c>
-      <c r="V78" s="43"/>
-      <c r="W78" s="43"/>
-      <c r="X78" s="43"/>
-      <c r="Y78" s="43"/>
-      <c r="Z78" s="43"/>
-      <c r="AA78" s="43"/>
-      <c r="AB78" s="43"/>
-      <c r="AC78" s="43"/>
-      <c r="AD78" s="43"/>
-      <c r="AE78" s="43"/>
+      <c r="V78" s="44"/>
+      <c r="W78" s="44"/>
+      <c r="X78" s="44"/>
+      <c r="Y78" s="44"/>
+      <c r="Z78" s="44"/>
+      <c r="AA78" s="44"/>
+      <c r="AB78" s="44"/>
+      <c r="AC78" s="44"/>
+      <c r="AD78" s="44"/>
+      <c r="AE78" s="44"/>
       <c r="AF78" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG78" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="AG78" s="43"/>
       <c r="AH78" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="AI78" s="42"/>
-      <c r="AJ78" s="42"/>
+      <c r="AI78" s="43"/>
+      <c r="AJ78" s="43"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="41" t="s">
+      <c r="A79" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B79" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="C79" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D79" s="43"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="43"/>
-      <c r="J79" s="43"/>
-      <c r="K79" s="43"/>
-      <c r="L79" s="43"/>
-      <c r="M79" s="43"/>
-      <c r="N79" s="43"/>
-      <c r="O79" s="43"/>
-      <c r="P79" s="43"/>
-      <c r="Q79" s="43"/>
-      <c r="R79" s="43"/>
-      <c r="S79" s="43"/>
-      <c r="T79" s="43"/>
+      <c r="C79" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D79" s="44"/>
+      <c r="E79" s="43"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="44"/>
+      <c r="K79" s="44"/>
+      <c r="L79" s="44"/>
+      <c r="M79" s="44"/>
+      <c r="N79" s="44"/>
+      <c r="O79" s="44"/>
+      <c r="P79" s="44"/>
+      <c r="Q79" s="44"/>
+      <c r="R79" s="44"/>
+      <c r="S79" s="44"/>
+      <c r="T79" s="44"/>
       <c r="U79" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="V79" s="43"/>
-      <c r="W79" s="43"/>
-      <c r="X79" s="43"/>
-      <c r="Y79" s="43"/>
-      <c r="Z79" s="43"/>
-      <c r="AA79" s="43"/>
-      <c r="AB79" s="43"/>
-      <c r="AC79" s="43"/>
-      <c r="AD79" s="43"/>
-      <c r="AE79" s="43"/>
+      <c r="V79" s="44"/>
+      <c r="W79" s="44"/>
+      <c r="X79" s="44"/>
+      <c r="Y79" s="44"/>
+      <c r="Z79" s="44"/>
+      <c r="AA79" s="44"/>
+      <c r="AB79" s="44"/>
+      <c r="AC79" s="44"/>
+      <c r="AD79" s="44"/>
+      <c r="AE79" s="44"/>
       <c r="AF79" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG79" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="AG79" s="43"/>
       <c r="AH79" s="51" t="s">
         <v>315</v>
       </c>
-      <c r="AI79" s="42"/>
-      <c r="AJ79" s="42"/>
+      <c r="AI79" s="43"/>
+      <c r="AJ79" s="43"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="41" t="s">
+      <c r="A80" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B80" s="47" t="s">
         <v>316</v>
       </c>
-      <c r="C80" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D80" s="43"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="43"/>
-      <c r="J80" s="43"/>
-      <c r="K80" s="43"/>
-      <c r="L80" s="43"/>
-      <c r="M80" s="43"/>
-      <c r="N80" s="43"/>
-      <c r="O80" s="43"/>
-      <c r="P80" s="43"/>
-      <c r="Q80" s="43"/>
-      <c r="R80" s="43"/>
-      <c r="S80" s="43"/>
-      <c r="T80" s="43"/>
+      <c r="C80" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D80" s="44"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="44"/>
+      <c r="K80" s="44"/>
+      <c r="L80" s="44"/>
+      <c r="M80" s="44"/>
+      <c r="N80" s="44"/>
+      <c r="O80" s="44"/>
+      <c r="P80" s="44"/>
+      <c r="Q80" s="44"/>
+      <c r="R80" s="44"/>
+      <c r="S80" s="44"/>
+      <c r="T80" s="44"/>
       <c r="U80" s="49" t="s">
         <v>317</v>
       </c>
-      <c r="V80" s="43"/>
-      <c r="W80" s="43"/>
-      <c r="X80" s="43"/>
-      <c r="Y80" s="43"/>
-      <c r="Z80" s="43"/>
-      <c r="AA80" s="43"/>
-      <c r="AB80" s="43"/>
-      <c r="AC80" s="43"/>
-      <c r="AD80" s="43"/>
-      <c r="AE80" s="43"/>
+      <c r="V80" s="44"/>
+      <c r="W80" s="44"/>
+      <c r="X80" s="44"/>
+      <c r="Y80" s="44"/>
+      <c r="Z80" s="44"/>
+      <c r="AA80" s="44"/>
+      <c r="AB80" s="44"/>
+      <c r="AC80" s="44"/>
+      <c r="AD80" s="44"/>
+      <c r="AE80" s="44"/>
       <c r="AF80" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG80" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="AG80" s="43"/>
       <c r="AH80" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI80" s="42"/>
-      <c r="AJ80" s="42"/>
+        <v>59</v>
+      </c>
+      <c r="AI80" s="43"/>
+      <c r="AJ80" s="43"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="41" t="s">
+      <c r="A81" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B81" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="C81" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D81" s="43"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="43"/>
-      <c r="J81" s="43"/>
-      <c r="K81" s="43"/>
-      <c r="L81" s="43"/>
-      <c r="M81" s="43"/>
-      <c r="N81" s="43"/>
-      <c r="O81" s="43"/>
-      <c r="P81" s="43"/>
-      <c r="Q81" s="43"/>
-      <c r="R81" s="43"/>
-      <c r="S81" s="43"/>
-      <c r="T81" s="43"/>
+      <c r="C81" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="44"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="44"/>
+      <c r="K81" s="44"/>
+      <c r="L81" s="44"/>
+      <c r="M81" s="44"/>
+      <c r="N81" s="44"/>
+      <c r="O81" s="44"/>
+      <c r="P81" s="44"/>
+      <c r="Q81" s="44"/>
+      <c r="R81" s="44"/>
+      <c r="S81" s="44"/>
+      <c r="T81" s="44"/>
       <c r="U81" s="49" t="s">
         <v>319</v>
       </c>
-      <c r="V81" s="43"/>
-      <c r="W81" s="43"/>
-      <c r="X81" s="43"/>
-      <c r="Y81" s="43"/>
-      <c r="Z81" s="43"/>
-      <c r="AA81" s="43"/>
-      <c r="AB81" s="43"/>
-      <c r="AC81" s="43"/>
-      <c r="AD81" s="43"/>
-      <c r="AE81" s="43"/>
+      <c r="V81" s="44"/>
+      <c r="W81" s="44"/>
+      <c r="X81" s="44"/>
+      <c r="Y81" s="44"/>
+      <c r="Z81" s="44"/>
+      <c r="AA81" s="44"/>
+      <c r="AB81" s="44"/>
+      <c r="AC81" s="44"/>
+      <c r="AD81" s="44"/>
+      <c r="AE81" s="44"/>
       <c r="AF81" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG81" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="AG81" s="43"/>
       <c r="AH81" s="50" t="s">
         <v>320</v>
       </c>
-      <c r="AI81" s="42"/>
-      <c r="AJ81" s="42"/>
+      <c r="AI81" s="43"/>
+      <c r="AJ81" s="43"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="41" t="s">
+      <c r="A82" s="42" t="s">
         <v>90</v>
       </c>
       <c r="B82" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="C82" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D82" s="43"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="43"/>
-      <c r="J82" s="43"/>
-      <c r="K82" s="43"/>
-      <c r="L82" s="43"/>
-      <c r="M82" s="43"/>
-      <c r="N82" s="43"/>
-      <c r="O82" s="43"/>
-      <c r="P82" s="43"/>
-      <c r="Q82" s="43"/>
-      <c r="R82" s="43"/>
-      <c r="S82" s="43"/>
-      <c r="T82" s="43"/>
-      <c r="U82" s="43" t="s">
+      <c r="C82" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" s="44"/>
+      <c r="E82" s="43"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="44"/>
+      <c r="L82" s="44"/>
+      <c r="M82" s="44"/>
+      <c r="N82" s="44"/>
+      <c r="O82" s="44"/>
+      <c r="P82" s="44"/>
+      <c r="Q82" s="44"/>
+      <c r="R82" s="44"/>
+      <c r="S82" s="44"/>
+      <c r="T82" s="44"/>
+      <c r="U82" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="V82" s="43"/>
-      <c r="W82" s="43"/>
-      <c r="X82" s="43"/>
-      <c r="Y82" s="43"/>
-      <c r="Z82" s="43"/>
-      <c r="AA82" s="43"/>
-      <c r="AB82" s="43"/>
-      <c r="AC82" s="43"/>
-      <c r="AD82" s="43"/>
-      <c r="AE82" s="43"/>
+      <c r="V82" s="44"/>
+      <c r="W82" s="44"/>
+      <c r="X82" s="44"/>
+      <c r="Y82" s="44"/>
+      <c r="Z82" s="44"/>
+      <c r="AA82" s="44"/>
+      <c r="AB82" s="44"/>
+      <c r="AC82" s="44"/>
+      <c r="AD82" s="44"/>
+      <c r="AE82" s="44"/>
       <c r="AF82" s="46" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG82" s="42"/>
+        <v>57</v>
+      </c>
+      <c r="AG82" s="43"/>
       <c r="AH82" s="50" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI82" s="42"/>
-      <c r="AJ82" s="42"/>
+        <v>157</v>
+      </c>
+      <c r="AI82" s="43"/>
+      <c r="AJ82" s="43"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="48" t="s">
@@ -5176,7 +5192,7 @@
       <c r="AD83" s="49"/>
       <c r="AE83" s="49"/>
       <c r="AF83" s="46" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="AG83" s="50"/>
       <c r="AH83" s="50"/>
@@ -5188,7 +5204,7 @@
         <v>89</v>
       </c>
       <c r="B84" s="48" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C84" s="50"/>
       <c r="D84" s="49"/>
@@ -5749,334 +5765,334 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
+      <c r="B2" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
+      <c r="A3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="C5" s="26" t="s">
         <v>65</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="C6" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="26" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="C7" s="21"/>
+      <c r="C7" s="22"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="C8" s="21"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="C9" s="21"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="C10" s="21"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="21"/>
+      <c r="C11" s="22"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="C12" s="21"/>
+      <c r="C12" s="22"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="C13" s="21"/>
+      <c r="C13" s="22"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="C14" s="21"/>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="C15" s="21"/>
+      <c r="C15" s="22"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="C16" s="21"/>
+      <c r="C16" s="22"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="C17" s="21"/>
+      <c r="C17" s="22"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="C18" s="21"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="C19" s="21"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="C20" s="21"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="21"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="21"/>
+      <c r="C22" s="22"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="21"/>
+      <c r="C23" s="22"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="21"/>
+      <c r="C24" s="22"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="21"/>
+      <c r="C25" s="22"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="21"/>
+      <c r="C26" s="22"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="21"/>
+      <c r="C27" s="22"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="21"/>
+      <c r="C28" s="22"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="21"/>
+      <c r="C29" s="22"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="21"/>
+      <c r="C30" s="22"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="21"/>
+      <c r="C31" s="22"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="21"/>
+      <c r="C32" s="22"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="21"/>
+      <c r="C33" s="22"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="21"/>
+      <c r="C34" s="22"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="21"/>
+      <c r="C35" s="22"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="21"/>
+      <c r="C36" s="22"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="21"/>
+      <c r="C37" s="22"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="21"/>
+      <c r="C38" s="22"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="21"/>
+      <c r="C39" s="22"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="21"/>
+      <c r="C40" s="22"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="21"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="21"/>
+      <c r="C42" s="22"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="21"/>
+      <c r="C43" s="22"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="21"/>
+      <c r="C44" s="22"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="21"/>
+      <c r="C45" s="22"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="21"/>
+      <c r="C46" s="22"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="21"/>
+      <c r="C47" s="22"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="21"/>
+      <c r="C48" s="22"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="21"/>
+      <c r="C49" s="22"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="21"/>
+      <c r="C50" s="22"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="21"/>
+      <c r="C51" s="22"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="21"/>
+      <c r="C52" s="22"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="21"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="21"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="21"/>
+      <c r="C55" s="22"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="21"/>
+      <c r="C56" s="22"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="21"/>
+      <c r="C57" s="22"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="21"/>
+      <c r="C58" s="22"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="21"/>
+      <c r="C59" s="22"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="21"/>
+      <c r="C60" s="22"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="21"/>
+      <c r="C61" s="22"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="21"/>
+      <c r="C62" s="22"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="21"/>
+      <c r="C63" s="22"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="21"/>
+      <c r="C64" s="22"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="21"/>
+      <c r="C65" s="22"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="21"/>
+      <c r="C66" s="22"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="21"/>
+      <c r="C67" s="22"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6104,25 +6120,25 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>42</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -6145,45 +6161,45 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="20">
+      <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="9">
         <f>NOW()</f>
-        <v>43773.51606</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
+        <v>43773.55052</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="G2" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6209,1120 +6225,1120 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
+      <c r="B2" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
+      <c r="A3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
+      <c r="W5" s="22"/>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
+      <c r="W9" s="22"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="22"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C11" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="22"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="22"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="21" t="s">
+      <c r="C13" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="21" t="s">
+      <c r="C14" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="21" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="21" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
+      <c r="W16" s="22"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="22"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="22"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="22"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C23" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="21" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C25" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="21" t="s">
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="22"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="22"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="C27" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15" s="21" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C28" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="B16" s="21" t="s">
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C29" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" s="21" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
+      <c r="W30" s="22"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C31" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
+      <c r="W31" s="22"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-      <c r="U29" s="21"/>
-      <c r="V29" s="21"/>
-      <c r="W29" s="21"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
+      <c r="C32" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
+      <c r="W32" s="22"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
+      <c r="W33" s="22"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="B43" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C43" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -7333,26 +7349,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -7362,290 +7378,290 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="C48" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="16"/>
-      <c r="O48" s="16"/>
-      <c r="P48" s="16"/>
-      <c r="Q48" s="16"/>
-      <c r="R48" s="16"/>
-      <c r="S48" s="16"/>
-      <c r="T48" s="16"/>
-      <c r="U48" s="16"/>
-      <c r="V48" s="16"/>
-      <c r="W48" s="16"/>
+      <c r="A48" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="D49" s="23"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
-      <c r="S49" s="16"/>
-      <c r="T49" s="16"/>
-      <c r="U49" s="16"/>
-      <c r="V49" s="16"/>
-      <c r="W49" s="16"/>
+      <c r="A49" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="17"/>
     </row>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B51" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="C51" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B52" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="C52" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B53" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
       <c r="C53" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B54" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="C54" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B55" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="C55" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C56" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="B58" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>241</v>
+      <c r="A58" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="B59" s="23" t="s">
-        <v>242</v>
-      </c>
-      <c r="C59" s="23" t="s">
-        <v>243</v>
+      <c r="A59" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="B60" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>245</v>
+      <c r="A60" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="B61" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>163</v>
+      <c r="A61" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="B63" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C63" s="23" t="s">
-        <v>248</v>
+      <c r="A63" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>250</v>
+      <c r="A64" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="B65" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>252</v>
+      <c r="A65" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="B66" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="C66" s="23" t="s">
-        <v>254</v>
+      <c r="A66" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>256</v>
+      <c r="A67" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B67" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="B69" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="C69" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="B70" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="C70" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="B72" t="s">
-        <v>263</v>
-      </c>
-      <c r="C72" s="44" t="s">
-        <v>221</v>
+        <v>246</v>
+      </c>
+      <c r="C72" s="40" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="B73" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C73" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="B74" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C74" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/pregnancy_danger_sign_follow_up.xlsx
+++ b/config/default/forms/app/pregnancy_danger_sign_follow_up.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="323">
   <si>
     <t>type</t>
   </si>
@@ -141,7 +141,118 @@
     <t>inputs</t>
   </si>
   <si>
-    <t>Patient</t>
+    <t>NO_LABEL</t>
+  </si>
+  <si>
+    <t>./source = 'user'</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>hidden</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>source_id</t>
+  </si>
+  <si>
+    <t>Source ID</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>db:person</t>
+  </si>
+  <si>
+    <t>_id</t>
+  </si>
+  <si>
+    <t>What is the patient's name?</t>
+  </si>
+  <si>
+    <t>db-object</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>short_name</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>patient_id</t>
+  </si>
+  <si>
+    <t>Patient ID</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>Date of Birth</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>Parent ID</t>
+  </si>
+  <si>
+    <t>chw_name</t>
+  </si>
+  <si>
+    <t>CHW name</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>CHW phone</t>
+  </si>
+  <si>
+    <t>end group</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>patient_age_in_years</t>
+  </si>
+  <si>
+    <t>floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
+  </si>
+  <si>
+    <t>Patient Age in Years</t>
+  </si>
+  <si>
+    <t>patient_uuid</t>
+  </si>
+  <si>
+    <t>../inputs/contact/_id</t>
+  </si>
+  <si>
+    <t>Patient UUID</t>
+  </si>
+  <si>
+    <t>../inputs/contact/patient_id</t>
   </si>
   <si>
     <t>form_title</t>
@@ -150,28 +261,7 @@
     <t>list_name</t>
   </si>
   <si>
-    <t>./source = 'user'</t>
-  </si>
-  <si>
-    <t>field-list</t>
-  </si>
-  <si>
-    <t>hidden</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>source_id</t>
-  </si>
-  <si>
-    <t>Source ID</t>
+    <t>patient_name</t>
   </si>
   <si>
     <t>form_id</t>
@@ -189,301 +279,127 @@
     <t>instance_name</t>
   </si>
   <si>
-    <t>contact</t>
-  </si>
-  <si>
     <t>default_language</t>
   </si>
   <si>
-    <t>NO_LABEL</t>
-  </si>
-  <si>
-    <t>db:person</t>
-  </si>
-  <si>
-    <t>_id</t>
-  </si>
-  <si>
-    <t>What is the patient's name?</t>
-  </si>
-  <si>
-    <t>db-object</t>
+    <t>../inputs/contact/name</t>
+  </si>
+  <si>
+    <t>Patient Name</t>
   </si>
   <si>
     <t>Pregnancy danger sign follow-up</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>patient_short_name</t>
+  </si>
+  <si>
+    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_label)</t>
+  </si>
+  <si>
+    <t>Patient Short Name</t>
+  </si>
+  <si>
+    <t>patient_short_name_start</t>
+  </si>
+  <si>
+    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_start_label)</t>
+  </si>
+  <si>
+    <t>Patient Sort Name Start Label</t>
+  </si>
+  <si>
+    <t>t_danger_signs_referral_follow_up_date</t>
+  </si>
+  <si>
+    <t>date-time(floor(decimal-date-time(today())) + 3)</t>
+  </si>
+  <si>
+    <t>Danger Signs Follow Up Date</t>
+  </si>
+  <si>
+    <t>t_danger_signs_referral_follow_up</t>
   </si>
   <si>
     <t>pregnancy_danger_sign_follow_up</t>
   </si>
   <si>
-    <t>short_name</t>
-  </si>
-  <si>
-    <t>Short Name</t>
-  </si>
-  <si>
-    <t>patient_id</t>
-  </si>
-  <si>
-    <t>Patient ID</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>sex</t>
+    <t>../danger_signs/r_danger_sign_present</t>
+  </si>
+  <si>
+    <t>Danger Signs Present</t>
+  </si>
+  <si>
+    <t>pregnancy_uuid_ctx</t>
+  </si>
+  <si>
+    <t>if(instance('contact-summary')/context/pregnancy_uuid != '', instance('contact-summary')/context/pregnancy_uuid, .)</t>
+  </si>
+  <si>
+    <t>Pregnancy UUID</t>
   </si>
   <si>
     <t>pages</t>
   </si>
   <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>Parent ID</t>
-  </si>
-  <si>
     <t>data</t>
   </si>
   <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>chw_name</t>
-  </si>
-  <si>
-    <t>CHW name</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>CHW phone</t>
-  </si>
-  <si>
-    <t>end group</t>
-  </si>
-  <si>
-    <t>calculate</t>
-  </si>
-  <si>
-    <t>patient_age_in_years</t>
-  </si>
-  <si>
-    <t>floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
-  </si>
-  <si>
-    <t>patient_uuid</t>
-  </si>
-  <si>
-    <t>../inputs/contact/_id</t>
+    <t>yes_no</t>
+  </si>
+  <si>
+    <t>danger_signs</t>
+  </si>
+  <si>
+    <t>Danger Sign Follow-up</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>../inputs/contact/patient_id</t>
-  </si>
-  <si>
-    <t>patient_name</t>
-  </si>
-  <si>
-    <t>../inputs/contact/name</t>
-  </si>
-  <si>
-    <t>patient_short_name</t>
-  </si>
-  <si>
-    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_label)</t>
-  </si>
-  <si>
-    <t>patient_short_name_start</t>
-  </si>
-  <si>
-    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_start_label)</t>
-  </si>
-  <si>
-    <t>t_danger_signs_referral_follow_up_date</t>
-  </si>
-  <si>
-    <t>date-time(floor(decimal-date-time(today())) + 3)</t>
-  </si>
-  <si>
-    <t>t_danger_signs_referral_follow_up</t>
-  </si>
-  <si>
-    <t>../danger_signs/r_danger_sign_present</t>
-  </si>
-  <si>
-    <t>pregnancy_uuid_ctx</t>
-  </si>
-  <si>
-    <t>if(instance('contact-summary')/context/pregnancy_uuid != '', instance('contact-summary')/context/pregnancy_uuid, .)</t>
-  </si>
-  <si>
-    <t>danger_signs</t>
-  </si>
-  <si>
-    <t>Danger Sign Follow-up</t>
-  </si>
-  <si>
-    <t>yes_no</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
+    <t>select_one yes_no</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>lmp_approximations</t>
-  </si>
-  <si>
-    <t>upto_2_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 2 Months Ago</t>
-  </si>
-  <si>
-    <t>upto_3_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 3 Months Ago</t>
-  </si>
-  <si>
-    <t>upto_4_months_ago</t>
-  </si>
-  <si>
-    <t>Upto 4 Months Ago</t>
-  </si>
-  <si>
-    <t>between_5_and_6_months_ago</t>
-  </si>
-  <si>
-    <t>Between 5 And 6 Months Ago</t>
-  </si>
-  <si>
-    <t>between_7_and_8_months_ago</t>
-  </si>
-  <si>
-    <t>Between 7 And 8 Months Ago</t>
-  </si>
-  <si>
-    <t>trimester1_choices</t>
-  </si>
-  <si>
-    <t>eat_extra_meal</t>
-  </si>
-  <si>
-    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
-  </si>
-  <si>
-    <t>take_iron_and_folic_acid</t>
-  </si>
-  <si>
-    <t>Take iron and folic acid tablets</t>
-  </si>
-  <si>
-    <t>avoid_heavy_work</t>
-  </si>
-  <si>
-    <t>Avoid heavy work, rest more</t>
-  </si>
-  <si>
-    <t>sleep_under_bednet</t>
-  </si>
-  <si>
-    <t>Sleep under an insecticide treated bednet</t>
-  </si>
-  <si>
-    <t>go_for_anc_visit</t>
-  </si>
-  <si>
-    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
-  </si>
-  <si>
-    <t>develop_birth_plan</t>
-  </si>
-  <si>
-    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
-  </si>
-  <si>
-    <t>trimester2_choices</t>
-  </si>
-  <si>
-    <t>couselling_on_exclusive_breastfeeding</t>
-  </si>
-  <si>
-    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
-  </si>
-  <si>
-    <t>conditions</t>
-  </si>
-  <si>
-    <t>heart_condition</t>
-  </si>
-  <si>
-    <t>Heart condition</t>
-  </si>
-  <si>
-    <t>asthma</t>
-  </si>
-  <si>
-    <t>Asthma</t>
-  </si>
-  <si>
-    <t>select_one yes_no</t>
-  </si>
-  <si>
-    <t>high_blood_pressure</t>
-  </si>
-  <si>
-    <t>High blood pressure</t>
-  </si>
-  <si>
     <t>visit_confirm</t>
   </si>
   <si>
     <t>Did ${patient_short_name} visit the health facility as recommended?</t>
   </si>
   <si>
-    <t>known_diabetes</t>
-  </si>
-  <si>
-    <t>Known diabetes</t>
+    <t>danger_sign_present</t>
+  </si>
+  <si>
+    <t>Is she still experiencing any danger signs?</t>
   </si>
   <si>
     <t>translate_woman_label</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>Other</t>
+    <t>note</t>
   </si>
   <si>
     <t>woman</t>
   </si>
   <si>
+    <t>congratulate_no_ds_note</t>
+  </si>
+  <si>
     <t>the woman</t>
   </si>
   <si>
-    <t>danger_sign_present</t>
-  </si>
-  <si>
-    <t>Is she still experiencing any danger signs?</t>
+    <t xml:space="preserve">Great news! Please closely monitor her until her next scheduled ANC check-up at the health facility. </t>
+  </si>
+  <si>
+    <t>../danger_sign_present = 'no'</t>
   </si>
   <si>
     <t>translate_woman_start_label</t>
@@ -495,30 +411,6 @@
     <t>The woman</t>
   </si>
   <si>
-    <t>hiv_statuses</t>
-  </si>
-  <si>
-    <t>known</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>congratulate_no_ds_note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Great news! Please closely monitor her until her next scheduled ANC check-up at the health facility. </t>
-  </si>
-  <si>
-    <t>../danger_sign_present = 'no'</t>
-  </si>
-  <si>
-    <t>fp_methods</t>
-  </si>
-  <si>
     <t>refer_patient_note_1</t>
   </si>
   <si>
@@ -534,45 +426,18 @@
     <t xml:space="preserve">Please advise her to do so and accompany her if possible. </t>
   </si>
   <si>
-    <t>Combined oral contraceptives</t>
-  </si>
-  <si>
     <t>danger_signs_question_note</t>
   </si>
   <si>
     <t xml:space="preserve">Please indicate which danger signs ${patient_short_name} is experiencing. </t>
   </si>
   <si>
-    <t>Progesterone only pills</t>
-  </si>
-  <si>
-    <t>Injectibles</t>
-  </si>
-  <si>
     <t>vaginal_bleeding</t>
   </si>
   <si>
     <t>Vaginal bleeding</t>
   </si>
   <si>
-    <t>Implants (1 rod)</t>
-  </si>
-  <si>
-    <t>Implants (2 rods)</t>
-  </si>
-  <si>
-    <t>IUD</t>
-  </si>
-  <si>
-    <t>Condoms</t>
-  </si>
-  <si>
-    <t>Tubal ligation</t>
-  </si>
-  <si>
-    <t>Cycle beads</t>
-  </si>
-  <si>
     <t>fits</t>
   </si>
   <si>
@@ -585,144 +450,12 @@
     <t>Severe abdominal pain</t>
   </si>
   <si>
-    <t>reasons_not_on_fp</t>
-  </si>
-  <si>
-    <t>Wants to get pregnant</t>
-  </si>
-  <si>
-    <t>Did not want FP</t>
-  </si>
-  <si>
-    <t>follow_up_methods</t>
-  </si>
-  <si>
-    <t>in_person</t>
-  </si>
-  <si>
-    <t>In person</t>
-  </si>
-  <si>
-    <t>by_phone</t>
-  </si>
-  <si>
-    <t>By phone</t>
-  </si>
-  <si>
-    <t>reasons_for_missing_visit</t>
-  </si>
-  <si>
-    <t>not_reminded</t>
-  </si>
-  <si>
-    <t>She was not reminded</t>
-  </si>
-  <si>
-    <t>travelled</t>
-  </si>
-  <si>
-    <t>She had travelled</t>
-  </si>
-  <si>
-    <t>no_lab_results</t>
-  </si>
-  <si>
-    <t>No Lab results yet</t>
-  </si>
-  <si>
-    <t>too_early</t>
-  </si>
-  <si>
-    <t>It is too early to start clinic</t>
-  </si>
-  <si>
-    <t>relocated</t>
-  </si>
-  <si>
-    <t>Relocated</t>
-  </si>
-  <si>
-    <t>actions_taken</t>
-  </si>
-  <si>
-    <t>referred</t>
-  </si>
-  <si>
-    <t>Referred the mother</t>
-  </si>
-  <si>
-    <t>key_message</t>
-  </si>
-  <si>
-    <t>Provided key health message</t>
-  </si>
-  <si>
-    <t>accompany</t>
-  </si>
-  <si>
-    <t>Accompany the mother to facility</t>
-  </si>
-  <si>
     <t>severe_headache</t>
   </si>
   <si>
     <t>Severe headache</t>
   </si>
   <si>
-    <t>recent_foods</t>
-  </si>
-  <si>
-    <t>carbohydrates</t>
-  </si>
-  <si>
-    <t>Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
-  </si>
-  <si>
-    <t>protein</t>
-  </si>
-  <si>
-    <t>Body building foods: Milk, eggs, meat</t>
-  </si>
-  <si>
-    <t>vegetables</t>
-  </si>
-  <si>
-    <t>Vegetables: Sukuma wiki, cabbages, traditional greens</t>
-  </si>
-  <si>
-    <t>fruits</t>
-  </si>
-  <si>
-    <t>Fruits: Mangoes, ripe bananas, oranges</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>None of the above</t>
-  </si>
-  <si>
-    <t>pos_neg</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>reasons_to_discontinue</t>
-  </si>
-  <si>
-    <t>wants_to_get_pregnant</t>
-  </si>
-  <si>
     <t>very_pale</t>
   </si>
   <si>
@@ -733,12 +466,6 @@
   </si>
   <si>
     <t>Fever</t>
-  </si>
-  <si>
-    <t>feels_sick_when_using_it</t>
-  </si>
-  <si>
-    <t>Feels sick when using it</t>
   </si>
   <si>
     <t>reduced_or_no_fetal_movements</t>
@@ -822,30 +549,105 @@
     <t>jr:choice-name(${custom_woman_start_label_translator},'${custom_woman_start_label_translator}')</t>
   </si>
   <si>
+    <t>lmp_approximations</t>
+  </si>
+  <si>
+    <t>upto_2_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 2 Months Ago</t>
+  </si>
+  <si>
+    <t>upto_3_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 3 Months Ago</t>
+  </si>
+  <si>
+    <t>upto_4_months_ago</t>
+  </si>
+  <si>
+    <t>Upto 4 Months Ago</t>
+  </si>
+  <si>
+    <t>between_5_and_6_months_ago</t>
+  </si>
+  <si>
+    <t>Between 5 And 6 Months Ago</t>
+  </si>
+  <si>
+    <t>between_7_and_8_months_ago</t>
+  </si>
+  <si>
+    <t>Between 7 And 8 Months Ago</t>
+  </si>
+  <si>
+    <t>trimester1_choices</t>
+  </si>
+  <si>
+    <t>eat_extra_meal</t>
+  </si>
+  <si>
+    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
+  </si>
+  <si>
     <t>__visited_hf</t>
   </si>
   <si>
+    <t>take_iron_and_folic_acid</t>
+  </si>
+  <si>
+    <t>Take iron and folic acid tablets</t>
+  </si>
+  <si>
+    <t>avoid_heavy_work</t>
+  </si>
+  <si>
+    <t>Avoid heavy work, rest more</t>
+  </si>
+  <si>
     <t>${visit_confirm}</t>
   </si>
   <si>
+    <t>sleep_under_bednet</t>
+  </si>
+  <si>
+    <t>Sleep under an insecticide treated bednet</t>
+  </si>
+  <si>
     <t>Whether or not the woman was taken to the health facility as recommended.</t>
   </si>
   <si>
     <t>__still_experiencing_danger_sign</t>
   </si>
   <si>
+    <t>go_for_anc_visit</t>
+  </si>
+  <si>
+    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
+  </si>
+  <si>
     <t>${danger_sign_present}</t>
   </si>
   <si>
     <t>Whether or not the woman is still experiencing any danger signs.</t>
   </si>
   <si>
+    <t>develop_birth_plan</t>
+  </si>
+  <si>
+    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
+  </si>
+  <si>
     <t>__vaginal_bleeding</t>
   </si>
   <si>
     <t>${vaginal_bleeding}</t>
   </si>
   <si>
+    <t>trimester2_choices</t>
+  </si>
+  <si>
     <t>Whether or not the woman is experiencing vaginal bleeding.</t>
   </si>
   <si>
@@ -867,36 +669,84 @@
     <t>Whether or not the woman is suffering from abdominal pain.</t>
   </si>
   <si>
+    <t>couselling_on_exclusive_breastfeeding</t>
+  </si>
+  <si>
     <t>__severe_headache</t>
   </si>
   <si>
+    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
     <t>${severe_headache}</t>
   </si>
   <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>heart_condition</t>
+  </si>
+  <si>
+    <t>Heart condition</t>
+  </si>
+  <si>
     <t>Whether or not the woman is suffering from severe headaches.</t>
   </si>
   <si>
     <t>__very_pale</t>
   </si>
   <si>
+    <t>asthma</t>
+  </si>
+  <si>
+    <t>Asthma</t>
+  </si>
+  <si>
+    <t>high_blood_pressure</t>
+  </si>
+  <si>
+    <t>High blood pressure</t>
+  </si>
+  <si>
     <t>${very_pale}</t>
   </si>
   <si>
     <t>Whether or not the woman appears very pale.</t>
   </si>
   <si>
+    <t>known_diabetes</t>
+  </si>
+  <si>
+    <t>Known diabetes</t>
+  </si>
+  <si>
     <t>__fever</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
     <t>${fever}</t>
   </si>
   <si>
+    <t>Other</t>
+  </si>
+  <si>
     <t>Whether or not the woman has a fever.</t>
   </si>
   <si>
     <t>__reduced_or_no_fetal_movements</t>
   </si>
   <si>
+    <t>hiv_statuses</t>
+  </si>
+  <si>
+    <t>known</t>
+  </si>
+  <si>
     <t>${reduced_or_no_fetal_movements}</t>
   </si>
   <si>
@@ -906,6 +756,9 @@
     <t>__breaking_water</t>
   </si>
   <si>
+    <t>unknown</t>
+  </si>
+  <si>
     <t>${breaking_water}</t>
   </si>
   <si>
@@ -915,6 +768,9 @@
     <t>__easily_tired</t>
   </si>
   <si>
+    <t>fp_methods</t>
+  </si>
+  <si>
     <t>${easily_tired}</t>
   </si>
   <si>
@@ -933,6 +789,9 @@
     <t>__breathlessness</t>
   </si>
   <si>
+    <t>Combined oral contraceptives</t>
+  </si>
+  <si>
     <t>${breathlessness}</t>
   </si>
   <si>
@@ -942,33 +801,198 @@
     <t>__has_danger_sign</t>
   </si>
   <si>
+    <t>Progesterone only pills</t>
+  </si>
+  <si>
     <t>${r_danger_sign_present}</t>
   </si>
   <si>
+    <t>Injectibles</t>
+  </si>
+  <si>
     <t>Whether or not any danger signs are present.</t>
   </si>
   <si>
+    <t>Implants (1 rod)</t>
+  </si>
+  <si>
+    <t>Implants (2 rods)</t>
+  </si>
+  <si>
+    <t>IUD</t>
+  </si>
+  <si>
+    <t>Condoms</t>
+  </si>
+  <si>
+    <t>Tubal ligation</t>
+  </si>
+  <si>
+    <t>Cycle beads</t>
+  </si>
+  <si>
     <t>meta</t>
   </si>
   <si>
+    <t>reasons_not_on_fp</t>
+  </si>
+  <si>
+    <t>Wants to get pregnant</t>
+  </si>
+  <si>
+    <t>Did not want FP</t>
+  </si>
+  <si>
+    <t>follow_up_methods</t>
+  </si>
+  <si>
+    <t>in_person</t>
+  </si>
+  <si>
+    <t>In person</t>
+  </si>
+  <si>
+    <t>by_phone</t>
+  </si>
+  <si>
+    <t>By phone</t>
+  </si>
+  <si>
     <t>__patient_uuid</t>
   </si>
   <si>
+    <t>reasons_for_missing_visit</t>
+  </si>
+  <si>
+    <t>not_reminded</t>
+  </si>
+  <si>
+    <t>She was not reminded</t>
+  </si>
+  <si>
+    <t>travelled</t>
+  </si>
+  <si>
+    <t>She had travelled</t>
+  </si>
+  <si>
+    <t>no_lab_results</t>
+  </si>
+  <si>
     <t>../../../inputs/contact/_id</t>
   </si>
   <si>
+    <t>No Lab results yet</t>
+  </si>
+  <si>
+    <t>too_early</t>
+  </si>
+  <si>
+    <t>It is too early to start clinic</t>
+  </si>
+  <si>
+    <t>relocated</t>
+  </si>
+  <si>
+    <t>Relocated</t>
+  </si>
+  <si>
     <t>__patient_id</t>
   </si>
   <si>
+    <t>actions_taken</t>
+  </si>
+  <si>
+    <t>referred</t>
+  </si>
+  <si>
+    <t>Referred the mother</t>
+  </si>
+  <si>
+    <t>key_message</t>
+  </si>
+  <si>
+    <t>Provided key health message</t>
+  </si>
+  <si>
+    <t>accompany</t>
+  </si>
+  <si>
+    <t>Accompany the mother to facility</t>
+  </si>
+  <si>
     <t>../../../inputs/contact/patient_id</t>
   </si>
   <si>
+    <t>recent_foods</t>
+  </si>
+  <si>
+    <t>carbohydrates</t>
+  </si>
+  <si>
+    <t>Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>Body building foods: Milk, eggs, meat</t>
+  </si>
+  <si>
     <t>__household_uuid</t>
   </si>
   <si>
+    <t>vegetables</t>
+  </si>
+  <si>
+    <t>Vegetables: Sukuma wiki, cabbages, traditional greens</t>
+  </si>
+  <si>
+    <t>fruits</t>
+  </si>
+  <si>
+    <t>Fruits: Mangoes, ripe bananas, oranges</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>None of the above</t>
+  </si>
+  <si>
+    <t>pos_neg</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>reasons_to_discontinue</t>
+  </si>
+  <si>
+    <t>wants_to_get_pregnant</t>
+  </si>
+  <si>
     <t>../../../inputs/contact/parent/_id</t>
   </si>
   <si>
+    <t>Household UUID</t>
+  </si>
+  <si>
+    <t>feels_sick_when_using_it</t>
+  </si>
+  <si>
+    <t>Feels sick when using it</t>
+  </si>
+  <si>
     <t>__source</t>
   </si>
   <si>
@@ -979,6 +1003,9 @@
   </si>
   <si>
     <t>../../../inputs/source_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source ID </t>
   </si>
   <si>
     <t>__pregnancy_uuid</t>
@@ -1073,12 +1100,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6FA8DC"/>
-        <bgColor rgb="FF6FA8DC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
         <bgColor rgb="FFFCE5CD"/>
       </patternFill>
@@ -1109,8 +1130,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FF6FA8DC"/>
+        <bgColor rgb="FF6FA8DC"/>
       </patternFill>
     </fill>
     <fill>
@@ -1119,14 +1140,23 @@
         <bgColor rgb="FF8E7CC3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <right/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1136,34 +1166,25 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1171,71 +1192,95 @@
     <xf borderId="0" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    </xf>
     <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="11" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="13" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="13" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="12" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="11" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="14" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="11" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1278,7 +1323,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="19.0"/>
-    <col customWidth="1" min="2" max="2" width="27.71"/>
+    <col customWidth="1" min="2" max="2" width="34.29"/>
     <col customWidth="1" min="3" max="3" width="43.29"/>
     <col customWidth="1" hidden="1" min="4" max="5" width="8.57"/>
     <col customWidth="1" hidden="1" min="6" max="6" width="8.71"/>
@@ -1414,1353 +1459,1387 @@
       <c r="C2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
+      <c r="C7" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="6"/>
+      <c r="AJ7" s="6"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>62</v>
+      <c r="A8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="6"/>
+      <c r="AJ9" s="6"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5">
+        <v>55</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6">
         <v>0.0</v>
       </c>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="6"/>
+      <c r="AJ10" s="6"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="6"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="6"/>
+      <c r="AJ12" s="6"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
+      <c r="AE15" s="6"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="6"/>
+      <c r="AH15" s="6"/>
+      <c r="AI15" s="6"/>
+      <c r="AJ15" s="6"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AG16" s="6"/>
+      <c r="AH16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
+        <v>63</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="6"/>
+      <c r="AE17" s="6"/>
+      <c r="AF17" s="6"/>
+      <c r="AG17" s="6"/>
+      <c r="AH17" s="6"/>
+      <c r="AI17" s="6"/>
+      <c r="AJ17" s="6"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="6"/>
+      <c r="AE18" s="6"/>
+      <c r="AF18" s="6"/>
+      <c r="AG18" s="6"/>
+      <c r="AH18" s="6"/>
+      <c r="AI18" s="6"/>
+      <c r="AJ18" s="6"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="6"/>
+      <c r="AE19" s="6"/>
+      <c r="AF19" s="6"/>
+      <c r="AG19" s="6"/>
+      <c r="AH19" s="6"/>
+      <c r="AI19" s="6"/>
+      <c r="AJ19" s="6"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="6"/>
+      <c r="AE20" s="6"/>
+      <c r="AF20" s="6"/>
+      <c r="AG20" s="6"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="6"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="6"/>
+      <c r="AF21" s="6"/>
+      <c r="AG21" s="6"/>
+      <c r="AH21" s="6"/>
+      <c r="AI21" s="6"/>
+      <c r="AJ21" s="6"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6"/>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="AF23" s="15"/>
+      <c r="AF23" s="9"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
-      <c r="AC24" s="17"/>
-      <c r="AD24" s="17"/>
-      <c r="AE24" s="17"/>
-      <c r="AF24" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG24" s="17"/>
-      <c r="AH24" s="17"/>
-      <c r="AI24" s="17"/>
-      <c r="AJ24" s="17"/>
+      <c r="A24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="12"/>
+      <c r="AE24" s="12"/>
+      <c r="AF24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG24" s="12"/>
+      <c r="AH24" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI24" s="12"/>
+      <c r="AJ24" s="12"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI25" s="12"/>
+      <c r="AJ25" s="12"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI26" s="12"/>
+      <c r="AJ26" s="12"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17" t="s">
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="12"/>
+      <c r="AF27" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG27" s="12"/>
+      <c r="AH27" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-      <c r="X25" s="17"/>
-      <c r="Y25" s="17"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="17"/>
-      <c r="AB25" s="17"/>
-      <c r="AC25" s="17"/>
-      <c r="AD25" s="17"/>
-      <c r="AE25" s="17"/>
-      <c r="AF25" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG25" s="17"/>
-      <c r="AH25" s="17"/>
-      <c r="AI25" s="17"/>
-      <c r="AJ25" s="17"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="18" t="s">
+      <c r="AI27" s="12"/>
+      <c r="AJ27" s="12"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="17"/>
-      <c r="AB26" s="17"/>
-      <c r="AC26" s="17"/>
-      <c r="AD26" s="17"/>
-      <c r="AE26" s="17"/>
-      <c r="AF26" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="17"/>
-      <c r="AJ26" s="17"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="16" t="s">
+      <c r="C28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="18" t="s">
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="17"/>
-      <c r="AB27" s="17"/>
-      <c r="AC27" s="17"/>
-      <c r="AD27" s="17"/>
-      <c r="AE27" s="17"/>
-      <c r="AF27" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
-      <c r="AJ27" s="17"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="19" t="s">
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="18" t="s">
+      <c r="C29" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="17"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
-      <c r="AJ28" s="17"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="19" t="s">
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="12"/>
+      <c r="AC29" s="12"/>
+      <c r="AD29" s="12"/>
+      <c r="AE29" s="12"/>
+      <c r="AF29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG29" s="12"/>
+      <c r="AH29" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="18" t="s">
+      <c r="AI29" s="12"/>
+      <c r="AJ29" s="12"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="17"/>
-      <c r="AB29" s="17"/>
-      <c r="AC29" s="17"/>
-      <c r="AD29" s="17"/>
-      <c r="AE29" s="17"/>
-      <c r="AF29" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG29" s="17"/>
-      <c r="AH29" s="17"/>
-      <c r="AI29" s="17"/>
-      <c r="AJ29" s="17"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="19" t="s">
+      <c r="C30" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="12"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="18" t="s">
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="12"/>
+      <c r="Z30" s="12"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG30" s="12"/>
+      <c r="AH30" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="17"/>
-      <c r="AB30" s="17"/>
-      <c r="AC30" s="17"/>
-      <c r="AD30" s="17"/>
-      <c r="AE30" s="17"/>
-      <c r="AF30" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG30" s="17"/>
-      <c r="AH30" s="17"/>
-      <c r="AI30" s="17"/>
-      <c r="AJ30" s="17"/>
+      <c r="AI30" s="12"/>
+      <c r="AJ30" s="12"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="19" t="s">
+      <c r="A31" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
-      <c r="AD31" s="17"/>
-      <c r="AE31" s="17"/>
-      <c r="AF31" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG31" s="17"/>
-      <c r="AH31" s="17"/>
-      <c r="AI31" s="17"/>
-      <c r="AJ31" s="17"/>
+      <c r="C31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="12"/>
+      <c r="AC31" s="12"/>
+      <c r="AD31" s="12"/>
+      <c r="AE31" s="12"/>
+      <c r="AF31" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG31" s="12"/>
+      <c r="AH31" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI31" s="12"/>
+      <c r="AJ31" s="12"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="18"/>
-      <c r="AG32" s="17"/>
-      <c r="AH32" s="17"/>
-      <c r="AI32" s="17"/>
-      <c r="AJ32" s="17"/>
+      <c r="A32" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="12"/>
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
+      <c r="AE32" s="12"/>
+      <c r="AF32" s="11"/>
+      <c r="AG32" s="12"/>
+      <c r="AH32" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI32" s="12"/>
+      <c r="AJ32" s="12"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>100</v>
+      <c r="B34" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>106</v>
       </c>
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
@@ -2769,9 +2848,9 @@
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31" t="s">
-        <v>40</v>
+      <c r="K34" s="30"/>
+      <c r="L34" s="30" t="s">
+        <v>38</v>
       </c>
       <c r="M34" s="32"/>
       <c r="N34" s="32"/>
@@ -2800,13 +2879,13 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>141</v>
+        <v>109</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>113</v>
       </c>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
@@ -2815,7 +2894,7 @@
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
       <c r="J35" s="32" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="K35" s="32"/>
       <c r="L35" s="32"/>
@@ -2846,13 +2925,13 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>150</v>
+        <v>109</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>115</v>
       </c>
       <c r="D36" s="32"/>
       <c r="E36" s="32"/>
@@ -2861,7 +2940,7 @@
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
       <c r="J36" s="32" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="K36" s="32"/>
       <c r="L36" s="32"/>
@@ -2891,14 +2970,14 @@
       <c r="AJ36" s="32"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>159</v>
+      <c r="A37" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>121</v>
       </c>
       <c r="D37" s="32"/>
       <c r="E37" s="32"/>
@@ -2907,8 +2986,8 @@
       <c r="H37" s="32"/>
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
-      <c r="K37" s="31" t="s">
-        <v>160</v>
+      <c r="K37" s="30" t="s">
+        <v>122</v>
       </c>
       <c r="L37" s="32"/>
       <c r="M37" s="32"/>
@@ -2930,8 +3009,8 @@
       <c r="AC37" s="32"/>
       <c r="AD37" s="32"/>
       <c r="AE37" s="32"/>
-      <c r="AF37" s="31" t="s">
-        <v>41</v>
+      <c r="AF37" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="AG37" s="32"/>
       <c r="AH37" s="32"/>
@@ -2940,13 +3019,13 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>163</v>
+        <v>117</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>127</v>
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
@@ -2955,8 +3034,8 @@
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
       <c r="J38" s="32"/>
-      <c r="K38" s="31" t="s">
-        <v>164</v>
+      <c r="K38" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="L38" s="32"/>
       <c r="M38" s="32"/>
@@ -2978,8 +3057,8 @@
       <c r="AC38" s="32"/>
       <c r="AD38" s="32"/>
       <c r="AE38" s="32"/>
-      <c r="AF38" s="31" t="s">
-        <v>41</v>
+      <c r="AF38" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="AG38" s="32"/>
       <c r="AH38" s="32"/>
@@ -2988,13 +3067,13 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>165</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>166</v>
+        <v>117</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
@@ -3003,8 +3082,8 @@
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
-      <c r="K39" s="31" t="s">
-        <v>164</v>
+      <c r="K39" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="L39" s="32"/>
       <c r="M39" s="32"/>
@@ -3026,8 +3105,8 @@
       <c r="AC39" s="32"/>
       <c r="AD39" s="32"/>
       <c r="AE39" s="32"/>
-      <c r="AF39" s="31" t="s">
-        <v>41</v>
+      <c r="AF39" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="AG39" s="32"/>
       <c r="AH39" s="32"/>
@@ -3036,13 +3115,13 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>169</v>
+        <v>117</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>132</v>
       </c>
       <c r="D40" s="32"/>
       <c r="E40" s="32"/>
@@ -3051,8 +3130,8 @@
       <c r="H40" s="32"/>
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
-      <c r="K40" s="31" t="s">
-        <v>164</v>
+      <c r="K40" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="L40" s="32"/>
       <c r="M40" s="32"/>
@@ -3074,7 +3153,9 @@
       <c r="AC40" s="32"/>
       <c r="AD40" s="32"/>
       <c r="AE40" s="32"/>
-      <c r="AF40" s="31"/>
+      <c r="AF40" s="30" t="s">
+        <v>39</v>
+      </c>
       <c r="AG40" s="32"/>
       <c r="AH40" s="32"/>
       <c r="AI40" s="32"/>
@@ -3082,13 +3163,13 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="34" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
@@ -3097,10 +3178,10 @@
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
       <c r="J41" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="K41" s="31" t="s">
-        <v>164</v>
+        <v>107</v>
+      </c>
+      <c r="K41" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="L41" s="32"/>
       <c r="M41" s="32"/>
@@ -3122,7 +3203,7 @@
       <c r="AC41" s="32"/>
       <c r="AD41" s="32"/>
       <c r="AE41" s="32"/>
-      <c r="AF41" s="31"/>
+      <c r="AF41" s="30"/>
       <c r="AG41" s="32"/>
       <c r="AH41" s="32"/>
       <c r="AI41" s="32"/>
@@ -3130,13 +3211,13 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="34" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
@@ -3145,10 +3226,10 @@
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
       <c r="J42" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="K42" s="31" t="s">
-        <v>164</v>
+        <v>107</v>
+      </c>
+      <c r="K42" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="L42" s="32"/>
       <c r="M42" s="32"/>
@@ -3178,13 +3259,13 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="B43" s="34" t="s">
-        <v>182</v>
-      </c>
       <c r="C43" s="32" t="s">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
@@ -3193,10 +3274,10 @@
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
       <c r="J43" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="K43" s="31" t="s">
-        <v>164</v>
+        <v>107</v>
+      </c>
+      <c r="K43" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="L43" s="32"/>
       <c r="M43" s="32"/>
@@ -3226,13 +3307,13 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="34" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>210</v>
+        <v>139</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>211</v>
+        <v>140</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
@@ -3241,10 +3322,10 @@
       <c r="H44" s="32"/>
       <c r="I44" s="32"/>
       <c r="J44" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="K44" s="31" t="s">
-        <v>164</v>
+        <v>107</v>
+      </c>
+      <c r="K44" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="L44" s="32"/>
       <c r="M44" s="32"/>
@@ -3274,13 +3355,13 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="34" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>230</v>
+        <v>141</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>231</v>
+        <v>142</v>
       </c>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
@@ -3289,10 +3370,10 @@
       <c r="H45" s="32"/>
       <c r="I45" s="32"/>
       <c r="J45" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="K45" s="31" t="s">
-        <v>164</v>
+        <v>107</v>
+      </c>
+      <c r="K45" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="L45" s="32"/>
       <c r="M45" s="32"/>
@@ -3322,13 +3403,13 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="34" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>232</v>
+        <v>143</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>233</v>
+        <v>144</v>
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
@@ -3337,10 +3418,10 @@
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
       <c r="J46" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="K46" s="31" t="s">
-        <v>164</v>
+        <v>107</v>
+      </c>
+      <c r="K46" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="L46" s="32"/>
       <c r="M46" s="32"/>
@@ -3370,13 +3451,13 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="34" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>237</v>
+        <v>145</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>146</v>
       </c>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
@@ -3385,10 +3466,10 @@
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
       <c r="J47" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="K47" s="31" t="s">
-        <v>164</v>
+        <v>107</v>
+      </c>
+      <c r="K47" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="L47" s="32"/>
       <c r="M47" s="32"/>
@@ -3418,13 +3499,13 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="34" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>238</v>
+        <v>147</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>239</v>
+        <v>148</v>
       </c>
       <c r="D48" s="32"/>
       <c r="E48" s="32"/>
@@ -3433,10 +3514,10 @@
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
       <c r="J48" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="K48" s="31" t="s">
-        <v>164</v>
+        <v>107</v>
+      </c>
+      <c r="K48" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="L48" s="32"/>
       <c r="M48" s="32"/>
@@ -3466,13 +3547,13 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="34" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>240</v>
+        <v>149</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>241</v>
+        <v>150</v>
       </c>
       <c r="D49" s="32"/>
       <c r="E49" s="32"/>
@@ -3481,10 +3562,10 @@
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
       <c r="J49" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="K49" s="31" t="s">
-        <v>164</v>
+        <v>107</v>
+      </c>
+      <c r="K49" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="L49" s="32"/>
       <c r="M49" s="32"/>
@@ -3514,13 +3595,13 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="34" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>242</v>
+        <v>151</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="D50" s="32"/>
       <c r="E50" s="32"/>
@@ -3529,10 +3610,10 @@
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
       <c r="J50" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="K50" s="31" t="s">
-        <v>164</v>
+        <v>107</v>
+      </c>
+      <c r="K50" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="L50" s="32"/>
       <c r="M50" s="32"/>
@@ -3562,13 +3643,13 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="34" t="s">
-        <v>137</v>
+        <v>109</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>245</v>
+        <v>154</v>
       </c>
       <c r="D51" s="32"/>
       <c r="E51" s="32"/>
@@ -3577,10 +3658,10 @@
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
       <c r="J51" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="K51" s="31" t="s">
-        <v>164</v>
+        <v>107</v>
+      </c>
+      <c r="K51" s="30" t="s">
+        <v>128</v>
       </c>
       <c r="L51" s="32"/>
       <c r="M51" s="32"/>
@@ -3610,13 +3691,13 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="34" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>246</v>
+        <v>155</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D52" s="32"/>
       <c r="E52" s="32"/>
@@ -3636,7 +3717,7 @@
       <c r="S52" s="32"/>
       <c r="T52" s="32"/>
       <c r="U52" s="39" t="s">
-        <v>247</v>
+        <v>156</v>
       </c>
       <c r="V52" s="32"/>
       <c r="W52" s="32"/>
@@ -3648,8 +3729,8 @@
       <c r="AC52" s="32"/>
       <c r="AD52" s="32"/>
       <c r="AE52" s="32"/>
-      <c r="AF52" s="31" t="s">
-        <v>41</v>
+      <c r="AF52" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="AG52" s="32"/>
       <c r="AH52" s="32"/>
@@ -3657,14 +3738,14 @@
       <c r="AJ52" s="32"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="22" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>54</v>
+      <c r="B53" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>36</v>
       </c>
       <c r="D53" s="32"/>
       <c r="E53" s="32"/>
@@ -3674,8 +3755,8 @@
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
       <c r="K53" s="32"/>
-      <c r="L53" s="31" t="s">
-        <v>41</v>
+      <c r="L53" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="M53" s="32"/>
       <c r="N53" s="32"/>
@@ -3685,7 +3766,7 @@
       <c r="R53" s="32"/>
       <c r="S53" s="32"/>
       <c r="T53" s="32"/>
-      <c r="U53" s="31"/>
+      <c r="U53" s="30"/>
       <c r="V53" s="32"/>
       <c r="W53" s="32"/>
       <c r="X53" s="32"/>
@@ -3696,8 +3777,8 @@
       <c r="AC53" s="32"/>
       <c r="AD53" s="32"/>
       <c r="AE53" s="32"/>
-      <c r="AF53" s="31" t="s">
-        <v>41</v>
+      <c r="AF53" s="30" t="s">
+        <v>39</v>
       </c>
       <c r="AG53" s="32"/>
       <c r="AH53" s="32"/>
@@ -3705,14 +3786,14 @@
       <c r="AJ53" s="32"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="22" t="s">
-        <v>249</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>250</v>
+      <c r="A54" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>159</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
@@ -3722,7 +3803,7 @@
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
       <c r="K54" s="32"/>
-      <c r="L54" s="31"/>
+      <c r="L54" s="30"/>
       <c r="M54" s="32"/>
       <c r="N54" s="32"/>
       <c r="O54" s="32"/>
@@ -3731,8 +3812,8 @@
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
       <c r="T54" s="32"/>
-      <c r="U54" s="31" t="s">
-        <v>251</v>
+      <c r="U54" s="30" t="s">
+        <v>160</v>
       </c>
       <c r="V54" s="32"/>
       <c r="W54" s="32"/>
@@ -3751,14 +3832,14 @@
       <c r="AJ54" s="32"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>252</v>
+      <c r="A55" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>161</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D55" s="32"/>
       <c r="E55" s="32"/>
@@ -3768,7 +3849,7 @@
       <c r="I55" s="32"/>
       <c r="J55" s="32"/>
       <c r="K55" s="32"/>
-      <c r="L55" s="31"/>
+      <c r="L55" s="30"/>
       <c r="M55" s="32"/>
       <c r="N55" s="32"/>
       <c r="O55" s="32"/>
@@ -3777,8 +3858,8 @@
       <c r="R55" s="32"/>
       <c r="S55" s="32"/>
       <c r="T55" s="32"/>
-      <c r="U55" s="31" t="s">
-        <v>253</v>
+      <c r="U55" s="30" t="s">
+        <v>162</v>
       </c>
       <c r="V55" s="32"/>
       <c r="W55" s="32"/>
@@ -3797,14 +3878,14 @@
       <c r="AJ55" s="32"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>255</v>
+      <c r="A56" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>164</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D56" s="32"/>
       <c r="E56" s="32"/>
@@ -3814,7 +3895,7 @@
       <c r="I56" s="32"/>
       <c r="J56" s="32"/>
       <c r="K56" s="32"/>
-      <c r="L56" s="31"/>
+      <c r="L56" s="30"/>
       <c r="M56" s="32"/>
       <c r="N56" s="32"/>
       <c r="O56" s="32"/>
@@ -3823,8 +3904,8 @@
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
       <c r="T56" s="32"/>
-      <c r="U56" s="31" t="s">
-        <v>256</v>
+      <c r="U56" s="30" t="s">
+        <v>165</v>
       </c>
       <c r="V56" s="32"/>
       <c r="W56" s="32"/>
@@ -3843,14 +3924,14 @@
       <c r="AJ56" s="32"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B57" s="22" t="s">
-        <v>257</v>
+      <c r="A57" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>166</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D57" s="32"/>
       <c r="E57" s="32"/>
@@ -3860,7 +3941,7 @@
       <c r="I57" s="32"/>
       <c r="J57" s="32"/>
       <c r="K57" s="32"/>
-      <c r="L57" s="31"/>
+      <c r="L57" s="30"/>
       <c r="M57" s="32"/>
       <c r="N57" s="32"/>
       <c r="O57" s="32"/>
@@ -3869,8 +3950,8 @@
       <c r="R57" s="32"/>
       <c r="S57" s="32"/>
       <c r="T57" s="32"/>
-      <c r="U57" s="31" t="s">
-        <v>258</v>
+      <c r="U57" s="30" t="s">
+        <v>167</v>
       </c>
       <c r="V57" s="32"/>
       <c r="W57" s="32"/>
@@ -3889,20 +3970,20 @@
       <c r="AJ57" s="32"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="22" t="s">
-        <v>79</v>
+      <c r="A58" s="28" t="s">
+        <v>65</v>
       </c>
       <c r="B58" s="34"/>
-      <c r="C58" s="31"/>
+      <c r="C58" s="30"/>
       <c r="D58" s="32"/>
-      <c r="E58" s="31"/>
+      <c r="E58" s="30"/>
       <c r="F58" s="32"/>
       <c r="G58" s="32"/>
       <c r="H58" s="32"/>
       <c r="I58" s="32"/>
       <c r="J58" s="32"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="30"/>
       <c r="M58" s="32"/>
       <c r="N58" s="32"/>
       <c r="O58" s="32"/>
@@ -3930,19 +4011,19 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="34" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B59" s="34"/>
-      <c r="C59" s="31"/>
+      <c r="C59" s="30"/>
       <c r="D59" s="32"/>
-      <c r="E59" s="31"/>
+      <c r="E59" s="30"/>
       <c r="F59" s="32"/>
       <c r="G59" s="32"/>
       <c r="H59" s="32"/>
       <c r="I59" s="32"/>
       <c r="J59" s="32"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="30"/>
       <c r="M59" s="32"/>
       <c r="N59" s="32"/>
       <c r="O59" s="32"/>
@@ -3969,26 +4050,26 @@
       <c r="AJ59" s="32"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="15"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="AF60" s="15"/>
-      <c r="AG60" s="15"/>
-      <c r="AH60" s="15"/>
-      <c r="AI60" s="15"/>
-      <c r="AJ60" s="15"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="AF60" s="9"/>
+      <c r="AG60" s="9"/>
+      <c r="AH60" s="9"/>
+      <c r="AI60" s="9"/>
+      <c r="AJ60" s="9"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="40" t="s">
         <v>34</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D61" s="42"/>
       <c r="E61" s="41"/>
@@ -3999,7 +4080,7 @@
       <c r="J61" s="42"/>
       <c r="K61" s="42"/>
       <c r="L61" s="43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M61" s="42"/>
       <c r="N61" s="42"/>
@@ -4021,7 +4102,7 @@
       <c r="AD61" s="42"/>
       <c r="AE61" s="42"/>
       <c r="AF61" s="44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AG61" s="41"/>
       <c r="AH61" s="41"/>
@@ -4030,12 +4111,14 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="40" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B62" s="45" t="s">
-        <v>259</v>
-      </c>
-      <c r="C62" s="41"/>
+        <v>182</v>
+      </c>
+      <c r="C62" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="D62" s="42"/>
       <c r="E62" s="41"/>
       <c r="F62" s="41"/>
@@ -4054,7 +4137,7 @@
       <c r="S62" s="42"/>
       <c r="T62" s="42"/>
       <c r="U62" s="41" t="s">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="V62" s="42"/>
       <c r="W62" s="42"/>
@@ -4066,22 +4149,24 @@
       <c r="AC62" s="42"/>
       <c r="AD62" s="42"/>
       <c r="AE62" s="42"/>
-      <c r="AF62" s="41"/>
+      <c r="AF62" s="44"/>
       <c r="AG62" s="41"/>
       <c r="AH62" s="43" t="s">
-        <v>261</v>
+        <v>190</v>
       </c>
       <c r="AI62" s="41"/>
       <c r="AJ62" s="41"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="40" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B63" s="45" t="s">
-        <v>262</v>
-      </c>
-      <c r="C63" s="41"/>
+        <v>191</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="D63" s="42"/>
       <c r="E63" s="41"/>
       <c r="F63" s="41"/>
@@ -4100,7 +4185,7 @@
       <c r="S63" s="42"/>
       <c r="T63" s="42"/>
       <c r="U63" s="41" t="s">
-        <v>263</v>
+        <v>194</v>
       </c>
       <c r="V63" s="42"/>
       <c r="W63" s="42"/>
@@ -4112,22 +4197,24 @@
       <c r="AC63" s="42"/>
       <c r="AD63" s="42"/>
       <c r="AE63" s="42"/>
-      <c r="AF63" s="41"/>
+      <c r="AF63" s="44"/>
       <c r="AG63" s="41"/>
       <c r="AH63" s="43" t="s">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="AI63" s="41"/>
       <c r="AJ63" s="41"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="40" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B64" s="45" t="s">
-        <v>265</v>
-      </c>
-      <c r="C64" s="41"/>
+        <v>198</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="D64" s="42"/>
       <c r="E64" s="41"/>
       <c r="F64" s="41"/>
@@ -4146,7 +4233,7 @@
       <c r="S64" s="42"/>
       <c r="T64" s="42"/>
       <c r="U64" s="42" t="s">
-        <v>266</v>
+        <v>199</v>
       </c>
       <c r="V64" s="42"/>
       <c r="W64" s="42"/>
@@ -4158,22 +4245,24 @@
       <c r="AC64" s="42"/>
       <c r="AD64" s="42"/>
       <c r="AE64" s="42"/>
-      <c r="AF64" s="41"/>
+      <c r="AF64" s="44"/>
       <c r="AG64" s="41"/>
       <c r="AH64" s="43" t="s">
-        <v>267</v>
+        <v>201</v>
       </c>
       <c r="AI64" s="41"/>
       <c r="AJ64" s="41"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="40" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B65" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="C65" s="41"/>
+        <v>202</v>
+      </c>
+      <c r="C65" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="D65" s="42"/>
       <c r="E65" s="41"/>
       <c r="F65" s="41"/>
@@ -4192,7 +4281,7 @@
       <c r="S65" s="42"/>
       <c r="T65" s="42"/>
       <c r="U65" s="42" t="s">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="V65" s="42"/>
       <c r="W65" s="42"/>
@@ -4204,22 +4293,24 @@
       <c r="AC65" s="42"/>
       <c r="AD65" s="42"/>
       <c r="AE65" s="42"/>
-      <c r="AF65" s="41"/>
+      <c r="AF65" s="44"/>
       <c r="AG65" s="41"/>
       <c r="AH65" s="43" t="s">
-        <v>270</v>
+        <v>204</v>
       </c>
       <c r="AI65" s="41"/>
       <c r="AJ65" s="41"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="40" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B66" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="C66" s="41"/>
+        <v>205</v>
+      </c>
+      <c r="C66" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="D66" s="42"/>
       <c r="E66" s="41"/>
       <c r="F66" s="41"/>
@@ -4238,7 +4329,7 @@
       <c r="S66" s="42"/>
       <c r="T66" s="42"/>
       <c r="U66" s="42" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="V66" s="42"/>
       <c r="W66" s="42"/>
@@ -4250,22 +4341,24 @@
       <c r="AC66" s="42"/>
       <c r="AD66" s="42"/>
       <c r="AE66" s="42"/>
-      <c r="AF66" s="41"/>
+      <c r="AF66" s="44"/>
       <c r="AG66" s="41"/>
       <c r="AH66" s="43" t="s">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="AI66" s="41"/>
       <c r="AJ66" s="41"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="40" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B67" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="C67" s="41"/>
+        <v>209</v>
+      </c>
+      <c r="C67" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="D67" s="42"/>
       <c r="E67" s="41"/>
       <c r="F67" s="41"/>
@@ -4284,7 +4377,7 @@
       <c r="S67" s="42"/>
       <c r="T67" s="42"/>
       <c r="U67" s="42" t="s">
-        <v>275</v>
+        <v>212</v>
       </c>
       <c r="V67" s="42"/>
       <c r="W67" s="42"/>
@@ -4296,22 +4389,24 @@
       <c r="AC67" s="42"/>
       <c r="AD67" s="42"/>
       <c r="AE67" s="42"/>
-      <c r="AF67" s="41"/>
+      <c r="AF67" s="44"/>
       <c r="AG67" s="41"/>
       <c r="AH67" s="43" t="s">
-        <v>276</v>
+        <v>216</v>
       </c>
       <c r="AI67" s="41"/>
       <c r="AJ67" s="41"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="40" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B68" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="C68" s="41"/>
+        <v>217</v>
+      </c>
+      <c r="C68" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="D68" s="42"/>
       <c r="E68" s="41"/>
       <c r="F68" s="41"/>
@@ -4330,7 +4425,7 @@
       <c r="S68" s="42"/>
       <c r="T68" s="42"/>
       <c r="U68" s="42" t="s">
-        <v>278</v>
+        <v>222</v>
       </c>
       <c r="V68" s="42"/>
       <c r="W68" s="42"/>
@@ -4342,22 +4437,24 @@
       <c r="AC68" s="42"/>
       <c r="AD68" s="42"/>
       <c r="AE68" s="42"/>
-      <c r="AF68" s="41"/>
+      <c r="AF68" s="44"/>
       <c r="AG68" s="41"/>
       <c r="AH68" s="43" t="s">
-        <v>279</v>
+        <v>223</v>
       </c>
       <c r="AI68" s="41"/>
       <c r="AJ68" s="41"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="40" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B69" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="C69" s="41"/>
+        <v>226</v>
+      </c>
+      <c r="C69" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="D69" s="42"/>
       <c r="E69" s="41"/>
       <c r="F69" s="41"/>
@@ -4376,7 +4473,7 @@
       <c r="S69" s="42"/>
       <c r="T69" s="42"/>
       <c r="U69" s="42" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="V69" s="42"/>
       <c r="W69" s="42"/>
@@ -4388,22 +4485,24 @@
       <c r="AC69" s="42"/>
       <c r="AD69" s="42"/>
       <c r="AE69" s="42"/>
-      <c r="AF69" s="41"/>
+      <c r="AF69" s="44"/>
       <c r="AG69" s="41"/>
       <c r="AH69" s="43" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
       <c r="AI69" s="41"/>
       <c r="AJ69" s="41"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="40" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B70" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="C70" s="41"/>
+        <v>231</v>
+      </c>
+      <c r="C70" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="D70" s="42"/>
       <c r="E70" s="41"/>
       <c r="F70" s="41"/>
@@ -4422,7 +4521,7 @@
       <c r="S70" s="42"/>
       <c r="T70" s="42"/>
       <c r="U70" s="43" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="V70" s="42"/>
       <c r="W70" s="42"/>
@@ -4434,22 +4533,24 @@
       <c r="AC70" s="42"/>
       <c r="AD70" s="42"/>
       <c r="AE70" s="42"/>
-      <c r="AF70" s="41"/>
+      <c r="AF70" s="44"/>
       <c r="AG70" s="41"/>
       <c r="AH70" s="43" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="AI70" s="41"/>
       <c r="AJ70" s="41"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="40" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="C71" s="41"/>
+        <v>236</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="D71" s="42"/>
       <c r="E71" s="41"/>
       <c r="F71" s="41"/>
@@ -4468,7 +4569,7 @@
       <c r="S71" s="42"/>
       <c r="T71" s="42"/>
       <c r="U71" s="42" t="s">
-        <v>287</v>
+        <v>238</v>
       </c>
       <c r="V71" s="42"/>
       <c r="W71" s="42"/>
@@ -4480,22 +4581,24 @@
       <c r="AC71" s="42"/>
       <c r="AD71" s="42"/>
       <c r="AE71" s="42"/>
-      <c r="AF71" s="41"/>
+      <c r="AF71" s="44"/>
       <c r="AG71" s="41"/>
       <c r="AH71" s="43" t="s">
-        <v>288</v>
+        <v>239</v>
       </c>
       <c r="AI71" s="41"/>
       <c r="AJ71" s="41"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="40" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B72" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="C72" s="41"/>
+        <v>240</v>
+      </c>
+      <c r="C72" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="D72" s="42"/>
       <c r="E72" s="41"/>
       <c r="F72" s="41"/>
@@ -4514,7 +4617,7 @@
       <c r="S72" s="42"/>
       <c r="T72" s="42"/>
       <c r="U72" s="42" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="V72" s="42"/>
       <c r="W72" s="42"/>
@@ -4526,22 +4629,24 @@
       <c r="AC72" s="42"/>
       <c r="AD72" s="42"/>
       <c r="AE72" s="42"/>
-      <c r="AF72" s="41"/>
+      <c r="AF72" s="44"/>
       <c r="AG72" s="41"/>
       <c r="AH72" s="43" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="AI72" s="41"/>
       <c r="AJ72" s="41"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="40" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B73" s="45" t="s">
-        <v>292</v>
-      </c>
-      <c r="C73" s="41"/>
+        <v>244</v>
+      </c>
+      <c r="C73" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="D73" s="42"/>
       <c r="E73" s="41"/>
       <c r="F73" s="41"/>
@@ -4560,7 +4665,7 @@
       <c r="S73" s="42"/>
       <c r="T73" s="42"/>
       <c r="U73" s="42" t="s">
-        <v>293</v>
+        <v>245</v>
       </c>
       <c r="V73" s="42"/>
       <c r="W73" s="42"/>
@@ -4572,22 +4677,24 @@
       <c r="AC73" s="42"/>
       <c r="AD73" s="42"/>
       <c r="AE73" s="42"/>
-      <c r="AF73" s="41"/>
+      <c r="AF73" s="44"/>
       <c r="AG73" s="41"/>
       <c r="AH73" s="43" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="AI73" s="41"/>
       <c r="AJ73" s="41"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="40" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B74" s="45" t="s">
-        <v>295</v>
-      </c>
-      <c r="C74" s="41"/>
+        <v>247</v>
+      </c>
+      <c r="C74" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="D74" s="42"/>
       <c r="E74" s="41"/>
       <c r="F74" s="41"/>
@@ -4606,7 +4713,7 @@
       <c r="S74" s="42"/>
       <c r="T74" s="42"/>
       <c r="U74" s="42" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="V74" s="42"/>
       <c r="W74" s="42"/>
@@ -4618,22 +4725,24 @@
       <c r="AC74" s="42"/>
       <c r="AD74" s="42"/>
       <c r="AE74" s="42"/>
-      <c r="AF74" s="41"/>
+      <c r="AF74" s="44"/>
       <c r="AG74" s="41"/>
       <c r="AH74" s="43" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="AI74" s="41"/>
       <c r="AJ74" s="41"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="40" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B75" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="C75" s="41"/>
+        <v>251</v>
+      </c>
+      <c r="C75" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="D75" s="42"/>
       <c r="E75" s="41"/>
       <c r="F75" s="41"/>
@@ -4652,7 +4761,7 @@
       <c r="S75" s="42"/>
       <c r="T75" s="42"/>
       <c r="U75" s="42" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="V75" s="42"/>
       <c r="W75" s="42"/>
@@ -4664,66 +4773,68 @@
       <c r="AC75" s="42"/>
       <c r="AD75" s="42"/>
       <c r="AE75" s="42"/>
-      <c r="AF75" s="41"/>
+      <c r="AF75" s="44"/>
       <c r="AG75" s="41"/>
       <c r="AH75" s="43" t="s">
-        <v>300</v>
+        <v>255</v>
       </c>
       <c r="AI75" s="41"/>
       <c r="AJ75" s="41"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="46" t="s">
+      <c r="A76" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="B76" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D76" s="47"/>
-      <c r="E76" s="48"/>
-      <c r="F76" s="48"/>
-      <c r="G76" s="47"/>
-      <c r="H76" s="47"/>
-      <c r="I76" s="47"/>
-      <c r="J76" s="47"/>
-      <c r="K76" s="47"/>
-      <c r="L76" s="47"/>
-      <c r="M76" s="47"/>
-      <c r="N76" s="47"/>
-      <c r="O76" s="47"/>
-      <c r="P76" s="47"/>
-      <c r="Q76" s="47"/>
-      <c r="R76" s="47"/>
-      <c r="S76" s="47"/>
-      <c r="T76" s="47"/>
-      <c r="U76" s="48"/>
-      <c r="V76" s="47"/>
-      <c r="W76" s="47"/>
-      <c r="X76" s="47"/>
-      <c r="Y76" s="47"/>
-      <c r="Z76" s="47"/>
-      <c r="AA76" s="47"/>
-      <c r="AB76" s="47"/>
-      <c r="AC76" s="47"/>
-      <c r="AD76" s="47"/>
-      <c r="AE76" s="47"/>
-      <c r="AF76" s="48"/>
-      <c r="AG76" s="48"/>
-      <c r="AH76" s="48"/>
-      <c r="AI76" s="48"/>
-      <c r="AJ76" s="48"/>
+      <c r="B76" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="C76" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" s="48"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
+      <c r="I76" s="48"/>
+      <c r="J76" s="48"/>
+      <c r="K76" s="48"/>
+      <c r="L76" s="48"/>
+      <c r="M76" s="48"/>
+      <c r="N76" s="48"/>
+      <c r="O76" s="48"/>
+      <c r="P76" s="48"/>
+      <c r="Q76" s="48"/>
+      <c r="R76" s="48"/>
+      <c r="S76" s="48"/>
+      <c r="T76" s="48"/>
+      <c r="U76" s="49"/>
+      <c r="V76" s="48"/>
+      <c r="W76" s="48"/>
+      <c r="X76" s="48"/>
+      <c r="Y76" s="48"/>
+      <c r="Z76" s="48"/>
+      <c r="AA76" s="48"/>
+      <c r="AB76" s="48"/>
+      <c r="AC76" s="48"/>
+      <c r="AD76" s="48"/>
+      <c r="AE76" s="48"/>
+      <c r="AF76" s="44"/>
+      <c r="AG76" s="49"/>
+      <c r="AH76" s="49"/>
+      <c r="AI76" s="49"/>
+      <c r="AJ76" s="49"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="40" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B77" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="C77" s="41"/>
+        <v>271</v>
+      </c>
+      <c r="C77" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="D77" s="42"/>
       <c r="E77" s="41"/>
       <c r="F77" s="41"/>
@@ -4741,8 +4852,8 @@
       <c r="R77" s="42"/>
       <c r="S77" s="42"/>
       <c r="T77" s="42"/>
-      <c r="U77" s="48" t="s">
-        <v>303</v>
+      <c r="U77" s="49" t="s">
+        <v>278</v>
       </c>
       <c r="V77" s="42"/>
       <c r="W77" s="42"/>
@@ -4754,20 +4865,24 @@
       <c r="AC77" s="42"/>
       <c r="AD77" s="42"/>
       <c r="AE77" s="42"/>
-      <c r="AF77" s="41"/>
+      <c r="AF77" s="44"/>
       <c r="AG77" s="41"/>
-      <c r="AH77" s="41"/>
+      <c r="AH77" s="49" t="s">
+        <v>72</v>
+      </c>
       <c r="AI77" s="41"/>
       <c r="AJ77" s="41"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="40" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B78" s="45" t="s">
-        <v>304</v>
-      </c>
-      <c r="C78" s="41"/>
+        <v>284</v>
+      </c>
+      <c r="C78" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="D78" s="42"/>
       <c r="E78" s="41"/>
       <c r="F78" s="41"/>
@@ -4785,8 +4900,8 @@
       <c r="R78" s="42"/>
       <c r="S78" s="42"/>
       <c r="T78" s="42"/>
-      <c r="U78" s="47" t="s">
-        <v>305</v>
+      <c r="U78" s="48" t="s">
+        <v>292</v>
       </c>
       <c r="V78" s="42"/>
       <c r="W78" s="42"/>
@@ -4798,20 +4913,24 @@
       <c r="AC78" s="42"/>
       <c r="AD78" s="42"/>
       <c r="AE78" s="42"/>
-      <c r="AF78" s="41"/>
+      <c r="AF78" s="44"/>
       <c r="AG78" s="41"/>
-      <c r="AH78" s="41"/>
+      <c r="AH78" s="49" t="s">
+        <v>54</v>
+      </c>
       <c r="AI78" s="41"/>
       <c r="AJ78" s="41"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="40" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B79" s="45" t="s">
-        <v>306</v>
-      </c>
-      <c r="C79" s="41"/>
+        <v>298</v>
+      </c>
+      <c r="C79" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="D79" s="42"/>
       <c r="E79" s="41"/>
       <c r="F79" s="41"/>
@@ -4829,8 +4948,8 @@
       <c r="R79" s="42"/>
       <c r="S79" s="42"/>
       <c r="T79" s="42"/>
-      <c r="U79" s="47" t="s">
-        <v>307</v>
+      <c r="U79" s="48" t="s">
+        <v>312</v>
       </c>
       <c r="V79" s="42"/>
       <c r="W79" s="42"/>
@@ -4842,20 +4961,24 @@
       <c r="AC79" s="42"/>
       <c r="AD79" s="42"/>
       <c r="AE79" s="42"/>
-      <c r="AF79" s="41"/>
+      <c r="AF79" s="44"/>
       <c r="AG79" s="41"/>
-      <c r="AH79" s="41"/>
+      <c r="AH79" s="51" t="s">
+        <v>313</v>
+      </c>
       <c r="AI79" s="41"/>
       <c r="AJ79" s="41"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="40" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B80" s="45" t="s">
-        <v>308</v>
-      </c>
-      <c r="C80" s="41"/>
+        <v>316</v>
+      </c>
+      <c r="C80" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="D80" s="42"/>
       <c r="E80" s="41"/>
       <c r="F80" s="41"/>
@@ -4873,8 +4996,8 @@
       <c r="R80" s="42"/>
       <c r="S80" s="42"/>
       <c r="T80" s="42"/>
-      <c r="U80" s="47" t="s">
-        <v>309</v>
+      <c r="U80" s="48" t="s">
+        <v>317</v>
       </c>
       <c r="V80" s="42"/>
       <c r="W80" s="42"/>
@@ -4886,20 +5009,24 @@
       <c r="AC80" s="42"/>
       <c r="AD80" s="42"/>
       <c r="AE80" s="42"/>
-      <c r="AF80" s="41"/>
+      <c r="AF80" s="44"/>
       <c r="AG80" s="41"/>
-      <c r="AH80" s="41"/>
+      <c r="AH80" s="49" t="s">
+        <v>41</v>
+      </c>
       <c r="AI80" s="41"/>
       <c r="AJ80" s="41"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="40" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>310</v>
-      </c>
-      <c r="C81" s="41"/>
+        <v>318</v>
+      </c>
+      <c r="C81" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="D81" s="42"/>
       <c r="E81" s="41"/>
       <c r="F81" s="41"/>
@@ -4917,8 +5044,8 @@
       <c r="R81" s="42"/>
       <c r="S81" s="42"/>
       <c r="T81" s="42"/>
-      <c r="U81" s="47" t="s">
-        <v>311</v>
+      <c r="U81" s="48" t="s">
+        <v>319</v>
       </c>
       <c r="V81" s="42"/>
       <c r="W81" s="42"/>
@@ -4930,20 +5057,24 @@
       <c r="AC81" s="42"/>
       <c r="AD81" s="42"/>
       <c r="AE81" s="42"/>
-      <c r="AF81" s="41"/>
+      <c r="AF81" s="44"/>
       <c r="AG81" s="41"/>
-      <c r="AH81" s="41"/>
+      <c r="AH81" s="49" t="s">
+        <v>320</v>
+      </c>
       <c r="AI81" s="41"/>
       <c r="AJ81" s="41"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="40" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="B82" s="45" t="s">
-        <v>312</v>
-      </c>
-      <c r="C82" s="41"/>
+        <v>321</v>
+      </c>
+      <c r="C82" s="41" t="s">
+        <v>36</v>
+      </c>
       <c r="D82" s="42"/>
       <c r="E82" s="41"/>
       <c r="F82" s="41"/>
@@ -4962,7 +5093,7 @@
       <c r="S82" s="42"/>
       <c r="T82" s="42"/>
       <c r="U82" s="42" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="V82" s="42"/>
       <c r="W82" s="42"/>
@@ -4974,99 +5105,595 @@
       <c r="AC82" s="42"/>
       <c r="AD82" s="42"/>
       <c r="AE82" s="42"/>
-      <c r="AF82" s="41"/>
+      <c r="AF82" s="44"/>
       <c r="AG82" s="41"/>
-      <c r="AH82" s="41"/>
+      <c r="AH82" s="49" t="s">
+        <v>101</v>
+      </c>
       <c r="AI82" s="41"/>
       <c r="AJ82" s="41"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="B83" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="C83" s="48"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="48"/>
-      <c r="F83" s="48"/>
-      <c r="G83" s="47"/>
-      <c r="H83" s="47"/>
-      <c r="I83" s="47"/>
-      <c r="J83" s="47"/>
-      <c r="K83" s="47"/>
-      <c r="L83" s="47"/>
-      <c r="M83" s="47"/>
-      <c r="N83" s="47"/>
-      <c r="O83" s="47"/>
-      <c r="P83" s="47"/>
-      <c r="Q83" s="47"/>
-      <c r="R83" s="47"/>
-      <c r="S83" s="47"/>
-      <c r="T83" s="47"/>
-      <c r="U83" s="47"/>
-      <c r="V83" s="47"/>
-      <c r="W83" s="47"/>
-      <c r="X83" s="47"/>
-      <c r="Y83" s="47"/>
-      <c r="Z83" s="47"/>
-      <c r="AA83" s="47"/>
-      <c r="AB83" s="47"/>
-      <c r="AC83" s="47"/>
-      <c r="AD83" s="47"/>
-      <c r="AE83" s="47"/>
-      <c r="AF83" s="48"/>
-      <c r="AG83" s="48"/>
-      <c r="AH83" s="48"/>
-      <c r="AI83" s="48"/>
-      <c r="AJ83" s="48"/>
+      <c r="A83" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B83" s="47" t="s">
+        <v>262</v>
+      </c>
+      <c r="C83" s="49"/>
+      <c r="D83" s="48"/>
+      <c r="E83" s="49"/>
+      <c r="F83" s="49"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
+      <c r="I83" s="48"/>
+      <c r="J83" s="48"/>
+      <c r="K83" s="48"/>
+      <c r="L83" s="48"/>
+      <c r="M83" s="48"/>
+      <c r="N83" s="48"/>
+      <c r="O83" s="48"/>
+      <c r="P83" s="48"/>
+      <c r="Q83" s="48"/>
+      <c r="R83" s="48"/>
+      <c r="S83" s="48"/>
+      <c r="T83" s="48"/>
+      <c r="U83" s="48"/>
+      <c r="V83" s="48"/>
+      <c r="W83" s="48"/>
+      <c r="X83" s="48"/>
+      <c r="Y83" s="48"/>
+      <c r="Z83" s="48"/>
+      <c r="AA83" s="48"/>
+      <c r="AB83" s="48"/>
+      <c r="AC83" s="48"/>
+      <c r="AD83" s="48"/>
+      <c r="AE83" s="48"/>
+      <c r="AF83" s="44"/>
+      <c r="AG83" s="49"/>
+      <c r="AH83" s="49"/>
+      <c r="AI83" s="49"/>
+      <c r="AJ83" s="49"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="46" t="s">
-        <v>79</v>
-      </c>
-      <c r="B84" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="C84" s="48"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="48"/>
-      <c r="G84" s="47"/>
-      <c r="H84" s="47"/>
-      <c r="I84" s="47"/>
-      <c r="J84" s="47"/>
-      <c r="K84" s="47"/>
-      <c r="L84" s="47"/>
-      <c r="M84" s="47"/>
-      <c r="N84" s="47"/>
-      <c r="O84" s="47"/>
-      <c r="P84" s="47"/>
-      <c r="Q84" s="47"/>
-      <c r="R84" s="47"/>
-      <c r="S84" s="47"/>
-      <c r="T84" s="47"/>
-      <c r="U84" s="47"/>
-      <c r="V84" s="47"/>
-      <c r="W84" s="47"/>
-      <c r="X84" s="47"/>
-      <c r="Y84" s="47"/>
-      <c r="Z84" s="47"/>
-      <c r="AA84" s="47"/>
-      <c r="AB84" s="47"/>
-      <c r="AC84" s="47"/>
-      <c r="AD84" s="47"/>
-      <c r="AE84" s="47"/>
-      <c r="AF84" s="48"/>
-      <c r="AG84" s="48"/>
-      <c r="AH84" s="48"/>
-      <c r="AI84" s="48"/>
-      <c r="AJ84" s="48"/>
+      <c r="A84" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B84" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" s="49"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="48"/>
+      <c r="K84" s="48"/>
+      <c r="L84" s="48"/>
+      <c r="M84" s="48"/>
+      <c r="N84" s="48"/>
+      <c r="O84" s="48"/>
+      <c r="P84" s="48"/>
+      <c r="Q84" s="48"/>
+      <c r="R84" s="48"/>
+      <c r="S84" s="48"/>
+      <c r="T84" s="48"/>
+      <c r="U84" s="48"/>
+      <c r="V84" s="48"/>
+      <c r="W84" s="48"/>
+      <c r="X84" s="48"/>
+      <c r="Y84" s="48"/>
+      <c r="Z84" s="48"/>
+      <c r="AA84" s="48"/>
+      <c r="AB84" s="48"/>
+      <c r="AC84" s="48"/>
+      <c r="AD84" s="48"/>
+      <c r="AE84" s="48"/>
+      <c r="AF84" s="44"/>
+      <c r="AG84" s="49"/>
+      <c r="AH84" s="49"/>
+      <c r="AI84" s="49"/>
+      <c r="AJ84" s="49"/>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="47"/>
+      <c r="B85" s="47"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="48"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
+      <c r="I85" s="48"/>
+      <c r="J85" s="48"/>
+      <c r="K85" s="48"/>
+      <c r="L85" s="48"/>
+      <c r="M85" s="48"/>
+      <c r="N85" s="48"/>
+      <c r="O85" s="48"/>
+      <c r="P85" s="48"/>
+      <c r="Q85" s="48"/>
+      <c r="R85" s="48"/>
+      <c r="S85" s="48"/>
+      <c r="T85" s="48"/>
+      <c r="U85" s="48"/>
+      <c r="V85" s="48"/>
+      <c r="W85" s="48"/>
+      <c r="X85" s="48"/>
+      <c r="Y85" s="48"/>
+      <c r="Z85" s="48"/>
+      <c r="AA85" s="48"/>
+      <c r="AB85" s="48"/>
+      <c r="AC85" s="48"/>
+      <c r="AD85" s="48"/>
+      <c r="AE85" s="48"/>
+      <c r="AF85" s="44"/>
+      <c r="AG85" s="49"/>
+      <c r="AH85" s="52"/>
+      <c r="AI85" s="49"/>
+      <c r="AJ85" s="49"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="47"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
+      <c r="I86" s="48"/>
+      <c r="J86" s="48"/>
+      <c r="K86" s="48"/>
+      <c r="L86" s="48"/>
+      <c r="M86" s="48"/>
+      <c r="N86" s="48"/>
+      <c r="O86" s="48"/>
+      <c r="P86" s="48"/>
+      <c r="Q86" s="48"/>
+      <c r="R86" s="48"/>
+      <c r="S86" s="48"/>
+      <c r="T86" s="48"/>
+      <c r="U86" s="48"/>
+      <c r="V86" s="48"/>
+      <c r="W86" s="48"/>
+      <c r="X86" s="48"/>
+      <c r="Y86" s="48"/>
+      <c r="Z86" s="48"/>
+      <c r="AA86" s="48"/>
+      <c r="AB86" s="48"/>
+      <c r="AC86" s="48"/>
+      <c r="AD86" s="48"/>
+      <c r="AE86" s="48"/>
+      <c r="AF86" s="44"/>
+      <c r="AG86" s="49"/>
+      <c r="AH86" s="49"/>
+      <c r="AI86" s="49"/>
+      <c r="AJ86" s="49"/>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="47"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="49"/>
+      <c r="D87" s="48"/>
+      <c r="E87" s="49"/>
+      <c r="F87" s="49"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
+      <c r="I87" s="48"/>
+      <c r="J87" s="48"/>
+      <c r="K87" s="48"/>
+      <c r="L87" s="48"/>
+      <c r="M87" s="48"/>
+      <c r="N87" s="48"/>
+      <c r="O87" s="48"/>
+      <c r="P87" s="48"/>
+      <c r="Q87" s="48"/>
+      <c r="R87" s="48"/>
+      <c r="S87" s="48"/>
+      <c r="T87" s="48"/>
+      <c r="U87" s="48"/>
+      <c r="V87" s="48"/>
+      <c r="W87" s="48"/>
+      <c r="X87" s="48"/>
+      <c r="Y87" s="48"/>
+      <c r="Z87" s="48"/>
+      <c r="AA87" s="48"/>
+      <c r="AB87" s="48"/>
+      <c r="AC87" s="48"/>
+      <c r="AD87" s="48"/>
+      <c r="AE87" s="48"/>
+      <c r="AF87" s="44"/>
+      <c r="AG87" s="49"/>
+      <c r="AH87" s="49"/>
+      <c r="AI87" s="49"/>
+      <c r="AJ87" s="49"/>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="47"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="49"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="49"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
+      <c r="I88" s="48"/>
+      <c r="J88" s="48"/>
+      <c r="K88" s="48"/>
+      <c r="L88" s="48"/>
+      <c r="M88" s="48"/>
+      <c r="N88" s="48"/>
+      <c r="O88" s="48"/>
+      <c r="P88" s="48"/>
+      <c r="Q88" s="48"/>
+      <c r="R88" s="48"/>
+      <c r="S88" s="48"/>
+      <c r="T88" s="48"/>
+      <c r="U88" s="48"/>
+      <c r="V88" s="48"/>
+      <c r="W88" s="48"/>
+      <c r="X88" s="48"/>
+      <c r="Y88" s="48"/>
+      <c r="Z88" s="48"/>
+      <c r="AA88" s="48"/>
+      <c r="AB88" s="48"/>
+      <c r="AC88" s="48"/>
+      <c r="AD88" s="48"/>
+      <c r="AE88" s="48"/>
+      <c r="AF88" s="44"/>
+      <c r="AG88" s="49"/>
+      <c r="AH88" s="52"/>
+      <c r="AI88" s="49"/>
+      <c r="AJ88" s="49"/>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="47"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="49"/>
+      <c r="D89" s="48"/>
+      <c r="E89" s="49"/>
+      <c r="F89" s="49"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="48"/>
+      <c r="J89" s="48"/>
+      <c r="K89" s="48"/>
+      <c r="L89" s="48"/>
+      <c r="M89" s="48"/>
+      <c r="N89" s="48"/>
+      <c r="O89" s="48"/>
+      <c r="P89" s="48"/>
+      <c r="Q89" s="48"/>
+      <c r="R89" s="48"/>
+      <c r="S89" s="48"/>
+      <c r="T89" s="48"/>
+      <c r="U89" s="48"/>
+      <c r="V89" s="48"/>
+      <c r="W89" s="48"/>
+      <c r="X89" s="48"/>
+      <c r="Y89" s="48"/>
+      <c r="Z89" s="48"/>
+      <c r="AA89" s="48"/>
+      <c r="AB89" s="48"/>
+      <c r="AC89" s="48"/>
+      <c r="AD89" s="48"/>
+      <c r="AE89" s="48"/>
+      <c r="AF89" s="44"/>
+      <c r="AG89" s="49"/>
+      <c r="AH89" s="52"/>
+      <c r="AI89" s="49"/>
+      <c r="AJ89" s="49"/>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="47"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="49"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
+      <c r="I90" s="48"/>
+      <c r="J90" s="48"/>
+      <c r="K90" s="48"/>
+      <c r="L90" s="48"/>
+      <c r="M90" s="48"/>
+      <c r="N90" s="48"/>
+      <c r="O90" s="48"/>
+      <c r="P90" s="48"/>
+      <c r="Q90" s="48"/>
+      <c r="R90" s="48"/>
+      <c r="S90" s="48"/>
+      <c r="T90" s="48"/>
+      <c r="U90" s="48"/>
+      <c r="V90" s="48"/>
+      <c r="W90" s="48"/>
+      <c r="X90" s="48"/>
+      <c r="Y90" s="48"/>
+      <c r="Z90" s="48"/>
+      <c r="AA90" s="48"/>
+      <c r="AB90" s="48"/>
+      <c r="AC90" s="48"/>
+      <c r="AD90" s="48"/>
+      <c r="AE90" s="48"/>
+      <c r="AF90" s="44"/>
+      <c r="AG90" s="49"/>
+      <c r="AH90" s="49"/>
+      <c r="AI90" s="49"/>
+      <c r="AJ90" s="49"/>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="47"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="49"/>
+      <c r="D91" s="48"/>
+      <c r="E91" s="49"/>
+      <c r="F91" s="49"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="48"/>
+      <c r="J91" s="48"/>
+      <c r="K91" s="48"/>
+      <c r="L91" s="48"/>
+      <c r="M91" s="48"/>
+      <c r="N91" s="48"/>
+      <c r="O91" s="48"/>
+      <c r="P91" s="48"/>
+      <c r="Q91" s="48"/>
+      <c r="R91" s="48"/>
+      <c r="S91" s="48"/>
+      <c r="T91" s="48"/>
+      <c r="U91" s="48"/>
+      <c r="V91" s="48"/>
+      <c r="W91" s="48"/>
+      <c r="X91" s="48"/>
+      <c r="Y91" s="48"/>
+      <c r="Z91" s="48"/>
+      <c r="AA91" s="48"/>
+      <c r="AB91" s="48"/>
+      <c r="AC91" s="48"/>
+      <c r="AD91" s="48"/>
+      <c r="AE91" s="48"/>
+      <c r="AF91" s="44"/>
+      <c r="AG91" s="49"/>
+      <c r="AH91" s="53"/>
+      <c r="AI91" s="49"/>
+      <c r="AJ91" s="49"/>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="47"/>
+      <c r="B92" s="47"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="49"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="48"/>
+      <c r="K92" s="48"/>
+      <c r="L92" s="48"/>
+      <c r="M92" s="48"/>
+      <c r="N92" s="48"/>
+      <c r="O92" s="48"/>
+      <c r="P92" s="48"/>
+      <c r="Q92" s="48"/>
+      <c r="R92" s="48"/>
+      <c r="S92" s="48"/>
+      <c r="T92" s="48"/>
+      <c r="U92" s="48"/>
+      <c r="V92" s="48"/>
+      <c r="W92" s="48"/>
+      <c r="X92" s="48"/>
+      <c r="Y92" s="48"/>
+      <c r="Z92" s="48"/>
+      <c r="AA92" s="48"/>
+      <c r="AB92" s="48"/>
+      <c r="AC92" s="48"/>
+      <c r="AD92" s="48"/>
+      <c r="AE92" s="48"/>
+      <c r="AF92" s="44"/>
+      <c r="AG92" s="49"/>
+      <c r="AH92" s="49"/>
+      <c r="AI92" s="49"/>
+      <c r="AJ92" s="49"/>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="47"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="48"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="49"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="48"/>
+      <c r="I93" s="48"/>
+      <c r="J93" s="48"/>
+      <c r="K93" s="48"/>
+      <c r="L93" s="48"/>
+      <c r="M93" s="48"/>
+      <c r="N93" s="48"/>
+      <c r="O93" s="48"/>
+      <c r="P93" s="48"/>
+      <c r="Q93" s="48"/>
+      <c r="R93" s="48"/>
+      <c r="S93" s="48"/>
+      <c r="T93" s="48"/>
+      <c r="U93" s="48"/>
+      <c r="V93" s="48"/>
+      <c r="W93" s="48"/>
+      <c r="X93" s="48"/>
+      <c r="Y93" s="48"/>
+      <c r="Z93" s="48"/>
+      <c r="AA93" s="48"/>
+      <c r="AB93" s="48"/>
+      <c r="AC93" s="48"/>
+      <c r="AD93" s="48"/>
+      <c r="AE93" s="48"/>
+      <c r="AF93" s="44"/>
+      <c r="AG93" s="49"/>
+      <c r="AH93" s="49"/>
+      <c r="AI93" s="49"/>
+      <c r="AJ93" s="49"/>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="47"/>
+      <c r="B94" s="47"/>
+      <c r="C94" s="49"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="49"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="48"/>
+      <c r="I94" s="48"/>
+      <c r="J94" s="48"/>
+      <c r="K94" s="48"/>
+      <c r="L94" s="48"/>
+      <c r="M94" s="48"/>
+      <c r="N94" s="48"/>
+      <c r="O94" s="48"/>
+      <c r="P94" s="48"/>
+      <c r="Q94" s="48"/>
+      <c r="R94" s="48"/>
+      <c r="S94" s="48"/>
+      <c r="T94" s="48"/>
+      <c r="U94" s="48"/>
+      <c r="V94" s="48"/>
+      <c r="W94" s="48"/>
+      <c r="X94" s="48"/>
+      <c r="Y94" s="48"/>
+      <c r="Z94" s="48"/>
+      <c r="AA94" s="48"/>
+      <c r="AB94" s="48"/>
+      <c r="AC94" s="48"/>
+      <c r="AD94" s="48"/>
+      <c r="AE94" s="48"/>
+      <c r="AF94" s="44"/>
+      <c r="AG94" s="49"/>
+      <c r="AH94" s="49"/>
+      <c r="AI94" s="49"/>
+      <c r="AJ94" s="49"/>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="47"/>
+      <c r="B95" s="47"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="48"/>
+      <c r="E95" s="49"/>
+      <c r="F95" s="49"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="48"/>
+      <c r="I95" s="48"/>
+      <c r="J95" s="48"/>
+      <c r="K95" s="48"/>
+      <c r="L95" s="48"/>
+      <c r="M95" s="48"/>
+      <c r="N95" s="48"/>
+      <c r="O95" s="48"/>
+      <c r="P95" s="48"/>
+      <c r="Q95" s="48"/>
+      <c r="R95" s="48"/>
+      <c r="S95" s="48"/>
+      <c r="T95" s="48"/>
+      <c r="U95" s="48"/>
+      <c r="V95" s="48"/>
+      <c r="W95" s="48"/>
+      <c r="X95" s="48"/>
+      <c r="Y95" s="48"/>
+      <c r="Z95" s="48"/>
+      <c r="AA95" s="48"/>
+      <c r="AB95" s="48"/>
+      <c r="AC95" s="48"/>
+      <c r="AD95" s="48"/>
+      <c r="AE95" s="48"/>
+      <c r="AF95" s="44"/>
+      <c r="AG95" s="49"/>
+      <c r="AH95" s="49"/>
+      <c r="AI95" s="49"/>
+      <c r="AJ95" s="49"/>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="47"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="49"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="49"/>
+      <c r="F96" s="49"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
+      <c r="I96" s="48"/>
+      <c r="J96" s="48"/>
+      <c r="K96" s="48"/>
+      <c r="L96" s="48"/>
+      <c r="M96" s="48"/>
+      <c r="N96" s="48"/>
+      <c r="O96" s="48"/>
+      <c r="P96" s="48"/>
+      <c r="Q96" s="48"/>
+      <c r="R96" s="48"/>
+      <c r="S96" s="48"/>
+      <c r="T96" s="48"/>
+      <c r="U96" s="48"/>
+      <c r="V96" s="48"/>
+      <c r="W96" s="48"/>
+      <c r="X96" s="48"/>
+      <c r="Y96" s="48"/>
+      <c r="Z96" s="48"/>
+      <c r="AA96" s="48"/>
+      <c r="AB96" s="48"/>
+      <c r="AC96" s="48"/>
+      <c r="AD96" s="48"/>
+      <c r="AE96" s="48"/>
+      <c r="AF96" s="44"/>
+      <c r="AG96" s="49"/>
+      <c r="AH96" s="49"/>
+      <c r="AI96" s="49"/>
+      <c r="AJ96" s="49"/>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="47"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="48"/>
+      <c r="E97" s="49"/>
+      <c r="F97" s="49"/>
+      <c r="G97" s="48"/>
+      <c r="H97" s="48"/>
+      <c r="I97" s="48"/>
+      <c r="J97" s="48"/>
+      <c r="K97" s="48"/>
+      <c r="L97" s="48"/>
+      <c r="M97" s="48"/>
+      <c r="N97" s="48"/>
+      <c r="O97" s="48"/>
+      <c r="P97" s="48"/>
+      <c r="Q97" s="48"/>
+      <c r="R97" s="48"/>
+      <c r="S97" s="48"/>
+      <c r="T97" s="48"/>
+      <c r="U97" s="48"/>
+      <c r="V97" s="48"/>
+      <c r="W97" s="48"/>
+      <c r="X97" s="48"/>
+      <c r="Y97" s="48"/>
+      <c r="Z97" s="48"/>
+      <c r="AA97" s="48"/>
+      <c r="AB97" s="48"/>
+      <c r="AC97" s="48"/>
+      <c r="AD97" s="48"/>
+      <c r="AE97" s="48"/>
+      <c r="AF97" s="44"/>
+      <c r="AG97" s="49"/>
+      <c r="AH97" s="49"/>
+      <c r="AI97" s="49"/>
+      <c r="AJ97" s="49"/>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="J2:J84">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J97">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5093,335 +5720,335 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
+        <v>107</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="29" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
+        <v>110</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>148</v>
+      <c r="A5" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>153</v>
+      <c r="A6" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="C7" s="28"/>
+      <c r="C7" s="33"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="C8" s="28"/>
+      <c r="C8" s="33"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="C9" s="28"/>
+      <c r="C9" s="33"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="C10" s="28"/>
+      <c r="C10" s="33"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="C11" s="28"/>
+      <c r="C11" s="33"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="C12" s="28"/>
+      <c r="C12" s="33"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="C13" s="28"/>
+      <c r="C13" s="33"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="C14" s="28"/>
+      <c r="C14" s="33"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="C15" s="28"/>
+      <c r="C15" s="33"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="C16" s="28"/>
+      <c r="C16" s="33"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="C17" s="28"/>
+      <c r="C17" s="33"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="C18" s="28"/>
+      <c r="C18" s="33"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="C19" s="28"/>
+      <c r="C19" s="33"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="C20" s="28"/>
+      <c r="C20" s="33"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="C21" s="28"/>
+      <c r="C21" s="33"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="28"/>
+      <c r="C22" s="33"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="28"/>
+      <c r="C23" s="33"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="C24" s="28"/>
+      <c r="C24" s="33"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="C25" s="28"/>
+      <c r="C25" s="33"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="C26" s="28"/>
+      <c r="C26" s="33"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="C27" s="28"/>
+      <c r="C27" s="33"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="C28" s="28"/>
+      <c r="C28" s="33"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="C29" s="28"/>
+      <c r="C29" s="33"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="C30" s="28"/>
+      <c r="C30" s="33"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="C31" s="28"/>
+      <c r="C31" s="33"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="C32" s="28"/>
+      <c r="C32" s="33"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="28"/>
+      <c r="C33" s="33"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="28"/>
+      <c r="C34" s="33"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="28"/>
+      <c r="C35" s="33"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="28"/>
+      <c r="C36" s="33"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="28"/>
+      <c r="C37" s="33"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="28"/>
+      <c r="C38" s="33"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="28"/>
+      <c r="C39" s="33"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="28"/>
+      <c r="C40" s="33"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="28"/>
+      <c r="C41" s="33"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="28"/>
+      <c r="C42" s="33"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="28"/>
+      <c r="C43" s="33"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="28"/>
+      <c r="C44" s="33"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="28"/>
+      <c r="C45" s="33"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="28"/>
+      <c r="C46" s="33"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="28"/>
+      <c r="C47" s="33"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="28"/>
+      <c r="C48" s="33"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="28"/>
+      <c r="C49" s="33"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="28"/>
+      <c r="C50" s="33"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="28"/>
+      <c r="C51" s="33"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="28"/>
+      <c r="C52" s="33"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="28"/>
+      <c r="C53" s="33"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="28"/>
+      <c r="C54" s="33"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="28"/>
+      <c r="C55" s="33"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="28"/>
+      <c r="C56" s="33"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="28"/>
+      <c r="C57" s="33"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="28"/>
+      <c r="C58" s="33"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="28"/>
+      <c r="C59" s="33"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="28"/>
+      <c r="C60" s="33"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="28"/>
+      <c r="C61" s="33"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="28"/>
+      <c r="C62" s="33"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="28"/>
+      <c r="C63" s="33"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="28"/>
+      <c r="C64" s="33"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="28"/>
+      <c r="C65" s="33"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="28"/>
+      <c r="C66" s="33"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="28"/>
+      <c r="C67" s="33"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5448,87 +6075,87 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="A1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+      <c r="Y1" s="14"/>
+      <c r="Z1" s="14"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="11">
+      <c r="A2" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="23">
         <f>NOW()</f>
-        <v>43748.59056</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
-      <c r="X2" s="13"/>
-      <c r="Y2" s="13"/>
-      <c r="Z2" s="13"/>
+        <v>43773.59329</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="27"/>
+      <c r="G2" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5553,1121 +6180,1121 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
+      <c r="A2" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="28" t="s">
+      <c r="A3" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
+      <c r="B3" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="28"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
+      <c r="A5" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="28"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="28" t="s">
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C32" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="28"/>
-      <c r="W13" s="28"/>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="28"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="28"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="28"/>
-      <c r="W15" s="28"/>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-      <c r="L16" s="28"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="28"/>
-      <c r="U17" s="28"/>
-      <c r="V17" s="28"/>
-      <c r="W17" s="28"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C21" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="28"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="28"/>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="28"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>145</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="1">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>167</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="1"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>170</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="1"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="1"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>174</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="1"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="1"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>176</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="1"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="1"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>178</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="1"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="B43" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="C43" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -6678,26 +7305,26 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="2"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>185</v>
+        <v>264</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>184</v>
+        <v>263</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="2"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>186</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -6707,290 +7334,290 @@
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="33"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="13"/>
-      <c r="O48" s="13"/>
-      <c r="P48" s="13"/>
-      <c r="Q48" s="13"/>
-      <c r="R48" s="13"/>
-      <c r="S48" s="13"/>
-      <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
+      <c r="A48" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>267</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="27"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="27"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="27"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="27"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="13"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="13"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="13"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
+      <c r="A49" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
     </row>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>273</v>
       </c>
       <c r="C51" t="s">
-        <v>194</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="B52" t="s">
-        <v>195</v>
+        <v>275</v>
       </c>
       <c r="C52" t="s">
-        <v>196</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="B53" t="s">
-        <v>197</v>
+        <v>277</v>
       </c>
       <c r="C53" t="s">
-        <v>198</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="B54" t="s">
-        <v>199</v>
+        <v>280</v>
       </c>
       <c r="C54" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="B55" t="s">
-        <v>201</v>
+        <v>282</v>
       </c>
       <c r="C55" t="s">
-        <v>202</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="B56" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="C56" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>205</v>
+      <c r="A58" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="C59" s="33" t="s">
-        <v>207</v>
+      <c r="A59" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>209</v>
+      <c r="A60" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="C61" s="33" t="s">
-        <v>146</v>
+      <c r="A61" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1"/>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>214</v>
+      <c r="A63" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="C64" s="33" t="s">
-        <v>216</v>
+      <c r="A64" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C65" s="33" t="s">
-        <v>218</v>
+      <c r="A65" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>220</v>
+      <c r="A66" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="B66" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>222</v>
+      <c r="A67" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1"/>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>223</v>
+        <v>305</v>
       </c>
       <c r="B69" t="s">
-        <v>224</v>
+        <v>306</v>
       </c>
       <c r="C69" t="s">
-        <v>225</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>223</v>
+        <v>305</v>
       </c>
       <c r="B70" t="s">
-        <v>226</v>
+        <v>308</v>
       </c>
       <c r="C70" t="s">
-        <v>227</v>
+        <v>309</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1"/>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>228</v>
+        <v>310</v>
       </c>
       <c r="B72" t="s">
-        <v>229</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>185</v>
+        <v>311</v>
+      </c>
+      <c r="C72" s="50" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>228</v>
+        <v>310</v>
       </c>
       <c r="B73" t="s">
-        <v>234</v>
+        <v>314</v>
       </c>
       <c r="C73" t="s">
-        <v>235</v>
+        <v>315</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>228</v>
+        <v>310</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="C74" t="s">
-        <v>146</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1"/>

--- a/config/default/forms/app/pregnancy_danger_sign_follow_up.xlsx
+++ b/config/default/forms/app/pregnancy_danger_sign_follow_up.xlsx
@@ -1,17 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\apoorva\cht-core\config\default\forms\app\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A93119-1F43-4264-A64A-A3DC4E3AB1B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="choices" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="settings" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="choices-backup" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="survey" sheetId="1" r:id="rId1"/>
+    <sheet name="choices" sheetId="2" r:id="rId2"/>
+    <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="choices-backup" sheetId="4" state="hidden" r:id="rId4"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -21,7 +39,7 @@
     <author>tc={00B300CE-00C8-4377-9166-0080002800A0}</author>
   </authors>
   <commentList>
-    <comment ref="B39" authorId="0" xr:uid="{00B300CE-00C8-4377-9166-0080002800A0}">
+    <comment ref="B39" authorId="0" shapeId="0" xr:uid="{00B300CE-00C8-4377-9166-0080002800A0}">
       <text>
         <r>
           <rPr>
@@ -49,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="323">
   <si>
     <t>type</t>
   </si>
@@ -153,7 +171,7 @@
     <t>cht::notes</t>
   </si>
   <si>
-    <t xml:space="preserve">begin group</t>
+    <t>begin group</t>
   </si>
   <si>
     <t>inputs</t>
@@ -162,7 +180,7 @@
     <t>NO_LABEL</t>
   </si>
   <si>
-    <t xml:space="preserve">./source = 'user'</t>
+    <t>./source = 'user'</t>
   </si>
   <si>
     <t>field-list</t>
@@ -183,22 +201,16 @@
     <t>source_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Source ID</t>
+    <t>Source ID</t>
   </si>
   <si>
     <t>contact</t>
   </si>
   <si>
-    <t>db:person</t>
-  </si>
-  <si>
     <t>_id</t>
   </si>
   <si>
-    <t xml:space="preserve">What is the patient's name?</t>
-  </si>
-  <si>
-    <t>db-object</t>
+    <t>What is the patient's name?</t>
   </si>
   <si>
     <t>Name</t>
@@ -207,19 +219,19 @@
     <t>short_name</t>
   </si>
   <si>
-    <t xml:space="preserve">Short Name</t>
+    <t>Short Name</t>
   </si>
   <si>
     <t>patient_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Patient ID</t>
+    <t>Patient ID</t>
   </si>
   <si>
     <t>date_of_birth</t>
   </si>
   <si>
-    <t xml:space="preserve">Date of Birth</t>
+    <t>Date of Birth</t>
   </si>
   <si>
     <t>sex</t>
@@ -231,22 +243,22 @@
     <t>parent</t>
   </si>
   <si>
-    <t xml:space="preserve">Parent ID</t>
+    <t>Parent ID</t>
   </si>
   <si>
     <t>chw_name</t>
   </si>
   <si>
-    <t xml:space="preserve">CHW name</t>
+    <t>CHW name</t>
   </si>
   <si>
     <t>phone</t>
   </si>
   <si>
-    <t xml:space="preserve">CHW phone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">end group</t>
+    <t>CHW phone</t>
+  </si>
+  <si>
+    <t>end group</t>
   </si>
   <si>
     <t>calculate</t>
@@ -255,10 +267,10 @@
     <t>patient_age_in_years</t>
   </si>
   <si>
-    <t xml:space="preserve">floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient Age in Years</t>
+    <t>floor( difference-in-months( ../inputs/contact/date_of_birth, today() ) div 12 )</t>
+  </si>
+  <si>
+    <t>Patient Age in Years</t>
   </si>
   <si>
     <t>patient_uuid</t>
@@ -267,7 +279,7 @@
     <t>../inputs/contact/_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Patient UUID</t>
+    <t>Patient UUID</t>
   </si>
   <si>
     <t>../inputs/contact/patient_id</t>
@@ -279,34 +291,34 @@
     <t>../inputs/contact/name</t>
   </si>
   <si>
-    <t xml:space="preserve">Patient Name</t>
+    <t>Patient Name</t>
   </si>
   <si>
     <t>patient_short_name</t>
   </si>
   <si>
-    <t xml:space="preserve">coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_label)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient Short Name</t>
+    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_label)</t>
+  </si>
+  <si>
+    <t>Patient Short Name</t>
   </si>
   <si>
     <t>patient_short_name_start</t>
   </si>
   <si>
-    <t xml:space="preserve">coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_start_label)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patient Sort Name Start Label</t>
+    <t>coalesce(../inputs/contact/short_name, ../danger_signs/custom_translations/custom_woman_start_label)</t>
+  </si>
+  <si>
+    <t>Patient Sort Name Start Label</t>
   </si>
   <si>
     <t>t_danger_signs_referral_follow_up_date</t>
   </si>
   <si>
-    <t xml:space="preserve">date-time(decimal-date-time(today()) + 3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danger Signs Follow Up Date</t>
+    <t>date-time(decimal-date-time(today()) + 3)</t>
+  </si>
+  <si>
+    <t>Danger Signs Follow Up Date</t>
   </si>
   <si>
     <t>t_danger_signs_referral_follow_up</t>
@@ -315,31 +327,31 @@
     <t>../danger_signs/r_danger_sign_present</t>
   </si>
   <si>
-    <t xml:space="preserve">Danger Signs Present</t>
+    <t>Danger Signs Present</t>
   </si>
   <si>
     <t>pregnancy_uuid_ctx</t>
   </si>
   <si>
-    <t xml:space="preserve">if(instance('contact-summary')/context/pregnancy_uuid != '', instance('contact-summary')/context/pregnancy_uuid, .)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pregnancy UUID</t>
+    <t>if(instance('contact-summary')/context/pregnancy_uuid != '', instance('contact-summary')/context/pregnancy_uuid, .)</t>
+  </si>
+  <si>
+    <t>Pregnancy UUID</t>
   </si>
   <si>
     <t>danger_signs</t>
   </si>
   <si>
-    <t xml:space="preserve">Danger Sign Follow-up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one yes_no</t>
+    <t>Danger Sign Follow-up</t>
+  </si>
+  <si>
+    <t>select_one yes_no</t>
   </si>
   <si>
     <t>visit_confirm</t>
   </si>
   <si>
-    <t xml:space="preserve">Did ${patient_short_name} visit the health facility as recommended?</t>
+    <t>Did ${patient_short_name} visit the health facility as recommended?</t>
   </si>
   <si>
     <t>yes</t>
@@ -348,7 +360,7 @@
     <t>danger_sign_present</t>
   </si>
   <si>
-    <t xml:space="preserve">Is she still experiencing any danger signs?</t>
+    <t>Is she still experiencing any danger signs?</t>
   </si>
   <si>
     <t>note</t>
@@ -360,7 +372,7 @@
     <t xml:space="preserve">Great news! Please closely monitor her until her next scheduled ANC check-up at the health facility. </t>
   </si>
   <si>
-    <t xml:space="preserve">../danger_sign_present = 'no'</t>
+    <t>../danger_sign_present = 'no'</t>
   </si>
   <si>
     <t>refer_patient_note_1</t>
@@ -369,7 +381,7 @@
     <t xml:space="preserve">The mother should visit the health facility immediately if she is experiencing any of these danger signs. </t>
   </si>
   <si>
-    <t xml:space="preserve">../danger_sign_present = 'yes'</t>
+    <t>../danger_sign_present = 'yes'</t>
   </si>
   <si>
     <t>refer_patient_note_2</t>
@@ -387,7 +399,7 @@
     <t>vaginal_bleeding</t>
   </si>
   <si>
-    <t xml:space="preserve">Vaginal bleeding</t>
+    <t>Vaginal bleeding</t>
   </si>
   <si>
     <t>fits</t>
@@ -399,19 +411,19 @@
     <t>severe_abdominal_pain</t>
   </si>
   <si>
-    <t xml:space="preserve">Severe abdominal pain</t>
+    <t>Severe abdominal pain</t>
   </si>
   <si>
     <t>severe_headache</t>
   </si>
   <si>
-    <t xml:space="preserve">Severe headache</t>
+    <t>Severe headache</t>
   </si>
   <si>
     <t>very_pale</t>
   </si>
   <si>
-    <t xml:space="preserve">Very pale</t>
+    <t>Very pale</t>
   </si>
   <si>
     <t>fever</t>
@@ -423,25 +435,25 @@
     <t>reduced_or_no_fetal_movements</t>
   </si>
   <si>
-    <t xml:space="preserve">Reduced or no fetal movements</t>
+    <t>Reduced or no fetal movements</t>
   </si>
   <si>
     <t>breaking_water</t>
   </si>
   <si>
-    <t xml:space="preserve">Breaking of water</t>
+    <t>Breaking of water</t>
   </si>
   <si>
     <t>easily_tired</t>
   </si>
   <si>
-    <t xml:space="preserve">Getting tired easily</t>
+    <t>Getting tired easily</t>
   </si>
   <si>
     <t>face_hand_swelling</t>
   </si>
   <si>
-    <t xml:space="preserve">Swelling of face and hands</t>
+    <t>Swelling of face and hands</t>
   </si>
   <si>
     <t>breathlessness</t>
@@ -453,7 +465,7 @@
     <t>r_danger_sign_present</t>
   </si>
   <si>
-    <t xml:space="preserve">if((selected(../vaginal_bleeding, 'yes')
+    <t>if((selected(../vaginal_bleeding, 'yes')
 or selected(../fits, 'yes')
 or selected(../severe_abdominal_pain, 'yes')
 or selected(../severe_headache, 'yes')
@@ -470,7 +482,7 @@
     <t>custom_translations</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one translate_woman_label</t>
+    <t>select_one translate_woman_label</t>
   </si>
   <si>
     <t>custom_woman_label_translator</t>
@@ -485,7 +497,7 @@
     <t>jr:choice-name(${custom_woman_label_translator},'${custom_woman_label_translator}')</t>
   </si>
   <si>
-    <t xml:space="preserve">select_one translate_woman_start_label</t>
+    <t>select_one translate_woman_start_label</t>
   </si>
   <si>
     <t>custom_woman_start_label_translator</t>
@@ -509,7 +521,7 @@
     <t>${visit_confirm}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the woman was taken to the health facility as recommended.</t>
+    <t>Whether or not the woman was taken to the health facility as recommended.</t>
   </si>
   <si>
     <t>__still_experiencing_danger_sign</t>
@@ -518,7 +530,7 @@
     <t>${danger_sign_present}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the woman is still experiencing any danger signs.</t>
+    <t>Whether or not the woman is still experiencing any danger signs.</t>
   </si>
   <si>
     <t>__vaginal_bleeding</t>
@@ -527,7 +539,7 @@
     <t>${vaginal_bleeding}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the woman is experiencing vaginal bleeding.</t>
+    <t>Whether or not the woman is experiencing vaginal bleeding.</t>
   </si>
   <si>
     <t>__fits</t>
@@ -536,7 +548,7 @@
     <t>${fits}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the woman is suffering from fits.</t>
+    <t>Whether or not the woman is suffering from fits.</t>
   </si>
   <si>
     <t>__severe_abdominal_pain</t>
@@ -545,7 +557,7 @@
     <t>${severe_abdominal_pain}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the woman is suffering from abdominal pain.</t>
+    <t>Whether or not the woman is suffering from abdominal pain.</t>
   </si>
   <si>
     <t>__severe_headache</t>
@@ -554,7 +566,7 @@
     <t>${severe_headache}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the woman is suffering from severe headaches.</t>
+    <t>Whether or not the woman is suffering from severe headaches.</t>
   </si>
   <si>
     <t>__very_pale</t>
@@ -563,7 +575,7 @@
     <t>${very_pale}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the woman appears very pale.</t>
+    <t>Whether or not the woman appears very pale.</t>
   </si>
   <si>
     <t>__fever</t>
@@ -572,7 +584,7 @@
     <t>${fever}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the woman has a fever.</t>
+    <t>Whether or not the woman has a fever.</t>
   </si>
   <si>
     <t>__reduced_or_no_fetal_movements</t>
@@ -581,7 +593,7 @@
     <t>${reduced_or_no_fetal_movements}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the woman is experiencing reduced or no fetal movements.</t>
+    <t>Whether or not the woman is experiencing reduced or no fetal movements.</t>
   </si>
   <si>
     <t>__breaking_water</t>
@@ -590,7 +602,7 @@
     <t>${breaking_water}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the woman's water has broken.</t>
+    <t>Whether or not the woman's water has broken.</t>
   </si>
   <si>
     <t>__easily_tired</t>
@@ -599,7 +611,7 @@
     <t>${easily_tired}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the woman tires easily.</t>
+    <t>Whether or not the woman tires easily.</t>
   </si>
   <si>
     <t>__face_hand_swelling</t>
@@ -608,7 +620,7 @@
     <t>${face_hand_swelling}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the woman is suffering from swelling in the face and hands.</t>
+    <t>Whether or not the woman is suffering from swelling in the face and hands.</t>
   </si>
   <si>
     <t>__breathlessness</t>
@@ -617,7 +629,7 @@
     <t>${breathlessness}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not the woman is suffering from breathlessness.</t>
+    <t>Whether or not the woman is suffering from breathlessness.</t>
   </si>
   <si>
     <t>__has_danger_sign</t>
@@ -626,7 +638,7 @@
     <t>${r_danger_sign_present}</t>
   </si>
   <si>
-    <t xml:space="preserve">Whether or not any danger signs are present.</t>
+    <t>Whether or not any danger signs are present.</t>
   </si>
   <si>
     <t>meta</t>
@@ -650,7 +662,7 @@
     <t>../../../inputs/contact/parent/_id</t>
   </si>
   <si>
-    <t xml:space="preserve">Household UUID</t>
+    <t>Household UUID</t>
   </si>
   <si>
     <t>__source</t>
@@ -695,7 +707,7 @@
     <t>woman</t>
   </si>
   <si>
-    <t xml:space="preserve">the woman</t>
+    <t>the woman</t>
   </si>
   <si>
     <t>translate_woman_start_label</t>
@@ -704,7 +716,7 @@
     <t>woman-start</t>
   </si>
   <si>
-    <t xml:space="preserve">The woman</t>
+    <t>The woman</t>
   </si>
   <si>
     <t>form_title</t>
@@ -728,7 +740,7 @@
     <t>default_language</t>
   </si>
   <si>
-    <t xml:space="preserve">Pregnancy danger sign follow-up</t>
+    <t>Pregnancy danger sign follow-up</t>
   </si>
   <si>
     <t>pregnancy_danger_sign_follow_up</t>
@@ -746,31 +758,31 @@
     <t>upto_2_months_ago</t>
   </si>
   <si>
-    <t xml:space="preserve">Upto 2 Months Ago</t>
+    <t>Upto 2 Months Ago</t>
   </si>
   <si>
     <t>upto_3_months_ago</t>
   </si>
   <si>
-    <t xml:space="preserve">Upto 3 Months Ago</t>
+    <t>Upto 3 Months Ago</t>
   </si>
   <si>
     <t>upto_4_months_ago</t>
   </si>
   <si>
-    <t xml:space="preserve">Upto 4 Months Ago</t>
+    <t>Upto 4 Months Ago</t>
   </si>
   <si>
     <t>between_5_and_6_months_ago</t>
   </si>
   <si>
-    <t xml:space="preserve">Between 5 And 6 Months Ago</t>
+    <t>Between 5 And 6 Months Ago</t>
   </si>
   <si>
     <t>between_7_and_8_months_ago</t>
   </si>
   <si>
-    <t xml:space="preserve">Between 7 And 8 Months Ago</t>
+    <t>Between 7 And 8 Months Ago</t>
   </si>
   <si>
     <t>trimester1_choices</t>
@@ -779,37 +791,37 @@
     <t>eat_extra_meal</t>
   </si>
   <si>
-    <t xml:space="preserve">Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
+    <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
   </si>
   <si>
     <t>take_iron_and_folic_acid</t>
   </si>
   <si>
-    <t xml:space="preserve">Take iron and folic acid tablets</t>
+    <t>Take iron and folic acid tablets</t>
   </si>
   <si>
     <t>avoid_heavy_work</t>
   </si>
   <si>
-    <t xml:space="preserve">Avoid heavy work, rest more</t>
+    <t>Avoid heavy work, rest more</t>
   </si>
   <si>
     <t>sleep_under_bednet</t>
   </si>
   <si>
-    <t xml:space="preserve">Sleep under an insecticide treated bednet</t>
+    <t>Sleep under an insecticide treated bednet</t>
   </si>
   <si>
     <t>go_for_anc_visit</t>
   </si>
   <si>
-    <t xml:space="preserve">Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
+    <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
   </si>
   <si>
     <t>develop_birth_plan</t>
   </si>
   <si>
-    <t xml:space="preserve">Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
+    <t>Develop a birth plan to ensure readiness for the arrival of the unborn baby</t>
   </si>
   <si>
     <t>trimester2_choices</t>
@@ -818,7 +830,7 @@
     <t>couselling_on_exclusive_breastfeeding</t>
   </si>
   <si>
-    <t xml:space="preserve">Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
+    <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
   </si>
   <si>
     <t>conditions</t>
@@ -827,7 +839,7 @@
     <t>heart_condition</t>
   </si>
   <si>
-    <t xml:space="preserve">Heart condition</t>
+    <t>Heart condition</t>
   </si>
   <si>
     <t>asthma</t>
@@ -839,13 +851,13 @@
     <t>high_blood_pressure</t>
   </si>
   <si>
-    <t xml:space="preserve">High blood pressure</t>
+    <t>High blood pressure</t>
   </si>
   <si>
     <t>known_diabetes</t>
   </si>
   <si>
-    <t xml:space="preserve">Known diabetes</t>
+    <t>Known diabetes</t>
   </si>
   <si>
     <t>other</t>
@@ -866,19 +878,19 @@
     <t>fp_methods</t>
   </si>
   <si>
-    <t xml:space="preserve">Combined oral contraceptives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progesterone only pills</t>
+    <t>Combined oral contraceptives</t>
+  </si>
+  <si>
+    <t>Progesterone only pills</t>
   </si>
   <si>
     <t>Injectibles</t>
   </si>
   <si>
-    <t xml:space="preserve">Implants (1 rod)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implants (2 rods)</t>
+    <t>Implants (1 rod)</t>
+  </si>
+  <si>
+    <t>Implants (2 rods)</t>
   </si>
   <si>
     <t>IUD</t>
@@ -887,19 +899,19 @@
     <t>Condoms</t>
   </si>
   <si>
-    <t xml:space="preserve">Tubal ligation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cycle beads</t>
+    <t>Tubal ligation</t>
+  </si>
+  <si>
+    <t>Cycle beads</t>
   </si>
   <si>
     <t>reasons_not_on_fp</t>
   </si>
   <si>
-    <t xml:space="preserve">Wants to get pregnant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Did not want FP</t>
+    <t>Wants to get pregnant</t>
+  </si>
+  <si>
+    <t>Did not want FP</t>
   </si>
   <si>
     <t>follow_up_methods</t>
@@ -908,13 +920,13 @@
     <t>in_person</t>
   </si>
   <si>
-    <t xml:space="preserve">In person</t>
+    <t>In person</t>
   </si>
   <si>
     <t>by_phone</t>
   </si>
   <si>
-    <t xml:space="preserve">By phone</t>
+    <t>By phone</t>
   </si>
   <si>
     <t>reasons_for_missing_visit</t>
@@ -923,25 +935,25 @@
     <t>not_reminded</t>
   </si>
   <si>
-    <t xml:space="preserve">She was not reminded</t>
+    <t>She was not reminded</t>
   </si>
   <si>
     <t>travelled</t>
   </si>
   <si>
-    <t xml:space="preserve">She had travelled</t>
+    <t>She had travelled</t>
   </si>
   <si>
     <t>no_lab_results</t>
   </si>
   <si>
-    <t xml:space="preserve">No Lab results yet</t>
+    <t>No Lab results yet</t>
   </si>
   <si>
     <t>too_early</t>
   </si>
   <si>
-    <t xml:space="preserve">It is too early to start clinic</t>
+    <t>It is too early to start clinic</t>
   </si>
   <si>
     <t>relocated</t>
@@ -956,19 +968,19 @@
     <t>referred</t>
   </si>
   <si>
-    <t xml:space="preserve">Referred the mother</t>
+    <t>Referred the mother</t>
   </si>
   <si>
     <t>key_message</t>
   </si>
   <si>
-    <t xml:space="preserve">Provided key health message</t>
+    <t>Provided key health message</t>
   </si>
   <si>
     <t>accompany</t>
   </si>
   <si>
-    <t xml:space="preserve">Accompany the mother to facility</t>
+    <t>Accompany the mother to facility</t>
   </si>
   <si>
     <t>recent_foods</t>
@@ -977,31 +989,31 @@
     <t>carbohydrates</t>
   </si>
   <si>
-    <t xml:space="preserve">Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
+    <t>Energy giving foods: sweet potatoes, cassava, wheat, maize</t>
   </si>
   <si>
     <t>protein</t>
   </si>
   <si>
-    <t xml:space="preserve">Body building foods: Milk, eggs, meat</t>
+    <t>Body building foods: Milk, eggs, meat</t>
   </si>
   <si>
     <t>vegetables</t>
   </si>
   <si>
-    <t xml:space="preserve">Vegetables: Sukuma wiki, cabbages, traditional greens</t>
+    <t>Vegetables: Sukuma wiki, cabbages, traditional greens</t>
   </si>
   <si>
     <t>fruits</t>
   </si>
   <si>
-    <t xml:space="preserve">Fruits: Mangoes, ripe bananas, oranges</t>
+    <t>Fruits: Mangoes, ripe bananas, oranges</t>
   </si>
   <si>
     <t>none</t>
   </si>
   <si>
-    <t xml:space="preserve">None of the above</t>
+    <t>None of the above</t>
   </si>
   <si>
     <t>pos_neg</t>
@@ -1028,41 +1040,63 @@
     <t>feels_sick_when_using_it</t>
   </si>
   <si>
-    <t xml:space="preserve">Feels sick when using it</t>
+    <t>Feels sick when using it</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>select-contact type-person</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="160" formatCode="dd-MM-yyyy HH-mm-ss"/>
+    <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <color theme="1"/>
-      <sz val="10.000000"/>
     </font>
     <font>
       <b/>
-    </font>
-    <font/>
-    <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <b/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <b/>
-      <sz val="11.000000"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="16">
@@ -1153,7 +1187,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="65"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -1167,70 +1200,70 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="2" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="3" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="3" fillId="8" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="10" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="11" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="12" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="13" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="14" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="3" fillId="15" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1243,6 +1276,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1253,291 +1289,8 @@
 </personList>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <a:themeElements>
     <a:clrScheme name="">
       <a:dk1>
@@ -1589,7 +1342,7 @@
         <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1660,6 +1413,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1675,41 +1429,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AJ97"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19"/>
-    <col customWidth="1" min="2" max="2" width="34.289999999999999"/>
-    <col customWidth="1" min="3" max="3" width="43.289999999999999"/>
-    <col customWidth="1" hidden="1" min="4" max="5" width="8.5700000000000003"/>
-    <col customWidth="1" hidden="1" min="6" max="6" width="8.7100000000000009"/>
-    <col customWidth="1" hidden="1" min="7" max="7" width="8.8599999999999994"/>
-    <col customWidth="1" hidden="1" min="8" max="9" width="8.1400000000000006"/>
-    <col customWidth="1" min="10" max="10" width="14.43"/>
-    <col customWidth="1" min="11" max="11" width="53.859999999999999"/>
-    <col customWidth="1" min="12" max="12" width="17.43"/>
-    <col customWidth="1" min="13" max="13" width="37.710000000000001"/>
-    <col customWidth="1" min="14" max="14" width="32.710000000000001"/>
-    <col customWidth="1" hidden="1" min="15" max="20" width="25.859999999999999"/>
-    <col customWidth="1" min="21" max="21" width="73.859999999999999"/>
-    <col customWidth="1" min="22" max="22" width="14.43"/>
-    <col customWidth="1" min="23" max="23" width="30"/>
-    <col customWidth="1" hidden="1" min="24" max="29" width="14.43"/>
-    <col customWidth="1" min="30" max="30" width="14.43"/>
-    <col customWidth="1" min="31" max="36" width="29.859999999999999"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="43.33203125" customWidth="1"/>
+    <col min="4" max="5" width="8.5546875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="8.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="53.88671875" customWidth="1"/>
+    <col min="12" max="12" width="22" customWidth="1"/>
+    <col min="13" max="13" width="37.6640625" customWidth="1"/>
+    <col min="14" max="14" width="32.6640625" customWidth="1"/>
+    <col min="15" max="20" width="25.88671875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="73.88671875" customWidth="1"/>
+    <col min="22" max="22" width="14.44140625" customWidth="1"/>
+    <col min="23" max="23" width="30" customWidth="1"/>
+    <col min="24" max="29" width="14.44140625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="14.44140625" customWidth="1"/>
+    <col min="31" max="36" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:36" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1815,7 +1572,7 @@
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:36" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -1863,7 +1620,7 @@
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:36" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -1909,7 +1666,7 @@
       <c r="AI3" s="3"/>
       <c r="AJ3" s="3"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:36" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -1953,7 +1710,7 @@
       <c r="AI4" s="3"/>
       <c r="AJ4" s="3"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:36" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1997,15 +1754,15 @@
       <c r="AI5" s="3"/>
       <c r="AJ5" s="3"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:36" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -2016,7 +1773,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3" t="s">
-        <v>49</v>
+        <v>322</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -2043,7 +1800,7 @@
       <c r="AI6" s="3"/>
       <c r="AJ6" s="3"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:36" ht="15.75" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -2051,7 +1808,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2087,15 +1844,15 @@
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:36" ht="15.75" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2131,15 +1888,15 @@
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:36" ht="15.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2175,15 +1932,15 @@
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:36" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2221,15 +1978,15 @@
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:36" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2265,12 +2022,12 @@
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:36" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>36</v>
@@ -2309,15 +2066,15 @@
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:36" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2353,12 +2110,12 @@
       <c r="AI13" s="3"/>
       <c r="AJ13" s="3"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:36" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>36</v>
@@ -2397,7 +2154,7 @@
       <c r="AI14" s="3"/>
       <c r="AJ14" s="3"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:36" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -2441,15 +2198,15 @@
       <c r="AI15" s="3"/>
       <c r="AJ15" s="3"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:36" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -2485,15 +2242,15 @@
       <c r="AI16" s="3"/>
       <c r="AJ16" s="3"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:36" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2529,9 +2286,9 @@
       <c r="AI17" s="3"/>
       <c r="AJ17" s="3"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:36" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>45</v>
@@ -2571,12 +2328,12 @@
       <c r="AI18" s="3"/>
       <c r="AJ18" s="3"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:36" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -2613,12 +2370,12 @@
       <c r="AI19" s="3"/>
       <c r="AJ19" s="3"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:36" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -2655,9 +2412,9 @@
       <c r="AI20" s="3"/>
       <c r="AJ20" s="3"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:36" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>45</v>
@@ -2697,9 +2454,9 @@
       <c r="AI21" s="3"/>
       <c r="AJ21" s="3"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:36" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>35</v>
@@ -2739,15 +2496,15 @@
       <c r="AI22" s="3"/>
       <c r="AJ22" s="3"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:36" ht="15.75" customHeight="1">
       <c r="AF23" s="4"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:36" ht="15.75" customHeight="1">
       <c r="A24" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>36</v>
@@ -2770,7 +2527,7 @@
       <c r="S24" s="6"/>
       <c r="T24" s="6"/>
       <c r="U24" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
@@ -2787,17 +2544,17 @@
       </c>
       <c r="AG24" s="6"/>
       <c r="AH24" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AI24" s="6"/>
       <c r="AJ24" s="6"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:36" ht="15.75" customHeight="1">
       <c r="A25" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>36</v>
@@ -2820,7 +2577,7 @@
       <c r="S25" s="6"/>
       <c r="T25" s="6"/>
       <c r="U25" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
@@ -2837,17 +2594,17 @@
       </c>
       <c r="AG25" s="6"/>
       <c r="AH25" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AI25" s="6"/>
       <c r="AJ25" s="6"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:36" ht="15.75" customHeight="1">
       <c r="A26" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>36</v>
@@ -2870,7 +2627,7 @@
       <c r="S26" s="6"/>
       <c r="T26" s="6"/>
       <c r="U26" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
@@ -2887,17 +2644,17 @@
       </c>
       <c r="AG26" s="6"/>
       <c r="AH26" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AI26" s="6"/>
       <c r="AJ26" s="6"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:36" ht="15.75" customHeight="1">
       <c r="A27" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>36</v>
@@ -2920,7 +2677,7 @@
       <c r="S27" s="6"/>
       <c r="T27" s="6"/>
       <c r="U27" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
@@ -2937,17 +2694,17 @@
       </c>
       <c r="AG27" s="6"/>
       <c r="AH27" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AI27" s="6"/>
       <c r="AJ27" s="6"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:36" ht="15.75" customHeight="1">
       <c r="A28" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>36</v>
@@ -2970,7 +2727,7 @@
       <c r="S28" s="6"/>
       <c r="T28" s="6"/>
       <c r="U28" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
@@ -2987,17 +2744,17 @@
       </c>
       <c r="AG28" s="6"/>
       <c r="AH28" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AI28" s="6"/>
       <c r="AJ28" s="6"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:36" ht="15.75" customHeight="1">
       <c r="A29" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>36</v>
@@ -3020,7 +2777,7 @@
       <c r="S29" s="6"/>
       <c r="T29" s="6"/>
       <c r="U29" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
@@ -3037,17 +2794,17 @@
       </c>
       <c r="AG29" s="6"/>
       <c r="AH29" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AI29" s="6"/>
       <c r="AJ29" s="6"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:36" ht="15.75" customHeight="1">
       <c r="A30" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>36</v>
@@ -3070,7 +2827,7 @@
       <c r="S30" s="6"/>
       <c r="T30" s="6"/>
       <c r="U30" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
@@ -3087,17 +2844,17 @@
       </c>
       <c r="AG30" s="6"/>
       <c r="AH30" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AI30" s="6"/>
       <c r="AJ30" s="6"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:36" ht="15.75" customHeight="1">
       <c r="A31" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>36</v>
@@ -3120,7 +2877,7 @@
       <c r="S31" s="6"/>
       <c r="T31" s="6"/>
       <c r="U31" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
@@ -3137,17 +2894,17 @@
       </c>
       <c r="AG31" s="6"/>
       <c r="AH31" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AI31" s="6"/>
       <c r="AJ31" s="6"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:36" ht="15.75" customHeight="1">
       <c r="A32" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>36</v>
@@ -3170,7 +2927,7 @@
       <c r="S32" s="6"/>
       <c r="T32" s="6"/>
       <c r="U32" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
@@ -3185,27 +2942,27 @@
       <c r="AF32" s="6"/>
       <c r="AG32" s="6"/>
       <c r="AH32" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AI32" s="6"/>
       <c r="AJ32" s="6"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:36" ht="15.75" customHeight="1">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:36" ht="15.75" customHeight="1">
       <c r="A34" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -3243,15 +3000,15 @@
       <c r="AI34" s="8"/>
       <c r="AJ34" s="8"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:36" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -3260,7 +3017,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K35" s="8"/>
       <c r="L35" s="8"/>
@@ -3289,15 +3046,15 @@
       <c r="AI35" s="8"/>
       <c r="AJ35" s="8"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:36" ht="15.75" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -3306,7 +3063,7 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
@@ -3335,15 +3092,15 @@
       <c r="AI36" s="8"/>
       <c r="AJ36" s="8"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:36" ht="15.75" customHeight="1">
       <c r="A37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -3353,7 +3110,7 @@
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
@@ -3383,15 +3140,15 @@
       <c r="AI37" s="8"/>
       <c r="AJ37" s="8"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:36" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -3401,7 +3158,7 @@
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -3431,15 +3188,15 @@
       <c r="AI38" s="8"/>
       <c r="AJ38" s="8"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:36" ht="15.75" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -3449,7 +3206,7 @@
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
@@ -3479,15 +3236,15 @@
       <c r="AI39" s="8"/>
       <c r="AJ39" s="8"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:36" ht="15.75" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -3497,7 +3254,7 @@
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
@@ -3527,15 +3284,15 @@
       <c r="AI40" s="8"/>
       <c r="AJ40" s="8"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:36" ht="15.75" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -3544,10 +3301,10 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
       <c r="J41" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
@@ -3575,15 +3332,15 @@
       <c r="AI41" s="8"/>
       <c r="AJ41" s="8"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:36" ht="15.75" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -3592,10 +3349,10 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
@@ -3623,15 +3380,15 @@
       <c r="AI42" s="8"/>
       <c r="AJ42" s="8"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:36" ht="15.75" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -3640,10 +3397,10 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
@@ -3671,15 +3428,15 @@
       <c r="AI43" s="8"/>
       <c r="AJ43" s="8"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:36" ht="15.75" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -3688,10 +3445,10 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
       <c r="J44" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
@@ -3719,15 +3476,15 @@
       <c r="AI44" s="8"/>
       <c r="AJ44" s="8"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:36" ht="15.75" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -3736,10 +3493,10 @@
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
       <c r="J45" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
@@ -3767,15 +3524,15 @@
       <c r="AI45" s="8"/>
       <c r="AJ45" s="8"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:36" ht="15.75" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -3784,10 +3541,10 @@
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
       <c r="J46" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
@@ -3815,15 +3572,15 @@
       <c r="AI46" s="8"/>
       <c r="AJ46" s="8"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:36" ht="15.75" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -3832,10 +3589,10 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
       <c r="J47" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
@@ -3863,15 +3620,15 @@
       <c r="AI47" s="8"/>
       <c r="AJ47" s="8"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:36" ht="15.75" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -3880,10 +3637,10 @@
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
       <c r="J48" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
@@ -3911,15 +3668,15 @@
       <c r="AI48" s="8"/>
       <c r="AJ48" s="8"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:36" ht="15.75" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -3928,10 +3685,10 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
@@ -3959,15 +3716,15 @@
       <c r="AI49" s="8"/>
       <c r="AJ49" s="8"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:36" ht="15.75" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -3976,10 +3733,10 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
@@ -4007,15 +3764,15 @@
       <c r="AI50" s="8"/>
       <c r="AJ50" s="8"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:36" ht="15.75" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -4024,10 +3781,10 @@
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
@@ -4055,12 +3812,12 @@
       <c r="AI51" s="8"/>
       <c r="AJ51" s="8"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:36" ht="15.75" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C52" s="8" t="s">
         <v>36</v>
@@ -4083,7 +3840,7 @@
       <c r="S52" s="8"/>
       <c r="T52" s="8"/>
       <c r="U52" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="V52" s="8"/>
       <c r="W52" s="8"/>
@@ -4103,12 +3860,12 @@
       <c r="AI52" s="8"/>
       <c r="AJ52" s="8"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:36" ht="15.75" customHeight="1">
       <c r="A53" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C53" s="8" t="s">
         <v>36</v>
@@ -4151,12 +3908,12 @@
       <c r="AI53" s="8"/>
       <c r="AJ53" s="8"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:36" ht="15.75" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>36</v>
@@ -4179,7 +3936,7 @@
       <c r="S54" s="8"/>
       <c r="T54" s="8"/>
       <c r="U54" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="V54" s="8"/>
       <c r="W54" s="8"/>
@@ -4197,12 +3954,12 @@
       <c r="AI54" s="8"/>
       <c r="AJ54" s="8"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:36" ht="15.75" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>36</v>
@@ -4225,7 +3982,7 @@
       <c r="S55" s="8"/>
       <c r="T55" s="8"/>
       <c r="U55" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V55" s="8"/>
       <c r="W55" s="8"/>
@@ -4243,12 +4000,12 @@
       <c r="AI55" s="8"/>
       <c r="AJ55" s="8"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:36" ht="15.75" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>36</v>
@@ -4271,7 +4028,7 @@
       <c r="S56" s="8"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V56" s="8"/>
       <c r="W56" s="8"/>
@@ -4289,12 +4046,12 @@
       <c r="AI56" s="8"/>
       <c r="AJ56" s="8"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:36" ht="15.75" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>36</v>
@@ -4317,7 +4074,7 @@
       <c r="S57" s="8"/>
       <c r="T57" s="8"/>
       <c r="U57" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="V57" s="8"/>
       <c r="W57" s="8"/>
@@ -4335,9 +4092,9 @@
       <c r="AI57" s="8"/>
       <c r="AJ57" s="8"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:36" ht="15.75" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
@@ -4375,9 +4132,9 @@
       <c r="AI58" s="8"/>
       <c r="AJ58" s="8"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:36" ht="15.75" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
@@ -4415,7 +4172,7 @@
       <c r="AI59" s="8"/>
       <c r="AJ59" s="8"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:36" ht="15.75" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -4427,12 +4184,12 @@
       <c r="AI60" s="4"/>
       <c r="AJ60" s="4"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:36" ht="15.75" customHeight="1">
       <c r="A61" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>36</v>
@@ -4475,12 +4232,12 @@
       <c r="AI61" s="11"/>
       <c r="AJ61" s="11"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:36" ht="15.75" customHeight="1">
       <c r="A62" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>36</v>
@@ -4503,7 +4260,7 @@
       <c r="S62" s="11"/>
       <c r="T62" s="11"/>
       <c r="U62" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="V62" s="11"/>
       <c r="W62" s="11"/>
@@ -4518,17 +4275,17 @@
       <c r="AF62" s="12"/>
       <c r="AG62" s="11"/>
       <c r="AH62" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AI62" s="11"/>
       <c r="AJ62" s="11"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:36" ht="15.75" customHeight="1">
       <c r="A63" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>36</v>
@@ -4551,7 +4308,7 @@
       <c r="S63" s="11"/>
       <c r="T63" s="11"/>
       <c r="U63" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="V63" s="11"/>
       <c r="W63" s="11"/>
@@ -4566,17 +4323,17 @@
       <c r="AF63" s="12"/>
       <c r="AG63" s="11"/>
       <c r="AH63" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AI63" s="11"/>
       <c r="AJ63" s="11"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:36" ht="15.75" customHeight="1">
       <c r="A64" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>36</v>
@@ -4599,7 +4356,7 @@
       <c r="S64" s="11"/>
       <c r="T64" s="11"/>
       <c r="U64" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="V64" s="11"/>
       <c r="W64" s="11"/>
@@ -4614,17 +4371,17 @@
       <c r="AF64" s="12"/>
       <c r="AG64" s="11"/>
       <c r="AH64" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AI64" s="11"/>
       <c r="AJ64" s="11"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:36" ht="15.75" customHeight="1">
       <c r="A65" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>36</v>
@@ -4647,7 +4404,7 @@
       <c r="S65" s="11"/>
       <c r="T65" s="11"/>
       <c r="U65" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V65" s="11"/>
       <c r="W65" s="11"/>
@@ -4662,17 +4419,17 @@
       <c r="AF65" s="12"/>
       <c r="AG65" s="11"/>
       <c r="AH65" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AI65" s="11"/>
       <c r="AJ65" s="11"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:36" ht="15.75" customHeight="1">
       <c r="A66" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>36</v>
@@ -4695,7 +4452,7 @@
       <c r="S66" s="11"/>
       <c r="T66" s="11"/>
       <c r="U66" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="V66" s="11"/>
       <c r="W66" s="11"/>
@@ -4710,17 +4467,17 @@
       <c r="AF66" s="12"/>
       <c r="AG66" s="11"/>
       <c r="AH66" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AI66" s="11"/>
       <c r="AJ66" s="11"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:36" ht="15.75" customHeight="1">
       <c r="A67" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>36</v>
@@ -4743,7 +4500,7 @@
       <c r="S67" s="11"/>
       <c r="T67" s="11"/>
       <c r="U67" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="V67" s="11"/>
       <c r="W67" s="11"/>
@@ -4758,17 +4515,17 @@
       <c r="AF67" s="12"/>
       <c r="AG67" s="11"/>
       <c r="AH67" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AI67" s="11"/>
       <c r="AJ67" s="11"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:36" ht="15.75" customHeight="1">
       <c r="A68" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C68" s="11" t="s">
         <v>36</v>
@@ -4791,7 +4548,7 @@
       <c r="S68" s="11"/>
       <c r="T68" s="11"/>
       <c r="U68" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="V68" s="11"/>
       <c r="W68" s="11"/>
@@ -4806,17 +4563,17 @@
       <c r="AF68" s="12"/>
       <c r="AG68" s="11"/>
       <c r="AH68" s="11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AI68" s="11"/>
       <c r="AJ68" s="11"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:36" ht="15.75" customHeight="1">
       <c r="A69" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>36</v>
@@ -4839,7 +4596,7 @@
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
       <c r="U69" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="V69" s="11"/>
       <c r="W69" s="11"/>
@@ -4854,17 +4611,17 @@
       <c r="AF69" s="12"/>
       <c r="AG69" s="11"/>
       <c r="AH69" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AI69" s="11"/>
       <c r="AJ69" s="11"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:36" ht="15.75" customHeight="1">
       <c r="A70" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>36</v>
@@ -4887,7 +4644,7 @@
       <c r="S70" s="11"/>
       <c r="T70" s="11"/>
       <c r="U70" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="V70" s="11"/>
       <c r="W70" s="11"/>
@@ -4902,17 +4659,17 @@
       <c r="AF70" s="12"/>
       <c r="AG70" s="11"/>
       <c r="AH70" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AI70" s="11"/>
       <c r="AJ70" s="11"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:36" ht="15.75" customHeight="1">
       <c r="A71" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>36</v>
@@ -4935,7 +4692,7 @@
       <c r="S71" s="11"/>
       <c r="T71" s="11"/>
       <c r="U71" s="11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="V71" s="11"/>
       <c r="W71" s="11"/>
@@ -4950,17 +4707,17 @@
       <c r="AF71" s="12"/>
       <c r="AG71" s="11"/>
       <c r="AH71" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AI71" s="11"/>
       <c r="AJ71" s="11"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:36" ht="15.75" customHeight="1">
       <c r="A72" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>36</v>
@@ -4983,7 +4740,7 @@
       <c r="S72" s="11"/>
       <c r="T72" s="11"/>
       <c r="U72" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="V72" s="11"/>
       <c r="W72" s="11"/>
@@ -4998,17 +4755,17 @@
       <c r="AF72" s="12"/>
       <c r="AG72" s="11"/>
       <c r="AH72" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AI72" s="11"/>
       <c r="AJ72" s="11"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:36" ht="15.75" customHeight="1">
       <c r="A73" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>36</v>
@@ -5031,7 +4788,7 @@
       <c r="S73" s="11"/>
       <c r="T73" s="11"/>
       <c r="U73" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="V73" s="11"/>
       <c r="W73" s="11"/>
@@ -5046,17 +4803,17 @@
       <c r="AF73" s="12"/>
       <c r="AG73" s="11"/>
       <c r="AH73" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AI73" s="11"/>
       <c r="AJ73" s="11"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:36" ht="15.75" customHeight="1">
       <c r="A74" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>36</v>
@@ -5079,7 +4836,7 @@
       <c r="S74" s="11"/>
       <c r="T74" s="11"/>
       <c r="U74" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="V74" s="11"/>
       <c r="W74" s="11"/>
@@ -5094,17 +4851,17 @@
       <c r="AF74" s="12"/>
       <c r="AG74" s="11"/>
       <c r="AH74" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AI74" s="11"/>
       <c r="AJ74" s="11"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:36" ht="15.75" customHeight="1">
       <c r="A75" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C75" s="11" t="s">
         <v>36</v>
@@ -5127,7 +4884,7 @@
       <c r="S75" s="11"/>
       <c r="T75" s="11"/>
       <c r="U75" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="V75" s="11"/>
       <c r="W75" s="11"/>
@@ -5142,17 +4899,17 @@
       <c r="AF75" s="12"/>
       <c r="AG75" s="11"/>
       <c r="AH75" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AI75" s="11"/>
       <c r="AJ75" s="11"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:36" ht="15.75" customHeight="1">
       <c r="A76" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>36</v>
@@ -5191,12 +4948,12 @@
       <c r="AI76" s="14"/>
       <c r="AJ76" s="14"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:36" ht="15.75" customHeight="1">
       <c r="A77" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C77" s="11" t="s">
         <v>36</v>
@@ -5219,7 +4976,7 @@
       <c r="S77" s="11"/>
       <c r="T77" s="11"/>
       <c r="U77" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="V77" s="11"/>
       <c r="W77" s="11"/>
@@ -5234,17 +4991,17 @@
       <c r="AF77" s="12"/>
       <c r="AG77" s="11"/>
       <c r="AH77" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AI77" s="11"/>
       <c r="AJ77" s="11"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:36" ht="15.75" customHeight="1">
       <c r="A78" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>36</v>
@@ -5267,7 +5024,7 @@
       <c r="S78" s="11"/>
       <c r="T78" s="11"/>
       <c r="U78" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="V78" s="11"/>
       <c r="W78" s="11"/>
@@ -5282,17 +5039,17 @@
       <c r="AF78" s="12"/>
       <c r="AG78" s="11"/>
       <c r="AH78" s="14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AI78" s="11"/>
       <c r="AJ78" s="11"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:36" ht="15.75" customHeight="1">
       <c r="A79" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>36</v>
@@ -5315,7 +5072,7 @@
       <c r="S79" s="11"/>
       <c r="T79" s="11"/>
       <c r="U79" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="V79" s="11"/>
       <c r="W79" s="11"/>
@@ -5330,17 +5087,17 @@
       <c r="AF79" s="12"/>
       <c r="AG79" s="11"/>
       <c r="AH79" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AI79" s="11"/>
       <c r="AJ79" s="11"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:36" ht="15.75" customHeight="1">
       <c r="A80" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>36</v>
@@ -5363,7 +5120,7 @@
       <c r="S80" s="11"/>
       <c r="T80" s="11"/>
       <c r="U80" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="V80" s="11"/>
       <c r="W80" s="11"/>
@@ -5383,12 +5140,12 @@
       <c r="AI80" s="11"/>
       <c r="AJ80" s="11"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:36" ht="15.75" customHeight="1">
       <c r="A81" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>36</v>
@@ -5411,7 +5168,7 @@
       <c r="S81" s="11"/>
       <c r="T81" s="11"/>
       <c r="U81" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="V81" s="11"/>
       <c r="W81" s="11"/>
@@ -5426,17 +5183,17 @@
       <c r="AF81" s="12"/>
       <c r="AG81" s="11"/>
       <c r="AH81" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AI81" s="11"/>
       <c r="AJ81" s="11"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:36" ht="15.75" customHeight="1">
       <c r="A82" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>36</v>
@@ -5459,7 +5216,7 @@
       <c r="S82" s="11"/>
       <c r="T82" s="11"/>
       <c r="U82" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="V82" s="11"/>
       <c r="W82" s="11"/>
@@ -5474,17 +5231,17 @@
       <c r="AF82" s="12"/>
       <c r="AG82" s="11"/>
       <c r="AH82" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AI82" s="11"/>
       <c r="AJ82" s="11"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:36" ht="15.75" customHeight="1">
       <c r="A83" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C83" s="14"/>
       <c r="D83" s="14"/>
@@ -5521,12 +5278,12 @@
       <c r="AI83" s="14"/>
       <c r="AJ83" s="14"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:36" ht="15.75" customHeight="1">
       <c r="A84" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
@@ -5563,7 +5320,7 @@
       <c r="AI84" s="14"/>
       <c r="AJ84" s="14"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:36" ht="15.75" customHeight="1">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="14"/>
@@ -5601,7 +5358,7 @@
       <c r="AI85" s="14"/>
       <c r="AJ85" s="14"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:36" ht="15.75" customHeight="1">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="C86" s="14"/>
@@ -5639,7 +5396,7 @@
       <c r="AI86" s="14"/>
       <c r="AJ86" s="14"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:36" ht="15.75" customHeight="1">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="14"/>
@@ -5677,7 +5434,7 @@
       <c r="AI87" s="14"/>
       <c r="AJ87" s="14"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:36" ht="15.75" customHeight="1">
       <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="C88" s="14"/>
@@ -5715,7 +5472,7 @@
       <c r="AI88" s="14"/>
       <c r="AJ88" s="14"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:36" ht="15.75" customHeight="1">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="14"/>
@@ -5753,7 +5510,7 @@
       <c r="AI89" s="14"/>
       <c r="AJ89" s="14"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:36" ht="15.75" customHeight="1">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="C90" s="14"/>
@@ -5791,7 +5548,7 @@
       <c r="AI90" s="14"/>
       <c r="AJ90" s="14"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:36" ht="15.75" customHeight="1">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="14"/>
@@ -5829,7 +5586,7 @@
       <c r="AI91" s="14"/>
       <c r="AJ91" s="14"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:36" ht="15.75" customHeight="1">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="C92" s="14"/>
@@ -5867,7 +5624,7 @@
       <c r="AI92" s="14"/>
       <c r="AJ92" s="14"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:36" ht="15.75" customHeight="1">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="14"/>
@@ -5905,7 +5662,7 @@
       <c r="AI93" s="14"/>
       <c r="AJ93" s="14"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:36" ht="15.75" customHeight="1">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="14"/>
@@ -5943,7 +5700,7 @@
       <c r="AI94" s="14"/>
       <c r="AJ94" s="14"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:36" ht="15.75" customHeight="1">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="14"/>
@@ -5981,7 +5738,7 @@
       <c r="AI95" s="14"/>
       <c r="AJ95" s="14"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:36" ht="15.75" customHeight="1">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="14"/>
@@ -6019,7 +5776,7 @@
       <c r="AI96" s="14"/>
       <c r="AJ96" s="14"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:36" ht="15.75" customHeight="1">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="14"/>
@@ -6058,47 +5815,39 @@
       <c r="AJ97" s="14"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1" disablePrompts="0">
-        <x14:dataValidation xr:uid="{00DB0042-004C-4504-B0B2-00A400CF007D}" type="list" allowBlank="1" errorStyle="stop" imeMode="noControl" operator="between" showDropDown="0" showErrorMessage="0" showInputMessage="0">
-          <x14:formula1>
-            <xm:f>"yes,no"</xm:f>
-          </x14:formula1>
-          <xm:sqref>J2:J97</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" sqref="J2:J97" xr:uid="{00DB0042-004C-4504-B0B2-00A400CF007D}">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V67"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.289999999999999"/>
-    <col customWidth="1" min="2" max="22" width="45.859999999999999"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="22" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:22" ht="15.75" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>1</v>
@@ -6138,15 +5887,15 @@
       <c r="U1" s="23"/>
       <c r="V1" s="23"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:22" ht="15.75" customHeight="1">
       <c r="A2" s="23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -6168,15 +5917,15 @@
       <c r="U2" s="25"/>
       <c r="V2" s="25"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1">
       <c r="A3" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>207</v>
-      </c>
       <c r="C3" s="24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -6198,7 +5947,7 @@
       <c r="U3" s="25"/>
       <c r="V3" s="25"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:22" ht="15.75" customHeight="1">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="24"/>
@@ -6222,260 +5971,259 @@
       <c r="U4" s="25"/>
       <c r="V4" s="25"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:22" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>209</v>
       </c>
-      <c r="B5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A6" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="B6" s="4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
+      <c r="C6" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
+    </row>
+    <row r="7" spans="1:22" ht="15.75" customHeight="1">
       <c r="C7" s="25"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:22" ht="15.75" customHeight="1">
       <c r="C8" s="25"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:22" ht="15.75" customHeight="1">
       <c r="C9" s="25"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:22" ht="15.75" customHeight="1">
       <c r="C10" s="25"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:22" ht="15.75" customHeight="1">
       <c r="C11" s="25"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:22" ht="15.75" customHeight="1">
       <c r="C12" s="25"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:22" ht="15.75" customHeight="1">
       <c r="C13" s="25"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:22" ht="15.75" customHeight="1">
       <c r="C14" s="25"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:22" ht="15.75" customHeight="1">
       <c r="C15" s="25"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:22" ht="15.75" customHeight="1">
       <c r="C16" s="25"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="3:3" ht="15.75" customHeight="1">
       <c r="C17" s="25"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="3:3" ht="15.75" customHeight="1">
       <c r="C18" s="25"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="3:3" ht="15.75" customHeight="1">
       <c r="C19" s="25"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="3:3" ht="15.75" customHeight="1">
       <c r="C20" s="25"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="3:3" ht="15.75" customHeight="1">
       <c r="C21" s="25"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="3:3" ht="15.75" customHeight="1">
       <c r="C22" s="25"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="3:3" ht="15.75" customHeight="1">
       <c r="C23" s="25"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="3:3" ht="15.75" customHeight="1">
       <c r="C24" s="25"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="3:3" ht="15.75" customHeight="1">
       <c r="C25" s="25"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="3:3" ht="15.75" customHeight="1">
       <c r="C26" s="25"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="3:3" ht="15.75" customHeight="1">
       <c r="C27" s="25"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="3:3" ht="15.75" customHeight="1">
       <c r="C28" s="25"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="3:3" ht="15.75" customHeight="1">
       <c r="C29" s="25"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="3:3" ht="15.75" customHeight="1">
       <c r="C30" s="25"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="3:3" ht="15.75" customHeight="1">
       <c r="C31" s="25"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="3:3" ht="15.75" customHeight="1">
       <c r="C32" s="25"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="3:3" ht="15.75" customHeight="1">
       <c r="C33" s="25"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="3:3" ht="15.75" customHeight="1">
       <c r="C34" s="25"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="3:3" ht="15.75" customHeight="1">
       <c r="C35" s="25"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="3:3" ht="15.75" customHeight="1">
       <c r="C36" s="25"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="3:3" ht="15.75" customHeight="1">
       <c r="C37" s="25"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="3:3" ht="15.75" customHeight="1">
       <c r="C38" s="25"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="3:3" ht="15.75" customHeight="1">
       <c r="C39" s="25"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="3:3" ht="15.75" customHeight="1">
       <c r="C40" s="25"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="3:3" ht="15.75" customHeight="1">
       <c r="C41" s="25"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="3:3" ht="15.75" customHeight="1">
       <c r="C42" s="25"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="3:3" ht="15.75" customHeight="1">
       <c r="C43" s="25"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="3:3" ht="15.75" customHeight="1">
       <c r="C44" s="25"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="3:3" ht="15.75" customHeight="1">
       <c r="C45" s="25"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="3:3" ht="15.75" customHeight="1">
       <c r="C46" s="25"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="3:3" ht="15.75" customHeight="1">
       <c r="C47" s="25"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="3:3" ht="15.75" customHeight="1">
       <c r="C48" s="25"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="3:3" ht="15.75" customHeight="1">
       <c r="C49" s="25"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="3:3" ht="15.75" customHeight="1">
       <c r="C50" s="25"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="3:3" ht="15.75" customHeight="1">
       <c r="C51" s="25"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="3:3" ht="15.75" customHeight="1">
       <c r="C52" s="25"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="3:3" ht="15.75" customHeight="1">
       <c r="C53" s="25"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="3:3" ht="15.75" customHeight="1">
       <c r="C54" s="25"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="3:3" ht="15.75" customHeight="1">
       <c r="C55" s="25"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="3:3" ht="15.75" customHeight="1">
       <c r="C56" s="25"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="3:3" ht="15.75" customHeight="1">
       <c r="C57" s="25"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="3:3" ht="15.75" customHeight="1">
       <c r="C58" s="25"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="3:3" ht="15.75" customHeight="1">
       <c r="C59" s="25"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="3:3" ht="15.75" customHeight="1">
       <c r="C60" s="25"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="3:3" ht="15.75" customHeight="1">
       <c r="C61" s="25"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="3:3" ht="15.75" customHeight="1">
       <c r="C62" s="25"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="3:3" ht="15.75" customHeight="1">
       <c r="C63" s="25"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="3:3" ht="15.75" customHeight="1">
       <c r="C64" s="25"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="3:3" ht="15.75" customHeight="1">
       <c r="C65" s="25"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="3:3" ht="15.75" customHeight="1">
       <c r="C66" s="25"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="3:3" ht="15.75" customHeight="1">
       <c r="C67" s="25"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21"/>
-    <col customWidth="1" min="2" max="2" width="22.710000000000001"/>
-    <col customWidth="1" min="3" max="3" width="24.57"/>
-    <col customWidth="1" min="4" max="6" width="14.43"/>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.5546875" customWidth="1"/>
+    <col min="4" max="6" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="G1" s="26" t="s">
         <v>219</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>221</v>
       </c>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
@@ -6497,26 +6245,26 @@
       <c r="Y1" s="15"/>
       <c r="Z1" s="15"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="27" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C2" s="28">
         <f ca="1">NOW()</f>
-        <v>44830.473900462966</v>
+        <v>45778.935157754633</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F2" s="23"/>
       <c r="G2" s="29" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -6539,34 +6287,33 @@
       <c r="Z2" s="23"/>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="0" summaryRight="0" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:W1000"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.289999999999999"/>
-    <col customWidth="1" min="2" max="23" width="45.859999999999999"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="23" width="45.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:23" ht="15.75" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>1</v>
@@ -6607,15 +6354,15 @@
       <c r="V1" s="23"/>
       <c r="W1" s="23"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:23" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="25"/>
@@ -6638,15 +6385,15 @@
       <c r="V2" s="25"/>
       <c r="W2" s="25"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:23" ht="15.75" customHeight="1">
       <c r="A3" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>207</v>
-      </c>
       <c r="C3" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -6669,7 +6416,7 @@
       <c r="V3" s="25"/>
       <c r="W3" s="25"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:23" ht="15.75" customHeight="1">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -6694,15 +6441,15 @@
       <c r="V4" s="25"/>
       <c r="W4" s="25"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:23" ht="15.75" customHeight="1">
       <c r="A5" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>226</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>228</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -6725,15 +6472,15 @@
       <c r="V5" s="25"/>
       <c r="W5" s="25"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:23" ht="15.75" customHeight="1">
       <c r="A6" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -6756,15 +6503,15 @@
       <c r="V6" s="25"/>
       <c r="W6" s="25"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:23" ht="15.75" customHeight="1">
       <c r="A7" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -6787,15 +6534,15 @@
       <c r="V7" s="25"/>
       <c r="W7" s="25"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:23" ht="15.75" customHeight="1">
       <c r="A8" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -6818,15 +6565,15 @@
       <c r="V8" s="25"/>
       <c r="W8" s="25"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:23" ht="15.75" customHeight="1">
       <c r="A9" s="25" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -6849,7 +6596,7 @@
       <c r="V9" s="25"/>
       <c r="W9" s="25"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:23" ht="15.75" customHeight="1">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -6874,15 +6621,15 @@
       <c r="V10" s="25"/>
       <c r="W10" s="25"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:23" ht="15.75" customHeight="1">
       <c r="A11" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>237</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>238</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>239</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -6905,15 +6652,15 @@
       <c r="V11" s="25"/>
       <c r="W11" s="25"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:23" ht="15.75" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
@@ -6936,15 +6683,15 @@
       <c r="V12" s="25"/>
       <c r="W12" s="25"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:23" ht="15.75" customHeight="1">
       <c r="A13" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -6967,15 +6714,15 @@
       <c r="V13" s="25"/>
       <c r="W13" s="25"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:23" ht="15.75" customHeight="1">
       <c r="A14" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
@@ -6998,15 +6745,15 @@
       <c r="V14" s="25"/>
       <c r="W14" s="25"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:23" ht="15.75" customHeight="1">
       <c r="A15" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
@@ -7029,15 +6776,15 @@
       <c r="V15" s="25"/>
       <c r="W15" s="25"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:23" ht="15.75" customHeight="1">
       <c r="A16" s="25" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
@@ -7060,7 +6807,7 @@
       <c r="V16" s="25"/>
       <c r="W16" s="25"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:23" ht="15.75" customHeight="1">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -7085,15 +6832,15 @@
       <c r="V17" s="25"/>
       <c r="W17" s="25"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:23" ht="15.75" customHeight="1">
       <c r="A18" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
@@ -7116,15 +6863,15 @@
       <c r="V18" s="25"/>
       <c r="W18" s="25"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:23" ht="15.75" customHeight="1">
       <c r="A19" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
@@ -7147,15 +6894,15 @@
       <c r="V19" s="25"/>
       <c r="W19" s="25"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:23" ht="15.75" customHeight="1">
       <c r="A20" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
@@ -7178,15 +6925,15 @@
       <c r="V20" s="25"/>
       <c r="W20" s="25"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:23" ht="15.75" customHeight="1">
       <c r="A21" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
@@ -7209,15 +6956,15 @@
       <c r="V21" s="25"/>
       <c r="W21" s="25"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:23" ht="15.75" customHeight="1">
       <c r="A22" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
@@ -7240,15 +6987,15 @@
       <c r="V22" s="25"/>
       <c r="W22" s="25"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:23" ht="15.75" customHeight="1">
       <c r="A23" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>250</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>251</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>252</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
@@ -7271,7 +7018,7 @@
       <c r="V23" s="25"/>
       <c r="W23" s="25"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:23" ht="15.75" customHeight="1">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="25"/>
@@ -7296,15 +7043,15 @@
       <c r="V24" s="25"/>
       <c r="W24" s="25"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:23" ht="15.75" customHeight="1">
       <c r="A25" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" s="25" t="s">
         <v>253</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>255</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
@@ -7327,15 +7074,15 @@
       <c r="V25" s="25"/>
       <c r="W25" s="25"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:23" ht="15.75" customHeight="1">
       <c r="A26" s="25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B26" s="25" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
@@ -7358,15 +7105,15 @@
       <c r="V26" s="25"/>
       <c r="W26" s="25"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:23" ht="15.75" customHeight="1">
       <c r="A27" s="25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B27" s="25" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="25"/>
@@ -7389,15 +7136,15 @@
       <c r="V27" s="25"/>
       <c r="W27" s="25"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:23" ht="15.75" customHeight="1">
       <c r="A28" s="25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C28" s="25" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
@@ -7420,15 +7167,15 @@
       <c r="V28" s="25"/>
       <c r="W28" s="25"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:23" ht="15.75" customHeight="1">
       <c r="A29" s="25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B29" s="25" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
@@ -7451,7 +7198,7 @@
       <c r="V29" s="25"/>
       <c r="W29" s="25"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:23" ht="15.75" customHeight="1">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25"/>
@@ -7476,15 +7223,15 @@
       <c r="V30" s="25"/>
       <c r="W30" s="25"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:23" ht="15.75" customHeight="1">
       <c r="A31" s="25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B31" s="25" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C31" s="25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -7507,15 +7254,15 @@
       <c r="V31" s="25"/>
       <c r="W31" s="25"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:23" ht="15.75" customHeight="1">
       <c r="A32" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="B32" s="25" t="s">
         <v>264</v>
       </c>
-      <c r="B32" s="25" t="s">
-        <v>266</v>
-      </c>
       <c r="C32" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D32" s="25"/>
       <c r="E32" s="25"/>
@@ -7538,7 +7285,7 @@
       <c r="V32" s="25"/>
       <c r="W32" s="25"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:23" ht="15.75" customHeight="1">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="25"/>
@@ -7563,170 +7310,170 @@
       <c r="V33" s="25"/>
       <c r="W33" s="25"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:23" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B47" si="0">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B43" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C43" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="15.75" customHeight="1">
       <c r="B44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:23" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="0"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="0"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="15.75" customHeight="1">
       <c r="B47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:23" ht="15.75" customHeight="1">
       <c r="A48" s="24" t="s">
+        <v>278</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="C48" s="24" t="s">
         <v>280</v>
-      </c>
-      <c r="B48" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>282</v>
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
@@ -7749,15 +7496,15 @@
       <c r="V48" s="23"/>
       <c r="W48" s="23"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:23" ht="15.75" customHeight="1">
       <c r="A49" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
@@ -7780,237 +7527,237 @@
       <c r="V49" s="23"/>
       <c r="W49" s="23"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="50" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="51" spans="1:23" ht="15.75" customHeight="1">
       <c r="A51" t="s">
+        <v>283</v>
+      </c>
+      <c r="B51" t="s">
+        <v>284</v>
+      </c>
+      <c r="C51" t="s">
         <v>285</v>
       </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="52" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A52" t="s">
+        <v>283</v>
+      </c>
+      <c r="B52" t="s">
         <v>286</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" t="s">
-        <v>285</v>
-      </c>
-      <c r="B52" t="s">
+    <row r="53" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A53" t="s">
+        <v>283</v>
+      </c>
+      <c r="B53" t="s">
         <v>288</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" t="s">
-        <v>285</v>
-      </c>
-      <c r="B53" t="s">
+    <row r="54" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A54" t="s">
+        <v>283</v>
+      </c>
+      <c r="B54" t="s">
         <v>290</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" t="s">
-        <v>285</v>
-      </c>
-      <c r="B54" t="s">
+    <row r="55" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A55" t="s">
+        <v>283</v>
+      </c>
+      <c r="B55" t="s">
         <v>292</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C55" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" t="s">
-        <v>285</v>
-      </c>
-      <c r="B55" t="s">
+    <row r="56" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A56" t="s">
+        <v>283</v>
+      </c>
+      <c r="B56" t="s">
+        <v>260</v>
+      </c>
+      <c r="C56" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="58" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A58" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="C55" t="s">
+      <c r="B58" s="24" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" t="s">
-        <v>285</v>
-      </c>
-      <c r="B56" t="s">
-        <v>262</v>
-      </c>
-      <c r="C56" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="24" t="s">
+      <c r="C58" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="B58" s="24" t="s">
+    </row>
+    <row r="59" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A59" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B59" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C59" s="24" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="B59" s="24" t="s">
+    <row r="60" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A60" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B60" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C60" s="24" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="B60" s="24" t="s">
+    <row r="61" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A61" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="15.75" customHeight="1"/>
+    <row r="63" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A63" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="B63" s="23" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="23" t="s">
+      <c r="C63" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="B63" s="23" t="s">
+    </row>
+    <row r="64" spans="1:23" ht="15.75" customHeight="1">
+      <c r="A64" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="B64" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C64" s="24" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="B64" s="23" t="s">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A65" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="B65" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C65" s="24" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="B65" s="23" t="s">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A66" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="B66" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="C65" s="24" t="s">
+      <c r="C66" s="24" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="B66" s="23" t="s">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A67" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="B67" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C67" s="24" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="B67" s="23" t="s">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A69" t="s">
         <v>312</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="B69" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" t="s">
+      <c r="C69" t="s">
         <v>314</v>
       </c>
-      <c r="B69" t="s">
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A70" t="s">
+        <v>312</v>
+      </c>
+      <c r="B70" t="s">
         <v>315</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C70" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" t="s">
-        <v>314</v>
-      </c>
-      <c r="B70" t="s">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A72" t="s">
         <v>317</v>
       </c>
-      <c r="C70" t="s">
+      <c r="B72" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" t="s">
+      <c r="C72" s="30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A73" t="s">
+        <v>317</v>
+      </c>
+      <c r="B73" t="s">
         <v>319</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C73" t="s">
         <v>320</v>
       </c>
-      <c r="C72" s="30" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" t="s">
-        <v>319</v>
-      </c>
-      <c r="B73" t="s">
-        <v>321</v>
-      </c>
-      <c r="C73" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
+    </row>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B74" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C74" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -8932,9 +8679,7 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" firstPageNumber="2147483648" orientation="portrait"/>
 </worksheet>
 </file>